--- a/D/iotable.xlsx
+++ b/D/iotable.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
     <sheet name="Output" sheetId="4" r:id="rId2"/>
+    <sheet name="Motion" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Input!$A$3:$C$67</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
   <si>
     <t>Base offset</t>
   </si>
@@ -316,6 +317,33 @@
   </si>
   <si>
     <t>ADS</t>
+  </si>
+  <si>
+    <t>Ms1</t>
+  </si>
+  <si>
+    <t>Ms2</t>
+  </si>
+  <si>
+    <t>Ms3</t>
+  </si>
+  <si>
+    <t>Ms4</t>
+  </si>
+  <si>
+    <t>Lifter</t>
+  </si>
+  <si>
+    <t>mm/rev</t>
+  </si>
+  <si>
+    <t>Transporter</t>
+  </si>
+  <si>
+    <t>Label handler</t>
+  </si>
+  <si>
+    <t>Pnp</t>
   </si>
 </sst>
 </file>
@@ -695,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,7 +799,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A4,16) * HEX2DEC(10000) + B$2+QUOTIENT(A4,16))</f>
+        <f t="shared" ref="E4:E35" si="0">DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A4,16) * HEX2DEC(10000) + B$2+QUOTIENT(A4,16))</f>
         <v>0</v>
       </c>
       <c r="F4">
@@ -793,11 +821,11 @@
         <v>16</v>
       </c>
       <c r="E5" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A5,16) * HEX2DEC(10000) + B$2+QUOTIENT(A5,16))</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F67" si="0">HEX2DEC(E5)</f>
+        <f t="shared" ref="F5:F67" si="1">HEX2DEC(E5)</f>
         <v>65536</v>
       </c>
     </row>
@@ -815,11 +843,11 @@
         <v>17</v>
       </c>
       <c r="E6" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A6,16) * HEX2DEC(10000) + B$2+QUOTIENT(A6,16))</f>
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>131072</v>
       </c>
     </row>
@@ -837,11 +865,11 @@
         <v>18</v>
       </c>
       <c r="E7" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A7,16) * HEX2DEC(10000) + B$2+QUOTIENT(A7,16))</f>
+        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>196608</v>
       </c>
     </row>
@@ -859,11 +887,11 @@
         <v>19</v>
       </c>
       <c r="E8" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A8,16) * HEX2DEC(10000) + B$2+QUOTIENT(A8,16))</f>
+        <f t="shared" si="0"/>
         <v>40000</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>262144</v>
       </c>
     </row>
@@ -878,11 +906,11 @@
         <v>6</v>
       </c>
       <c r="E9" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A9,16) * HEX2DEC(10000) + B$2+QUOTIENT(A9,16))</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>327680</v>
       </c>
     </row>
@@ -897,11 +925,11 @@
         <v>7</v>
       </c>
       <c r="E10" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A10,16) * HEX2DEC(10000) + B$2+QUOTIENT(A10,16))</f>
+        <f t="shared" si="0"/>
         <v>60000</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>393216</v>
       </c>
     </row>
@@ -916,11 +944,11 @@
         <v>8</v>
       </c>
       <c r="E11" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A11,16) * HEX2DEC(10000) + B$2+QUOTIENT(A11,16))</f>
+        <f t="shared" si="0"/>
         <v>70000</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>458752</v>
       </c>
     </row>
@@ -938,11 +966,11 @@
         <v>20</v>
       </c>
       <c r="E12" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A12,16) * HEX2DEC(10000) + B$2+QUOTIENT(A12,16))</f>
+        <f t="shared" si="0"/>
         <v>80000</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>524288</v>
       </c>
     </row>
@@ -960,11 +988,11 @@
         <v>21</v>
       </c>
       <c r="E13" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A13,16) * HEX2DEC(10000) + B$2+QUOTIENT(A13,16))</f>
+        <f t="shared" si="0"/>
         <v>90000</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>589824</v>
       </c>
     </row>
@@ -982,11 +1010,11 @@
         <v>22</v>
       </c>
       <c r="E14" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A14,16) * HEX2DEC(10000) + B$2+QUOTIENT(A14,16))</f>
+        <f t="shared" si="0"/>
         <v>A0000</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>655360</v>
       </c>
     </row>
@@ -1004,11 +1032,11 @@
         <v>23</v>
       </c>
       <c r="E15" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A15,16) * HEX2DEC(10000) + B$2+QUOTIENT(A15,16))</f>
+        <f t="shared" si="0"/>
         <v>B0000</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>720896</v>
       </c>
     </row>
@@ -1023,11 +1051,11 @@
         <v>13</v>
       </c>
       <c r="E16" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A16,16) * HEX2DEC(10000) + B$2+QUOTIENT(A16,16))</f>
+        <f t="shared" si="0"/>
         <v>C0000</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>786432</v>
       </c>
     </row>
@@ -1045,11 +1073,11 @@
         <v>24</v>
       </c>
       <c r="E17" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A17,16) * HEX2DEC(10000) + B$2+QUOTIENT(A17,16))</f>
+        <f t="shared" si="0"/>
         <v>D0000</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>851968</v>
       </c>
     </row>
@@ -1067,11 +1095,11 @@
         <v>25</v>
       </c>
       <c r="E18" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A18,16) * HEX2DEC(10000) + B$2+QUOTIENT(A18,16))</f>
+        <f t="shared" si="0"/>
         <v>E0000</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>917504</v>
       </c>
     </row>
@@ -1086,11 +1114,11 @@
         <v>16</v>
       </c>
       <c r="E19" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A19,16) * HEX2DEC(10000) + B$2+QUOTIENT(A19,16))</f>
+        <f t="shared" si="0"/>
         <v>F0000</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>983040</v>
       </c>
     </row>
@@ -1108,11 +1136,11 @@
         <v>26</v>
       </c>
       <c r="E20" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A20,16) * HEX2DEC(10000) + B$2+QUOTIENT(A20,16))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1130,11 +1158,11 @@
         <v>27</v>
       </c>
       <c r="E21" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A21,16) * HEX2DEC(10000) + B$2+QUOTIENT(A21,16))</f>
+        <f t="shared" si="0"/>
         <v>10001</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65537</v>
       </c>
     </row>
@@ -1152,11 +1180,11 @@
         <v>28</v>
       </c>
       <c r="E22" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A22,16) * HEX2DEC(10000) + B$2+QUOTIENT(A22,16))</f>
+        <f t="shared" si="0"/>
         <v>20001</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>131073</v>
       </c>
     </row>
@@ -1174,11 +1202,11 @@
         <v>29</v>
       </c>
       <c r="E23" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A23,16) * HEX2DEC(10000) + B$2+QUOTIENT(A23,16))</f>
+        <f t="shared" si="0"/>
         <v>30001</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>196609</v>
       </c>
     </row>
@@ -1196,11 +1224,11 @@
         <v>33</v>
       </c>
       <c r="E24" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A24,16) * HEX2DEC(10000) + B$2+QUOTIENT(A24,16))</f>
+        <f t="shared" si="0"/>
         <v>40001</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>262145</v>
       </c>
     </row>
@@ -1218,11 +1246,11 @@
         <v>30</v>
       </c>
       <c r="E25" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A25,16) * HEX2DEC(10000) + B$2+QUOTIENT(A25,16))</f>
+        <f t="shared" si="0"/>
         <v>50001</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>327681</v>
       </c>
     </row>
@@ -1240,11 +1268,11 @@
         <v>34</v>
       </c>
       <c r="E26" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A26,16) * HEX2DEC(10000) + B$2+QUOTIENT(A26,16))</f>
+        <f t="shared" si="0"/>
         <v>60001</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>393217</v>
       </c>
     </row>
@@ -1262,11 +1290,11 @@
         <v>31</v>
       </c>
       <c r="E27" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A27,16) * HEX2DEC(10000) + B$2+QUOTIENT(A27,16))</f>
+        <f t="shared" si="0"/>
         <v>70001</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>458753</v>
       </c>
     </row>
@@ -1284,11 +1312,11 @@
         <v>35</v>
       </c>
       <c r="E28" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A28,16) * HEX2DEC(10000) + B$2+QUOTIENT(A28,16))</f>
+        <f t="shared" si="0"/>
         <v>80001</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>524289</v>
       </c>
     </row>
@@ -1306,11 +1334,11 @@
         <v>36</v>
       </c>
       <c r="E29" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A29,16) * HEX2DEC(10000) + B$2+QUOTIENT(A29,16))</f>
+        <f t="shared" si="0"/>
         <v>90001</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>589825</v>
       </c>
     </row>
@@ -1328,11 +1356,11 @@
         <v>37</v>
       </c>
       <c r="E30" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A30,16) * HEX2DEC(10000) + B$2+QUOTIENT(A30,16))</f>
+        <f t="shared" si="0"/>
         <v>A0001</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>655361</v>
       </c>
     </row>
@@ -1350,11 +1378,11 @@
         <v>38</v>
       </c>
       <c r="E31" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A31,16) * HEX2DEC(10000) + B$2+QUOTIENT(A31,16))</f>
+        <f t="shared" si="0"/>
         <v>B0001</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>720897</v>
       </c>
     </row>
@@ -1372,11 +1400,11 @@
         <v>39</v>
       </c>
       <c r="E32" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A32,16) * HEX2DEC(10000) + B$2+QUOTIENT(A32,16))</f>
+        <f t="shared" si="0"/>
         <v>C0001</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>786433</v>
       </c>
     </row>
@@ -1394,11 +1422,11 @@
         <v>40</v>
       </c>
       <c r="E33" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A33,16) * HEX2DEC(10000) + B$2+QUOTIENT(A33,16))</f>
+        <f t="shared" si="0"/>
         <v>D0001</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>851969</v>
       </c>
     </row>
@@ -1413,11 +1441,11 @@
         <v>15</v>
       </c>
       <c r="E34" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A34,16) * HEX2DEC(10000) + B$2+QUOTIENT(A34,16))</f>
+        <f t="shared" si="0"/>
         <v>E0001</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>917505</v>
       </c>
     </row>
@@ -1435,11 +1463,11 @@
         <v>42</v>
       </c>
       <c r="E35" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A35,16) * HEX2DEC(10000) + B$2+QUOTIENT(A35,16))</f>
+        <f t="shared" si="0"/>
         <v>F0001</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>983041</v>
       </c>
       <c r="I35" t="s">
@@ -1460,11 +1488,11 @@
         <v>41</v>
       </c>
       <c r="E36" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A36,16) * HEX2DEC(10000) + B$2+QUOTIENT(A36,16))</f>
+        <f t="shared" ref="E36:E67" si="2">DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A36,16) * HEX2DEC(10000) + B$2+QUOTIENT(A36,16))</f>
         <v>2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1482,11 +1510,11 @@
         <v>32</v>
       </c>
       <c r="E37" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A37,16) * HEX2DEC(10000) + B$2+QUOTIENT(A37,16))</f>
+        <f t="shared" si="2"/>
         <v>10002</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65538</v>
       </c>
     </row>
@@ -1501,11 +1529,11 @@
         <v>3</v>
       </c>
       <c r="E38" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A38,16) * HEX2DEC(10000) + B$2+QUOTIENT(A38,16))</f>
+        <f t="shared" si="2"/>
         <v>20002</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>131074</v>
       </c>
     </row>
@@ -1520,11 +1548,11 @@
         <v>4</v>
       </c>
       <c r="E39" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A39,16) * HEX2DEC(10000) + B$2+QUOTIENT(A39,16))</f>
+        <f t="shared" si="2"/>
         <v>30002</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>196610</v>
       </c>
     </row>
@@ -1539,11 +1567,11 @@
         <v>5</v>
       </c>
       <c r="E40" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A40,16) * HEX2DEC(10000) + B$2+QUOTIENT(A40,16))</f>
+        <f t="shared" si="2"/>
         <v>40002</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>262146</v>
       </c>
     </row>
@@ -1558,11 +1586,11 @@
         <v>6</v>
       </c>
       <c r="E41" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A41,16) * HEX2DEC(10000) + B$2+QUOTIENT(A41,16))</f>
+        <f t="shared" si="2"/>
         <v>50002</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>327682</v>
       </c>
     </row>
@@ -1577,11 +1605,11 @@
         <v>7</v>
       </c>
       <c r="E42" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A42,16) * HEX2DEC(10000) + B$2+QUOTIENT(A42,16))</f>
+        <f t="shared" si="2"/>
         <v>60002</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>393218</v>
       </c>
     </row>
@@ -1596,11 +1624,11 @@
         <v>8</v>
       </c>
       <c r="E43" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A43,16) * HEX2DEC(10000) + B$2+QUOTIENT(A43,16))</f>
+        <f t="shared" si="2"/>
         <v>70002</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>458754</v>
       </c>
     </row>
@@ -1615,11 +1643,11 @@
         <v>9</v>
       </c>
       <c r="E44" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A44,16) * HEX2DEC(10000) + B$2+QUOTIENT(A44,16))</f>
+        <f t="shared" si="2"/>
         <v>80002</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>524290</v>
       </c>
     </row>
@@ -1634,11 +1662,11 @@
         <v>10</v>
       </c>
       <c r="E45" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A45,16) * HEX2DEC(10000) + B$2+QUOTIENT(A45,16))</f>
+        <f t="shared" si="2"/>
         <v>90002</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>589826</v>
       </c>
     </row>
@@ -1653,11 +1681,11 @@
         <v>11</v>
       </c>
       <c r="E46" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A46,16) * HEX2DEC(10000) + B$2+QUOTIENT(A46,16))</f>
+        <f t="shared" si="2"/>
         <v>A0002</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>655362</v>
       </c>
     </row>
@@ -1672,11 +1700,11 @@
         <v>12</v>
       </c>
       <c r="E47" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A47,16) * HEX2DEC(10000) + B$2+QUOTIENT(A47,16))</f>
+        <f t="shared" si="2"/>
         <v>B0002</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>720898</v>
       </c>
     </row>
@@ -1691,11 +1719,11 @@
         <v>13</v>
       </c>
       <c r="E48" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A48,16) * HEX2DEC(10000) + B$2+QUOTIENT(A48,16))</f>
+        <f t="shared" si="2"/>
         <v>C0002</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>786434</v>
       </c>
     </row>
@@ -1710,11 +1738,11 @@
         <v>14</v>
       </c>
       <c r="E49" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A49,16) * HEX2DEC(10000) + B$2+QUOTIENT(A49,16))</f>
+        <f t="shared" si="2"/>
         <v>D0002</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>851970</v>
       </c>
     </row>
@@ -1729,11 +1757,11 @@
         <v>15</v>
       </c>
       <c r="E50" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A50,16) * HEX2DEC(10000) + B$2+QUOTIENT(A50,16))</f>
+        <f t="shared" si="2"/>
         <v>E0002</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>917506</v>
       </c>
     </row>
@@ -1748,11 +1776,11 @@
         <v>16</v>
       </c>
       <c r="E51" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A51,16) * HEX2DEC(10000) + B$2+QUOTIENT(A51,16))</f>
+        <f t="shared" si="2"/>
         <v>F0002</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>983042</v>
       </c>
     </row>
@@ -1770,11 +1798,11 @@
         <v>44</v>
       </c>
       <c r="E52" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A52,16) * HEX2DEC(10000) + B$2+QUOTIENT(A52,16))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -1789,11 +1817,11 @@
         <v>2</v>
       </c>
       <c r="E53" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A53,16) * HEX2DEC(10000) + B$2+QUOTIENT(A53,16))</f>
+        <f t="shared" si="2"/>
         <v>10003</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65539</v>
       </c>
     </row>
@@ -1808,11 +1836,11 @@
         <v>3</v>
       </c>
       <c r="E54" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A54,16) * HEX2DEC(10000) + B$2+QUOTIENT(A54,16))</f>
+        <f t="shared" si="2"/>
         <v>20003</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>131075</v>
       </c>
     </row>
@@ -1827,11 +1855,11 @@
         <v>4</v>
       </c>
       <c r="E55" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A55,16) * HEX2DEC(10000) + B$2+QUOTIENT(A55,16))</f>
+        <f t="shared" si="2"/>
         <v>30003</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>196611</v>
       </c>
     </row>
@@ -1846,11 +1874,11 @@
         <v>5</v>
       </c>
       <c r="E56" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A56,16) * HEX2DEC(10000) + B$2+QUOTIENT(A56,16))</f>
+        <f t="shared" si="2"/>
         <v>40003</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>262147</v>
       </c>
     </row>
@@ -1865,11 +1893,11 @@
         <v>6</v>
       </c>
       <c r="E57" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A57,16) * HEX2DEC(10000) + B$2+QUOTIENT(A57,16))</f>
+        <f t="shared" si="2"/>
         <v>50003</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>327683</v>
       </c>
     </row>
@@ -1884,11 +1912,11 @@
         <v>7</v>
       </c>
       <c r="E58" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A58,16) * HEX2DEC(10000) + B$2+QUOTIENT(A58,16))</f>
+        <f t="shared" si="2"/>
         <v>60003</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>393219</v>
       </c>
     </row>
@@ -1903,11 +1931,11 @@
         <v>8</v>
       </c>
       <c r="E59" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A59,16) * HEX2DEC(10000) + B$2+QUOTIENT(A59,16))</f>
+        <f t="shared" si="2"/>
         <v>70003</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>458755</v>
       </c>
     </row>
@@ -1925,11 +1953,11 @@
         <v>45</v>
       </c>
       <c r="E60" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A60,16) * HEX2DEC(10000) + B$2+QUOTIENT(A60,16))</f>
+        <f t="shared" si="2"/>
         <v>80003</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>524291</v>
       </c>
     </row>
@@ -1947,11 +1975,11 @@
         <v>46</v>
       </c>
       <c r="E61" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A61,16) * HEX2DEC(10000) + B$2+QUOTIENT(A61,16))</f>
+        <f t="shared" si="2"/>
         <v>90003</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>589827</v>
       </c>
     </row>
@@ -1969,11 +1997,11 @@
         <v>47</v>
       </c>
       <c r="E62" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A62,16) * HEX2DEC(10000) + B$2+QUOTIENT(A62,16))</f>
+        <f t="shared" si="2"/>
         <v>A0003</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>655363</v>
       </c>
     </row>
@@ -1991,11 +2019,11 @@
         <v>48</v>
       </c>
       <c r="E63" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A63,16) * HEX2DEC(10000) + B$2+QUOTIENT(A63,16))</f>
+        <f t="shared" si="2"/>
         <v>B0003</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>720899</v>
       </c>
     </row>
@@ -2013,11 +2041,11 @@
         <v>49</v>
       </c>
       <c r="E64" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A64,16) * HEX2DEC(10000) + B$2+QUOTIENT(A64,16))</f>
+        <f t="shared" si="2"/>
         <v>C0003</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>786435</v>
       </c>
     </row>
@@ -2035,11 +2063,11 @@
         <v>50</v>
       </c>
       <c r="E65" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A65,16) * HEX2DEC(10000) + B$2+QUOTIENT(A65,16))</f>
+        <f t="shared" si="2"/>
         <v>D0003</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>851971</v>
       </c>
     </row>
@@ -2057,11 +2085,11 @@
         <v>51</v>
       </c>
       <c r="E66" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A66,16) * HEX2DEC(10000) + B$2+QUOTIENT(A66,16))</f>
+        <f t="shared" si="2"/>
         <v>E0003</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>917507</v>
       </c>
     </row>
@@ -2079,11 +2107,11 @@
         <v>52</v>
       </c>
       <c r="E67" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A67,16) * HEX2DEC(10000) + B$2+QUOTIENT(A67,16))</f>
+        <f t="shared" si="2"/>
         <v>F0003</v>
       </c>
       <c r="F67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>983043</v>
       </c>
     </row>
@@ -2118,8 +2146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2139,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2190,12 +2218,12 @@
         <v>56</v>
       </c>
       <c r="E4" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A4,16) * HEX2DEC(10000) + B$2+QUOTIENT(A4,16))</f>
-        <v>2000000</v>
+        <f t="shared" ref="E4:E51" si="0">DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A4,16) * HEX2DEC(10000) + B$2+QUOTIENT(A4,16))</f>
+        <v>0</v>
       </c>
       <c r="F4">
         <f>HEX2DEC(E4)</f>
-        <v>33554432</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>62</v>
@@ -2215,12 +2243,12 @@
         <v>57</v>
       </c>
       <c r="E5" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A5,16) * HEX2DEC(10000) + B$2+QUOTIENT(A5,16))</f>
-        <v>2010000</v>
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F51" si="0">HEX2DEC(E5)</f>
-        <v>33619968</v>
+        <f t="shared" ref="F5:F51" si="1">HEX2DEC(E5)</f>
+        <v>65536</v>
       </c>
       <c r="G5" t="s">
         <v>63</v>
@@ -2240,12 +2268,12 @@
         <v>58</v>
       </c>
       <c r="E6" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A6,16) * HEX2DEC(10000) + B$2+QUOTIENT(A6,16))</f>
-        <v>2020000</v>
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>33685504</v>
+        <f t="shared" si="1"/>
+        <v>131072</v>
       </c>
       <c r="G6" t="s">
         <v>64</v>
@@ -2265,12 +2293,12 @@
         <v>59</v>
       </c>
       <c r="E7" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A7,16) * HEX2DEC(10000) + B$2+QUOTIENT(A7,16))</f>
-        <v>2030000</v>
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>33751040</v>
+        <f t="shared" si="1"/>
+        <v>196608</v>
       </c>
       <c r="G7" t="s">
         <v>65</v>
@@ -2290,12 +2318,12 @@
         <v>60</v>
       </c>
       <c r="E8" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A8,16) * HEX2DEC(10000) + B$2+QUOTIENT(A8,16))</f>
-        <v>2040000</v>
+        <f t="shared" si="0"/>
+        <v>40000</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>33816576</v>
+        <f t="shared" si="1"/>
+        <v>262144</v>
       </c>
       <c r="G8" t="s">
         <v>66</v>
@@ -2315,12 +2343,12 @@
         <v>61</v>
       </c>
       <c r="E9" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A9,16) * HEX2DEC(10000) + B$2+QUOTIENT(A9,16))</f>
-        <v>2050000</v>
+        <f t="shared" si="0"/>
+        <v>50000</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>33882112</v>
+        <f t="shared" si="1"/>
+        <v>327680</v>
       </c>
       <c r="G9" t="s">
         <v>67</v>
@@ -2337,12 +2365,12 @@
         <v>7</v>
       </c>
       <c r="E10" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A10,16) * HEX2DEC(10000) + B$2+QUOTIENT(A10,16))</f>
-        <v>2060000</v>
+        <f t="shared" si="0"/>
+        <v>60000</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>33947648</v>
+        <f t="shared" si="1"/>
+        <v>393216</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2356,12 +2384,12 @@
         <v>8</v>
       </c>
       <c r="E11" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A11,16) * HEX2DEC(10000) + B$2+QUOTIENT(A11,16))</f>
-        <v>2070000</v>
+        <f t="shared" si="0"/>
+        <v>70000</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>34013184</v>
+        <f t="shared" si="1"/>
+        <v>458752</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2378,12 +2406,12 @@
         <v>15</v>
       </c>
       <c r="E12" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A12,16) * HEX2DEC(10000) + B$2+QUOTIENT(A12,16))</f>
-        <v>2080000</v>
+        <f t="shared" si="0"/>
+        <v>80000</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>34078720</v>
+        <f t="shared" si="1"/>
+        <v>524288</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2400,12 +2428,12 @@
         <v>16</v>
       </c>
       <c r="E13" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A13,16) * HEX2DEC(10000) + B$2+QUOTIENT(A13,16))</f>
-        <v>2090000</v>
+        <f t="shared" si="0"/>
+        <v>90000</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>34144256</v>
+        <f t="shared" si="1"/>
+        <v>589824</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2422,12 +2450,12 @@
         <v>17</v>
       </c>
       <c r="E14" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A14,16) * HEX2DEC(10000) + B$2+QUOTIENT(A14,16))</f>
-        <v>20A0000</v>
+        <f t="shared" si="0"/>
+        <v>A0000</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>34209792</v>
+        <f t="shared" si="1"/>
+        <v>655360</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2444,12 +2472,12 @@
         <v>18</v>
       </c>
       <c r="E15" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A15,16) * HEX2DEC(10000) + B$2+QUOTIENT(A15,16))</f>
-        <v>20B0000</v>
+        <f t="shared" si="0"/>
+        <v>B0000</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>34275328</v>
+        <f t="shared" si="1"/>
+        <v>720896</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2466,12 +2494,12 @@
         <v>68</v>
       </c>
       <c r="E16" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A16,16) * HEX2DEC(10000) + B$2+QUOTIENT(A16,16))</f>
-        <v>20C0000</v>
+        <f t="shared" si="0"/>
+        <v>C0000</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>34340864</v>
+        <f t="shared" si="1"/>
+        <v>786432</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2488,12 +2516,12 @@
         <v>69</v>
       </c>
       <c r="E17" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A17,16) * HEX2DEC(10000) + B$2+QUOTIENT(A17,16))</f>
-        <v>20D0000</v>
+        <f t="shared" si="0"/>
+        <v>D0000</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>34406400</v>
+        <f t="shared" si="1"/>
+        <v>851968</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -2510,12 +2538,12 @@
         <v>70</v>
       </c>
       <c r="E18" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A18,16) * HEX2DEC(10000) + B$2+QUOTIENT(A18,16))</f>
-        <v>20E0000</v>
+        <f t="shared" si="0"/>
+        <v>E0000</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>34471936</v>
+        <f t="shared" si="1"/>
+        <v>917504</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2532,12 +2560,12 @@
         <v>71</v>
       </c>
       <c r="E19" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A19,16) * HEX2DEC(10000) + B$2+QUOTIENT(A19,16))</f>
-        <v>20F0000</v>
+        <f t="shared" si="0"/>
+        <v>F0000</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>34537472</v>
+        <f t="shared" si="1"/>
+        <v>983040</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2554,12 +2582,12 @@
         <v>72</v>
       </c>
       <c r="E20" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A20,16) * HEX2DEC(10000) + B$2+QUOTIENT(A20,16))</f>
-        <v>2000001</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>33554433</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>77</v>
@@ -2579,12 +2607,12 @@
         <v>73</v>
       </c>
       <c r="E21" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A21,16) * HEX2DEC(10000) + B$2+QUOTIENT(A21,16))</f>
-        <v>2010001</v>
+        <f t="shared" si="0"/>
+        <v>10001</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>33619969</v>
+        <f t="shared" si="1"/>
+        <v>65537</v>
       </c>
       <c r="G21" t="s">
         <v>78</v>
@@ -2604,12 +2632,12 @@
         <v>74</v>
       </c>
       <c r="E22" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A22,16) * HEX2DEC(10000) + B$2+QUOTIENT(A22,16))</f>
-        <v>2020001</v>
+        <f t="shared" si="0"/>
+        <v>20001</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>33685505</v>
+        <f t="shared" si="1"/>
+        <v>131073</v>
       </c>
       <c r="G22" t="s">
         <v>79</v>
@@ -2629,12 +2657,12 @@
         <v>75</v>
       </c>
       <c r="E23" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A23,16) * HEX2DEC(10000) + B$2+QUOTIENT(A23,16))</f>
-        <v>2030001</v>
+        <f t="shared" si="0"/>
+        <v>30001</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>33751041</v>
+        <f t="shared" si="1"/>
+        <v>196609</v>
       </c>
       <c r="G23" t="s">
         <v>80</v>
@@ -2654,12 +2682,12 @@
         <v>76</v>
       </c>
       <c r="E24" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A24,16) * HEX2DEC(10000) + B$2+QUOTIENT(A24,16))</f>
-        <v>2040001</v>
+        <f t="shared" si="0"/>
+        <v>40001</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>33816577</v>
+        <f t="shared" si="1"/>
+        <v>262145</v>
       </c>
       <c r="G24" t="s">
         <v>81</v>
@@ -2676,12 +2704,12 @@
         <v>6</v>
       </c>
       <c r="E25" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A25,16) * HEX2DEC(10000) + B$2+QUOTIENT(A25,16))</f>
-        <v>2050001</v>
+        <f t="shared" si="0"/>
+        <v>50001</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>33882113</v>
+        <f t="shared" si="1"/>
+        <v>327681</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2695,12 +2723,12 @@
         <v>7</v>
       </c>
       <c r="E26" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A26,16) * HEX2DEC(10000) + B$2+QUOTIENT(A26,16))</f>
-        <v>2060001</v>
+        <f t="shared" si="0"/>
+        <v>60001</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>33947649</v>
+        <f t="shared" si="1"/>
+        <v>393217</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2714,12 +2742,12 @@
         <v>8</v>
       </c>
       <c r="E27" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A27,16) * HEX2DEC(10000) + B$2+QUOTIENT(A27,16))</f>
-        <v>2070001</v>
+        <f t="shared" si="0"/>
+        <v>70001</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>34013185</v>
+        <f t="shared" si="1"/>
+        <v>458753</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -2733,12 +2761,12 @@
         <v>9</v>
       </c>
       <c r="E28" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A28,16) * HEX2DEC(10000) + B$2+QUOTIENT(A28,16))</f>
-        <v>2080001</v>
+        <f t="shared" si="0"/>
+        <v>80001</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>34078721</v>
+        <f t="shared" si="1"/>
+        <v>524289</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2752,12 +2780,12 @@
         <v>10</v>
       </c>
       <c r="E29" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A29,16) * HEX2DEC(10000) + B$2+QUOTIENT(A29,16))</f>
-        <v>2090001</v>
+        <f t="shared" si="0"/>
+        <v>90001</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>34144257</v>
+        <f t="shared" si="1"/>
+        <v>589825</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2771,12 +2799,12 @@
         <v>11</v>
       </c>
       <c r="E30" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A30,16) * HEX2DEC(10000) + B$2+QUOTIENT(A30,16))</f>
-        <v>20A0001</v>
+        <f t="shared" si="0"/>
+        <v>A0001</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>34209793</v>
+        <f t="shared" si="1"/>
+        <v>655361</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2790,12 +2818,12 @@
         <v>12</v>
       </c>
       <c r="E31" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A31,16) * HEX2DEC(10000) + B$2+QUOTIENT(A31,16))</f>
-        <v>20B0001</v>
+        <f t="shared" si="0"/>
+        <v>B0001</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>34275329</v>
+        <f t="shared" si="1"/>
+        <v>720897</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2809,12 +2837,12 @@
         <v>13</v>
       </c>
       <c r="E32" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A32,16) * HEX2DEC(10000) + B$2+QUOTIENT(A32,16))</f>
-        <v>20C0001</v>
+        <f t="shared" si="0"/>
+        <v>C0001</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>34340865</v>
+        <f t="shared" si="1"/>
+        <v>786433</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2828,12 +2856,12 @@
         <v>14</v>
       </c>
       <c r="E33" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A33,16) * HEX2DEC(10000) + B$2+QUOTIENT(A33,16))</f>
-        <v>20D0001</v>
+        <f t="shared" si="0"/>
+        <v>D0001</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
-        <v>34406401</v>
+        <f t="shared" si="1"/>
+        <v>851969</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2847,12 +2875,12 @@
         <v>15</v>
       </c>
       <c r="E34" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A34,16) * HEX2DEC(10000) + B$2+QUOTIENT(A34,16))</f>
-        <v>20E0001</v>
+        <f t="shared" si="0"/>
+        <v>E0001</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
-        <v>34471937</v>
+        <f t="shared" si="1"/>
+        <v>917505</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2866,12 +2894,12 @@
         <v>16</v>
       </c>
       <c r="E35" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A35,16) * HEX2DEC(10000) + B$2+QUOTIENT(A35,16))</f>
-        <v>20F0001</v>
+        <f t="shared" si="0"/>
+        <v>F0001</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
-        <v>34537473</v>
+        <f t="shared" si="1"/>
+        <v>983041</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2888,12 +2916,12 @@
         <v>82</v>
       </c>
       <c r="E36" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A36,16) * HEX2DEC(10000) + B$2+QUOTIENT(A36,16))</f>
-        <v>2000002</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>33554434</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="G36" t="s">
         <v>93</v>
@@ -2913,12 +2941,12 @@
         <v>83</v>
       </c>
       <c r="E37" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A37,16) * HEX2DEC(10000) + B$2+QUOTIENT(A37,16))</f>
-        <v>2010002</v>
+        <f t="shared" si="0"/>
+        <v>10002</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
-        <v>33619970</v>
+        <f t="shared" si="1"/>
+        <v>65538</v>
       </c>
       <c r="G37" t="s">
         <v>94</v>
@@ -2938,12 +2966,12 @@
         <v>84</v>
       </c>
       <c r="E38" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A38,16) * HEX2DEC(10000) + B$2+QUOTIENT(A38,16))</f>
-        <v>2020002</v>
+        <f t="shared" si="0"/>
+        <v>20002</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
-        <v>33685506</v>
+        <f t="shared" si="1"/>
+        <v>131074</v>
       </c>
       <c r="G38" t="s">
         <v>95</v>
@@ -2963,12 +2991,12 @@
         <v>85</v>
       </c>
       <c r="E39" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A39,16) * HEX2DEC(10000) + B$2+QUOTIENT(A39,16))</f>
-        <v>2030002</v>
+        <f t="shared" si="0"/>
+        <v>30002</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
-        <v>33751042</v>
+        <f t="shared" si="1"/>
+        <v>196610</v>
       </c>
       <c r="G39" t="s">
         <v>96</v>
@@ -2988,12 +3016,12 @@
         <v>86</v>
       </c>
       <c r="E40" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A40,16) * HEX2DEC(10000) + B$2+QUOTIENT(A40,16))</f>
-        <v>2040002</v>
+        <f t="shared" si="0"/>
+        <v>40002</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
-        <v>33816578</v>
+        <f t="shared" si="1"/>
+        <v>262146</v>
       </c>
       <c r="G40" t="s">
         <v>97</v>
@@ -3010,12 +3038,12 @@
         <v>6</v>
       </c>
       <c r="E41" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A41,16) * HEX2DEC(10000) + B$2+QUOTIENT(A41,16))</f>
-        <v>2050002</v>
+        <f t="shared" si="0"/>
+        <v>50002</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
-        <v>33882114</v>
+        <f t="shared" si="1"/>
+        <v>327682</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -3029,12 +3057,12 @@
         <v>7</v>
       </c>
       <c r="E42" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A42,16) * HEX2DEC(10000) + B$2+QUOTIENT(A42,16))</f>
-        <v>2060002</v>
+        <f t="shared" si="0"/>
+        <v>60002</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
-        <v>33947650</v>
+        <f t="shared" si="1"/>
+        <v>393218</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -3048,12 +3076,12 @@
         <v>8</v>
       </c>
       <c r="E43" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A43,16) * HEX2DEC(10000) + B$2+QUOTIENT(A43,16))</f>
-        <v>2070002</v>
+        <f t="shared" si="0"/>
+        <v>70002</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
-        <v>34013186</v>
+        <f t="shared" si="1"/>
+        <v>458754</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -3070,12 +3098,12 @@
         <v>89</v>
       </c>
       <c r="E44" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A44,16) * HEX2DEC(10000) + B$2+QUOTIENT(A44,16))</f>
-        <v>2080002</v>
+        <f t="shared" si="0"/>
+        <v>80002</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
-        <v>34078722</v>
+        <f t="shared" si="1"/>
+        <v>524290</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -3092,12 +3120,12 @@
         <v>90</v>
       </c>
       <c r="E45" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A45,16) * HEX2DEC(10000) + B$2+QUOTIENT(A45,16))</f>
-        <v>2090002</v>
+        <f t="shared" si="0"/>
+        <v>90002</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
-        <v>34144258</v>
+        <f t="shared" si="1"/>
+        <v>589826</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -3114,12 +3142,12 @@
         <v>91</v>
       </c>
       <c r="E46" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A46,16) * HEX2DEC(10000) + B$2+QUOTIENT(A46,16))</f>
-        <v>20A0002</v>
+        <f t="shared" si="0"/>
+        <v>A0002</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
-        <v>34209794</v>
+        <f t="shared" si="1"/>
+        <v>655362</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -3136,12 +3164,12 @@
         <v>92</v>
       </c>
       <c r="E47" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A47,16) * HEX2DEC(10000) + B$2+QUOTIENT(A47,16))</f>
-        <v>20B0002</v>
+        <f t="shared" si="0"/>
+        <v>B0002</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
-        <v>34275330</v>
+        <f t="shared" si="1"/>
+        <v>720898</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -3155,12 +3183,12 @@
         <v>13</v>
       </c>
       <c r="E48" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A48,16) * HEX2DEC(10000) + B$2+QUOTIENT(A48,16))</f>
-        <v>20C0002</v>
+        <f t="shared" si="0"/>
+        <v>C0002</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
-        <v>34340866</v>
+        <f t="shared" si="1"/>
+        <v>786434</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3174,12 +3202,12 @@
         <v>14</v>
       </c>
       <c r="E49" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A49,16) * HEX2DEC(10000) + B$2+QUOTIENT(A49,16))</f>
-        <v>20D0002</v>
+        <f t="shared" si="0"/>
+        <v>D0002</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
-        <v>34406402</v>
+        <f t="shared" si="1"/>
+        <v>851970</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3196,12 +3224,12 @@
         <v>87</v>
       </c>
       <c r="E50" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A50,16) * HEX2DEC(10000) + B$2+QUOTIENT(A50,16))</f>
-        <v>20E0002</v>
+        <f t="shared" si="0"/>
+        <v>E0002</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
-        <v>34471938</v>
+        <f t="shared" si="1"/>
+        <v>917506</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3218,12 +3246,12 @@
         <v>88</v>
       </c>
       <c r="E51" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A51,16) * HEX2DEC(10000) + B$2+QUOTIENT(A51,16))</f>
-        <v>20F0002</v>
+        <f t="shared" si="0"/>
+        <v>F0002</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
-        <v>34537474</v>
+        <f t="shared" si="1"/>
+        <v>983042</v>
       </c>
     </row>
   </sheetData>
@@ -3231,4 +3259,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/D/iotable.xlsx
+++ b/D/iotable.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EA1382-ECAD-4060-BCDC-17AA0AAFFEC9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
     <sheet name="Output" sheetId="4" r:id="rId2"/>
     <sheet name="Motion" sheetId="5" r:id="rId3"/>
+    <sheet name="SIGNALS" sheetId="6" r:id="rId4"/>
+    <sheet name="CYLINDER SEN A" sheetId="7" r:id="rId5"/>
+    <sheet name="CYLINDER SEN B" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Input!$A$3:$C$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Input!$A$4:$C$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Output!$A$3:$C$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="115">
   <si>
     <t>Base offset</t>
   </si>
@@ -344,12 +348,33 @@
   </si>
   <si>
     <t>Pnp</t>
+  </si>
+  <si>
+    <t>Bit</t>
+  </si>
+  <si>
+    <t>Local offset</t>
+  </si>
+  <si>
+    <t>Abs offset</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,6 +535,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -545,6 +587,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,11 +779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F67"/>
+      <selection activeCell="E5" sqref="E5:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,22 +792,23 @@
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -756,1394 +816,1683 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3">
+        <v>525231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J4" t="s">
         <v>98</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K4" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" ref="E4:E35" si="0">DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A4,16) * HEX2DEC(10000) + B$2+QUOTIENT(A4,16))</f>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f>HEX2DEC(E4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F67" si="1">HEX2DEC(E5)</f>
-        <v>65536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
+        <f>(E5-$B$3)/2</f>
+        <v>-262615.5</v>
+      </c>
+      <c r="H5" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000)+ G5 + B$2+F5)</f>
+        <v>FBFE28</v>
+      </c>
+      <c r="I5">
+        <f>HEX2DEC(H5)</f>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>131072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F69" si="0">(E6-$B$3)/2</f>
+        <v>-262615.5</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ref="H6:H68" si="1">DEC2HEX(B$1*HEX2DEC(1000000)+ G6 + B$2+F6)</f>
+        <v>FBFE28</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I68" si="2">HEX2DEC(H6)</f>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>196608</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>40000</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>262144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>50000</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>327680</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>60000</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>393216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>70000</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>458752</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>80000</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>524288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>90000</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>589824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>A0000</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>655360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>B0000</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>720896</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16">
-        <v>13</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>C0000</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>786432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C17">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>D0000</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>851968</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>E0000</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>917504</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>16</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>F0000</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>983040</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>16</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>10001</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>65537</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>20001</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>131073</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>30001</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>196609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>40001</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>262145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>50001</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>327681</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>60001</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>393217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>70001</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>458753</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>80001</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>524289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>90001</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>589825</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>A0001</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
-        <v>655361</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>B0001</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="1"/>
-        <v>720897</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>C0001</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>786433</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>D0001</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
-        <v>851969</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C34">
-        <v>15</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>E0001</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>917505</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>31</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
         <v>16</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>F0001</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="1"/>
-        <v>983041</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+      <c r="L36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>32</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" ref="E36:E67" si="2">DEC2HEX(B$1*HEX2DEC(1000000)+ MOD(A36,16) * HEX2DEC(10000) + B$2+QUOTIENT(A36,16))</f>
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="2"/>
-        <v>10002</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
-        <v>65538</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="2"/>
-        <v>20002</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="1"/>
-        <v>131074</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="2"/>
-        <v>30002</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="1"/>
-        <v>196610</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="2"/>
-        <v>40002</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>262146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C41">
-        <v>6</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="2"/>
-        <v>50002</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="1"/>
-        <v>327682</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C42">
-        <v>7</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="2"/>
-        <v>60002</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="1"/>
-        <v>393218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C43">
-        <v>8</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="2"/>
-        <v>70002</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="1"/>
-        <v>458754</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C44">
-        <v>9</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="2"/>
-        <v>80002</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="1"/>
-        <v>524290</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C45">
-        <v>10</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="2"/>
-        <v>90002</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="1"/>
-        <v>589826</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C46">
-        <v>11</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="2"/>
-        <v>A0002</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="1"/>
-        <v>655362</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C47">
-        <v>12</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="2"/>
-        <v>B0002</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="1"/>
-        <v>720898</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C48">
-        <v>13</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="2"/>
-        <v>C0002</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="1"/>
-        <v>786434</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C49">
-        <v>14</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="2"/>
-        <v>D0002</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="1"/>
-        <v>851970</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C50">
-        <v>15</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="2"/>
-        <v>E0002</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="1"/>
-        <v>917506</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>47</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
         <v>16</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" si="2"/>
-        <v>F0002</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="1"/>
-        <v>983042</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>48</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>49</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="2"/>
-        <v>10003</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="1"/>
-        <v>65539</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="2"/>
-        <v>20003</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="1"/>
-        <v>131075</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="2"/>
-        <v>30003</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="1"/>
-        <v>196611</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C56">
-        <v>5</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="2"/>
-        <v>40003</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="1"/>
-        <v>262147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C57">
-        <v>6</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="2"/>
-        <v>50003</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="1"/>
-        <v>327683</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C58">
-        <v>7</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="2"/>
-        <v>60003</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="1"/>
-        <v>393219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C59">
-        <v>8</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="2"/>
-        <v>70003</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="1"/>
-        <v>458755</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C60">
-        <v>9</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="2"/>
-        <v>80003</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="1"/>
-        <v>524291</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="2"/>
-        <v>90003</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="1"/>
-        <v>589827</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C62">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="2"/>
-        <v>A0003</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="1"/>
-        <v>655363</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C63">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="2"/>
-        <v>B0003</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="1"/>
-        <v>720899</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C64">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="2"/>
-        <v>C0003</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="1"/>
-        <v>786435</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" si="2"/>
-        <v>D0003</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="1"/>
-        <v>851971</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" si="2"/>
-        <v>E0003</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="1"/>
-        <v>917507</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C67">
+        <v>15</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>63</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68">
         <v>16</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E67" t="str">
-        <f t="shared" si="2"/>
-        <v>F0003</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="1"/>
-        <v>983043</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F68" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="1"/>
+        <v>FBFE28</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="2"/>
+        <v>16514600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F69" s="1">
+        <f t="shared" si="0"/>
+        <v>-262615.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F70" s="1">
+        <f t="shared" ref="F70:F72" si="3">(E70-$B$3)/2</f>
+        <v>-262615.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F71" s="1">
+        <f t="shared" si="3"/>
+        <v>-262615.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="3"/>
+        <v>-262615.5</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C67"/>
+  <autoFilter ref="A4:C68" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -3255,17 +3604,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C51"/>
+  <autoFilter ref="A3:C51" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -3320,4 +3669,543 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69CFC3F-26AD-4FF9-8B91-56700D135D7F}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1">
+        <v>525231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f>$B$1+A4*$B$2</f>
+        <v>525231</v>
+      </c>
+      <c r="C4">
+        <f>A4*$B$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B14" si="0">$B$1+A5*$B$2</f>
+        <v>525311</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C14" si="1">A5*$B$2</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>525391</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>525471</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>525551</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>525631</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>525711</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>525791</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>525871</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>525951</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>526031</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AD2CBD-F75F-4320-8EF3-6C46AE9359C1}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" activeCellId="5" sqref="B5 B8 B9 B10 B18 B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1">
+        <v>530284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f>$B$1+A4*$B$2</f>
+        <v>530284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B19" si="0">$B$1+A5*$B$2</f>
+        <v>530420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>530556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>530692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>530828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>530964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>531100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>531236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>531372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>531508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>531644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>531780</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>531916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>532052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>532188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>532324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBD1E14-95B0-42A9-B01D-B8348254E65B}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" activeCellId="2" sqref="B16 B18 B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1">
+        <v>530288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f>$B$1+A4*$B$2</f>
+        <v>530288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B19" si="0">$B$1+A5*$B$2</f>
+        <v>530424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>530560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>530696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>530832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>530968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>531104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>531240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>531376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>531512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>531648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>531784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>531920</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>532056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>532192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>532328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/D/iotable.xlsx
+++ b/D/iotable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EA1382-ECAD-4060-BCDC-17AA0AAFFEC9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF86C70-0FD7-46A9-B07C-E72D973E9ADE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="SIGNALS" sheetId="6" r:id="rId4"/>
     <sheet name="CYLINDER SEN A" sheetId="7" r:id="rId5"/>
     <sheet name="CYLINDER SEN B" sheetId="8" r:id="rId6"/>
+    <sheet name="CYLINDER_ACT_B" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Input!$A$4:$C$68</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="117">
   <si>
     <t>Base offset</t>
   </si>
@@ -369,6 +370,12 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Abs</t>
+  </si>
+  <si>
+    <t>Related</t>
   </si>
 </sst>
 </file>
@@ -3675,8 +3682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69CFC3F-26AD-4FF9-8B91-56700D135D7F}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3700,6 +3707,12 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3855,7 +3868,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" activeCellId="5" sqref="B5 B8 B9 B10 B18 B19"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4035,7 +4048,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" activeCellId="2" sqref="B16 B18 B19"/>
+      <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4208,4 +4221,184 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9076A2-E6C7-41AF-9BDA-E4F0F1478AA5}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1">
+        <v>530282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f>$B$1+A4*$B$2</f>
+        <v>530282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B19" si="0">$B$1+A5*$B$2</f>
+        <v>530418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>530554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>530690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>530826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>530962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>531098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>531234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>531370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>531506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>531642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>531778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>531914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>532050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>532186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>532322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/D/iotable.xlsx
+++ b/D/iotable.xlsx
@@ -3,26 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE8A068-DD4E-44B7-A0BF-91CDB2A4DE83}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E58BA8-96EC-4CD2-8ABA-3AF94A7012B3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
-    <sheet name="Input-Safety" sheetId="11" r:id="rId2"/>
-    <sheet name="Output" sheetId="12" r:id="rId3"/>
-    <sheet name="Output (2)" sheetId="14" r:id="rId4"/>
-    <sheet name="Motion" sheetId="5" r:id="rId5"/>
-    <sheet name="SIGNALS" sheetId="6" r:id="rId6"/>
-    <sheet name="CYLINDER SEN A" sheetId="7" r:id="rId7"/>
-    <sheet name="CYLINDER SEN B" sheetId="8" r:id="rId8"/>
-    <sheet name="CYLINDER_ACT_B" sheetId="9" r:id="rId9"/>
+    <sheet name="Output" sheetId="12" r:id="rId2"/>
+    <sheet name="Motion" sheetId="5" r:id="rId3"/>
+    <sheet name="SIGNALS" sheetId="6" r:id="rId4"/>
+    <sheet name="CYLINDER SEN A" sheetId="7" r:id="rId5"/>
+    <sheet name="CYLINDER SEN B" sheetId="8" r:id="rId6"/>
+    <sheet name="CYLINDER_ACT_B" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Input!$A$6:$S$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Input-Safety'!$A$6:$S$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Output!$A$4:$P$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Output (2)'!$A$4:$P$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Input!$A$6:$S$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Output!$A$4:$P$49</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="152">
   <si>
     <t>Channel</t>
   </si>
@@ -431,9 +427,6 @@
     <t>eStop2</t>
   </si>
   <si>
-    <t>airChoke</t>
-  </si>
-  <si>
     <t>doorAll</t>
   </si>
   <si>
@@ -477,6 +470,24 @@
   </si>
   <si>
     <t>doorUnlockAll</t>
+  </si>
+  <si>
+    <t>Cylinder anchor act b</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Md01</t>
+  </si>
+  <si>
+    <t>Vb02</t>
+  </si>
+  <si>
+    <t>Vg02</t>
+  </si>
+  <si>
+    <t>AirChoke</t>
   </si>
 </sst>
 </file>
@@ -492,7 +503,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +540,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -542,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -550,6 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,16 +907,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H70"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.42578125" style="1" customWidth="1"/>
@@ -929,7 +947,7 @@
         <v>120</v>
       </c>
       <c r="B2">
-        <v>522204</v>
+        <v>522220</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -937,7 +955,7 @@
         <v>121</v>
       </c>
       <c r="B3">
-        <v>522208</v>
+        <v>522224</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -945,22 +963,22 @@
         <v>115</v>
       </c>
       <c r="B4">
-        <v>524375</v>
+        <v>524391</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5">
         <f>MIN(K:K)</f>
-        <v>522054</v>
+        <v>521006</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" t="s">
         <v>137</v>
-      </c>
-      <c r="I5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -977,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>105</v>
@@ -1024,222 +1042,210 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1">
-        <f>IF(K7&lt;&gt;"",FLOOR(K7-MIN(K:K),2),"")</f>
-        <v>2720</v>
+        <f>IF(K7&lt;&gt;"",FLOOR((K7-MIN(K:K))/2,1),"")</f>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <f>IF(MOD(K7,2)=1,8+L7,L7)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F7*HEX2DEC(10000) +E7)</f>
-        <v>1080AA0</v>
+        <v>1000000</v>
       </c>
       <c r="H7">
         <f>HEX2DEC(G7)</f>
-        <v>17304224</v>
-      </c>
-      <c r="J7">
+        <v>16777216</v>
+      </c>
+      <c r="I7">
+        <v>521006</v>
+      </c>
+      <c r="J7" t="str">
         <f>IF(P7&lt;&gt;"",P7*136+$B$2,IF(Q7&lt;&gt;"",Q7*136+$B$2,IF(S7&lt;&gt;"",S7*80+$B$4,"")))</f>
-        <v>524775</v>
+        <v/>
       </c>
       <c r="K7">
         <f>IF(I7&lt;&gt;"",I7,J7)</f>
-        <v>524775</v>
-      </c>
-      <c r="R7" t="s">
-        <v>113</v>
-      </c>
-      <c r="S7">
-        <v>5</v>
+        <v>521006</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
+        <v>128</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="E8" s="1">
-        <f>IF(K8&lt;&gt;"",FLOOR(K8-MIN(K:K),2),"")</f>
-        <v>2800</v>
+        <f>IF(K8&lt;&gt;"",FLOOR((K8-MIN(K:K))/2,1),"")</f>
+        <v>527</v>
       </c>
       <c r="F8" s="1">
         <f>IF(MOD(K8,2)=1,8+L8,L8)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G8" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F8*HEX2DEC(10000) +E8)</f>
-        <v>1080AF0</v>
+        <v>102020F</v>
       </c>
       <c r="H8">
         <f>HEX2DEC(G8)</f>
-        <v>17304304</v>
-      </c>
-      <c r="J8">
+        <v>16908815</v>
+      </c>
+      <c r="I8">
+        <v>522060</v>
+      </c>
+      <c r="J8" t="str">
         <f>IF(P8&lt;&gt;"",P8*136+$B$2,IF(Q8&lt;&gt;"",Q8*136+$B$2,IF(S8&lt;&gt;"",S8*80+$B$4,"")))</f>
-        <v>524855</v>
+        <v/>
       </c>
       <c r="K8">
         <f>IF(I8&lt;&gt;"",I8,J8)</f>
-        <v>524855</v>
-      </c>
-      <c r="R8" t="s">
-        <v>113</v>
-      </c>
-      <c r="S8">
-        <v>6</v>
+        <v>522060</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
+        <v>129</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="E9" s="1">
-        <f>IF(K9&lt;&gt;"",FLOOR(K9-MIN(K:K),2),"")</f>
-        <v>2880</v>
+        <f>IF(K9&lt;&gt;"",FLOOR((K9-MIN(K:K))/2,1),"")</f>
+        <v>527</v>
       </c>
       <c r="F9" s="1">
         <f>IF(MOD(K9,2)=1,8+L9,L9)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G9" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F9*HEX2DEC(10000) +E9)</f>
-        <v>1080B40</v>
+        <v>103020F</v>
       </c>
       <c r="H9">
         <f>HEX2DEC(G9)</f>
-        <v>17304384</v>
-      </c>
-      <c r="J9">
+        <v>16974351</v>
+      </c>
+      <c r="I9">
+        <v>522060</v>
+      </c>
+      <c r="J9" t="str">
         <f>IF(P9&lt;&gt;"",P9*136+$B$2,IF(Q9&lt;&gt;"",Q9*136+$B$2,IF(S9&lt;&gt;"",S9*80+$B$4,"")))</f>
-        <v>524935</v>
+        <v/>
       </c>
       <c r="K9">
         <f>IF(I9&lt;&gt;"",I9,J9)</f>
-        <v>524935</v>
-      </c>
-      <c r="R9" t="s">
-        <v>113</v>
-      </c>
-      <c r="S9">
-        <v>7</v>
+        <v>522060</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
+        <v>130</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(K10&lt;&gt;"",FLOOR(K10-MIN(K:K),2),"")</f>
-        <v>2960</v>
+        <f>IF(K10&lt;&gt;"",FLOOR((K10-MIN(K:K))/2,1),"")</f>
+        <v>527</v>
       </c>
       <c r="F10" s="1">
         <f>IF(MOD(K10,2)=1,8+L10,L10)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G10" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F10*HEX2DEC(10000) +E10)</f>
-        <v>1080B90</v>
+        <v>104020F</v>
       </c>
       <c r="H10">
         <f>HEX2DEC(G10)</f>
-        <v>17304464</v>
-      </c>
-      <c r="J10">
+        <v>17039887</v>
+      </c>
+      <c r="I10">
+        <v>522060</v>
+      </c>
+      <c r="J10" t="str">
         <f>IF(P10&lt;&gt;"",P10*136+$B$2,IF(Q10&lt;&gt;"",Q10*136+$B$2,IF(S10&lt;&gt;"",S10*80+$B$4,"")))</f>
-        <v>525015</v>
+        <v/>
       </c>
       <c r="K10">
         <f>IF(I10&lt;&gt;"",I10,J10)</f>
-        <v>525015</v>
-      </c>
-      <c r="R10" t="s">
-        <v>113</v>
-      </c>
-      <c r="S10">
-        <v>8</v>
+        <v>522060</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
+        <v>131</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(K11&lt;&gt;"",FLOOR(K11-MIN(K:K),2),"")</f>
-        <v>2640</v>
+        <f>IF(K11&lt;&gt;"",FLOOR((K11-MIN(K:K))/2,1),"")</f>
+        <v>527</v>
       </c>
       <c r="F11" s="1">
         <f>IF(MOD(K11,2)=1,8+L11,L11)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G11" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F11*HEX2DEC(10000) +E11)</f>
-        <v>1080A50</v>
+        <v>105020F</v>
       </c>
       <c r="H11">
         <f>HEX2DEC(G11)</f>
-        <v>17304144</v>
-      </c>
-      <c r="J11">
+        <v>17105423</v>
+      </c>
+      <c r="I11">
+        <v>522060</v>
+      </c>
+      <c r="J11" t="str">
         <f>IF(P11&lt;&gt;"",P11*136+$B$2,IF(Q11&lt;&gt;"",Q11*136+$B$2,IF(S11&lt;&gt;"",S11*80+$B$4,"")))</f>
-        <v>524695</v>
+        <v/>
       </c>
       <c r="K11">
         <f>IF(I11&lt;&gt;"",I11,J11)</f>
-        <v>524695</v>
-      </c>
-      <c r="R11" t="s">
-        <v>113</v>
-      </c>
-      <c r="S11">
-        <v>4</v>
+        <v>522060</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -1253,12 +1259,12 @@
         <v>6</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>IF(K12&lt;&gt;"",FLOOR(K12-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F12" s="1">
+        <f>IF(K12&lt;&gt;"",FLOOR((K12-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="1" t="e">
         <f>IF(MOD(K12,2)=1,8+L12,L12)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G12" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F12*HEX2DEC(10000) +E12)</f>
@@ -1270,6 +1276,10 @@
       </c>
       <c r="J12" t="str">
         <f>IF(P12&lt;&gt;"",P12*136+$B$2,IF(Q12&lt;&gt;"",Q12*136+$B$2,IF(S12&lt;&gt;"",S12*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f>IF(I12&lt;&gt;"",I12,J12)</f>
         <v/>
       </c>
     </row>
@@ -1284,12 +1294,12 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IF(K13&lt;&gt;"",FLOOR(K13-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="1">
+        <f>IF(K13&lt;&gt;"",FLOOR((K13-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="1" t="e">
         <f>IF(MOD(K13,2)=1,8+L13,L13)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G13" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F13*HEX2DEC(10000) +E13)</f>
@@ -1301,6 +1311,10 @@
       </c>
       <c r="J13" t="str">
         <f>IF(P13&lt;&gt;"",P13*136+$B$2,IF(Q13&lt;&gt;"",Q13*136+$B$2,IF(S13&lt;&gt;"",S13*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f>IF(I13&lt;&gt;"",I13,J13)</f>
         <v/>
       </c>
     </row>
@@ -1315,12 +1329,12 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>IF(K14&lt;&gt;"",FLOOR(K14-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="1">
+        <f>IF(K14&lt;&gt;"",FLOOR((K14-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="1" t="e">
         <f>IF(MOD(K14,2)=1,8+L14,L14)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G14" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F14*HEX2DEC(10000) +E14)</f>
@@ -1334,181 +1348,176 @@
         <f>IF(P14&lt;&gt;"",P14*136+$B$2,IF(Q14&lt;&gt;"",Q14*136+$B$2,IF(S14&lt;&gt;"",S14*80+$B$4,"")))</f>
         <v/>
       </c>
+      <c r="K14" t="str">
+        <f>IF(I14&lt;&gt;"",I14,J14)</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
+        <v>132</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(K15&lt;&gt;"",FLOOR(K15-MIN(K:K),2),"")</f>
-        <v>150</v>
+        <f>IF(K15&lt;&gt;"",FLOOR((K15-MIN(K:K))/2,1),"")</f>
+        <v>527</v>
       </c>
       <c r="F15" s="1">
         <f>IF(MOD(K15,2)=1,8+L15,L15)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G15" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F15*HEX2DEC(10000) +E15)</f>
-        <v>1000096</v>
+        <v>106020F</v>
       </c>
       <c r="H15">
         <f>HEX2DEC(G15)</f>
-        <v>16777366</v>
-      </c>
-      <c r="J15">
+        <v>17170959</v>
+      </c>
+      <c r="I15">
+        <v>522060</v>
+      </c>
+      <c r="J15" t="str">
         <f>IF(P15&lt;&gt;"",P15*136+$B$2,IF(Q15&lt;&gt;"",Q15*136+$B$2,IF(S15&lt;&gt;"",S15*80+$B$4,"")))</f>
-        <v>522204</v>
+        <v/>
       </c>
       <c r="K15">
         <f>IF(I15&lt;&gt;"",I15,J15)</f>
-        <v>522204</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
+        <v>522060</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
+        <v>133</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(K16&lt;&gt;"",FLOOR(K16-MIN(K:K),2),"")</f>
-        <v>286</v>
+        <f>IF(K16&lt;&gt;"",FLOOR((K16-MIN(K:K))/2,1),"")</f>
+        <v>527</v>
       </c>
       <c r="F16" s="1">
         <f>IF(MOD(K16,2)=1,8+L16,L16)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G16" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F16*HEX2DEC(10000) +E16)</f>
-        <v>100011E</v>
+        <v>107020F</v>
       </c>
       <c r="H16">
         <f>HEX2DEC(G16)</f>
-        <v>16777502</v>
-      </c>
-      <c r="J16">
+        <v>17236495</v>
+      </c>
+      <c r="I16">
+        <v>522060</v>
+      </c>
+      <c r="J16" t="str">
         <f>IF(P16&lt;&gt;"",P16*136+$B$2,IF(Q16&lt;&gt;"",Q16*136+$B$2,IF(S16&lt;&gt;"",S16*80+$B$4,"")))</f>
-        <v>522340</v>
+        <v/>
       </c>
       <c r="K16">
         <f>IF(I16&lt;&gt;"",I16,J16)</f>
-        <v>522340</v>
-      </c>
-      <c r="O16" t="s">
-        <v>113</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>522060</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>11</v>
+        <v>134</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="E17" s="1">
-        <f>IF(K17&lt;&gt;"",FLOOR(K17-MIN(K:K),2),"")</f>
-        <v>286</v>
+        <f>IF(K17&lt;&gt;"",FLOOR((K17-MIN(K:K))/2,1),"")</f>
+        <v>527</v>
       </c>
       <c r="F17" s="1">
         <f>IF(MOD(K17,2)=1,8+L17,L17)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F17*HEX2DEC(10000) +E17)</f>
-        <v>100011E</v>
+        <v>108020F</v>
       </c>
       <c r="H17">
         <f>HEX2DEC(G17)</f>
-        <v>16777502</v>
-      </c>
-      <c r="J17">
+        <v>17302031</v>
+      </c>
+      <c r="I17">
+        <v>522061</v>
+      </c>
+      <c r="J17" t="str">
         <f>IF(P17&lt;&gt;"",P17*136+$B$2,IF(Q17&lt;&gt;"",Q17*136+$B$2,IF(S17&lt;&gt;"",S17*80+$B$4,"")))</f>
-        <v>522340</v>
+        <v/>
       </c>
       <c r="K17">
         <f>IF(I17&lt;&gt;"",I17,J17)</f>
-        <v>522340</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>522061</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
+        <v>135</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="E18" s="1">
-        <f>IF(K18&lt;&gt;"",FLOOR(K18-MIN(K:K),2),"")</f>
-        <v>422</v>
+        <f>IF(K18&lt;&gt;"",FLOOR((K18-MIN(K:K))/2,1),"")</f>
+        <v>527</v>
       </c>
       <c r="F18" s="1">
         <f>IF(MOD(K18,2)=1,8+L18,L18)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G18" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F18*HEX2DEC(10000) +E18)</f>
-        <v>10001A6</v>
+        <v>109020F</v>
       </c>
       <c r="H18">
         <f>HEX2DEC(G18)</f>
-        <v>16777638</v>
-      </c>
-      <c r="J18">
+        <v>17367567</v>
+      </c>
+      <c r="I18">
+        <v>522061</v>
+      </c>
+      <c r="J18" t="str">
         <f>IF(P18&lt;&gt;"",P18*136+$B$2,IF(Q18&lt;&gt;"",Q18*136+$B$2,IF(S18&lt;&gt;"",S18*80+$B$4,"")))</f>
-        <v>522476</v>
+        <v/>
       </c>
       <c r="K18">
         <f>IF(I18&lt;&gt;"",I18,J18)</f>
-        <v>522476</v>
-      </c>
-      <c r="O18" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>522061</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -1519,12 +1528,12 @@
         <v>13</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>IF(K19&lt;&gt;"",FLOOR(K19-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F19" s="1">
+        <f>IF(K19&lt;&gt;"",FLOOR((K19-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="1" t="e">
         <f>IF(MOD(K19,2)=1,8+L19,L19)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G19" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F19*HEX2DEC(10000) +E19)</f>
@@ -1538,82 +1547,80 @@
         <f>IF(P19&lt;&gt;"",P19*136+$B$2,IF(Q19&lt;&gt;"",Q19*136+$B$2,IF(S19&lt;&gt;"",S19*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K19" t="str">
+        <f>IF(I19&lt;&gt;"",I19,J19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>14</v>
+        <v>136</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="E20" s="1">
-        <f>IF(K20&lt;&gt;"",FLOOR(K20-MIN(K:K),2),"")</f>
-        <v>2480</v>
+        <f>IF(K20&lt;&gt;"",FLOOR((K20-MIN(K:K))/2,1),"")</f>
+        <v>527</v>
       </c>
       <c r="F20" s="1">
         <f>IF(MOD(K20,2)=1,8+L20,L20)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G20" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F20*HEX2DEC(10000) +E20)</f>
-        <v>10809B0</v>
+        <v>10A020F</v>
       </c>
       <c r="H20">
         <f>HEX2DEC(G20)</f>
-        <v>17303984</v>
-      </c>
-      <c r="J20">
+        <v>17433103</v>
+      </c>
+      <c r="I20">
+        <v>522061</v>
+      </c>
+      <c r="J20" t="str">
         <f>IF(P20&lt;&gt;"",P20*136+$B$2,IF(Q20&lt;&gt;"",Q20*136+$B$2,IF(S20&lt;&gt;"",S20*80+$B$4,"")))</f>
-        <v>524535</v>
+        <v/>
       </c>
       <c r="K20">
         <f>IF(I20&lt;&gt;"",I20,J20)</f>
-        <v>524535</v>
-      </c>
-      <c r="R20" t="s">
-        <v>113</v>
-      </c>
-      <c r="S20">
+        <v>522061</v>
+      </c>
+      <c r="L20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>15</v>
+        <v>137</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="E21" s="1">
-        <f>IF(K21&lt;&gt;"",FLOOR(K21-MIN(K:K),2),"")</f>
-        <v>457502</v>
+        <f>IF(K21&lt;&gt;"",FLOOR((K21-MIN(K:K))/2,1),"")</f>
+        <v>527</v>
       </c>
       <c r="F21" s="1">
         <f>IF(MOD(K21,2)=1,8+L21,L21)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G21" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F21*HEX2DEC(10000) +E21)</f>
-        <v>106FB1E</v>
+        <v>10B020F</v>
       </c>
       <c r="H21">
         <f>HEX2DEC(G21)</f>
-        <v>17234718</v>
+        <v>17498639</v>
       </c>
       <c r="I21">
-        <v>979556</v>
+        <v>522061</v>
       </c>
       <c r="J21" t="str">
         <f>IF(P21&lt;&gt;"",P21*136+$B$2,IF(Q21&lt;&gt;"",Q21*136+$B$2,IF(S21&lt;&gt;"",S21*80+$B$4,"")))</f>
@@ -1621,13 +1628,13 @@
       </c>
       <c r="K21">
         <f>IF(I21&lt;&gt;"",I21,J21)</f>
-        <v>979556</v>
+        <v>522061</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -1638,12 +1645,12 @@
         <v>16</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>IF(K22&lt;&gt;"",FLOOR(K22-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F22" s="1">
+        <f>IF(K22&lt;&gt;"",FLOOR((K22-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="1" t="e">
         <f>IF(MOD(K22,2)=1,8+L22,L22)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G22" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F22*HEX2DEC(10000) +E22)</f>
@@ -1657,628 +1664,628 @@
         <f>IF(P22&lt;&gt;"",P22*136+$B$2,IF(Q22&lt;&gt;"",Q22*136+$B$2,IF(S22&lt;&gt;"",S22*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K22" t="str">
+        <f>IF(I22&lt;&gt;"",I22,J22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>16</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="E23" s="1">
-        <f>IF(K23&lt;&gt;"",FLOOR(K23-MIN(K:K),2),"")</f>
-        <v>1102</v>
+        <f>IF(K23&lt;&gt;"",FLOOR((K23-MIN(K:K))/2,1),"")</f>
+        <v>527</v>
       </c>
       <c r="F23" s="1">
         <f>IF(MOD(K23,2)=1,8+L23,L23)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G23" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F23*HEX2DEC(10000) +E23)</f>
-        <v>100044E</v>
+        <v>10C020F</v>
       </c>
       <c r="H23">
         <f>HEX2DEC(G23)</f>
-        <v>16778318</v>
-      </c>
-      <c r="J23">
+        <v>17564175</v>
+      </c>
+      <c r="I23">
+        <v>522061</v>
+      </c>
+      <c r="J23" t="str">
         <f>IF(P23&lt;&gt;"",P23*136+$B$2,IF(Q23&lt;&gt;"",Q23*136+$B$2,IF(S23&lt;&gt;"",S23*80+$B$4,"")))</f>
-        <v>523156</v>
+        <v/>
       </c>
       <c r="K23">
         <f>IF(I23&lt;&gt;"",I23,J23)</f>
-        <v>523156</v>
-      </c>
-      <c r="O23" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>522061</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>17</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
+        <v>139</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="E24" s="1">
-        <f>IF(K24&lt;&gt;"",FLOOR(K24-MIN(K:K),2),"")</f>
-        <v>1238</v>
+        <f>IF(K24&lt;&gt;"",FLOOR((K24-MIN(K:K))/2,1),"")</f>
+        <v>527</v>
       </c>
       <c r="F24" s="1">
         <f>IF(MOD(K24,2)=1,8+L24,L24)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G24" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F24*HEX2DEC(10000) +E24)</f>
-        <v>10004D6</v>
+        <v>10D020F</v>
       </c>
       <c r="H24">
         <f>HEX2DEC(G24)</f>
-        <v>16778454</v>
-      </c>
-      <c r="J24">
+        <v>17629711</v>
+      </c>
+      <c r="I24">
+        <v>522061</v>
+      </c>
+      <c r="J24" t="str">
         <f>IF(P24&lt;&gt;"",P24*136+$B$2,IF(Q24&lt;&gt;"",Q24*136+$B$2,IF(S24&lt;&gt;"",S24*80+$B$4,"")))</f>
-        <v>523292</v>
+        <v/>
       </c>
       <c r="K24">
         <f>IF(I24&lt;&gt;"",I24,J24)</f>
-        <v>523292</v>
-      </c>
-      <c r="O24" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>522061</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E25" s="1">
-        <f>IF(K25&lt;&gt;"",FLOOR(K25-MIN(K:K),2),"")</f>
-        <v>1374</v>
+        <f>IF(K25&lt;&gt;"",FLOOR((K25-MIN(K:K))/2,1),"")</f>
+        <v>593</v>
       </c>
       <c r="F25" s="1">
         <f>IF(MOD(K25,2)=1,8+L25,L25)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F25*HEX2DEC(10000) +E25)</f>
-        <v>100055E</v>
+        <v>1040251</v>
       </c>
       <c r="H25">
         <f>HEX2DEC(G25)</f>
-        <v>16778590</v>
-      </c>
-      <c r="J25">
+        <v>17039953</v>
+      </c>
+      <c r="I25">
+        <v>522192</v>
+      </c>
+      <c r="J25" t="str">
         <f>IF(P25&lt;&gt;"",P25*136+$B$2,IF(Q25&lt;&gt;"",Q25*136+$B$2,IF(S25&lt;&gt;"",S25*80+$B$4,"")))</f>
-        <v>523428</v>
+        <v/>
       </c>
       <c r="K25">
         <f>IF(I25&lt;&gt;"",I25,J25)</f>
-        <v>523428</v>
-      </c>
-      <c r="O25" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>522192</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1">
-        <f>IF(K26&lt;&gt;"",FLOOR(K26-MIN(K:K),2),"")</f>
-        <v>1510</v>
+        <f>IF(K26&lt;&gt;"",FLOOR((K26-MIN(K:K))/2,1),"")</f>
+        <v>593</v>
       </c>
       <c r="F26" s="1">
         <f>IF(MOD(K26,2)=1,8+L26,L26)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G26" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F26*HEX2DEC(10000) +E26)</f>
-        <v>10005E6</v>
+        <v>1050251</v>
       </c>
       <c r="H26">
         <f>HEX2DEC(G26)</f>
-        <v>16778726</v>
-      </c>
-      <c r="J26">
+        <v>17105489</v>
+      </c>
+      <c r="I26">
+        <v>522192</v>
+      </c>
+      <c r="J26" t="str">
         <f>IF(P26&lt;&gt;"",P26*136+$B$2,IF(Q26&lt;&gt;"",Q26*136+$B$2,IF(S26&lt;&gt;"",S26*80+$B$4,"")))</f>
-        <v>523564</v>
+        <v/>
       </c>
       <c r="K26">
         <f>IF(I26&lt;&gt;"",I26,J26)</f>
-        <v>523564</v>
-      </c>
-      <c r="O26" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>522192</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E27" s="1">
-        <f>IF(K27&lt;&gt;"",FLOOR(K27-MIN(K:K),2),"")</f>
-        <v>1646</v>
+        <f>IF(K27&lt;&gt;"",FLOOR((K27-MIN(K:K))/2,1),"")</f>
+        <v>593</v>
       </c>
       <c r="F27" s="1">
         <f>IF(MOD(K27,2)=1,8+L27,L27)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G27" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F27*HEX2DEC(10000) +E27)</f>
-        <v>100066E</v>
+        <v>1060251</v>
       </c>
       <c r="H27">
         <f>HEX2DEC(G27)</f>
-        <v>16778862</v>
-      </c>
-      <c r="J27">
+        <v>17171025</v>
+      </c>
+      <c r="I27">
+        <v>522192</v>
+      </c>
+      <c r="J27" t="str">
         <f>IF(P27&lt;&gt;"",P27*136+$B$2,IF(Q27&lt;&gt;"",Q27*136+$B$2,IF(S27&lt;&gt;"",S27*80+$B$4,"")))</f>
-        <v>523700</v>
+        <v/>
       </c>
       <c r="K27">
         <f>IF(I27&lt;&gt;"",I27,J27)</f>
-        <v>523700</v>
-      </c>
-      <c r="O27" t="s">
-        <v>113</v>
-      </c>
-      <c r="P27">
-        <v>11</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <v>522192</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E28" s="1">
-        <f>IF(K28&lt;&gt;"",FLOOR(K28-MIN(K:K),2),"")</f>
-        <v>1646</v>
+        <f>IF(K28&lt;&gt;"",FLOOR((K28-MIN(K:K))/2,1),"")</f>
+        <v>593</v>
       </c>
       <c r="F28" s="1">
         <f>IF(MOD(K28,2)=1,8+L28,L28)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G28" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F28*HEX2DEC(10000) +E28)</f>
-        <v>100066E</v>
+        <v>1070251</v>
       </c>
       <c r="H28">
         <f>HEX2DEC(G28)</f>
-        <v>16778862</v>
-      </c>
-      <c r="J28">
+        <v>17236561</v>
+      </c>
+      <c r="I28">
+        <v>522192</v>
+      </c>
+      <c r="J28" t="str">
         <f>IF(P28&lt;&gt;"",P28*136+$B$2,IF(Q28&lt;&gt;"",Q28*136+$B$2,IF(S28&lt;&gt;"",S28*80+$B$4,"")))</f>
-        <v>523700</v>
+        <v/>
       </c>
       <c r="K28">
         <f>IF(I28&lt;&gt;"",I28,J28)</f>
-        <v>523700</v>
-      </c>
-      <c r="O28" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>522192</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E29" s="1">
-        <f>IF(K29&lt;&gt;"",FLOOR(K29-MIN(K:K),2),"")</f>
-        <v>2054</v>
+        <f>IF(K29&lt;&gt;"",FLOOR((K29-MIN(K:K))/2,1),"")</f>
+        <v>593</v>
       </c>
       <c r="F29" s="1">
         <f>IF(MOD(K29,2)=1,8+L29,L29)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G29" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F29*HEX2DEC(10000) +E29)</f>
-        <v>1000806</v>
+        <v>1080251</v>
       </c>
       <c r="H29">
         <f>HEX2DEC(G29)</f>
-        <v>16779270</v>
-      </c>
-      <c r="J29">
+        <v>17302097</v>
+      </c>
+      <c r="I29">
+        <v>522193</v>
+      </c>
+      <c r="J29" t="str">
         <f>IF(P29&lt;&gt;"",P29*136+$B$2,IF(Q29&lt;&gt;"",Q29*136+$B$2,IF(S29&lt;&gt;"",S29*80+$B$4,"")))</f>
-        <v>524108</v>
+        <v/>
       </c>
       <c r="K29">
         <f>IF(I29&lt;&gt;"",I29,J29)</f>
-        <v>524108</v>
-      </c>
-      <c r="O29" t="s">
-        <v>113</v>
-      </c>
-      <c r="P29">
-        <v>14</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>522193</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E30" s="1">
-        <f>IF(K30&lt;&gt;"",FLOOR(K30-MIN(K:K),2),"")</f>
-        <v>2054</v>
+        <f>IF(K30&lt;&gt;"",FLOOR((K30-MIN(K:K))/2,1),"")</f>
+        <v>593</v>
       </c>
       <c r="F30" s="1">
         <f>IF(MOD(K30,2)=1,8+L30,L30)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G30" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F30*HEX2DEC(10000) +E30)</f>
-        <v>1000806</v>
+        <v>1090251</v>
       </c>
       <c r="H30">
         <f>HEX2DEC(G30)</f>
-        <v>16779270</v>
-      </c>
-      <c r="J30">
+        <v>17367633</v>
+      </c>
+      <c r="I30">
+        <v>522193</v>
+      </c>
+      <c r="J30" t="str">
         <f>IF(P30&lt;&gt;"",P30*136+$B$2,IF(Q30&lt;&gt;"",Q30*136+$B$2,IF(S30&lt;&gt;"",S30*80+$B$4,"")))</f>
-        <v>524108</v>
+        <v/>
       </c>
       <c r="K30">
         <f>IF(I30&lt;&gt;"",I30,J30)</f>
-        <v>524108</v>
-      </c>
-      <c r="O30" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q30">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>522193</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>24</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C31">
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E31" s="1">
-        <f>IF(K31&lt;&gt;"",FLOOR(K31-MIN(K:K),2),"")</f>
-        <v>0</v>
+        <f>IF(K31&lt;&gt;"",FLOOR((K31-MIN(K:K))/2,1),"")</f>
+        <v>607</v>
       </c>
       <c r="F31" s="1">
         <f>IF(MOD(K31,2)=1,8+L31,L31)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G31" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F31*HEX2DEC(10000) +E31)</f>
-        <v>1040000</v>
+        <v>100025F</v>
       </c>
       <c r="H31">
         <f>HEX2DEC(G31)</f>
-        <v>17039360</v>
-      </c>
-      <c r="I31">
-        <v>522054</v>
-      </c>
-      <c r="J31" t="str">
+        <v>16777823</v>
+      </c>
+      <c r="J31">
         <f>IF(P31&lt;&gt;"",P31*136+$B$2,IF(Q31&lt;&gt;"",Q31*136+$B$2,IF(S31&lt;&gt;"",S31*80+$B$4,"")))</f>
-        <v/>
+        <v>522220</v>
       </c>
       <c r="K31">
         <f>IF(I31&lt;&gt;"",I31,J31)</f>
-        <v>522054</v>
-      </c>
-      <c r="L31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>522220</v>
+      </c>
+      <c r="O31" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>25</v>
-      </c>
-      <c r="B32" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C32">
         <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E32" s="1">
-        <f>IF(K32&lt;&gt;"",FLOOR(K32-MIN(K:K),2),"")</f>
-        <v>0</v>
+        <f>IF(K32&lt;&gt;"",FLOOR((K32-MIN(K:K))/2,1),"")</f>
+        <v>675</v>
       </c>
       <c r="F32" s="1">
         <f>IF(MOD(K32,2)=1,8+L32,L32)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G32" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F32*HEX2DEC(10000) +E32)</f>
-        <v>1050000</v>
+        <v>10002A3</v>
       </c>
       <c r="H32">
         <f>HEX2DEC(G32)</f>
-        <v>17104896</v>
-      </c>
-      <c r="I32">
-        <v>522054</v>
-      </c>
-      <c r="J32" t="str">
+        <v>16777891</v>
+      </c>
+      <c r="J32">
         <f>IF(P32&lt;&gt;"",P32*136+$B$2,IF(Q32&lt;&gt;"",Q32*136+$B$2,IF(S32&lt;&gt;"",S32*80+$B$4,"")))</f>
-        <v/>
+        <v>522356</v>
       </c>
       <c r="K32">
         <f>IF(I32&lt;&gt;"",I32,J32)</f>
-        <v>522054</v>
-      </c>
-      <c r="L32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>522356</v>
+      </c>
+      <c r="O32" t="s">
+        <v>113</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>26</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C33">
         <v>11</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1">
-        <f>IF(K33&lt;&gt;"",FLOOR(K33-MIN(K:K),2),"")</f>
-        <v>0</v>
+        <f>IF(K33&lt;&gt;"",FLOOR((K33-MIN(K:K))/2,1),"")</f>
+        <v>675</v>
       </c>
       <c r="F33" s="1">
         <f>IF(MOD(K33,2)=1,8+L33,L33)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G33" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F33*HEX2DEC(10000) +E33)</f>
-        <v>1060000</v>
+        <v>10002A3</v>
       </c>
       <c r="H33">
         <f>HEX2DEC(G33)</f>
-        <v>17170432</v>
-      </c>
-      <c r="I33">
-        <v>522054</v>
-      </c>
-      <c r="J33" t="str">
+        <v>16777891</v>
+      </c>
+      <c r="J33">
         <f>IF(P33&lt;&gt;"",P33*136+$B$2,IF(Q33&lt;&gt;"",Q33*136+$B$2,IF(S33&lt;&gt;"",S33*80+$B$4,"")))</f>
-        <v/>
+        <v>522356</v>
       </c>
       <c r="K33">
         <f>IF(I33&lt;&gt;"",I33,J33)</f>
-        <v>522054</v>
-      </c>
-      <c r="L33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <v>522356</v>
+      </c>
+      <c r="O33" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>27</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C34">
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E34" s="1">
-        <f>IF(K34&lt;&gt;"",FLOOR(K34-MIN(K:K),2),"")</f>
-        <v>0</v>
+        <f>IF(K34&lt;&gt;"",FLOOR((K34-MIN(K:K))/2,1),"")</f>
+        <v>743</v>
       </c>
       <c r="F34" s="1">
         <f>IF(MOD(K34,2)=1,8+L34,L34)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G34" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F34*HEX2DEC(10000) +E34)</f>
-        <v>1070000</v>
+        <v>10002E7</v>
       </c>
       <c r="H34">
         <f>HEX2DEC(G34)</f>
-        <v>17235968</v>
-      </c>
-      <c r="I34">
-        <v>522054</v>
-      </c>
-      <c r="J34" t="str">
+        <v>16777959</v>
+      </c>
+      <c r="J34">
         <f>IF(P34&lt;&gt;"",P34*136+$B$2,IF(Q34&lt;&gt;"",Q34*136+$B$2,IF(S34&lt;&gt;"",S34*80+$B$4,"")))</f>
-        <v/>
+        <v>522492</v>
       </c>
       <c r="K34">
         <f>IF(I34&lt;&gt;"",I34,J34)</f>
-        <v>522054</v>
-      </c>
-      <c r="L34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+        <v>522492</v>
+      </c>
+      <c r="O34" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>28</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>9</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1">
-        <f>IF(K35&lt;&gt;"",FLOOR(K35-MIN(K:K),2),"")</f>
-        <v>0</v>
+        <f>IF(K35&lt;&gt;"",FLOOR((K35-MIN(K:K))/2,1),"")</f>
+        <v>811</v>
       </c>
       <c r="F35" s="1">
         <f>IF(MOD(K35,2)=1,8+L35,L35)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G35" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F35*HEX2DEC(10000) +E35)</f>
-        <v>1080000</v>
+        <v>100032B</v>
       </c>
       <c r="H35">
         <f>HEX2DEC(G35)</f>
-        <v>17301504</v>
-      </c>
-      <c r="I35">
-        <v>522054</v>
-      </c>
-      <c r="J35" t="str">
+        <v>16778027</v>
+      </c>
+      <c r="J35">
         <f>IF(P35&lt;&gt;"",P35*136+$B$2,IF(Q35&lt;&gt;"",Q35*136+$B$2,IF(S35&lt;&gt;"",S35*80+$B$4,"")))</f>
-        <v/>
+        <v>522628</v>
       </c>
       <c r="K35">
-        <v>522055</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+        <f>IF(I35&lt;&gt;"",I35,J35)</f>
+        <v>522628</v>
+      </c>
+      <c r="O35" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>29</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>9</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1">
-        <f>IF(K36&lt;&gt;"",FLOOR(K36-MIN(K:K),2),"")</f>
-        <v>0</v>
+        <f>IF(K36&lt;&gt;"",FLOOR((K36-MIN(K:K))/2,1),"")</f>
+        <v>879</v>
       </c>
       <c r="F36" s="1">
         <f>IF(MOD(K36,2)=1,8+L36,L36)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G36" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F36*HEX2DEC(10000) +E36)</f>
-        <v>1090000</v>
+        <v>100036F</v>
       </c>
       <c r="H36">
         <f>HEX2DEC(G36)</f>
-        <v>17367040</v>
-      </c>
-      <c r="I36">
-        <v>522054</v>
-      </c>
-      <c r="J36" t="str">
+        <v>16778095</v>
+      </c>
+      <c r="J36">
         <f>IF(P36&lt;&gt;"",P36*136+$B$2,IF(Q36&lt;&gt;"",Q36*136+$B$2,IF(S36&lt;&gt;"",S36*80+$B$4,"")))</f>
-        <v/>
+        <v>522764</v>
       </c>
       <c r="K36">
-        <v>522055</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f>IF(I36&lt;&gt;"",I36,J36)</f>
+        <v>522764</v>
+      </c>
+      <c r="O36" t="s">
+        <v>113</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>30</v>
       </c>
@@ -2289,12 +2296,12 @@
         <v>15</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>IF(K37&lt;&gt;"",FLOOR(K37-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F37" s="1">
+        <f>IF(K37&lt;&gt;"",FLOOR((K37-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F37" s="1" t="e">
         <f>IF(MOD(K37,2)=1,8+L37,L37)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G37" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F37*HEX2DEC(10000) +E37)</f>
@@ -2308,70 +2315,71 @@
         <f>IF(P37&lt;&gt;"",P37*136+$B$2,IF(Q37&lt;&gt;"",Q37*136+$B$2,IF(S37&lt;&gt;"",S37*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K37" t="str">
+        <f>IF(I37&lt;&gt;"",I37,J37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>31</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E38" s="1">
-        <f>IF(K38&lt;&gt;"",FLOOR(K38-MIN(K:K),2),"")</f>
-        <v>2560</v>
+        <f>IF(K38&lt;&gt;"",FLOOR((K38-MIN(K:K))/2,1),"")</f>
+        <v>879</v>
       </c>
       <c r="F38" s="1">
         <f>IF(MOD(K38,2)=1,8+L38,L38)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G38" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F38*HEX2DEC(10000) +E38)</f>
-        <v>1080A00</v>
+        <v>100036F</v>
       </c>
       <c r="H38">
         <f>HEX2DEC(G38)</f>
-        <v>17304064</v>
+        <v>16778095</v>
       </c>
       <c r="J38">
         <f>IF(P38&lt;&gt;"",P38*136+$B$2,IF(Q38&lt;&gt;"",Q38*136+$B$2,IF(S38&lt;&gt;"",S38*80+$B$4,"")))</f>
-        <v>524615</v>
+        <v>522764</v>
       </c>
       <c r="K38">
         <f>IF(I38&lt;&gt;"",I38,J38)</f>
-        <v>524615</v>
-      </c>
-      <c r="N38" t="s">
-        <v>41</v>
-      </c>
-      <c r="R38" t="s">
+        <v>522764</v>
+      </c>
+      <c r="O38" t="s">
         <v>113</v>
       </c>
-      <c r="S38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>32</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E39" s="1">
-        <f>IF(K39&lt;&gt;"",FLOOR(K39-MIN(K:K),2),"")</f>
-        <v>2190</v>
+        <f>IF(K39&lt;&gt;"",FLOOR((K39-MIN(K:K))/2,1),"")</f>
+        <v>947</v>
       </c>
       <c r="F39" s="1">
         <f>IF(MOD(K39,2)=1,8+L39,L39)</f>
@@ -2379,46 +2387,46 @@
       </c>
       <c r="G39" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F39*HEX2DEC(10000) +E39)</f>
-        <v>100088E</v>
+        <v>10003B3</v>
       </c>
       <c r="H39">
         <f>HEX2DEC(G39)</f>
-        <v>16779406</v>
+        <v>16778163</v>
       </c>
       <c r="J39">
         <f>IF(P39&lt;&gt;"",P39*136+$B$2,IF(Q39&lt;&gt;"",Q39*136+$B$2,IF(S39&lt;&gt;"",S39*80+$B$4,"")))</f>
-        <v>524244</v>
+        <v>522900</v>
       </c>
       <c r="K39">
         <f>IF(I39&lt;&gt;"",I39,J39)</f>
-        <v>524244</v>
+        <v>522900</v>
       </c>
       <c r="O39" t="s">
         <v>113</v>
       </c>
       <c r="P39">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>33</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>10</v>
+        <v>61</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E40" s="1">
-        <f>IF(K40&lt;&gt;"",FLOOR(K40-MIN(K:K),2),"")</f>
-        <v>2190</v>
+        <f>IF(K40&lt;&gt;"",FLOOR((K40-MIN(K:K))/2,1),"")</f>
+        <v>947</v>
       </c>
       <c r="F40" s="1">
         <f>IF(MOD(K40,2)=1,8+L40,L40)</f>
@@ -2426,28 +2434,28 @@
       </c>
       <c r="G40" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F40*HEX2DEC(10000) +E40)</f>
-        <v>100088E</v>
+        <v>10003B3</v>
       </c>
       <c r="H40">
         <f>HEX2DEC(G40)</f>
-        <v>16779406</v>
+        <v>16778163</v>
       </c>
       <c r="J40">
         <f>IF(P40&lt;&gt;"",P40*136+$B$2,IF(Q40&lt;&gt;"",Q40*136+$B$2,IF(S40&lt;&gt;"",S40*80+$B$4,"")))</f>
-        <v>524244</v>
+        <v>522900</v>
       </c>
       <c r="K40">
         <f>IF(I40&lt;&gt;"",I40,J40)</f>
-        <v>524244</v>
+        <v>522900</v>
       </c>
       <c r="O40" t="s">
         <v>113</v>
       </c>
       <c r="Q40">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>34</v>
       </c>
@@ -2458,12 +2466,12 @@
         <v>3</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>IF(K41&lt;&gt;"",FLOOR(K41-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F41" s="1">
+        <f>IF(K41&lt;&gt;"",FLOOR((K41-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F41" s="1" t="e">
         <f>IF(MOD(K41,2)=1,8+L41,L41)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G41" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F41*HEX2DEC(10000) +E41)</f>
@@ -2477,8 +2485,12 @@
         <f>IF(P41&lt;&gt;"",P41*136+$B$2,IF(Q41&lt;&gt;"",Q41*136+$B$2,IF(S41&lt;&gt;"",S41*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K41" t="str">
+        <f>IF(I41&lt;&gt;"",I41,J41)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>35</v>
       </c>
@@ -2489,12 +2501,12 @@
         <v>4</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>IF(K42&lt;&gt;"",FLOOR(K42-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F42" s="1">
+        <f>IF(K42&lt;&gt;"",FLOOR((K42-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F42" s="1" t="e">
         <f>IF(MOD(K42,2)=1,8+L42,L42)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G42" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F42*HEX2DEC(10000) +E42)</f>
@@ -2508,8 +2520,12 @@
         <f>IF(P42&lt;&gt;"",P42*136+$B$2,IF(Q42&lt;&gt;"",Q42*136+$B$2,IF(S42&lt;&gt;"",S42*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K42" t="str">
+        <f>IF(I42&lt;&gt;"",I42,J42)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>36</v>
       </c>
@@ -2520,12 +2536,12 @@
         <v>5</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>IF(K43&lt;&gt;"",FLOOR(K43-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F43" s="1">
+        <f>IF(K43&lt;&gt;"",FLOOR((K43-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F43" s="1" t="e">
         <f>IF(MOD(K43,2)=1,8+L43,L43)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G43" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F43*HEX2DEC(10000) +E43)</f>
@@ -2539,8 +2555,12 @@
         <f>IF(P43&lt;&gt;"",P43*136+$B$2,IF(Q43&lt;&gt;"",Q43*136+$B$2,IF(S43&lt;&gt;"",S43*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K43" t="str">
+        <f>IF(I43&lt;&gt;"",I43,J43)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>37</v>
       </c>
@@ -2551,12 +2571,12 @@
         <v>6</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>IF(K44&lt;&gt;"",FLOOR(K44-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F44" s="1">
+        <f>IF(K44&lt;&gt;"",FLOOR((K44-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F44" s="1" t="e">
         <f>IF(MOD(K44,2)=1,8+L44,L44)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G44" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F44*HEX2DEC(10000) +E44)</f>
@@ -2570,8 +2590,12 @@
         <f>IF(P44&lt;&gt;"",P44*136+$B$2,IF(Q44&lt;&gt;"",Q44*136+$B$2,IF(S44&lt;&gt;"",S44*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K44" t="str">
+        <f>IF(I44&lt;&gt;"",I44,J44)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>38</v>
       </c>
@@ -2582,12 +2606,12 @@
         <v>7</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>IF(K45&lt;&gt;"",FLOOR(K45-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F45" s="1">
+        <f>IF(K45&lt;&gt;"",FLOOR((K45-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F45" s="1" t="e">
         <f>IF(MOD(K45,2)=1,8+L45,L45)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G45" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F45*HEX2DEC(10000) +E45)</f>
@@ -2601,8 +2625,12 @@
         <f>IF(P45&lt;&gt;"",P45*136+$B$2,IF(Q45&lt;&gt;"",Q45*136+$B$2,IF(S45&lt;&gt;"",S45*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K45" t="str">
+        <f>IF(I45&lt;&gt;"",I45,J45)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>39</v>
       </c>
@@ -2613,12 +2641,12 @@
         <v>8</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>IF(K46&lt;&gt;"",FLOOR(K46-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F46" s="1">
+        <f>IF(K46&lt;&gt;"",FLOOR((K46-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F46" s="1" t="e">
         <f>IF(MOD(K46,2)=1,8+L46,L46)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G46" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F46*HEX2DEC(10000) +E46)</f>
@@ -2632,8 +2660,12 @@
         <f>IF(P46&lt;&gt;"",P46*136+$B$2,IF(Q46&lt;&gt;"",Q46*136+$B$2,IF(S46&lt;&gt;"",S46*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K46" t="str">
+        <f>IF(I46&lt;&gt;"",I46,J46)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>40</v>
       </c>
@@ -2644,12 +2676,12 @@
         <v>9</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>IF(K47&lt;&gt;"",FLOOR(K47-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F47" s="1">
+        <f>IF(K47&lt;&gt;"",FLOOR((K47-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F47" s="1" t="e">
         <f>IF(MOD(K47,2)=1,8+L47,L47)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G47" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F47*HEX2DEC(10000) +E47)</f>
@@ -2663,8 +2695,12 @@
         <f>IF(P47&lt;&gt;"",P47*136+$B$2,IF(Q47&lt;&gt;"",Q47*136+$B$2,IF(S47&lt;&gt;"",S47*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K47" t="str">
+        <f>IF(I47&lt;&gt;"",I47,J47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>41</v>
       </c>
@@ -2675,12 +2711,12 @@
         <v>10</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f>IF(K48&lt;&gt;"",FLOOR(K48-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F48" s="1">
+        <f>IF(K48&lt;&gt;"",FLOOR((K48-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F48" s="1" t="e">
         <f>IF(MOD(K48,2)=1,8+L48,L48)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G48" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F48*HEX2DEC(10000) +E48)</f>
@@ -2694,8 +2730,12 @@
         <f>IF(P48&lt;&gt;"",P48*136+$B$2,IF(Q48&lt;&gt;"",Q48*136+$B$2,IF(S48&lt;&gt;"",S48*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K48" t="str">
+        <f>IF(I48&lt;&gt;"",I48,J48)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>42</v>
       </c>
@@ -2706,12 +2746,12 @@
         <v>11</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>IF(K49&lt;&gt;"",FLOOR(K49-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F49" s="1">
+        <f>IF(K49&lt;&gt;"",FLOOR((K49-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F49" s="1" t="e">
         <f>IF(MOD(K49,2)=1,8+L49,L49)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G49" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F49*HEX2DEC(10000) +E49)</f>
@@ -2725,8 +2765,12 @@
         <f>IF(P49&lt;&gt;"",P49*136+$B$2,IF(Q49&lt;&gt;"",Q49*136+$B$2,IF(S49&lt;&gt;"",S49*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K49" t="str">
+        <f>IF(I49&lt;&gt;"",I49,J49)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>43</v>
       </c>
@@ -2737,12 +2781,12 @@
         <v>12</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f>IF(K50&lt;&gt;"",FLOOR(K50-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F50" s="1">
+        <f>IF(K50&lt;&gt;"",FLOOR((K50-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F50" s="1" t="e">
         <f>IF(MOD(K50,2)=1,8+L50,L50)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G50" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F50*HEX2DEC(10000) +E50)</f>
@@ -2756,8 +2800,12 @@
         <f>IF(P50&lt;&gt;"",P50*136+$B$2,IF(Q50&lt;&gt;"",Q50*136+$B$2,IF(S50&lt;&gt;"",S50*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K50" t="str">
+        <f>IF(I50&lt;&gt;"",I50,J50)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>44</v>
       </c>
@@ -2768,12 +2816,12 @@
         <v>13</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f>IF(K51&lt;&gt;"",FLOOR(K51-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F51" s="1">
+        <f>IF(K51&lt;&gt;"",FLOOR((K51-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F51" s="1" t="e">
         <f>IF(MOD(K51,2)=1,8+L51,L51)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G51" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F51*HEX2DEC(10000) +E51)</f>
@@ -2787,8 +2835,12 @@
         <f>IF(P51&lt;&gt;"",P51*136+$B$2,IF(Q51&lt;&gt;"",Q51*136+$B$2,IF(S51&lt;&gt;"",S51*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K51" t="str">
+        <f>IF(I51&lt;&gt;"",I51,J51)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>45</v>
       </c>
@@ -2799,12 +2851,12 @@
         <v>14</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f>IF(K52&lt;&gt;"",FLOOR(K52-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F52" s="1">
+        <f>IF(K52&lt;&gt;"",FLOOR((K52-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F52" s="1" t="e">
         <f>IF(MOD(K52,2)=1,8+L52,L52)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G52" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F52*HEX2DEC(10000) +E52)</f>
@@ -2818,8 +2870,12 @@
         <f>IF(P52&lt;&gt;"",P52*136+$B$2,IF(Q52&lt;&gt;"",Q52*136+$B$2,IF(S52&lt;&gt;"",S52*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K52" t="str">
+        <f>IF(I52&lt;&gt;"",I52,J52)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>46</v>
       </c>
@@ -2830,12 +2886,12 @@
         <v>15</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f>IF(K53&lt;&gt;"",FLOOR(K53-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F53" s="1">
+        <f>IF(K53&lt;&gt;"",FLOOR((K53-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F53" s="1" t="e">
         <f>IF(MOD(K53,2)=1,8+L53,L53)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G53" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F53*HEX2DEC(10000) +E53)</f>
@@ -2849,8 +2905,12 @@
         <f>IF(P53&lt;&gt;"",P53*136+$B$2,IF(Q53&lt;&gt;"",Q53*136+$B$2,IF(S53&lt;&gt;"",S53*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K53" t="str">
+        <f>IF(I53&lt;&gt;"",I53,J53)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>47</v>
       </c>
@@ -2861,12 +2921,12 @@
         <v>16</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f>IF(K54&lt;&gt;"",FLOOR(K54-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F54" s="1">
+        <f>IF(K54&lt;&gt;"",FLOOR((K54-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F54" s="1" t="e">
         <f>IF(MOD(K54,2)=1,8+L54,L54)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G54" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F54*HEX2DEC(10000) +E54)</f>
@@ -2880,52 +2940,59 @@
         <f>IF(P54&lt;&gt;"",P54*136+$B$2,IF(Q54&lt;&gt;"",Q54*136+$B$2,IF(S54&lt;&gt;"",S54*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K54" t="str">
+        <f>IF(I54&lt;&gt;"",I54,J54)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E55" s="1">
-        <f>IF(K55&lt;&gt;"",FLOOR(K55-MIN(K:K),2),"")</f>
-        <v>2320</v>
+        <f>IF(K55&lt;&gt;"",FLOOR((K55-MIN(K:K))/2,1),"")</f>
+        <v>1015</v>
       </c>
       <c r="F55" s="1">
         <f>IF(MOD(K55,2)=1,8+L55,L55)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G55" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F55*HEX2DEC(10000) +E55)</f>
-        <v>1080910</v>
+        <v>10003F7</v>
       </c>
       <c r="H55">
         <f>HEX2DEC(G55)</f>
-        <v>17303824</v>
+        <v>16778231</v>
       </c>
       <c r="J55">
         <f>IF(P55&lt;&gt;"",P55*136+$B$2,IF(Q55&lt;&gt;"",Q55*136+$B$2,IF(S55&lt;&gt;"",S55*80+$B$4,"")))</f>
-        <v>524375</v>
+        <v>523036</v>
       </c>
       <c r="K55">
         <f>IF(I55&lt;&gt;"",I55,J55)</f>
-        <v>524375</v>
-      </c>
-      <c r="R55" t="s">
+        <v>523036</v>
+      </c>
+      <c r="O55" t="s">
         <v>113</v>
       </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>6</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>49</v>
       </c>
@@ -2936,12 +3003,12 @@
         <v>2</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>IF(K56&lt;&gt;"",FLOOR(K56-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F56" s="1">
+        <f>IF(K56&lt;&gt;"",FLOOR((K56-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F56" s="1" t="e">
         <f>IF(MOD(K56,2)=1,8+L56,L56)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G56" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F56*HEX2DEC(10000) +E56)</f>
@@ -2955,8 +3022,12 @@
         <f>IF(P56&lt;&gt;"",P56*136+$B$2,IF(Q56&lt;&gt;"",Q56*136+$B$2,IF(S56&lt;&gt;"",S56*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K56" t="str">
+        <f>IF(I56&lt;&gt;"",I56,J56)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50</v>
       </c>
@@ -2967,12 +3038,12 @@
         <v>3</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>IF(K57&lt;&gt;"",FLOOR(K57-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F57" s="1">
+        <f>IF(K57&lt;&gt;"",FLOOR((K57-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F57" s="1" t="e">
         <f>IF(MOD(K57,2)=1,8+L57,L57)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G57" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F57*HEX2DEC(10000) +E57)</f>
@@ -2986,8 +3057,12 @@
         <f>IF(P57&lt;&gt;"",P57*136+$B$2,IF(Q57&lt;&gt;"",Q57*136+$B$2,IF(S57&lt;&gt;"",S57*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K57" t="str">
+        <f>IF(I57&lt;&gt;"",I57,J57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>51</v>
       </c>
@@ -2998,12 +3073,12 @@
         <v>4</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f>IF(K58&lt;&gt;"",FLOOR(K58-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F58" s="1">
+        <f>IF(K58&lt;&gt;"",FLOOR((K58-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F58" s="1" t="e">
         <f>IF(MOD(K58,2)=1,8+L58,L58)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G58" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F58*HEX2DEC(10000) +E58)</f>
@@ -3017,8 +3092,12 @@
         <f>IF(P58&lt;&gt;"",P58*136+$B$2,IF(Q58&lt;&gt;"",Q58*136+$B$2,IF(S58&lt;&gt;"",S58*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K58" t="str">
+        <f>IF(I58&lt;&gt;"",I58,J58)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>52</v>
       </c>
@@ -3029,12 +3108,12 @@
         <v>5</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>IF(K59&lt;&gt;"",FLOOR(K59-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F59" s="1">
+        <f>IF(K59&lt;&gt;"",FLOOR((K59-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F59" s="1" t="e">
         <f>IF(MOD(K59,2)=1,8+L59,L59)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G59" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F59*HEX2DEC(10000) +E59)</f>
@@ -3048,8 +3127,12 @@
         <f>IF(P59&lt;&gt;"",P59*136+$B$2,IF(Q59&lt;&gt;"",Q59*136+$B$2,IF(S59&lt;&gt;"",S59*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K59" t="str">
+        <f>IF(I59&lt;&gt;"",I59,J59)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>53</v>
       </c>
@@ -3060,12 +3143,12 @@
         <v>6</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>IF(K60&lt;&gt;"",FLOOR(K60-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F60" s="1">
+        <f>IF(K60&lt;&gt;"",FLOOR((K60-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F60" s="1" t="e">
         <f>IF(MOD(K60,2)=1,8+L60,L60)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G60" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F60*HEX2DEC(10000) +E60)</f>
@@ -3079,8 +3162,12 @@
         <f>IF(P60&lt;&gt;"",P60*136+$B$2,IF(Q60&lt;&gt;"",Q60*136+$B$2,IF(S60&lt;&gt;"",S60*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K60" t="str">
+        <f>IF(I60&lt;&gt;"",I60,J60)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>54</v>
       </c>
@@ -3091,12 +3178,12 @@
         <v>7</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>IF(K61&lt;&gt;"",FLOOR(K61-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F61" s="1">
+        <f>IF(K61&lt;&gt;"",FLOOR((K61-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F61" s="1" t="e">
         <f>IF(MOD(K61,2)=1,8+L61,L61)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G61" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F61*HEX2DEC(10000) +E61)</f>
@@ -3110,8 +3197,12 @@
         <f>IF(P61&lt;&gt;"",P61*136+$B$2,IF(Q61&lt;&gt;"",Q61*136+$B$2,IF(S61&lt;&gt;"",S61*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K61" t="str">
+        <f>IF(I61&lt;&gt;"",I61,J61)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>55</v>
       </c>
@@ -3122,12 +3213,12 @@
         <v>8</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>IF(K62&lt;&gt;"",FLOOR(K62-MIN(K:K),2),"")</f>
-        <v/>
-      </c>
-      <c r="F62" s="1">
+        <f>IF(K62&lt;&gt;"",FLOOR((K62-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F62" s="1" t="e">
         <f>IF(MOD(K62,2)=1,8+L62,L62)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G62" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F62*HEX2DEC(10000) +E62)</f>
@@ -3141,67 +3232,71 @@
         <f>IF(P62&lt;&gt;"",P62*136+$B$2,IF(Q62&lt;&gt;"",Q62*136+$B$2,IF(S62&lt;&gt;"",S62*80+$B$4,"")))</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K62" t="str">
+        <f>IF(I62&lt;&gt;"",I62,J62)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C63">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E63" s="1">
-        <f>IF(K63&lt;&gt;"",FLOOR(K63-MIN(K:K),2),"")</f>
-        <v>2400</v>
+        <f>IF(K63&lt;&gt;"",FLOOR((K63-MIN(K:K))/2,1),"")</f>
+        <v>1015</v>
       </c>
       <c r="F63" s="1">
         <f>IF(MOD(K63,2)=1,8+L63,L63)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G63" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F63*HEX2DEC(10000) +E63)</f>
-        <v>1080960</v>
+        <v>10003F7</v>
       </c>
       <c r="H63">
         <f>HEX2DEC(G63)</f>
-        <v>17303904</v>
+        <v>16778231</v>
       </c>
       <c r="J63">
         <f>IF(P63&lt;&gt;"",P63*136+$B$2,IF(Q63&lt;&gt;"",Q63*136+$B$2,IF(S63&lt;&gt;"",S63*80+$B$4,"")))</f>
-        <v>524455</v>
+        <v>523036</v>
       </c>
       <c r="K63">
         <f>IF(I63&lt;&gt;"",I63,J63)</f>
-        <v>524455</v>
-      </c>
-      <c r="R63" t="s">
+        <v>523036</v>
+      </c>
+      <c r="O63" t="s">
         <v>113</v>
       </c>
-      <c r="S63">
+      <c r="Q63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>16</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>57</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64">
-        <v>10</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E64" s="1">
-        <f>IF(K64&lt;&gt;"",FLOOR(K64-MIN(K:K),2),"")</f>
-        <v>558</v>
+        <f>IF(K64&lt;&gt;"",FLOOR((K64-MIN(K:K))/2,1),"")</f>
+        <v>1083</v>
       </c>
       <c r="F64" s="1">
         <f>IF(MOD(K64,2)=1,8+L64,L64)</f>
@@ -3209,43 +3304,43 @@
       </c>
       <c r="G64" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F64*HEX2DEC(10000) +E64)</f>
-        <v>100022E</v>
+        <v>100043B</v>
       </c>
       <c r="H64">
         <f>HEX2DEC(G64)</f>
-        <v>16777774</v>
+        <v>16778299</v>
       </c>
       <c r="J64">
         <f>IF(P64&lt;&gt;"",P64*136+$B$2,IF(Q64&lt;&gt;"",Q64*136+$B$2,IF(S64&lt;&gt;"",S64*80+$B$4,"")))</f>
-        <v>522612</v>
+        <v>523172</v>
       </c>
       <c r="K64">
         <f>IF(I64&lt;&gt;"",I64,J64)</f>
-        <v>522612</v>
+        <v>523172</v>
       </c>
       <c r="O64" t="s">
         <v>113</v>
       </c>
       <c r="Q64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>58</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E65" s="1">
-        <f>IF(K65&lt;&gt;"",FLOOR(K65-MIN(K:K),2),"")</f>
-        <v>694</v>
+        <f>IF(K65&lt;&gt;"",FLOOR((K65-MIN(K:K))/2,1),"")</f>
+        <v>1151</v>
       </c>
       <c r="F65" s="1">
         <f>IF(MOD(K65,2)=1,8+L65,L65)</f>
@@ -3253,46 +3348,43 @@
       </c>
       <c r="G65" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F65*HEX2DEC(10000) +E65)</f>
-        <v>10002B6</v>
+        <v>100047F</v>
       </c>
       <c r="H65">
         <f>HEX2DEC(G65)</f>
-        <v>16777910</v>
+        <v>16778367</v>
       </c>
       <c r="J65">
         <f>IF(P65&lt;&gt;"",P65*136+$B$2,IF(Q65&lt;&gt;"",Q65*136+$B$2,IF(S65&lt;&gt;"",S65*80+$B$4,"")))</f>
-        <v>522748</v>
+        <v>523308</v>
       </c>
       <c r="K65">
         <f>IF(I65&lt;&gt;"",I65,J65)</f>
-        <v>522748</v>
+        <v>523308</v>
       </c>
       <c r="O65" t="s">
         <v>113</v>
       </c>
-      <c r="P65">
-        <v>4</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>59</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C66">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E66" s="1">
-        <f>IF(K66&lt;&gt;"",FLOOR(K66-MIN(K:K),2),"")</f>
-        <v>694</v>
+        <f>IF(K66&lt;&gt;"",FLOOR((K66-MIN(K:K))/2,1),"")</f>
+        <v>1219</v>
       </c>
       <c r="F66" s="1">
         <f>IF(MOD(K66,2)=1,8+L66,L66)</f>
@@ -3300,43 +3392,43 @@
       </c>
       <c r="G66" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F66*HEX2DEC(10000) +E66)</f>
-        <v>10002B6</v>
+        <v>10004C3</v>
       </c>
       <c r="H66">
         <f>HEX2DEC(G66)</f>
-        <v>16777910</v>
+        <v>16778435</v>
       </c>
       <c r="J66">
         <f>IF(P66&lt;&gt;"",P66*136+$B$2,IF(Q66&lt;&gt;"",Q66*136+$B$2,IF(S66&lt;&gt;"",S66*80+$B$4,"")))</f>
-        <v>522748</v>
+        <v>523444</v>
       </c>
       <c r="K66">
         <f>IF(I66&lt;&gt;"",I66,J66)</f>
-        <v>522748</v>
+        <v>523444</v>
       </c>
       <c r="O66" t="s">
         <v>113</v>
       </c>
       <c r="Q66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>19</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>60</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67">
-        <v>13</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E67" s="1">
-        <f>IF(K67&lt;&gt;"",FLOOR(K67-MIN(K:K),2),"")</f>
-        <v>830</v>
+        <f>IF(K67&lt;&gt;"",FLOOR((K67-MIN(K:K))/2,1),"")</f>
+        <v>1287</v>
       </c>
       <c r="F67" s="1">
         <f>IF(MOD(K67,2)=1,8+L67,L67)</f>
@@ -3344,46 +3436,43 @@
       </c>
       <c r="G67" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F67*HEX2DEC(10000) +E67)</f>
-        <v>100033E</v>
+        <v>1000507</v>
       </c>
       <c r="H67">
         <f>HEX2DEC(G67)</f>
-        <v>16778046</v>
+        <v>16778503</v>
       </c>
       <c r="J67">
         <f>IF(P67&lt;&gt;"",P67*136+$B$2,IF(Q67&lt;&gt;"",Q67*136+$B$2,IF(S67&lt;&gt;"",S67*80+$B$4,"")))</f>
-        <v>522884</v>
+        <v>523580</v>
       </c>
       <c r="K67">
         <f>IF(I67&lt;&gt;"",I67,J67)</f>
-        <v>522884</v>
+        <v>523580</v>
       </c>
       <c r="O67" t="s">
         <v>113</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>20</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
         <v>5</v>
       </c>
-      <c r="Q67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>61</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68">
-        <v>14</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E68" s="1">
-        <f>IF(K68&lt;&gt;"",FLOOR(K68-MIN(K:K),2),"")</f>
-        <v>830</v>
+        <f>IF(K68&lt;&gt;"",FLOOR((K68-MIN(K:K))/2,1),"")</f>
+        <v>1355</v>
       </c>
       <c r="F68" s="1">
         <f>IF(MOD(K68,2)=1,8+L68,L68)</f>
@@ -3391,43 +3480,46 @@
       </c>
       <c r="G68" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F68*HEX2DEC(10000) +E68)</f>
-        <v>100033E</v>
+        <v>100054B</v>
       </c>
       <c r="H68">
         <f>HEX2DEC(G68)</f>
-        <v>16778046</v>
+        <v>16778571</v>
       </c>
       <c r="J68">
         <f>IF(P68&lt;&gt;"",P68*136+$B$2,IF(Q68&lt;&gt;"",Q68*136+$B$2,IF(S68&lt;&gt;"",S68*80+$B$4,"")))</f>
-        <v>522884</v>
+        <v>523716</v>
       </c>
       <c r="K68">
         <f>IF(I68&lt;&gt;"",I68,J68)</f>
-        <v>522884</v>
+        <v>523716</v>
       </c>
       <c r="O68" t="s">
         <v>113</v>
       </c>
-      <c r="Q68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P68">
+        <v>11</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>62</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E69" s="1">
-        <f>IF(K69&lt;&gt;"",FLOOR(K69-MIN(K:K),2),"")</f>
-        <v>966</v>
+        <f>IF(K69&lt;&gt;"",FLOOR((K69-MIN(K:K))/2,1),"")</f>
+        <v>1355</v>
       </c>
       <c r="F69" s="1">
         <f>IF(MOD(K69,2)=1,8+L69,L69)</f>
@@ -3435,46 +3527,43 @@
       </c>
       <c r="G69" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F69*HEX2DEC(10000) +E69)</f>
-        <v>10003C6</v>
+        <v>100054B</v>
       </c>
       <c r="H69">
         <f>HEX2DEC(G69)</f>
-        <v>16778182</v>
+        <v>16778571</v>
       </c>
       <c r="J69">
         <f>IF(P69&lt;&gt;"",P69*136+$B$2,IF(Q69&lt;&gt;"",Q69*136+$B$2,IF(S69&lt;&gt;"",S69*80+$B$4,"")))</f>
-        <v>523020</v>
+        <v>523716</v>
       </c>
       <c r="K69">
         <f>IF(I69&lt;&gt;"",I69,J69)</f>
-        <v>523020</v>
+        <v>523716</v>
       </c>
       <c r="O69" t="s">
         <v>113</v>
       </c>
-      <c r="P69">
-        <v>6</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>63</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E70" s="1">
-        <f>IF(K70&lt;&gt;"",FLOOR(K70-MIN(K:K),2),"")</f>
-        <v>966</v>
+        <f>IF(K70&lt;&gt;"",FLOOR((K70-MIN(K:K))/2,1),"")</f>
+        <v>1559</v>
       </c>
       <c r="F70" s="1">
         <f>IF(MOD(K70,2)=1,8+L70,L70)</f>
@@ -3482,36 +3571,573 @@
       </c>
       <c r="G70" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F70*HEX2DEC(10000) +E70)</f>
-        <v>10003C6</v>
+        <v>1000617</v>
       </c>
       <c r="H70">
         <f>HEX2DEC(G70)</f>
-        <v>16778182</v>
+        <v>16778775</v>
       </c>
       <c r="J70">
         <f>IF(P70&lt;&gt;"",P70*136+$B$2,IF(Q70&lt;&gt;"",Q70*136+$B$2,IF(S70&lt;&gt;"",S70*80+$B$4,"")))</f>
-        <v>523020</v>
+        <v>524124</v>
       </c>
       <c r="K70">
         <f>IF(I70&lt;&gt;"",I70,J70)</f>
-        <v>523020</v>
+        <v>524124</v>
       </c>
       <c r="O70" t="s">
         <v>113</v>
       </c>
-      <c r="Q70">
+      <c r="P70">
+        <v>14</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>23</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="1">
+        <f>IF(K71&lt;&gt;"",FLOOR((K71-MIN(K:K))/2,1),"")</f>
+        <v>1559</v>
+      </c>
+      <c r="F71" s="1">
+        <f>IF(MOD(K71,2)=1,8+L71,L71)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F71*HEX2DEC(10000) +E71)</f>
+        <v>1000617</v>
+      </c>
+      <c r="H71">
+        <f>HEX2DEC(G71)</f>
+        <v>16778775</v>
+      </c>
+      <c r="J71">
+        <f>IF(P71&lt;&gt;"",P71*136+$B$2,IF(Q71&lt;&gt;"",Q71*136+$B$2,IF(S71&lt;&gt;"",S71*80+$B$4,"")))</f>
+        <v>524124</v>
+      </c>
+      <c r="K71">
+        <f>IF(I71&lt;&gt;"",I71,J71)</f>
+        <v>524124</v>
+      </c>
+      <c r="O71" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>32</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="1">
+        <f>IF(K72&lt;&gt;"",FLOOR((K72-MIN(K:K))/2,1),"")</f>
+        <v>1627</v>
+      </c>
+      <c r="F72" s="1">
+        <f>IF(MOD(K72,2)=1,8+L72,L72)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F72*HEX2DEC(10000) +E72)</f>
+        <v>100065B</v>
+      </c>
+      <c r="H72">
+        <f>HEX2DEC(G72)</f>
+        <v>16778843</v>
+      </c>
+      <c r="J72">
+        <f>IF(P72&lt;&gt;"",P72*136+$B$2,IF(Q72&lt;&gt;"",Q72*136+$B$2,IF(S72&lt;&gt;"",S72*80+$B$4,"")))</f>
+        <v>524260</v>
+      </c>
+      <c r="K72">
+        <f>IF(I72&lt;&gt;"",I72,J72)</f>
+        <v>524260</v>
+      </c>
+      <c r="O72" t="s">
+        <v>113</v>
+      </c>
+      <c r="P72">
+        <v>15</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>33</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="1">
+        <f>IF(K73&lt;&gt;"",FLOOR((K73-MIN(K:K))/2,1),"")</f>
+        <v>1627</v>
+      </c>
+      <c r="F73" s="1">
+        <f>IF(MOD(K73,2)=1,8+L73,L73)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F73*HEX2DEC(10000) +E73)</f>
+        <v>100065B</v>
+      </c>
+      <c r="H73">
+        <f>HEX2DEC(G73)</f>
+        <v>16778843</v>
+      </c>
+      <c r="J73">
+        <f>IF(P73&lt;&gt;"",P73*136+$B$2,IF(Q73&lt;&gt;"",Q73*136+$B$2,IF(S73&lt;&gt;"",S73*80+$B$4,"")))</f>
+        <v>524260</v>
+      </c>
+      <c r="K73">
+        <f>IF(I73&lt;&gt;"",I73,J73)</f>
+        <v>524260</v>
+      </c>
+      <c r="O73" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>48</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74" s="1">
+        <f>IF(K74&lt;&gt;"",FLOOR((K74-MIN(K:K))/2,1),"")</f>
+        <v>1692</v>
+      </c>
+      <c r="F74" s="1">
+        <f>IF(MOD(K74,2)=1,8+L74,L74)</f>
+        <v>8</v>
+      </c>
+      <c r="G74" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F74*HEX2DEC(10000) +E74)</f>
+        <v>108069C</v>
+      </c>
+      <c r="H74">
+        <f>HEX2DEC(G74)</f>
+        <v>17303196</v>
+      </c>
+      <c r="J74">
+        <f>IF(P74&lt;&gt;"",P74*136+$B$2,IF(Q74&lt;&gt;"",Q74*136+$B$2,IF(S74&lt;&gt;"",S74*80+$B$4,"")))</f>
+        <v>524391</v>
+      </c>
+      <c r="K74">
+        <f>IF(I74&lt;&gt;"",I74,J74)</f>
+        <v>524391</v>
+      </c>
+      <c r="R74" t="s">
+        <v>113</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>56</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75">
+        <v>9</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" s="1">
+        <f>IF(K75&lt;&gt;"",FLOOR((K75-MIN(K:K))/2,1),"")</f>
+        <v>1732</v>
+      </c>
+      <c r="F75" s="1">
+        <f>IF(MOD(K75,2)=1,8+L75,L75)</f>
+        <v>8</v>
+      </c>
+      <c r="G75" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F75*HEX2DEC(10000) +E75)</f>
+        <v>10806C4</v>
+      </c>
+      <c r="H75">
+        <f>HEX2DEC(G75)</f>
+        <v>17303236</v>
+      </c>
+      <c r="J75">
+        <f>IF(P75&lt;&gt;"",P75*136+$B$2,IF(Q75&lt;&gt;"",Q75*136+$B$2,IF(S75&lt;&gt;"",S75*80+$B$4,"")))</f>
+        <v>524471</v>
+      </c>
+      <c r="K75">
+        <f>IF(I75&lt;&gt;"",I75,J75)</f>
+        <v>524471</v>
+      </c>
+      <c r="R75" t="s">
+        <v>113</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>13</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>14</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="1">
+        <f>IF(K76&lt;&gt;"",FLOOR((K76-MIN(K:K))/2,1),"")</f>
+        <v>1772</v>
+      </c>
+      <c r="F76" s="1">
+        <f>IF(MOD(K76,2)=1,8+L76,L76)</f>
+        <v>8</v>
+      </c>
+      <c r="G76" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F76*HEX2DEC(10000) +E76)</f>
+        <v>10806EC</v>
+      </c>
+      <c r="H76">
+        <f>HEX2DEC(G76)</f>
+        <v>17303276</v>
+      </c>
+      <c r="J76">
+        <f>IF(P76&lt;&gt;"",P76*136+$B$2,IF(Q76&lt;&gt;"",Q76*136+$B$2,IF(S76&lt;&gt;"",S76*80+$B$4,"")))</f>
+        <v>524551</v>
+      </c>
+      <c r="K76">
+        <f>IF(I76&lt;&gt;"",I76,J76)</f>
+        <v>524551</v>
+      </c>
+      <c r="R76" t="s">
+        <v>113</v>
+      </c>
+      <c r="S76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>31</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>16</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="1">
+        <f>IF(K77&lt;&gt;"",FLOOR((K77-MIN(K:K))/2,1),"")</f>
+        <v>1812</v>
+      </c>
+      <c r="F77" s="1">
+        <f>IF(MOD(K77,2)=1,8+L77,L77)</f>
+        <v>8</v>
+      </c>
+      <c r="G77" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F77*HEX2DEC(10000) +E77)</f>
+        <v>1080714</v>
+      </c>
+      <c r="H77">
+        <f>HEX2DEC(G77)</f>
+        <v>17303316</v>
+      </c>
+      <c r="J77">
+        <f>IF(P77&lt;&gt;"",P77*136+$B$2,IF(Q77&lt;&gt;"",Q77*136+$B$2,IF(S77&lt;&gt;"",S77*80+$B$4,"")))</f>
+        <v>524631</v>
+      </c>
+      <c r="K77">
+        <f>IF(I77&lt;&gt;"",I77,J77)</f>
+        <v>524631</v>
+      </c>
+      <c r="N77" t="s">
+        <v>41</v>
+      </c>
+      <c r="R77" t="s">
+        <v>113</v>
+      </c>
+      <c r="S77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="1">
+        <f>IF(K78&lt;&gt;"",FLOOR((K78-MIN(K:K))/2,1),"")</f>
+        <v>1852</v>
+      </c>
+      <c r="F78" s="1">
+        <f>IF(MOD(K78,2)=1,8+L78,L78)</f>
+        <v>8</v>
+      </c>
+      <c r="G78" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F78*HEX2DEC(10000) +E78)</f>
+        <v>108073C</v>
+      </c>
+      <c r="H78">
+        <f>HEX2DEC(G78)</f>
+        <v>17303356</v>
+      </c>
+      <c r="J78">
+        <f>IF(P78&lt;&gt;"",P78*136+$B$2,IF(Q78&lt;&gt;"",Q78*136+$B$2,IF(S78&lt;&gt;"",S78*80+$B$4,"")))</f>
+        <v>524711</v>
+      </c>
+      <c r="K78">
+        <f>IF(I78&lt;&gt;"",I78,J78)</f>
+        <v>524711</v>
+      </c>
+      <c r="R78" t="s">
+        <v>113</v>
+      </c>
+      <c r="S78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="1">
+        <f>IF(K79&lt;&gt;"",FLOOR((K79-MIN(K:K))/2,1),"")</f>
+        <v>1892</v>
+      </c>
+      <c r="F79" s="1">
+        <f>IF(MOD(K79,2)=1,8+L79,L79)</f>
+        <v>8</v>
+      </c>
+      <c r="G79" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F79*HEX2DEC(10000) +E79)</f>
+        <v>1080764</v>
+      </c>
+      <c r="H79">
+        <f>HEX2DEC(G79)</f>
+        <v>17303396</v>
+      </c>
+      <c r="J79">
+        <f>IF(P79&lt;&gt;"",P79*136+$B$2,IF(Q79&lt;&gt;"",Q79*136+$B$2,IF(S79&lt;&gt;"",S79*80+$B$4,"")))</f>
+        <v>524791</v>
+      </c>
+      <c r="K79">
+        <f>IF(I79&lt;&gt;"",I79,J79)</f>
+        <v>524791</v>
+      </c>
+      <c r="R79" t="s">
+        <v>113</v>
+      </c>
+      <c r="S79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="1">
+        <f>IF(K80&lt;&gt;"",FLOOR((K80-MIN(K:K))/2,1),"")</f>
+        <v>1932</v>
+      </c>
+      <c r="F80" s="1">
+        <f>IF(MOD(K80,2)=1,8+L80,L80)</f>
+        <v>8</v>
+      </c>
+      <c r="G80" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F80*HEX2DEC(10000) +E80)</f>
+        <v>108078C</v>
+      </c>
+      <c r="H80">
+        <f>HEX2DEC(G80)</f>
+        <v>17303436</v>
+      </c>
+      <c r="J80">
+        <f>IF(P80&lt;&gt;"",P80*136+$B$2,IF(Q80&lt;&gt;"",Q80*136+$B$2,IF(S80&lt;&gt;"",S80*80+$B$4,"")))</f>
+        <v>524871</v>
+      </c>
+      <c r="K80">
+        <f>IF(I80&lt;&gt;"",I80,J80)</f>
+        <v>524871</v>
+      </c>
+      <c r="R80" t="s">
+        <v>113</v>
+      </c>
+      <c r="S80">
         <v>6</v>
       </c>
     </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="1">
+        <f>IF(K81&lt;&gt;"",FLOOR((K81-MIN(K:K))/2,1),"")</f>
+        <v>1972</v>
+      </c>
+      <c r="F81" s="1">
+        <f>IF(MOD(K81,2)=1,8+L81,L81)</f>
+        <v>8</v>
+      </c>
+      <c r="G81" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F81*HEX2DEC(10000) +E81)</f>
+        <v>10807B4</v>
+      </c>
+      <c r="H81">
+        <f>HEX2DEC(G81)</f>
+        <v>17303476</v>
+      </c>
+      <c r="J81">
+        <f>IF(P81&lt;&gt;"",P81*136+$B$2,IF(Q81&lt;&gt;"",Q81*136+$B$2,IF(S81&lt;&gt;"",S81*80+$B$4,"")))</f>
+        <v>524951</v>
+      </c>
+      <c r="K81">
+        <f>IF(I81&lt;&gt;"",I81,J81)</f>
+        <v>524951</v>
+      </c>
+      <c r="R81" t="s">
+        <v>113</v>
+      </c>
+      <c r="S81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="1">
+        <f>IF(K82&lt;&gt;"",FLOOR((K82-MIN(K:K))/2,1),"")</f>
+        <v>2012</v>
+      </c>
+      <c r="F82" s="1">
+        <f>IF(MOD(K82,2)=1,8+L82,L82)</f>
+        <v>8</v>
+      </c>
+      <c r="G82" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F82*HEX2DEC(10000) +E82)</f>
+        <v>10807DC</v>
+      </c>
+      <c r="H82">
+        <f>HEX2DEC(G82)</f>
+        <v>17303516</v>
+      </c>
+      <c r="J82">
+        <f>IF(P82&lt;&gt;"",P82*136+$B$2,IF(Q82&lt;&gt;"",Q82*136+$B$2,IF(S82&lt;&gt;"",S82*80+$B$4,"")))</f>
+        <v>525031</v>
+      </c>
+      <c r="K82">
+        <f>IF(I82&lt;&gt;"",I82,J82)</f>
+        <v>525031</v>
+      </c>
+      <c r="R82" t="s">
+        <v>113</v>
+      </c>
+      <c r="S82">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:S70" xr:uid="{39ED0021-5E2A-4DF1-81B3-2053C7857DD9}">
+  <autoFilter ref="A6:S82" xr:uid="{39ED0021-5E2A-4DF1-81B3-2053C7857DD9}">
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <sortState ref="A7:S70">
-      <sortCondition ref="A6:A70"/>
+    <sortState ref="A7:S82">
+      <sortCondition ref="K6:K82"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3520,625 +4146,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144DD973-A824-4A10-B5BF-A27A16C66531}">
-  <dimension ref="A1:S21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBFD5AD-95E3-457F-903E-F0D470C50CCA}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2">
-        <v>522204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3">
-        <v>522208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4">
-        <v>524375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5">
-        <f>MIN(K:K)</f>
-        <v>586928</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" t="s">
-        <v>112</v>
-      </c>
-      <c r="P6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>117</v>
-      </c>
-      <c r="R6" t="s">
-        <v>114</v>
-      </c>
-      <c r="S6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>128</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" ref="E7:E18" si="0">IF(K7&lt;&gt;"",FLOOR(K7-MIN(K:K),2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <f>IF(MOD(K7,2)=1,8+L7,L7)</f>
-        <v>2</v>
-      </c>
-      <c r="G7" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F7*HEX2DEC(10000) +E7)</f>
-        <v>2020000</v>
-      </c>
-      <c r="H7">
-        <f>HEX2DEC(G7)</f>
-        <v>33685504</v>
-      </c>
-      <c r="I7">
-        <v>586928</v>
-      </c>
-      <c r="J7" t="str">
-        <f>IF(P7&lt;&gt;"",P7*136+$B$2,IF(Q7&lt;&gt;"",Q7*136+$B$2,IF(S7&lt;&gt;"",S7*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K7">
-        <f t="shared" ref="K7:K18" si="1">IF(I7&lt;&gt;"",I7,J7)</f>
-        <v>586928</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>129</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" ref="F8:F18" si="2">IF(MOD(K8,2)=1,8+L8,L8)</f>
-        <v>3</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" ref="G8:G18" si="3">DEC2HEX(B$1*HEX2DEC(1000000) +F8*HEX2DEC(10000) +E8)</f>
-        <v>2030000</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H18" si="4">HEX2DEC(G8)</f>
-        <v>33751040</v>
-      </c>
-      <c r="I8">
-        <v>586928</v>
-      </c>
-      <c r="J8" t="str">
-        <f>IF(P8&lt;&gt;"",P8*136+$B$2,IF(Q8&lt;&gt;"",Q8*136+$B$2,IF(S8&lt;&gt;"",S8*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>586928</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>130</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="3"/>
-        <v>2040000</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="4"/>
-        <v>33816576</v>
-      </c>
-      <c r="I9">
-        <v>586928</v>
-      </c>
-      <c r="J9" t="str">
-        <f>IF(P9&lt;&gt;"",P9*136+$B$2,IF(Q9&lt;&gt;"",Q9*136+$B$2,IF(S9&lt;&gt;"",S9*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>586928</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>131</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="3"/>
-        <v>2050000</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="4"/>
-        <v>33882112</v>
-      </c>
-      <c r="I10">
-        <v>586928</v>
-      </c>
-      <c r="J10" t="str">
-        <f>IF(P10&lt;&gt;"",P10*136+$B$2,IF(Q10&lt;&gt;"",Q10*136+$B$2,IF(S10&lt;&gt;"",S10*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>586928</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>132</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="3"/>
-        <v>2060000</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="4"/>
-        <v>33947648</v>
-      </c>
-      <c r="I11">
-        <v>586928</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>586928</v>
-      </c>
-      <c r="L11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>133</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="3"/>
-        <v>2070000</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="4"/>
-        <v>34013184</v>
-      </c>
-      <c r="I12">
-        <v>586928</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>586928</v>
-      </c>
-      <c r="L12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>134</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="3"/>
-        <v>2080000</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="4"/>
-        <v>34078720</v>
-      </c>
-      <c r="I13">
-        <v>586929</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>586929</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>135</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="3"/>
-        <v>2090000</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="4"/>
-        <v>34144256</v>
-      </c>
-      <c r="I14">
-        <v>586929</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>586929</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>136</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="3"/>
-        <v>20A0000</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="4"/>
-        <v>34209792</v>
-      </c>
-      <c r="I15">
-        <v>586929</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>586929</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>137</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="3"/>
-        <v>20B0000</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="4"/>
-        <v>34275328</v>
-      </c>
-      <c r="I16">
-        <v>586929</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>586929</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>138</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="3"/>
-        <v>20C0000</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="4"/>
-        <v>34340864</v>
-      </c>
-      <c r="I17">
-        <v>586929</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>586929</v>
-      </c>
-      <c r="L17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>139</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="3"/>
-        <v>20D0000</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="4"/>
-        <v>34406400</v>
-      </c>
-      <c r="I18">
-        <v>586929</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>586929</v>
-      </c>
-      <c r="L18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G21">
-        <f>K13/2</f>
-        <v>293464.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A6:S18" xr:uid="{39ED0021-5E2A-4DF1-81B3-2053C7857DD9}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBFD5AD-95E3-457F-903E-F0D470C50CCA}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:P35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:H35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -4160,30 +4178,30 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B2">
-        <v>522202</v>
+        <v>522218</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3">
         <f>MIN(K:K)</f>
-        <v>522054</v>
+        <v>513417</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" t="s">
         <v>137</v>
-      </c>
-      <c r="I3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -4200,7 +4218,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>105</v>
@@ -4233,600 +4251,576 @@
         <v>112</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E35" si="0">IF(K5&lt;&gt;"",FLOOR(K5-MIN(K:K),2),"")</f>
+        <f>IF(K5&lt;&gt;"",FLOOR((K5-MIN(K:K))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F35" si="1">IF(MOD(K5,2)=1,8+L5,L5)</f>
-        <v>4</v>
+        <f t="shared" ref="F5:F13" si="0">IF(MOD(K5-$B$3,2)=1,8+L5,L5)</f>
+        <v>0</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G35" si="2">DEC2HEX(B$1*HEX2DEC(1000000) +F5*HEX2DEC(10000) +E5)</f>
-        <v>3040000</v>
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F5*HEX2DEC(10000) +E5)</f>
+        <v>2000000</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H35" si="3">HEX2DEC(G5)</f>
-        <v>50593792</v>
+        <f>HEX2DEC(G5)</f>
+        <v>33554432</v>
       </c>
       <c r="I5">
-        <v>522054</v>
+        <v>513417</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ref="J5:J30" si="4">IF(P5&lt;&gt;"",$B$2+P5*136,"")</f>
+        <f>IF(P5&lt;&gt;"",$B$2+P5*136,"")</f>
         <v/>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K34" si="5">IF(I5&lt;&gt;"",I5,J5)</f>
-        <v>522054</v>
+        <f>IF(I5&lt;&gt;"",I5,J5)</f>
+        <v>513417</v>
       </c>
       <c r="L5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="1">
+        <f>IF(K6&lt;&gt;"",FLOOR((K6-MIN(K:K))/2,1),"")</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F6*HEX2DEC(10000) +E6)</f>
+        <v>2010000</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H49" si="1">HEX2DEC(G6)</f>
+        <v>33619968</v>
+      </c>
+      <c r="I6">
+        <v>513417</v>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(P6&lt;&gt;"",$B$2+P6*136,"")</f>
+        <v/>
+      </c>
+      <c r="K6">
+        <f>IF(I6&lt;&gt;"",I6,J6)</f>
+        <v>513417</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(K7&lt;&gt;"",FLOOR((K7-MIN(K:K))/2,1),"")</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F7*HEX2DEC(10000) +E7)</f>
+        <v>2020000</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>33685504</v>
+      </c>
+      <c r="I7">
+        <v>513417</v>
+      </c>
+      <c r="J7" t="str">
+        <f>IF(P7&lt;&gt;"",$B$2+P7*136,"")</f>
+        <v/>
+      </c>
+      <c r="K7">
+        <f>IF(I7&lt;&gt;"",I7,J7)</f>
+        <v>513417</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
+        <f>IF(K8&lt;&gt;"",FLOOR((K8-MIN(K:K))/2,1),"")</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G8" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F8*HEX2DEC(10000) +E8)</f>
+        <v>2030000</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>33751040</v>
+      </c>
+      <c r="I8">
+        <v>513417</v>
+      </c>
+      <c r="J8" t="str">
+        <f>IF(P8&lt;&gt;"",$B$2+P8*136,"")</f>
+        <v/>
+      </c>
+      <c r="K8">
+        <f>IF(I8&lt;&gt;"",I8,J8)</f>
+        <v>513417</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1">
+        <f>IF(K9&lt;&gt;"",FLOOR((K9-MIN(K:K))/2,1),"")</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G9" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F9*HEX2DEC(10000) +E9)</f>
+        <v>2040000</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>33816576</v>
+      </c>
+      <c r="I9">
+        <v>513417</v>
+      </c>
+      <c r="J9" t="str">
+        <f>IF(P9&lt;&gt;"",$B$2+P9*136,"")</f>
+        <v/>
+      </c>
+      <c r="K9">
+        <f>IF(I9&lt;&gt;"",I9,J9)</f>
+        <v>513417</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1">
+        <f>IF(K10&lt;&gt;"",FLOOR((K10-MIN(K:K))/2,1),"")</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G10" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F10*HEX2DEC(10000) +E10)</f>
+        <v>2050000</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>33882112</v>
+      </c>
+      <c r="I10">
+        <v>513417</v>
+      </c>
+      <c r="J10" t="str">
+        <f>IF(P10&lt;&gt;"",$B$2+P10*136,"")</f>
+        <v/>
+      </c>
+      <c r="K10">
+        <f>IF(I10&lt;&gt;"",I10,J10)</f>
+        <v>513417</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="1">
+        <f>IF(K11&lt;&gt;"",FLOOR((K11-MIN(K:K))/2,1),"")</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G11" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F11*HEX2DEC(10000) +E11)</f>
+        <v>2060000</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>33947648</v>
+      </c>
+      <c r="I11">
+        <v>513417</v>
+      </c>
+      <c r="J11" t="str">
+        <f>IF(P11&lt;&gt;"",$B$2+P11*136,"")</f>
+        <v/>
+      </c>
+      <c r="K11">
+        <f>IF(I11&lt;&gt;"",I11,J11)</f>
+        <v>513417</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="1">
+        <f>IF(K12&lt;&gt;"",FLOOR((K12-MIN(K:K))/2,1),"")</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G12" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F12*HEX2DEC(10000) +E12)</f>
+        <v>2070000</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>34013184</v>
+      </c>
+      <c r="I12">
+        <v>513417</v>
+      </c>
+      <c r="J12" t="str">
+        <f>IF(P12&lt;&gt;"",$B$2+P12*136,"")</f>
+        <v/>
+      </c>
+      <c r="K12">
+        <f>IF(I12&lt;&gt;"",I12,J12)</f>
+        <v>513417</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="1">
+        <f>IF(K13&lt;&gt;"",FLOOR((K13-MIN(K:K))/2,1),"")</f>
+        <v>3794</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="2"/>
-        <v>3050000</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>50659328</v>
-      </c>
-      <c r="I6">
-        <v>522054</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>522054</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="2"/>
-        <v>3060000</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>50724864</v>
-      </c>
-      <c r="I7">
-        <v>522054</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>522054</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>27</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="2"/>
-        <v>3070000</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>50790400</v>
-      </c>
-      <c r="I8">
-        <v>522054</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>522054</v>
-      </c>
-      <c r="L8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>28</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="2"/>
-        <v>3000000</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>50331648</v>
-      </c>
-      <c r="I9">
-        <v>522054</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K9">
-        <f t="shared" si="5"/>
-        <v>522054</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="2"/>
-        <v>3010000</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>50397184</v>
-      </c>
-      <c r="I10">
-        <v>522054</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K10">
-        <f t="shared" si="5"/>
-        <v>522054</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="1">
-        <f>IF(K11&lt;&gt;"",FLOOR(K11-MIN(K:K),2),"")</f>
-        <v>148</v>
-      </c>
-      <c r="F11" s="1">
-        <f>IF(MOD(K11,2)=1,8+L11,L11)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F11*HEX2DEC(10000) +E11)</f>
-        <v>3000094</v>
-      </c>
-      <c r="H11">
-        <f>HEX2DEC(G11)</f>
-        <v>50331796</v>
-      </c>
-      <c r="J11">
-        <f>IF(P11&lt;&gt;"",$B$2+P11*136,"")</f>
-        <v>522202</v>
-      </c>
-      <c r="K11">
-        <f>IF(I11&lt;&gt;"",I11,J11)</f>
-        <v>522202</v>
-      </c>
-      <c r="M11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" t="s">
-        <v>113</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="1">
-        <f>IF(K12&lt;&gt;"",FLOOR(K12-MIN(K:K),2),"")</f>
-        <v>284</v>
-      </c>
-      <c r="F12" s="1">
-        <f>IF(MOD(K12,2)=1,8+L12,L12)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F12*HEX2DEC(10000) +E12)</f>
-        <v>300011C</v>
-      </c>
-      <c r="H12">
-        <f>HEX2DEC(G12)</f>
-        <v>50331932</v>
-      </c>
-      <c r="J12">
-        <f>IF(P12&lt;&gt;"",$B$2+P12*136,"")</f>
-        <v>522338</v>
-      </c>
-      <c r="K12">
-        <f>IF(I12&lt;&gt;"",I12,J12)</f>
-        <v>522338</v>
-      </c>
-      <c r="M12" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" t="s">
-        <v>113</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="1">
-        <f>IF(K13&lt;&gt;"",FLOOR(K13-MIN(K:K),2),"")</f>
-        <v>420</v>
-      </c>
-      <c r="F13" s="1">
-        <f>IF(MOD(K13,2)=1,8+L13,L13)</f>
-        <v>0</v>
-      </c>
       <c r="G13" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F13*HEX2DEC(10000) +E13)</f>
-        <v>30001A4</v>
+        <v>2000ED2</v>
       </c>
       <c r="H13">
-        <f>HEX2DEC(G13)</f>
-        <v>50332068</v>
-      </c>
-      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>33558226</v>
+      </c>
+      <c r="I13">
+        <v>521005</v>
+      </c>
+      <c r="J13" t="str">
         <f>IF(P13&lt;&gt;"",$B$2+P13*136,"")</f>
-        <v>522474</v>
+        <v/>
       </c>
       <c r="K13">
         <f>IF(I13&lt;&gt;"",I13,J13)</f>
-        <v>522474</v>
-      </c>
-      <c r="M13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O13" t="s">
-        <v>113</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>521005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(K14&lt;&gt;"",FLOOR(K14-MIN(K:K),2),"")</f>
-        <v>556</v>
+        <f>IF(K14&lt;&gt;"",FLOOR((K14-MIN(K:K))/2,1),"")</f>
+        <v>4318</v>
       </c>
       <c r="F14" s="1">
         <f>IF(MOD(K14,2)=1,8+L14,L14)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F14*HEX2DEC(10000) +E14)</f>
-        <v>300022C</v>
+        <v>20410DE</v>
       </c>
       <c r="H14">
-        <f>HEX2DEC(G14)</f>
-        <v>50332204</v>
-      </c>
-      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>33820894</v>
+      </c>
+      <c r="I14">
+        <v>522054</v>
+      </c>
+      <c r="J14" t="str">
         <f>IF(P14&lt;&gt;"",$B$2+P14*136,"")</f>
-        <v>522610</v>
+        <v/>
       </c>
       <c r="K14">
         <f>IF(I14&lt;&gt;"",I14,J14)</f>
-        <v>522610</v>
-      </c>
-      <c r="M14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O14" t="s">
-        <v>113</v>
-      </c>
-      <c r="P14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>522054</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(K15&lt;&gt;"",FLOOR(K15-MIN(K:K),2),"")</f>
-        <v>692</v>
+        <f>IF(K15&lt;&gt;"",FLOOR((K15-MIN(K:K))/2,1),"")</f>
+        <v>4318</v>
       </c>
       <c r="F15" s="1">
         <f>IF(MOD(K15,2)=1,8+L15,L15)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F15*HEX2DEC(10000) +E15)</f>
-        <v>30002B4</v>
+        <v>20510DE</v>
       </c>
       <c r="H15">
-        <f>HEX2DEC(G15)</f>
-        <v>50332340</v>
-      </c>
-      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>33886430</v>
+      </c>
+      <c r="I15">
+        <v>522054</v>
+      </c>
+      <c r="J15" t="str">
         <f>IF(P15&lt;&gt;"",$B$2+P15*136,"")</f>
-        <v>522746</v>
+        <v/>
       </c>
       <c r="K15">
         <f>IF(I15&lt;&gt;"",I15,J15)</f>
-        <v>522746</v>
-      </c>
-      <c r="M15" t="s">
-        <v>64</v>
-      </c>
-      <c r="O15" t="s">
-        <v>113</v>
-      </c>
-      <c r="P15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>522054</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(K16&lt;&gt;"",FLOOR(K16-MIN(K:K),2),"")</f>
-        <v>828</v>
+        <f>IF(K16&lt;&gt;"",FLOOR((K16-MIN(K:K))/2,1),"")</f>
+        <v>4318</v>
       </c>
       <c r="F16" s="1">
         <f>IF(MOD(K16,2)=1,8+L16,L16)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G16" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F16*HEX2DEC(10000) +E16)</f>
-        <v>300033C</v>
+        <v>20610DE</v>
       </c>
       <c r="H16">
-        <f>HEX2DEC(G16)</f>
-        <v>50332476</v>
-      </c>
-      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>33951966</v>
+      </c>
+      <c r="I16">
+        <v>522054</v>
+      </c>
+      <c r="J16" t="str">
         <f>IF(P16&lt;&gt;"",$B$2+P16*136,"")</f>
-        <v>522882</v>
+        <v/>
       </c>
       <c r="K16">
         <f>IF(I16&lt;&gt;"",I16,J16)</f>
-        <v>522882</v>
-      </c>
-      <c r="M16" t="s">
-        <v>65</v>
-      </c>
-      <c r="O16" t="s">
-        <v>113</v>
-      </c>
-      <c r="P16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>522054</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1">
-        <f>IF(K17&lt;&gt;"",FLOOR(K17-MIN(K:K),2),"")</f>
-        <v>1100</v>
+        <f>IF(K17&lt;&gt;"",FLOOR((K17-MIN(K:K))/2,1),"")</f>
+        <v>4318</v>
       </c>
       <c r="F17" s="1">
         <f>IF(MOD(K17,2)=1,8+L17,L17)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G17" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F17*HEX2DEC(10000) +E17)</f>
-        <v>300044C</v>
+        <v>20710DE</v>
       </c>
       <c r="H17">
-        <f>HEX2DEC(G17)</f>
-        <v>50332748</v>
-      </c>
-      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>34017502</v>
+      </c>
+      <c r="I17">
+        <v>522054</v>
+      </c>
+      <c r="J17" t="str">
         <f>IF(P17&lt;&gt;"",$B$2+P17*136,"")</f>
-        <v>523154</v>
+        <v/>
       </c>
       <c r="K17">
         <f>IF(I17&lt;&gt;"",I17,J17)</f>
-        <v>523154</v>
-      </c>
-      <c r="M17" t="s">
-        <v>91</v>
-      </c>
-      <c r="O17" t="s">
-        <v>113</v>
-      </c>
-      <c r="P17">
+        <v>522054</v>
+      </c>
+      <c r="L17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>53</v>
+        <v>28</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1">
-        <f>IF(K18&lt;&gt;"",FLOOR(K18-MIN(K:K),2),"")</f>
-        <v>1236</v>
+        <f>IF(K18&lt;&gt;"",FLOOR((K18-MIN(K:K))/2,1),"")</f>
+        <v>4318</v>
       </c>
       <c r="F18" s="1">
         <f>IF(MOD(K18,2)=1,8+L18,L18)</f>
@@ -4834,202 +4828,178 @@
       </c>
       <c r="G18" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F18*HEX2DEC(10000) +E18)</f>
-        <v>30004D4</v>
+        <v>20010DE</v>
       </c>
       <c r="H18">
-        <f>HEX2DEC(G18)</f>
-        <v>50332884</v>
-      </c>
-      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>33558750</v>
+      </c>
+      <c r="I18">
+        <v>522054</v>
+      </c>
+      <c r="J18" t="str">
         <f>IF(P18&lt;&gt;"",$B$2+P18*136,"")</f>
-        <v>523290</v>
+        <v/>
       </c>
       <c r="K18">
         <f>IF(I18&lt;&gt;"",I18,J18)</f>
-        <v>523290</v>
-      </c>
-      <c r="M18" t="s">
-        <v>92</v>
-      </c>
-      <c r="O18" t="s">
-        <v>113</v>
-      </c>
-      <c r="P18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>522054</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>34</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>29</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1">
-        <f>IF(K19&lt;&gt;"",FLOOR(K19-MIN(K:K),2),"")</f>
-        <v>1372</v>
+        <f>IF(K19&lt;&gt;"",FLOOR((K19-MIN(K:K))/2,1),"")</f>
+        <v>4318</v>
       </c>
       <c r="F19" s="1">
         <f>IF(MOD(K19,2)=1,8+L19,L19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F19*HEX2DEC(10000) +E19)</f>
-        <v>300055C</v>
+        <v>20110DE</v>
       </c>
       <c r="H19">
-        <f>HEX2DEC(G19)</f>
-        <v>50333020</v>
-      </c>
-      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>33624286</v>
+      </c>
+      <c r="I19">
+        <v>522054</v>
+      </c>
+      <c r="J19" t="str">
         <f>IF(P19&lt;&gt;"",$B$2+P19*136,"")</f>
-        <v>523426</v>
+        <v/>
       </c>
       <c r="K19">
         <f>IF(I19&lt;&gt;"",I19,J19)</f>
-        <v>523426</v>
-      </c>
-      <c r="M19" t="s">
-        <v>93</v>
-      </c>
-      <c r="O19" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>522054</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>35</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
+        <v>128</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="E20" s="1">
-        <f>IF(K20&lt;&gt;"",FLOOR(K20-MIN(K:K),2),"")</f>
-        <v>1508</v>
+        <f>IF(K20&lt;&gt;"",FLOOR((K20-MIN(K:K))/2,1),"")</f>
+        <v>4321</v>
       </c>
       <c r="F20" s="1">
-        <f>IF(MOD(K20,2)=1,8+L20,L20)</f>
-        <v>0</v>
+        <f t="shared" ref="F20:F48" si="2">IF(MOD(K20-$B$3,2)=1,8+L20,L20)</f>
+        <v>8</v>
       </c>
       <c r="G20" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F20*HEX2DEC(10000) +E20)</f>
-        <v>30005E4</v>
+        <v>20810E1</v>
       </c>
       <c r="H20">
-        <f>HEX2DEC(G20)</f>
-        <v>50333156</v>
-      </c>
-      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>34083041</v>
+      </c>
+      <c r="I20">
+        <v>522060</v>
+      </c>
+      <c r="J20" t="str">
         <f>IF(P20&lt;&gt;"",$B$2+P20*136,"")</f>
-        <v>523562</v>
+        <v/>
       </c>
       <c r="K20">
         <f>IF(I20&lt;&gt;"",I20,J20)</f>
-        <v>523562</v>
-      </c>
-      <c r="M20" t="s">
-        <v>94</v>
-      </c>
-      <c r="O20" t="s">
-        <v>113</v>
-      </c>
-      <c r="P20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>522060</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>36</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
+        <v>129</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="E21" s="1">
-        <f>IF(K21&lt;&gt;"",FLOOR(K21-MIN(K:K),2),"")</f>
-        <v>1644</v>
+        <f>IF(K21&lt;&gt;"",FLOOR((K21-MIN(K:K))/2,1),"")</f>
+        <v>4321</v>
       </c>
       <c r="F21" s="1">
-        <f>IF(MOD(K21,2)=1,8+L21,L21)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="G21" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F21*HEX2DEC(10000) +E21)</f>
-        <v>300066C</v>
+        <v>20910E1</v>
       </c>
       <c r="H21">
-        <f>HEX2DEC(G21)</f>
-        <v>50333292</v>
-      </c>
-      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>34148577</v>
+      </c>
+      <c r="I21">
+        <v>522060</v>
+      </c>
+      <c r="J21" t="str">
         <f>IF(P21&lt;&gt;"",$B$2+P21*136,"")</f>
-        <v>523698</v>
+        <v/>
       </c>
       <c r="K21">
         <f>IF(I21&lt;&gt;"",I21,J21)</f>
-        <v>523698</v>
-      </c>
-      <c r="M21" t="s">
-        <v>95</v>
-      </c>
-      <c r="O21" t="s">
-        <v>113</v>
-      </c>
-      <c r="P21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>522060</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>40</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22">
-        <v>9</v>
+        <v>130</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="E22" s="1">
-        <f>IF(K22&lt;&gt;"",FLOOR(K22-MIN(K:K),2),"")</f>
-        <v>0</v>
+        <f>IF(K22&lt;&gt;"",FLOOR((K22-MIN(K:K))/2,1),"")</f>
+        <v>4322</v>
       </c>
       <c r="F22" s="1">
-        <f>IF(MOD(K22,2)=1,8+L22,L22)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="G22" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F22*HEX2DEC(10000) +E22)</f>
-        <v>3000000</v>
+        <v>20610E2</v>
       </c>
       <c r="H22">
-        <f>HEX2DEC(G22)</f>
-        <v>50331648</v>
+        <f t="shared" si="1"/>
+        <v>33951970</v>
       </c>
       <c r="I22">
-        <v>522054</v>
+        <v>522061</v>
       </c>
       <c r="J22" t="str">
         <f>IF(P22&lt;&gt;"",$B$2+P22*136,"")</f>
@@ -5037,43 +5007,40 @@
       </c>
       <c r="K22">
         <f>IF(I22&lt;&gt;"",I22,J22)</f>
-        <v>522054</v>
+        <v>522061</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>41</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
+        <v>131</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="E23" s="1">
-        <f>IF(K23&lt;&gt;"",FLOOR(K23-MIN(K:K),2),"")</f>
-        <v>0</v>
+        <f>IF(K23&lt;&gt;"",FLOOR((K23-MIN(K:K))/2,1),"")</f>
+        <v>4322</v>
       </c>
       <c r="F23" s="1">
-        <f>IF(MOD(K23,2)=1,8+L23,L23)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="G23" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F23*HEX2DEC(10000) +E23)</f>
-        <v>3010000</v>
+        <v>20710E2</v>
       </c>
       <c r="H23">
-        <f>HEX2DEC(G23)</f>
-        <v>50397184</v>
+        <f t="shared" si="1"/>
+        <v>34017506</v>
       </c>
       <c r="I23">
-        <v>522054</v>
+        <v>522061</v>
       </c>
       <c r="J23" t="str">
         <f>IF(P23&lt;&gt;"",$B$2+P23*136,"")</f>
@@ -5081,43 +5048,40 @@
       </c>
       <c r="K23">
         <f>IF(I23&lt;&gt;"",I23,J23)</f>
-        <v>522054</v>
+        <v>522061</v>
       </c>
       <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>42</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
+        <v>132</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="E24" s="1">
-        <f>IF(K24&lt;&gt;"",FLOOR(K24-MIN(K:K),2),"")</f>
-        <v>0</v>
+        <f>IF(K24&lt;&gt;"",FLOOR((K24-MIN(K:K))/2,1),"")</f>
+        <v>4322</v>
       </c>
       <c r="F24" s="1">
-        <f>IF(MOD(K24,2)=1,8+L24,L24)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G24" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F24*HEX2DEC(10000) +E24)</f>
-        <v>3020000</v>
+        <v>20810E2</v>
       </c>
       <c r="H24">
-        <f>HEX2DEC(G24)</f>
-        <v>50462720</v>
+        <f t="shared" si="1"/>
+        <v>34083042</v>
       </c>
       <c r="I24">
-        <v>522054</v>
+        <v>522062</v>
       </c>
       <c r="J24" t="str">
         <f>IF(P24&lt;&gt;"",$B$2+P24*136,"")</f>
@@ -5125,43 +5089,43 @@
       </c>
       <c r="K24">
         <f>IF(I24&lt;&gt;"",I24,J24)</f>
-        <v>522054</v>
+        <v>522062</v>
       </c>
       <c r="L24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="E25" s="1">
-        <f>IF(K25&lt;&gt;"",FLOOR(K25-MIN(K:K),2),"")</f>
-        <v>0</v>
+        <f>IF(K25&lt;&gt;"",FLOOR((K25-MIN(K:K))/2,1),"")</f>
+        <v>4323</v>
       </c>
       <c r="F25" s="1">
-        <f>IF(MOD(K25,2)=1,8+L25,L25)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="G25" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F25*HEX2DEC(10000) +E25)</f>
-        <v>3030000</v>
+        <v>20210E3</v>
       </c>
       <c r="H25">
-        <f>HEX2DEC(G25)</f>
-        <v>50528256</v>
+        <f t="shared" si="1"/>
+        <v>33689827</v>
       </c>
       <c r="I25">
-        <v>522054</v>
+        <v>522063</v>
       </c>
       <c r="J25" t="str">
         <f>IF(P25&lt;&gt;"",$B$2+P25*136,"")</f>
@@ -5169,422 +5133,1113 @@
       </c>
       <c r="K25">
         <f>IF(I25&lt;&gt;"",I25,J25)</f>
-        <v>522054</v>
+        <v>522063</v>
       </c>
       <c r="L25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>45</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="1">
+        <f>IF(K26&lt;&gt;"",FLOOR((K26-MIN(K:K))/2,1),"")</f>
+        <v>4323</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="2"/>
         <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>57</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="1">
-        <f>IF(K26&lt;&gt;"",FLOOR(K26-MIN(K:K),2),"")</f>
-        <v>1780</v>
-      </c>
-      <c r="F26" s="1">
-        <f>IF(MOD(K26,2)=1,8+L26,L26)</f>
-        <v>0</v>
       </c>
       <c r="G26" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F26*HEX2DEC(10000) +E26)</f>
-        <v>30006F4</v>
+        <v>20310E3</v>
       </c>
       <c r="H26">
-        <f>HEX2DEC(G26)</f>
-        <v>50333428</v>
-      </c>
-      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>33755363</v>
+      </c>
+      <c r="I26">
+        <v>522063</v>
+      </c>
+      <c r="J26" t="str">
         <f>IF(P26&lt;&gt;"",$B$2+P26*136,"")</f>
-        <v>523834</v>
+        <v/>
       </c>
       <c r="K26">
         <f>IF(I26&lt;&gt;"",I26,J26)</f>
-        <v>523834</v>
-      </c>
-      <c r="M26" t="s">
-        <v>75</v>
-      </c>
-      <c r="O26" t="s">
-        <v>113</v>
-      </c>
-      <c r="P26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>522063</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>58</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E27" s="1">
-        <f>IF(K27&lt;&gt;"",FLOOR(K27-MIN(K:K),2),"")</f>
-        <v>1916</v>
+        <f>IF(K27&lt;&gt;"",FLOOR((K27-MIN(K:K))/2,1),"")</f>
+        <v>4323</v>
       </c>
       <c r="F27" s="1">
-        <f>IF(MOD(K27,2)=1,8+L27,L27)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F27*HEX2DEC(10000) +E27)</f>
-        <v>300077C</v>
+        <v>20010E3</v>
       </c>
       <c r="H27">
-        <f>HEX2DEC(G27)</f>
-        <v>50333564</v>
-      </c>
-      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>33558755</v>
+      </c>
+      <c r="I27">
+        <v>522063</v>
+      </c>
+      <c r="J27" t="str">
         <f>IF(P27&lt;&gt;"",$B$2+P27*136,"")</f>
-        <v>523970</v>
+        <v/>
       </c>
       <c r="K27">
         <f>IF(I27&lt;&gt;"",I27,J27)</f>
-        <v>523970</v>
-      </c>
-      <c r="M27" t="s">
-        <v>76</v>
-      </c>
-      <c r="O27" t="s">
-        <v>113</v>
-      </c>
-      <c r="P27">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>522063</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>59</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E28" s="1">
-        <f>IF(K28&lt;&gt;"",FLOOR(K28-MIN(K:K),2),"")</f>
-        <v>2052</v>
+        <f>IF(K28&lt;&gt;"",FLOOR((K28-MIN(K:K))/2,1),"")</f>
+        <v>4323</v>
       </c>
       <c r="F28" s="1">
-        <f>IF(MOD(K28,2)=1,8+L28,L28)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="G28" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F28*HEX2DEC(10000) +E28)</f>
-        <v>3000804</v>
+        <v>20110E3</v>
       </c>
       <c r="H28">
-        <f>HEX2DEC(G28)</f>
-        <v>50333700</v>
-      </c>
-      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>33624291</v>
+      </c>
+      <c r="I28">
+        <v>522063</v>
+      </c>
+      <c r="J28" t="str">
         <f>IF(P28&lt;&gt;"",$B$2+P28*136,"")</f>
-        <v>524106</v>
+        <v/>
       </c>
       <c r="K28">
         <f>IF(I28&lt;&gt;"",I28,J28)</f>
-        <v>524106</v>
-      </c>
-      <c r="M28" t="s">
-        <v>77</v>
-      </c>
-      <c r="O28" t="s">
-        <v>113</v>
-      </c>
-      <c r="P28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>522063</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>60</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E29" s="1">
-        <f>IF(K29&lt;&gt;"",FLOOR(K29-MIN(K:K),2),"")</f>
-        <v>2188</v>
+        <f>IF(K29&lt;&gt;"",FLOOR((K29-MIN(K:K))/2,1),"")</f>
+        <v>4387</v>
       </c>
       <c r="F29" s="1">
-        <f>IF(MOD(K29,2)=1,8+L29,L29)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G29" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F29*HEX2DEC(10000) +E29)</f>
-        <v>300088C</v>
+        <v>2081123</v>
       </c>
       <c r="H29">
-        <f>HEX2DEC(G29)</f>
-        <v>50333836</v>
-      </c>
-      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>34083107</v>
+      </c>
+      <c r="I29">
+        <v>522192</v>
+      </c>
+      <c r="J29" t="str">
         <f>IF(P29&lt;&gt;"",$B$2+P29*136,"")</f>
-        <v>524242</v>
+        <v/>
       </c>
       <c r="K29">
         <f>IF(I29&lt;&gt;"",I29,J29)</f>
-        <v>524242</v>
-      </c>
-      <c r="M29" t="s">
-        <v>78</v>
-      </c>
-      <c r="O29" t="s">
-        <v>113</v>
-      </c>
-      <c r="P29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>522192</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>61</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E30" s="1">
-        <f>IF(K30&lt;&gt;"",FLOOR(K30-MIN(K:K),2),"")</f>
-        <v>964</v>
+        <f>IF(K30&lt;&gt;"",FLOOR((K30-MIN(K:K))/2,1),"")</f>
+        <v>4387</v>
       </c>
       <c r="F30" s="1">
-        <f>IF(MOD(K30,2)=1,8+L30,L30)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="G30" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F30*HEX2DEC(10000) +E30)</f>
-        <v>30003C4</v>
+        <v>2091123</v>
       </c>
       <c r="H30">
-        <f>HEX2DEC(G30)</f>
-        <v>50332612</v>
-      </c>
-      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>34148643</v>
+      </c>
+      <c r="I30">
+        <v>522192</v>
+      </c>
+      <c r="J30" t="str">
         <f>IF(P30&lt;&gt;"",$B$2+P30*136,"")</f>
-        <v>523018</v>
+        <v/>
       </c>
       <c r="K30">
         <f>IF(I30&lt;&gt;"",I30,J30)</f>
-        <v>523018</v>
-      </c>
-      <c r="M30" t="s">
-        <v>79</v>
-      </c>
-      <c r="O30" t="s">
-        <v>113</v>
-      </c>
-      <c r="P30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>522192</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>128</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1">
-        <f>IF(K31&lt;&gt;"",FLOOR(K31-MIN(K:K),2),"")</f>
-        <v>64874</v>
+        <f>IF(K31&lt;&gt;"",FLOOR((K31-MIN(K:K))/2,1),"")</f>
+        <v>4387</v>
       </c>
       <c r="F31" s="1">
-        <f>IF(MOD(K31,2)=1,8+L31,L31)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G31" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F31*HEX2DEC(10000) +E31)</f>
-        <v>300FD6A</v>
+        <v>20A1123</v>
       </c>
       <c r="H31">
-        <f>HEX2DEC(G31)</f>
-        <v>50396522</v>
+        <f t="shared" si="1"/>
+        <v>34214179</v>
       </c>
       <c r="I31">
-        <v>586928</v>
+        <v>522192</v>
+      </c>
+      <c r="J31" t="str">
+        <f>IF(P31&lt;&gt;"",$B$2+P31*136,"")</f>
+        <v/>
       </c>
       <c r="K31">
         <f>IF(I31&lt;&gt;"",I31,J31)</f>
-        <v>586928</v>
+        <v>522192</v>
       </c>
       <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>129</v>
+        <v>43</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="E32" s="1">
-        <f>IF(K32&lt;&gt;"",FLOOR(K32-MIN(K:K),2),"")</f>
-        <v>64874</v>
+        <f>IF(K32&lt;&gt;"",FLOOR((K32-MIN(K:K))/2,1),"")</f>
+        <v>4387</v>
       </c>
       <c r="F32" s="1">
-        <f>IF(MOD(K32,2)=1,8+L32,L32)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="G32" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F32*HEX2DEC(10000) +E32)</f>
-        <v>301FD6A</v>
+        <v>20B1123</v>
       </c>
       <c r="H32">
-        <f>HEX2DEC(G32)</f>
-        <v>50462058</v>
+        <f t="shared" si="1"/>
+        <v>34279715</v>
       </c>
       <c r="I32">
-        <v>586928</v>
+        <v>522192</v>
+      </c>
+      <c r="J32" t="str">
+        <f>IF(P32&lt;&gt;"",$B$2+P32*136,"")</f>
+        <v/>
       </c>
       <c r="K32">
         <f>IF(I32&lt;&gt;"",I32,J32)</f>
-        <v>586928</v>
+        <v>522192</v>
       </c>
       <c r="L32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>130</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="E33" s="1">
-        <f>IF(K33&lt;&gt;"",FLOOR(K33-MIN(K:K),2),"")</f>
-        <v>64874</v>
+        <f>IF(K33&lt;&gt;"",FLOOR((K33-MIN(K:K))/2,1),"")</f>
+        <v>4400</v>
       </c>
       <c r="F33" s="1">
-        <f>IF(MOD(K33,2)=1,8+L33,L33)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G33" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F33*HEX2DEC(10000) +E33)</f>
-        <v>308FD6A</v>
+        <v>2081130</v>
       </c>
       <c r="H33">
-        <f>HEX2DEC(G33)</f>
-        <v>50920810</v>
-      </c>
-      <c r="I33">
-        <v>586929</v>
+        <f t="shared" si="1"/>
+        <v>34083120</v>
+      </c>
+      <c r="J33">
+        <f>IF(P33&lt;&gt;"",$B$2+P33*136,"")</f>
+        <v>522218</v>
       </c>
       <c r="K33">
         <f>IF(I33&lt;&gt;"",I33,J33)</f>
-        <v>586929</v>
-      </c>
-      <c r="L33">
+        <v>522218</v>
+      </c>
+      <c r="M33" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33" t="s">
+        <v>113</v>
+      </c>
+      <c r="P33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="E34" s="1">
-        <f>IF(K34&lt;&gt;"",FLOOR(K34-MIN(K:K),2),"")</f>
-        <v>64874</v>
+        <f>IF(K34&lt;&gt;"",FLOOR((K34-MIN(K:K))/2,1),"")</f>
+        <v>4468</v>
       </c>
       <c r="F34" s="1">
-        <f>IF(MOD(K34,2)=1,8+L34,L34)</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G34" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F34*HEX2DEC(10000) +E34)</f>
-        <v>309FD6A</v>
+        <v>2081174</v>
       </c>
       <c r="H34">
-        <f>HEX2DEC(G34)</f>
-        <v>50986346</v>
-      </c>
-      <c r="I34">
-        <v>586929</v>
+        <f t="shared" si="1"/>
+        <v>34083188</v>
+      </c>
+      <c r="J34">
+        <f>IF(P34&lt;&gt;"",$B$2+P34*136,"")</f>
+        <v>522354</v>
       </c>
       <c r="K34">
         <f>IF(I34&lt;&gt;"",I34,J34)</f>
-        <v>586929</v>
-      </c>
-      <c r="L34">
+        <v>522354</v>
+      </c>
+      <c r="M34" t="s">
+        <v>61</v>
+      </c>
+      <c r="O34" t="s">
+        <v>113</v>
+      </c>
+      <c r="P34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>132</v>
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="E35" s="1">
-        <f>IF(K35&lt;&gt;"",FLOOR(K35-MIN(K:K),2),"")</f>
-        <v>64876</v>
+        <f>IF(K35&lt;&gt;"",FLOOR((K35-MIN(K:K))/2,1),"")</f>
+        <v>4536</v>
       </c>
       <c r="F35" s="1">
-        <f>IF(MOD(K35,2)=1,8+L35,L35)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="G35" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F35*HEX2DEC(10000) +E35)</f>
-        <v>300FD6C</v>
+        <v>20811B8</v>
       </c>
       <c r="H35">
-        <f>HEX2DEC(G35)</f>
-        <v>50396524</v>
+        <f t="shared" si="1"/>
+        <v>34083256</v>
+      </c>
+      <c r="J35">
+        <f>IF(P35&lt;&gt;"",$B$2+P35*136,"")</f>
+        <v>522490</v>
       </c>
       <c r="K35">
-        <v>586930</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
+        <f>IF(I35&lt;&gt;"",I35,J35)</f>
+        <v>522490</v>
+      </c>
+      <c r="M35" t="s">
+        <v>62</v>
+      </c>
+      <c r="O35" t="s">
+        <v>113</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="1">
+        <f>IF(K36&lt;&gt;"",FLOOR((K36-MIN(K:K))/2,1),"")</f>
+        <v>4604</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G36" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F36*HEX2DEC(10000) +E36)</f>
+        <v>20811FC</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>34083324</v>
+      </c>
+      <c r="J36">
+        <f>IF(P36&lt;&gt;"",$B$2+P36*136,"")</f>
+        <v>522626</v>
+      </c>
+      <c r="K36">
+        <f>IF(I36&lt;&gt;"",I36,J36)</f>
+        <v>522626</v>
+      </c>
+      <c r="M36" t="s">
+        <v>63</v>
+      </c>
+      <c r="O36" t="s">
+        <v>113</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="1">
+        <f>IF(K37&lt;&gt;"",FLOOR((K37-MIN(K:K))/2,1),"")</f>
+        <v>4672</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G37" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F37*HEX2DEC(10000) +E37)</f>
+        <v>2081240</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>34083392</v>
+      </c>
+      <c r="J37">
+        <f>IF(P37&lt;&gt;"",$B$2+P37*136,"")</f>
+        <v>522762</v>
+      </c>
+      <c r="K37">
+        <f>IF(I37&lt;&gt;"",I37,J37)</f>
+        <v>522762</v>
+      </c>
+      <c r="M37" t="s">
+        <v>64</v>
+      </c>
+      <c r="O37" t="s">
+        <v>113</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="1">
+        <f>IF(K38&lt;&gt;"",FLOOR((K38-MIN(K:K))/2,1),"")</f>
+        <v>4740</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G38" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F38*HEX2DEC(10000) +E38)</f>
+        <v>2081284</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>34083460</v>
+      </c>
+      <c r="J38">
+        <f>IF(P38&lt;&gt;"",$B$2+P38*136,"")</f>
+        <v>522898</v>
+      </c>
+      <c r="K38">
+        <f>IF(I38&lt;&gt;"",I38,J38)</f>
+        <v>522898</v>
+      </c>
+      <c r="M38" t="s">
+        <v>65</v>
+      </c>
+      <c r="O38" t="s">
+        <v>113</v>
+      </c>
+      <c r="P38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>61</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="1">
+        <f>IF(K39&lt;&gt;"",FLOOR((K39-MIN(K:K))/2,1),"")</f>
+        <v>4808</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G39" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F39*HEX2DEC(10000) +E39)</f>
+        <v>20812C8</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>34083528</v>
+      </c>
+      <c r="J39">
+        <f>IF(P39&lt;&gt;"",$B$2+P39*136,"")</f>
+        <v>523034</v>
+      </c>
+      <c r="K39">
+        <f>IF(I39&lt;&gt;"",I39,J39)</f>
+        <v>523034</v>
+      </c>
+      <c r="M39" t="s">
+        <v>79</v>
+      </c>
+      <c r="O39" t="s">
+        <v>113</v>
+      </c>
+      <c r="P39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>17</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="1">
+        <f>IF(K40&lt;&gt;"",FLOOR((K40-MIN(K:K))/2,1),"")</f>
+        <v>4876</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G40" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F40*HEX2DEC(10000) +E40)</f>
+        <v>208130C</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>34083596</v>
+      </c>
+      <c r="J40">
+        <f>IF(P40&lt;&gt;"",$B$2+P40*136,"")</f>
+        <v>523170</v>
+      </c>
+      <c r="K40">
+        <f>IF(I40&lt;&gt;"",I40,J40)</f>
+        <v>523170</v>
+      </c>
+      <c r="M40" t="s">
+        <v>91</v>
+      </c>
+      <c r="O40" t="s">
+        <v>113</v>
+      </c>
+      <c r="P40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="1">
+        <f>IF(K41&lt;&gt;"",FLOOR((K41-MIN(K:K))/2,1),"")</f>
+        <v>4944</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G41" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F41*HEX2DEC(10000) +E41)</f>
+        <v>2081350</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>34083664</v>
+      </c>
+      <c r="J41">
+        <f>IF(P41&lt;&gt;"",$B$2+P41*136,"")</f>
+        <v>523306</v>
+      </c>
+      <c r="K41">
+        <f>IF(I41&lt;&gt;"",I41,J41)</f>
+        <v>523306</v>
+      </c>
+      <c r="M41" t="s">
+        <v>92</v>
+      </c>
+      <c r="O41" t="s">
+        <v>113</v>
+      </c>
+      <c r="P41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="1">
+        <f>IF(K42&lt;&gt;"",FLOOR((K42-MIN(K:K))/2,1),"")</f>
+        <v>5012</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G42" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F42*HEX2DEC(10000) +E42)</f>
+        <v>2081394</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>34083732</v>
+      </c>
+      <c r="J42">
+        <f>IF(P42&lt;&gt;"",$B$2+P42*136,"")</f>
+        <v>523442</v>
+      </c>
+      <c r="K42">
+        <f>IF(I42&lt;&gt;"",I42,J42)</f>
+        <v>523442</v>
+      </c>
+      <c r="M42" t="s">
+        <v>93</v>
+      </c>
+      <c r="O42" t="s">
+        <v>113</v>
+      </c>
+      <c r="P42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="1">
+        <f>IF(K43&lt;&gt;"",FLOOR((K43-MIN(K:K))/2,1),"")</f>
+        <v>5080</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G43" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F43*HEX2DEC(10000) +E43)</f>
+        <v>20813D8</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>34083800</v>
+      </c>
+      <c r="J43">
+        <f>IF(P43&lt;&gt;"",$B$2+P43*136,"")</f>
+        <v>523578</v>
+      </c>
+      <c r="K43">
+        <f>IF(I43&lt;&gt;"",I43,J43)</f>
+        <v>523578</v>
+      </c>
+      <c r="M43" t="s">
+        <v>94</v>
+      </c>
+      <c r="O43" t="s">
+        <v>113</v>
+      </c>
+      <c r="P43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>36</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="1">
+        <f>IF(K44&lt;&gt;"",FLOOR((K44-MIN(K:K))/2,1),"")</f>
+        <v>5148</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G44" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F44*HEX2DEC(10000) +E44)</f>
+        <v>208141C</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>34083868</v>
+      </c>
+      <c r="J44">
+        <f>IF(P44&lt;&gt;"",$B$2+P44*136,"")</f>
+        <v>523714</v>
+      </c>
+      <c r="K44">
+        <f>IF(I44&lt;&gt;"",I44,J44)</f>
+        <v>523714</v>
+      </c>
+      <c r="M44" t="s">
+        <v>95</v>
+      </c>
+      <c r="O44" t="s">
+        <v>113</v>
+      </c>
+      <c r="P44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>57</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="1">
+        <f>IF(K45&lt;&gt;"",FLOOR((K45-MIN(K:K))/2,1),"")</f>
+        <v>5216</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G45" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F45*HEX2DEC(10000) +E45)</f>
+        <v>2081460</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>34083936</v>
+      </c>
+      <c r="J45">
+        <f>IF(P45&lt;&gt;"",$B$2+P45*136,"")</f>
+        <v>523850</v>
+      </c>
+      <c r="K45">
+        <f>IF(I45&lt;&gt;"",I45,J45)</f>
+        <v>523850</v>
+      </c>
+      <c r="M45" t="s">
+        <v>75</v>
+      </c>
+      <c r="O45" t="s">
+        <v>113</v>
+      </c>
+      <c r="P45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>58</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="1">
+        <f>IF(K46&lt;&gt;"",FLOOR((K46-MIN(K:K))/2,1),"")</f>
+        <v>5284</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G46" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F46*HEX2DEC(10000) +E46)</f>
+        <v>20814A4</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>34084004</v>
+      </c>
+      <c r="J46">
+        <f>IF(P46&lt;&gt;"",$B$2+P46*136,"")</f>
+        <v>523986</v>
+      </c>
+      <c r="K46">
+        <f>IF(I46&lt;&gt;"",I46,J46)</f>
+        <v>523986</v>
+      </c>
+      <c r="M46" t="s">
+        <v>76</v>
+      </c>
+      <c r="O46" t="s">
+        <v>113</v>
+      </c>
+      <c r="P46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>59</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="1">
+        <f>IF(K47&lt;&gt;"",FLOOR((K47-MIN(K:K))/2,1),"")</f>
+        <v>5352</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G47" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F47*HEX2DEC(10000) +E47)</f>
+        <v>20814E8</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>34084072</v>
+      </c>
+      <c r="J47">
+        <f>IF(P47&lt;&gt;"",$B$2+P47*136,"")</f>
+        <v>524122</v>
+      </c>
+      <c r="K47">
+        <f>IF(I47&lt;&gt;"",I47,J47)</f>
+        <v>524122</v>
+      </c>
+      <c r="M47" t="s">
+        <v>77</v>
+      </c>
+      <c r="O47" t="s">
+        <v>113</v>
+      </c>
+      <c r="P47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>60</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="1">
+        <f>IF(K48&lt;&gt;"",FLOOR((K48-MIN(K:K))/2,1),"")</f>
+        <v>5420</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G48" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F48*HEX2DEC(10000) +E48)</f>
+        <v>208152C</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>34084140</v>
+      </c>
+      <c r="J48">
+        <f>IF(P48&lt;&gt;"",$B$2+P48*136,"")</f>
+        <v>524258</v>
+      </c>
+      <c r="K48">
+        <f>IF(I48&lt;&gt;"",I48,J48)</f>
+        <v>524258</v>
+      </c>
+      <c r="M48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O48" t="s">
+        <v>113</v>
+      </c>
+      <c r="P48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f>IF(K49&lt;&gt;"",FLOOR((K49-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F49" s="1" t="e">
+        <f>IF(MOD(K49,2)=1,8+L49,L49)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G49" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F49*HEX2DEC(10000) +E49)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H49" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J49" t="str">
+        <f>IF(P49&lt;&gt;"",$B$2+P49*136,"")</f>
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <f>IF(I49&lt;&gt;"",I49,J49)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:P35" xr:uid="{39ED0021-5E2A-4DF1-81B3-2053C7857DD9}">
+  <autoFilter ref="A4:P49" xr:uid="{39ED0021-5E2A-4DF1-81B3-2053C7857DD9}">
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <sortState ref="A11:P35">
-      <sortCondition ref="A4:A35"/>
+    <sortState ref="A5:P49">
+      <sortCondition ref="K4:K49"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5592,566 +6247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B44084-CEA0-444D-9D2C-0332BD393651}">
-  <dimension ref="A1:P14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2">
-        <v>522202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3">
-        <f>MIN(K:K)</f>
-        <v>634002</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J4" t="s">
-        <v>118</v>
-      </c>
-      <c r="K4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" t="s">
-        <v>112</v>
-      </c>
-      <c r="P4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" ref="E5:E14" si="0">IF(K5&lt;&gt;"",FLOOR(K5-MIN(K:K),2),"")</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" ref="F5:F14" si="1">IF(MOD(K5,2)=1,8+L5,L5)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" ref="G5:G14" si="2">DEC2HEX(B$1*HEX2DEC(1000000) +F5*HEX2DEC(10000) +E5)</f>
-        <v>4000000</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H14" si="3">HEX2DEC(G5)</f>
-        <v>67108864</v>
-      </c>
-      <c r="I5">
-        <v>634002</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J14" si="4">IF(P5&lt;&gt;"",$B$2+P5*136,"")</f>
-        <v/>
-      </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K14" si="5">IF(I5&lt;&gt;"",I5,J5)</f>
-        <v>634002</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="2"/>
-        <v>4010000</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>67174400</v>
-      </c>
-      <c r="I6">
-        <v>634002</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>634002</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="2"/>
-        <v>4020000</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>67239936</v>
-      </c>
-      <c r="I7">
-        <v>634002</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>634002</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="2"/>
-        <v>4030000</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>67305472</v>
-      </c>
-      <c r="I8">
-        <v>634002</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>634002</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="2"/>
-        <v>4040000</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>67371008</v>
-      </c>
-      <c r="I9">
-        <v>634002</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K9">
-        <f t="shared" si="5"/>
-        <v>634002</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="2"/>
-        <v>4050000</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>67436544</v>
-      </c>
-      <c r="I10">
-        <v>634002</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K10">
-        <f t="shared" si="5"/>
-        <v>634002</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="2"/>
-        <v>4060000</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>67502080</v>
-      </c>
-      <c r="I11">
-        <v>634002</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K11">
-        <f t="shared" si="5"/>
-        <v>634002</v>
-      </c>
-      <c r="L11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="2"/>
-        <v>4070000</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>67567616</v>
-      </c>
-      <c r="I12">
-        <v>634002</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K12">
-        <f t="shared" si="5"/>
-        <v>634002</v>
-      </c>
-      <c r="L12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>46</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="2"/>
-        <v>4080000</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>67633152</v>
-      </c>
-      <c r="I13">
-        <v>634003</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K13">
-        <f t="shared" si="5"/>
-        <v>634003</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>47</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="2"/>
-        <v>4090000</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>67698688</v>
-      </c>
-      <c r="I14">
-        <v>634003</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K14">
-        <f t="shared" si="5"/>
-        <v>634003</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A4:P14" xr:uid="{39ED0021-5E2A-4DF1-81B3-2053C7857DD9}">
-    <sortState ref="A5:P14">
-      <sortCondition ref="E4:E14"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -6212,7 +6308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69CFC3F-26AD-4FF9-8B91-56700D135D7F}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -6397,7 +6493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AD2CBD-F75F-4320-8EF3-6C46AE9359C1}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -6577,7 +6673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBD1E14-95B0-42A9-B01D-B8348254E65B}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -6757,7 +6853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9076A2-E6C7-41AF-9BDA-E4F0F1478AA5}">
   <dimension ref="A1:B19"/>
   <sheetViews>

--- a/D/iotable.xlsx
+++ b/D/iotable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E58BA8-96EC-4CD2-8ABA-3AF94A7012B3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7386CD92-94CB-4F24-AC64-92D5CEF93FC6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,7 +910,7 @@
   <dimension ref="A1:S82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H82"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +972,7 @@
       </c>
       <c r="B5">
         <f>MIN(K:K)</f>
-        <v>521006</v>
+        <v>517960</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>136</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <f>IF(MOD(K7,2)=1,8+L7,L7)</f>
+        <f>IF(MOD(K7-$B$5,2)=1,8+L7,L7)</f>
         <v>0</v>
       </c>
       <c r="G7" t="str">
@@ -1070,7 +1070,7 @@
         <v>16777216</v>
       </c>
       <c r="I7">
-        <v>521006</v>
+        <v>517960</v>
       </c>
       <c r="J7" t="str">
         <f>IF(P7&lt;&gt;"",P7*136+$B$2,IF(Q7&lt;&gt;"",Q7*136+$B$2,IF(S7&lt;&gt;"",S7*80+$B$4,"")))</f>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="K7">
         <f>IF(I7&lt;&gt;"",I7,J7)</f>
-        <v>521006</v>
+        <v>517960</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1096,19 +1096,19 @@
       </c>
       <c r="E8" s="1">
         <f>IF(K8&lt;&gt;"",FLOOR((K8-MIN(K:K))/2,1),"")</f>
-        <v>527</v>
+        <v>2050</v>
       </c>
       <c r="F8" s="1">
-        <f>IF(MOD(K8,2)=1,8+L8,L8)</f>
+        <f>IF(MOD(K8-$B$5,2)=1,8+L8,L8)</f>
         <v>2</v>
       </c>
       <c r="G8" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F8*HEX2DEC(10000) +E8)</f>
-        <v>102020F</v>
+        <v>1020802</v>
       </c>
       <c r="H8">
-        <f>HEX2DEC(G8)</f>
-        <v>16908815</v>
+        <f t="shared" ref="H8:H55" si="0">HEX2DEC(G8)</f>
+        <v>16910338</v>
       </c>
       <c r="I8">
         <v>522060</v>
@@ -1118,7 +1118,7 @@
         <v/>
       </c>
       <c r="K8">
-        <f>IF(I8&lt;&gt;"",I8,J8)</f>
+        <f t="shared" ref="K8:K55" si="1">IF(I8&lt;&gt;"",I8,J8)</f>
         <v>522060</v>
       </c>
       <c r="L8">
@@ -1137,19 +1137,19 @@
       </c>
       <c r="E9" s="1">
         <f>IF(K9&lt;&gt;"",FLOOR((K9-MIN(K:K))/2,1),"")</f>
-        <v>527</v>
+        <v>2050</v>
       </c>
       <c r="F9" s="1">
-        <f>IF(MOD(K9,2)=1,8+L9,L9)</f>
+        <f>IF(MOD(K9-$B$5,2)=1,8+L9,L9)</f>
         <v>3</v>
       </c>
       <c r="G9" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F9*HEX2DEC(10000) +E9)</f>
-        <v>103020F</v>
+        <v>1030802</v>
       </c>
       <c r="H9">
-        <f>HEX2DEC(G9)</f>
-        <v>16974351</v>
+        <f t="shared" si="0"/>
+        <v>16975874</v>
       </c>
       <c r="I9">
         <v>522060</v>
@@ -1159,7 +1159,7 @@
         <v/>
       </c>
       <c r="K9">
-        <f>IF(I9&lt;&gt;"",I9,J9)</f>
+        <f t="shared" si="1"/>
         <v>522060</v>
       </c>
       <c r="L9">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="E10" s="1">
         <f>IF(K10&lt;&gt;"",FLOOR((K10-MIN(K:K))/2,1),"")</f>
-        <v>527</v>
+        <v>2050</v>
       </c>
       <c r="F10" s="1">
-        <f>IF(MOD(K10,2)=1,8+L10,L10)</f>
+        <f>IF(MOD(K10-$B$5,2)=1,8+L10,L10)</f>
         <v>4</v>
       </c>
       <c r="G10" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F10*HEX2DEC(10000) +E10)</f>
-        <v>104020F</v>
+        <v>1040802</v>
       </c>
       <c r="H10">
-        <f>HEX2DEC(G10)</f>
-        <v>17039887</v>
+        <f t="shared" si="0"/>
+        <v>17041410</v>
       </c>
       <c r="I10">
         <v>522060</v>
@@ -1200,7 +1200,7 @@
         <v/>
       </c>
       <c r="K10">
-        <f>IF(I10&lt;&gt;"",I10,J10)</f>
+        <f t="shared" si="1"/>
         <v>522060</v>
       </c>
       <c r="L10">
@@ -1219,19 +1219,19 @@
       </c>
       <c r="E11" s="1">
         <f>IF(K11&lt;&gt;"",FLOOR((K11-MIN(K:K))/2,1),"")</f>
-        <v>527</v>
+        <v>2050</v>
       </c>
       <c r="F11" s="1">
-        <f>IF(MOD(K11,2)=1,8+L11,L11)</f>
+        <f>IF(MOD(K11-$B$5,2)=1,8+L11,L11)</f>
         <v>5</v>
       </c>
       <c r="G11" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F11*HEX2DEC(10000) +E11)</f>
-        <v>105020F</v>
+        <v>1050802</v>
       </c>
       <c r="H11">
-        <f>HEX2DEC(G11)</f>
-        <v>17105423</v>
+        <f t="shared" si="0"/>
+        <v>17106946</v>
       </c>
       <c r="I11">
         <v>522060</v>
@@ -1241,225 +1241,243 @@
         <v/>
       </c>
       <c r="K11">
-        <f>IF(I11&lt;&gt;"",I11,J11)</f>
+        <f t="shared" si="1"/>
         <v>522060</v>
       </c>
       <c r="L11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
+        <v>132</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="1">
+        <f>IF(K12&lt;&gt;"",FLOOR((K12-MIN(K:K))/2,1),"")</f>
+        <v>2050</v>
+      </c>
+      <c r="F12" s="1">
+        <f>IF(MOD(K12-$B$5,2)=1,8+L12,L12)</f>
         <v>6</v>
       </c>
-      <c r="E12" s="1" t="str">
-        <f>IF(K12&lt;&gt;"",FLOOR((K12-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F12" s="1" t="e">
-        <f>IF(MOD(K12,2)=1,8+L12,L12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G12" t="e">
+      <c r="G12" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F12*HEX2DEC(10000) +E12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H12" t="e">
-        <f>HEX2DEC(G12)</f>
-        <v>#VALUE!</v>
+        <v>1060802</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>17172482</v>
+      </c>
+      <c r="I12">
+        <v>522060</v>
       </c>
       <c r="J12" t="str">
         <f>IF(P12&lt;&gt;"",P12*136+$B$2,IF(Q12&lt;&gt;"",Q12*136+$B$2,IF(S12&lt;&gt;"",S12*80+$B$4,"")))</f>
         <v/>
       </c>
-      <c r="K12" t="str">
-        <f>IF(I12&lt;&gt;"",I12,J12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>522060</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
+        <v>133</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="1">
+        <f>IF(K13&lt;&gt;"",FLOOR((K13-MIN(K:K))/2,1),"")</f>
+        <v>2050</v>
+      </c>
+      <c r="F13" s="1">
+        <f>IF(MOD(K13-$B$5,2)=1,8+L13,L13)</f>
         <v>7</v>
       </c>
-      <c r="E13" s="1" t="str">
-        <f>IF(K13&lt;&gt;"",FLOOR((K13-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="1" t="e">
-        <f>IF(MOD(K13,2)=1,8+L13,L13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" t="e">
+      <c r="G13" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F13*HEX2DEC(10000) +E13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H13" t="e">
-        <f>HEX2DEC(G13)</f>
-        <v>#VALUE!</v>
+        <v>1070802</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>17238018</v>
+      </c>
+      <c r="I13">
+        <v>522060</v>
       </c>
       <c r="J13" t="str">
         <f>IF(P13&lt;&gt;"",P13*136+$B$2,IF(Q13&lt;&gt;"",Q13*136+$B$2,IF(S13&lt;&gt;"",S13*80+$B$4,"")))</f>
         <v/>
       </c>
-      <c r="K13" t="str">
-        <f>IF(I13&lt;&gt;"",I13,J13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>522060</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="1">
+        <f>IF(K14&lt;&gt;"",FLOOR((K14-MIN(K:K))/2,1),"")</f>
+        <v>2050</v>
+      </c>
+      <c r="F14" s="1">
+        <f>IF(MOD(K14-$B$5,2)=1,8+L14,L14)</f>
         <v>8</v>
       </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f>IF(K14&lt;&gt;"",FLOOR((K14-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="1" t="e">
-        <f>IF(MOD(K14,2)=1,8+L14,L14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G14" t="e">
+      <c r="G14" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F14*HEX2DEC(10000) +E14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H14" t="e">
-        <f>HEX2DEC(G14)</f>
-        <v>#VALUE!</v>
+        <v>1080802</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>17303554</v>
+      </c>
+      <c r="I14">
+        <v>522061</v>
       </c>
       <c r="J14" t="str">
         <f>IF(P14&lt;&gt;"",P14*136+$B$2,IF(Q14&lt;&gt;"",Q14*136+$B$2,IF(S14&lt;&gt;"",S14*80+$B$4,"")))</f>
         <v/>
       </c>
-      <c r="K14" t="str">
-        <f>IF(I14&lt;&gt;"",I14,J14)</f>
-        <v/>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>522061</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E15" s="1">
         <f>IF(K15&lt;&gt;"",FLOOR((K15-MIN(K:K))/2,1),"")</f>
-        <v>527</v>
+        <v>2050</v>
       </c>
       <c r="F15" s="1">
-        <f>IF(MOD(K15,2)=1,8+L15,L15)</f>
-        <v>6</v>
+        <f>IF(MOD(K15-$B$5,2)=1,8+L15,L15)</f>
+        <v>9</v>
       </c>
       <c r="G15" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F15*HEX2DEC(10000) +E15)</f>
-        <v>106020F</v>
+        <v>1090802</v>
       </c>
       <c r="H15">
-        <f>HEX2DEC(G15)</f>
-        <v>17170959</v>
+        <f t="shared" si="0"/>
+        <v>17369090</v>
       </c>
       <c r="I15">
-        <v>522060</v>
+        <v>522061</v>
       </c>
       <c r="J15" t="str">
         <f>IF(P15&lt;&gt;"",P15*136+$B$2,IF(Q15&lt;&gt;"",Q15*136+$B$2,IF(S15&lt;&gt;"",S15*80+$B$4,"")))</f>
         <v/>
       </c>
       <c r="K15">
-        <f>IF(I15&lt;&gt;"",I15,J15)</f>
-        <v>522060</v>
+        <f t="shared" si="1"/>
+        <v>522061</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E16" s="1">
         <f>IF(K16&lt;&gt;"",FLOOR((K16-MIN(K:K))/2,1),"")</f>
-        <v>527</v>
+        <v>2050</v>
       </c>
       <c r="F16" s="1">
-        <f>IF(MOD(K16,2)=1,8+L16,L16)</f>
-        <v>7</v>
+        <f>IF(MOD(K16-$B$5,2)=1,8+L16,L16)</f>
+        <v>10</v>
       </c>
       <c r="G16" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F16*HEX2DEC(10000) +E16)</f>
-        <v>107020F</v>
+        <v>10A0802</v>
       </c>
       <c r="H16">
-        <f>HEX2DEC(G16)</f>
-        <v>17236495</v>
+        <f t="shared" si="0"/>
+        <v>17434626</v>
       </c>
       <c r="I16">
-        <v>522060</v>
+        <v>522061</v>
       </c>
       <c r="J16" t="str">
         <f>IF(P16&lt;&gt;"",P16*136+$B$2,IF(Q16&lt;&gt;"",Q16*136+$B$2,IF(S16&lt;&gt;"",S16*80+$B$4,"")))</f>
         <v/>
       </c>
       <c r="K16">
-        <f>IF(I16&lt;&gt;"",I16,J16)</f>
-        <v>522060</v>
+        <f t="shared" si="1"/>
+        <v>522061</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E17" s="1">
         <f>IF(K17&lt;&gt;"",FLOOR((K17-MIN(K:K))/2,1),"")</f>
-        <v>527</v>
+        <v>2050</v>
       </c>
       <c r="F17" s="1">
-        <f>IF(MOD(K17,2)=1,8+L17,L17)</f>
-        <v>8</v>
+        <f>IF(MOD(K17-$B$5,2)=1,8+L17,L17)</f>
+        <v>11</v>
       </c>
       <c r="G17" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F17*HEX2DEC(10000) +E17)</f>
-        <v>108020F</v>
+        <v>10B0802</v>
       </c>
       <c r="H17">
-        <f>HEX2DEC(G17)</f>
-        <v>17302031</v>
+        <f t="shared" si="0"/>
+        <v>17500162</v>
       </c>
       <c r="I17">
         <v>522061</v>
@@ -1469,38 +1487,38 @@
         <v/>
       </c>
       <c r="K17">
-        <f>IF(I17&lt;&gt;"",I17,J17)</f>
+        <f t="shared" si="1"/>
         <v>522061</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E18" s="1">
         <f>IF(K18&lt;&gt;"",FLOOR((K18-MIN(K:K))/2,1),"")</f>
-        <v>527</v>
+        <v>2050</v>
       </c>
       <c r="F18" s="1">
-        <f>IF(MOD(K18,2)=1,8+L18,L18)</f>
-        <v>9</v>
+        <f>IF(MOD(K18-$B$5,2)=1,8+L18,L18)</f>
+        <v>12</v>
       </c>
       <c r="G18" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F18*HEX2DEC(10000) +E18)</f>
-        <v>109020F</v>
+        <v>10C0802</v>
       </c>
       <c r="H18">
-        <f>HEX2DEC(G18)</f>
-        <v>17367567</v>
+        <f t="shared" si="0"/>
+        <v>17565698</v>
       </c>
       <c r="I18">
         <v>522061</v>
@@ -1510,1497 +1528,1671 @@
         <v/>
       </c>
       <c r="K18">
-        <f>IF(I18&lt;&gt;"",I18,J18)</f>
+        <f t="shared" si="1"/>
         <v>522061</v>
       </c>
       <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
+        <v>139</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="1">
+        <f>IF(K19&lt;&gt;"",FLOOR((K19-MIN(K:K))/2,1),"")</f>
+        <v>2050</v>
+      </c>
+      <c r="F19" s="1">
+        <f>IF(MOD(K19-$B$5,2)=1,8+L19,L19)</f>
         <v>13</v>
       </c>
-      <c r="E19" s="1" t="str">
-        <f>IF(K19&lt;&gt;"",FLOOR((K19-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F19" s="1" t="e">
-        <f>IF(MOD(K19,2)=1,8+L19,L19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G19" t="e">
+      <c r="G19" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F19*HEX2DEC(10000) +E19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H19" t="e">
-        <f>HEX2DEC(G19)</f>
-        <v>#VALUE!</v>
+        <v>10D0802</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>17631234</v>
+      </c>
+      <c r="I19">
+        <v>522061</v>
       </c>
       <c r="J19" t="str">
         <f>IF(P19&lt;&gt;"",P19*136+$B$2,IF(Q19&lt;&gt;"",Q19*136+$B$2,IF(S19&lt;&gt;"",S19*80+$B$4,"")))</f>
         <v/>
       </c>
-      <c r="K19" t="str">
-        <f>IF(I19&lt;&gt;"",I19,J19)</f>
-        <v/>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>522061</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>136</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>134</v>
+        <v>24</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1">
         <f>IF(K20&lt;&gt;"",FLOOR((K20-MIN(K:K))/2,1),"")</f>
-        <v>527</v>
+        <v>2116</v>
       </c>
       <c r="F20" s="1">
-        <f>IF(MOD(K20,2)=1,8+L20,L20)</f>
-        <v>10</v>
+        <f>IF(MOD(K20-$B$5,2)=1,8+L20,L20)</f>
+        <v>4</v>
       </c>
       <c r="G20" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F20*HEX2DEC(10000) +E20)</f>
-        <v>10A020F</v>
+        <v>1040844</v>
       </c>
       <c r="H20">
-        <f>HEX2DEC(G20)</f>
-        <v>17433103</v>
+        <f t="shared" si="0"/>
+        <v>17041476</v>
       </c>
       <c r="I20">
-        <v>522061</v>
+        <v>522192</v>
       </c>
       <c r="J20" t="str">
         <f>IF(P20&lt;&gt;"",P20*136+$B$2,IF(Q20&lt;&gt;"",Q20*136+$B$2,IF(S20&lt;&gt;"",S20*80+$B$4,"")))</f>
         <v/>
       </c>
       <c r="K20">
-        <f>IF(I20&lt;&gt;"",I20,J20)</f>
-        <v>522061</v>
+        <f t="shared" si="1"/>
+        <v>522192</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>137</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>134</v>
+        <v>25</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1">
         <f>IF(K21&lt;&gt;"",FLOOR((K21-MIN(K:K))/2,1),"")</f>
-        <v>527</v>
+        <v>2116</v>
       </c>
       <c r="F21" s="1">
-        <f>IF(MOD(K21,2)=1,8+L21,L21)</f>
-        <v>11</v>
+        <f>IF(MOD(K21-$B$5,2)=1,8+L21,L21)</f>
+        <v>5</v>
       </c>
       <c r="G21" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F21*HEX2DEC(10000) +E21)</f>
-        <v>10B020F</v>
+        <v>1050844</v>
       </c>
       <c r="H21">
-        <f>HEX2DEC(G21)</f>
-        <v>17498639</v>
+        <f t="shared" si="0"/>
+        <v>17107012</v>
       </c>
       <c r="I21">
-        <v>522061</v>
+        <v>522192</v>
       </c>
       <c r="J21" t="str">
         <f>IF(P21&lt;&gt;"",P21*136+$B$2,IF(Q21&lt;&gt;"",Q21*136+$B$2,IF(S21&lt;&gt;"",S21*80+$B$4,"")))</f>
         <v/>
       </c>
       <c r="K21">
-        <f>IF(I21&lt;&gt;"",I21,J21)</f>
-        <v>522061</v>
+        <f t="shared" si="1"/>
+        <v>522192</v>
       </c>
       <c r="L21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>16</v>
-      </c>
-      <c r="E22" s="1" t="str">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="1">
         <f>IF(K22&lt;&gt;"",FLOOR((K22-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F22" s="1" t="e">
-        <f>IF(MOD(K22,2)=1,8+L22,L22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G22" t="e">
+        <v>2116</v>
+      </c>
+      <c r="F22" s="1">
+        <f>IF(MOD(K22-$B$5,2)=1,8+L22,L22)</f>
+        <v>6</v>
+      </c>
+      <c r="G22" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F22*HEX2DEC(10000) +E22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H22" t="e">
-        <f>HEX2DEC(G22)</f>
-        <v>#VALUE!</v>
+        <v>1060844</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>17172548</v>
+      </c>
+      <c r="I22">
+        <v>522192</v>
       </c>
       <c r="J22" t="str">
         <f>IF(P22&lt;&gt;"",P22*136+$B$2,IF(Q22&lt;&gt;"",Q22*136+$B$2,IF(S22&lt;&gt;"",S22*80+$B$4,"")))</f>
         <v/>
       </c>
-      <c r="K22" t="str">
-        <f>IF(I22&lt;&gt;"",I22,J22)</f>
-        <v/>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>522192</v>
+      </c>
+      <c r="L22">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>138</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>134</v>
+        <v>27</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1">
         <f>IF(K23&lt;&gt;"",FLOOR((K23-MIN(K:K))/2,1),"")</f>
-        <v>527</v>
+        <v>2116</v>
       </c>
       <c r="F23" s="1">
-        <f>IF(MOD(K23,2)=1,8+L23,L23)</f>
-        <v>12</v>
+        <f>IF(MOD(K23-$B$5,2)=1,8+L23,L23)</f>
+        <v>7</v>
       </c>
       <c r="G23" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F23*HEX2DEC(10000) +E23)</f>
-        <v>10C020F</v>
+        <v>1070844</v>
       </c>
       <c r="H23">
-        <f>HEX2DEC(G23)</f>
-        <v>17564175</v>
+        <f t="shared" si="0"/>
+        <v>17238084</v>
       </c>
       <c r="I23">
-        <v>522061</v>
+        <v>522192</v>
       </c>
       <c r="J23" t="str">
         <f>IF(P23&lt;&gt;"",P23*136+$B$2,IF(Q23&lt;&gt;"",Q23*136+$B$2,IF(S23&lt;&gt;"",S23*80+$B$4,"")))</f>
         <v/>
       </c>
       <c r="K23">
-        <f>IF(I23&lt;&gt;"",I23,J23)</f>
-        <v>522061</v>
+        <f t="shared" si="1"/>
+        <v>522192</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>139</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>28</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1">
         <f>IF(K24&lt;&gt;"",FLOOR((K24-MIN(K:K))/2,1),"")</f>
-        <v>527</v>
+        <v>2116</v>
       </c>
       <c r="F24" s="1">
-        <f>IF(MOD(K24,2)=1,8+L24,L24)</f>
-        <v>13</v>
+        <f>IF(MOD(K24-$B$5,2)=1,8+L24,L24)</f>
+        <v>8</v>
       </c>
       <c r="G24" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F24*HEX2DEC(10000) +E24)</f>
-        <v>10D020F</v>
+        <v>1080844</v>
       </c>
       <c r="H24">
-        <f>HEX2DEC(G24)</f>
-        <v>17629711</v>
+        <f t="shared" si="0"/>
+        <v>17303620</v>
       </c>
       <c r="I24">
-        <v>522061</v>
+        <v>522193</v>
       </c>
       <c r="J24" t="str">
         <f>IF(P24&lt;&gt;"",P24*136+$B$2,IF(Q24&lt;&gt;"",Q24*136+$B$2,IF(S24&lt;&gt;"",S24*80+$B$4,"")))</f>
         <v/>
       </c>
       <c r="K24">
-        <f>IF(I24&lt;&gt;"",I24,J24)</f>
-        <v>522061</v>
+        <f t="shared" si="1"/>
+        <v>522193</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1">
         <f>IF(K25&lt;&gt;"",FLOOR((K25-MIN(K:K))/2,1),"")</f>
-        <v>593</v>
+        <v>2116</v>
       </c>
       <c r="F25" s="1">
-        <f>IF(MOD(K25,2)=1,8+L25,L25)</f>
-        <v>4</v>
+        <f>IF(MOD(K25-$B$5,2)=1,8+L25,L25)</f>
+        <v>9</v>
       </c>
       <c r="G25" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F25*HEX2DEC(10000) +E25)</f>
-        <v>1040251</v>
+        <v>1090844</v>
       </c>
       <c r="H25">
-        <f>HEX2DEC(G25)</f>
-        <v>17039953</v>
+        <f t="shared" si="0"/>
+        <v>17369156</v>
       </c>
       <c r="I25">
-        <v>522192</v>
+        <v>522193</v>
       </c>
       <c r="J25" t="str">
         <f>IF(P25&lt;&gt;"",P25*136+$B$2,IF(Q25&lt;&gt;"",Q25*136+$B$2,IF(S25&lt;&gt;"",S25*80+$B$4,"")))</f>
         <v/>
       </c>
       <c r="K25">
-        <f>IF(I25&lt;&gt;"",I25,J25)</f>
-        <v>522192</v>
+        <f t="shared" si="1"/>
+        <v>522193</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
         <v>9</v>
       </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E26" s="1">
         <f>IF(K26&lt;&gt;"",FLOOR((K26-MIN(K:K))/2,1),"")</f>
-        <v>593</v>
+        <v>2130</v>
       </c>
       <c r="F26" s="1">
-        <f>IF(MOD(K26,2)=1,8+L26,L26)</f>
-        <v>5</v>
+        <f>IF(MOD(K26-$B$5,2)=1,8+L26,L26)</f>
+        <v>0</v>
       </c>
       <c r="G26" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F26*HEX2DEC(10000) +E26)</f>
-        <v>1050251</v>
+        <v>1000852</v>
       </c>
       <c r="H26">
-        <f>HEX2DEC(G26)</f>
-        <v>17105489</v>
-      </c>
-      <c r="I26">
-        <v>522192</v>
-      </c>
-      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>16779346</v>
+      </c>
+      <c r="J26">
         <f>IF(P26&lt;&gt;"",P26*136+$B$2,IF(Q26&lt;&gt;"",Q26*136+$B$2,IF(S26&lt;&gt;"",S26*80+$B$4,"")))</f>
-        <v/>
+        <v>522220</v>
       </c>
       <c r="K26">
-        <f>IF(I26&lt;&gt;"",I26,J26)</f>
-        <v>522192</v>
-      </c>
-      <c r="L26">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>522220</v>
+      </c>
+      <c r="O26" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E27" s="1">
         <f>IF(K27&lt;&gt;"",FLOOR((K27-MIN(K:K))/2,1),"")</f>
-        <v>593</v>
+        <v>2198</v>
       </c>
       <c r="F27" s="1">
-        <f>IF(MOD(K27,2)=1,8+L27,L27)</f>
-        <v>6</v>
+        <f>IF(MOD(K27-$B$5,2)=1,8+L27,L27)</f>
+        <v>0</v>
       </c>
       <c r="G27" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F27*HEX2DEC(10000) +E27)</f>
-        <v>1060251</v>
+        <v>1000896</v>
       </c>
       <c r="H27">
-        <f>HEX2DEC(G27)</f>
-        <v>17171025</v>
-      </c>
-      <c r="I27">
-        <v>522192</v>
-      </c>
-      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>16779414</v>
+      </c>
+      <c r="J27">
         <f>IF(P27&lt;&gt;"",P27*136+$B$2,IF(Q27&lt;&gt;"",Q27*136+$B$2,IF(S27&lt;&gt;"",S27*80+$B$4,"")))</f>
-        <v/>
+        <v>522356</v>
       </c>
       <c r="K27">
-        <f>IF(I27&lt;&gt;"",I27,J27)</f>
-        <v>522192</v>
-      </c>
-      <c r="L27">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>522356</v>
+      </c>
+      <c r="O27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E28" s="1">
         <f>IF(K28&lt;&gt;"",FLOOR((K28-MIN(K:K))/2,1),"")</f>
-        <v>593</v>
+        <v>2198</v>
       </c>
       <c r="F28" s="1">
-        <f>IF(MOD(K28,2)=1,8+L28,L28)</f>
-        <v>7</v>
+        <f>IF(MOD(K28-$B$5,2)=1,8+L28,L28)</f>
+        <v>0</v>
       </c>
       <c r="G28" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F28*HEX2DEC(10000) +E28)</f>
-        <v>1070251</v>
+        <v>1000896</v>
       </c>
       <c r="H28">
-        <f>HEX2DEC(G28)</f>
-        <v>17236561</v>
-      </c>
-      <c r="I28">
-        <v>522192</v>
-      </c>
-      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>16779414</v>
+      </c>
+      <c r="J28">
         <f>IF(P28&lt;&gt;"",P28*136+$B$2,IF(Q28&lt;&gt;"",Q28*136+$B$2,IF(S28&lt;&gt;"",S28*80+$B$4,"")))</f>
-        <v/>
+        <v>522356</v>
       </c>
       <c r="K28">
-        <f>IF(I28&lt;&gt;"",I28,J28)</f>
-        <v>522192</v>
-      </c>
-      <c r="L28">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>522356</v>
+      </c>
+      <c r="O28" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E29" s="1">
         <f>IF(K29&lt;&gt;"",FLOOR((K29-MIN(K:K))/2,1),"")</f>
-        <v>593</v>
+        <v>2266</v>
       </c>
       <c r="F29" s="1">
-        <f>IF(MOD(K29,2)=1,8+L29,L29)</f>
-        <v>8</v>
+        <f>IF(MOD(K29-$B$5,2)=1,8+L29,L29)</f>
+        <v>0</v>
       </c>
       <c r="G29" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F29*HEX2DEC(10000) +E29)</f>
-        <v>1080251</v>
+        <v>10008DA</v>
       </c>
       <c r="H29">
-        <f>HEX2DEC(G29)</f>
-        <v>17302097</v>
-      </c>
-      <c r="I29">
-        <v>522193</v>
-      </c>
-      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>16779482</v>
+      </c>
+      <c r="J29">
         <f>IF(P29&lt;&gt;"",P29*136+$B$2,IF(Q29&lt;&gt;"",Q29*136+$B$2,IF(S29&lt;&gt;"",S29*80+$B$4,"")))</f>
-        <v/>
+        <v>522492</v>
       </c>
       <c r="K29">
-        <f>IF(I29&lt;&gt;"",I29,J29)</f>
-        <v>522193</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>522492</v>
+      </c>
+      <c r="O29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>9</v>
+        <v>57</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E30" s="1">
         <f>IF(K30&lt;&gt;"",FLOOR((K30-MIN(K:K))/2,1),"")</f>
-        <v>593</v>
+        <v>2334</v>
       </c>
       <c r="F30" s="1">
-        <f>IF(MOD(K30,2)=1,8+L30,L30)</f>
-        <v>9</v>
+        <f>IF(MOD(K30-$B$5,2)=1,8+L30,L30)</f>
+        <v>0</v>
       </c>
       <c r="G30" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F30*HEX2DEC(10000) +E30)</f>
-        <v>1090251</v>
+        <v>100091E</v>
       </c>
       <c r="H30">
-        <f>HEX2DEC(G30)</f>
-        <v>17367633</v>
-      </c>
-      <c r="I30">
-        <v>522193</v>
-      </c>
-      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>16779550</v>
+      </c>
+      <c r="J30">
         <f>IF(P30&lt;&gt;"",P30*136+$B$2,IF(Q30&lt;&gt;"",Q30*136+$B$2,IF(S30&lt;&gt;"",S30*80+$B$4,"")))</f>
-        <v/>
+        <v>522628</v>
       </c>
       <c r="K30">
-        <f>IF(I30&lt;&gt;"",I30,J30)</f>
-        <v>522193</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>522628</v>
+      </c>
+      <c r="O30" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>8</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E31" s="1">
         <f>IF(K31&lt;&gt;"",FLOOR((K31-MIN(K:K))/2,1),"")</f>
-        <v>607</v>
+        <v>2402</v>
       </c>
       <c r="F31" s="1">
-        <f>IF(MOD(K31,2)=1,8+L31,L31)</f>
+        <f>IF(MOD(K31-$B$5,2)=1,8+L31,L31)</f>
         <v>0</v>
       </c>
       <c r="G31" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F31*HEX2DEC(10000) +E31)</f>
-        <v>100025F</v>
+        <v>1000962</v>
       </c>
       <c r="H31">
-        <f>HEX2DEC(G31)</f>
-        <v>16777823</v>
+        <f t="shared" si="0"/>
+        <v>16779618</v>
       </c>
       <c r="J31">
         <f>IF(P31&lt;&gt;"",P31*136+$B$2,IF(Q31&lt;&gt;"",Q31*136+$B$2,IF(S31&lt;&gt;"",S31*80+$B$4,"")))</f>
-        <v>522220</v>
+        <v>522764</v>
       </c>
       <c r="K31">
-        <f>IF(I31&lt;&gt;"",I31,J31)</f>
-        <v>522220</v>
+        <f t="shared" si="1"/>
+        <v>522764</v>
       </c>
       <c r="O31" t="s">
         <v>113</v>
       </c>
-      <c r="Q31">
-        <v>0</v>
+      <c r="P31">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>9</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1">
         <f>IF(K32&lt;&gt;"",FLOOR((K32-MIN(K:K))/2,1),"")</f>
-        <v>675</v>
+        <v>2402</v>
       </c>
       <c r="F32" s="1">
-        <f>IF(MOD(K32,2)=1,8+L32,L32)</f>
+        <f>IF(MOD(K32-$B$5,2)=1,8+L32,L32)</f>
         <v>0</v>
       </c>
       <c r="G32" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F32*HEX2DEC(10000) +E32)</f>
-        <v>10002A3</v>
+        <v>1000962</v>
       </c>
       <c r="H32">
-        <f>HEX2DEC(G32)</f>
-        <v>16777891</v>
+        <f t="shared" si="0"/>
+        <v>16779618</v>
       </c>
       <c r="J32">
         <f>IF(P32&lt;&gt;"",P32*136+$B$2,IF(Q32&lt;&gt;"",Q32*136+$B$2,IF(S32&lt;&gt;"",S32*80+$B$4,"")))</f>
-        <v>522356</v>
+        <v>522764</v>
       </c>
       <c r="K32">
-        <f>IF(I32&lt;&gt;"",I32,J32)</f>
-        <v>522356</v>
+        <f t="shared" si="1"/>
+        <v>522764</v>
       </c>
       <c r="O32" t="s">
         <v>113</v>
       </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>10</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E33" s="1">
         <f>IF(K33&lt;&gt;"",FLOOR((K33-MIN(K:K))/2,1),"")</f>
-        <v>675</v>
+        <v>2470</v>
       </c>
       <c r="F33" s="1">
-        <f>IF(MOD(K33,2)=1,8+L33,L33)</f>
+        <f>IF(MOD(K33-$B$5,2)=1,8+L33,L33)</f>
         <v>0</v>
       </c>
       <c r="G33" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F33*HEX2DEC(10000) +E33)</f>
-        <v>10002A3</v>
+        <v>10009A6</v>
       </c>
       <c r="H33">
-        <f>HEX2DEC(G33)</f>
-        <v>16777891</v>
+        <f t="shared" si="0"/>
+        <v>16779686</v>
       </c>
       <c r="J33">
         <f>IF(P33&lt;&gt;"",P33*136+$B$2,IF(Q33&lt;&gt;"",Q33*136+$B$2,IF(S33&lt;&gt;"",S33*80+$B$4,"")))</f>
-        <v>522356</v>
+        <v>522900</v>
       </c>
       <c r="K33">
-        <f>IF(I33&lt;&gt;"",I33,J33)</f>
-        <v>522356</v>
+        <f t="shared" si="1"/>
+        <v>522900</v>
       </c>
       <c r="O33" t="s">
         <v>113</v>
       </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>61</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C34">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E34" s="1">
         <f>IF(K34&lt;&gt;"",FLOOR((K34-MIN(K:K))/2,1),"")</f>
-        <v>743</v>
+        <v>2470</v>
       </c>
       <c r="F34" s="1">
-        <f>IF(MOD(K34,2)=1,8+L34,L34)</f>
+        <f>IF(MOD(K34-$B$5,2)=1,8+L34,L34)</f>
         <v>0</v>
       </c>
       <c r="G34" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F34*HEX2DEC(10000) +E34)</f>
-        <v>10002E7</v>
+        <v>10009A6</v>
       </c>
       <c r="H34">
-        <f>HEX2DEC(G34)</f>
-        <v>16777959</v>
+        <f t="shared" si="0"/>
+        <v>16779686</v>
       </c>
       <c r="J34">
         <f>IF(P34&lt;&gt;"",P34*136+$B$2,IF(Q34&lt;&gt;"",Q34*136+$B$2,IF(S34&lt;&gt;"",S34*80+$B$4,"")))</f>
-        <v>522492</v>
+        <v>522900</v>
       </c>
       <c r="K34">
-        <f>IF(I34&lt;&gt;"",I34,J34)</f>
-        <v>522492</v>
+        <f t="shared" si="1"/>
+        <v>522900</v>
       </c>
       <c r="O34" t="s">
         <v>113</v>
       </c>
       <c r="Q34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E35" s="1">
         <f>IF(K35&lt;&gt;"",FLOOR((K35-MIN(K:K))/2,1),"")</f>
-        <v>811</v>
+        <v>2538</v>
       </c>
       <c r="F35" s="1">
-        <f>IF(MOD(K35,2)=1,8+L35,L35)</f>
+        <f>IF(MOD(K35-$B$5,2)=1,8+L35,L35)</f>
         <v>0</v>
       </c>
       <c r="G35" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F35*HEX2DEC(10000) +E35)</f>
-        <v>100032B</v>
+        <v>10009EA</v>
       </c>
       <c r="H35">
-        <f>HEX2DEC(G35)</f>
-        <v>16778027</v>
+        <f t="shared" si="0"/>
+        <v>16779754</v>
       </c>
       <c r="J35">
         <f>IF(P35&lt;&gt;"",P35*136+$B$2,IF(Q35&lt;&gt;"",Q35*136+$B$2,IF(S35&lt;&gt;"",S35*80+$B$4,"")))</f>
-        <v>522628</v>
+        <v>523036</v>
       </c>
       <c r="K35">
-        <f>IF(I35&lt;&gt;"",I35,J35)</f>
-        <v>522628</v>
+        <f t="shared" si="1"/>
+        <v>523036</v>
       </c>
       <c r="O35" t="s">
         <v>113</v>
       </c>
-      <c r="Q35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <v>6</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E36" s="1">
         <f>IF(K36&lt;&gt;"",FLOOR((K36-MIN(K:K))/2,1),"")</f>
-        <v>879</v>
+        <v>2538</v>
       </c>
       <c r="F36" s="1">
-        <f>IF(MOD(K36,2)=1,8+L36,L36)</f>
+        <f>IF(MOD(K36-$B$5,2)=1,8+L36,L36)</f>
         <v>0</v>
       </c>
       <c r="G36" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F36*HEX2DEC(10000) +E36)</f>
-        <v>100036F</v>
+        <v>10009EA</v>
       </c>
       <c r="H36">
-        <f>HEX2DEC(G36)</f>
-        <v>16778095</v>
+        <f t="shared" si="0"/>
+        <v>16779754</v>
       </c>
       <c r="J36">
         <f>IF(P36&lt;&gt;"",P36*136+$B$2,IF(Q36&lt;&gt;"",Q36*136+$B$2,IF(S36&lt;&gt;"",S36*80+$B$4,"")))</f>
-        <v>522764</v>
+        <v>523036</v>
       </c>
       <c r="K36">
-        <f>IF(I36&lt;&gt;"",I36,J36)</f>
-        <v>522764</v>
+        <f t="shared" si="1"/>
+        <v>523036</v>
       </c>
       <c r="O36" t="s">
         <v>113</v>
       </c>
-      <c r="P36">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C37">
-        <v>15</v>
-      </c>
-      <c r="E37" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="1">
         <f>IF(K37&lt;&gt;"",FLOOR((K37-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F37" s="1" t="e">
-        <f>IF(MOD(K37,2)=1,8+L37,L37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G37" t="e">
+        <v>2606</v>
+      </c>
+      <c r="F37" s="1">
+        <f>IF(MOD(K37-$B$5,2)=1,8+L37,L37)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F37*HEX2DEC(10000) +E37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H37" t="e">
-        <f>HEX2DEC(G37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J37" t="str">
+        <v>1000A2E</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>16779822</v>
+      </c>
+      <c r="J37">
         <f>IF(P37&lt;&gt;"",P37*136+$B$2,IF(Q37&lt;&gt;"",Q37*136+$B$2,IF(S37&lt;&gt;"",S37*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K37" t="str">
-        <f>IF(I37&lt;&gt;"",I37,J37)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>523172</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>523172</v>
+      </c>
+      <c r="O37" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>59</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E38" s="1">
         <f>IF(K38&lt;&gt;"",FLOOR((K38-MIN(K:K))/2,1),"")</f>
-        <v>879</v>
+        <v>2674</v>
       </c>
       <c r="F38" s="1">
-        <f>IF(MOD(K38,2)=1,8+L38,L38)</f>
+        <f>IF(MOD(K38-$B$5,2)=1,8+L38,L38)</f>
         <v>0</v>
       </c>
       <c r="G38" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F38*HEX2DEC(10000) +E38)</f>
-        <v>100036F</v>
+        <v>1000A72</v>
       </c>
       <c r="H38">
-        <f>HEX2DEC(G38)</f>
-        <v>16778095</v>
+        <f t="shared" si="0"/>
+        <v>16779890</v>
       </c>
       <c r="J38">
         <f>IF(P38&lt;&gt;"",P38*136+$B$2,IF(Q38&lt;&gt;"",Q38*136+$B$2,IF(S38&lt;&gt;"",S38*80+$B$4,"")))</f>
-        <v>522764</v>
+        <v>523308</v>
       </c>
       <c r="K38">
-        <f>IF(I38&lt;&gt;"",I38,J38)</f>
-        <v>522764</v>
+        <f t="shared" si="1"/>
+        <v>523308</v>
       </c>
       <c r="O38" t="s">
         <v>113</v>
       </c>
       <c r="Q38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>60</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E39" s="1">
         <f>IF(K39&lt;&gt;"",FLOOR((K39-MIN(K:K))/2,1),"")</f>
-        <v>947</v>
+        <v>2742</v>
       </c>
       <c r="F39" s="1">
-        <f>IF(MOD(K39,2)=1,8+L39,L39)</f>
+        <f>IF(MOD(K39-$B$5,2)=1,8+L39,L39)</f>
         <v>0</v>
       </c>
       <c r="G39" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F39*HEX2DEC(10000) +E39)</f>
-        <v>10003B3</v>
+        <v>1000AB6</v>
       </c>
       <c r="H39">
-        <f>HEX2DEC(G39)</f>
-        <v>16778163</v>
+        <f t="shared" si="0"/>
+        <v>16779958</v>
       </c>
       <c r="J39">
         <f>IF(P39&lt;&gt;"",P39*136+$B$2,IF(Q39&lt;&gt;"",Q39*136+$B$2,IF(S39&lt;&gt;"",S39*80+$B$4,"")))</f>
-        <v>522900</v>
+        <v>523444</v>
       </c>
       <c r="K39">
-        <f>IF(I39&lt;&gt;"",I39,J39)</f>
-        <v>522900</v>
+        <f t="shared" si="1"/>
+        <v>523444</v>
       </c>
       <c r="O39" t="s">
         <v>113</v>
       </c>
-      <c r="P39">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>61</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E40" s="1">
         <f>IF(K40&lt;&gt;"",FLOOR((K40-MIN(K:K))/2,1),"")</f>
-        <v>947</v>
+        <v>2810</v>
       </c>
       <c r="F40" s="1">
-        <f>IF(MOD(K40,2)=1,8+L40,L40)</f>
+        <f>IF(MOD(K40-$B$5,2)=1,8+L40,L40)</f>
         <v>0</v>
       </c>
       <c r="G40" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F40*HEX2DEC(10000) +E40)</f>
-        <v>10003B3</v>
+        <v>1000AFA</v>
       </c>
       <c r="H40">
-        <f>HEX2DEC(G40)</f>
-        <v>16778163</v>
+        <f t="shared" si="0"/>
+        <v>16780026</v>
       </c>
       <c r="J40">
         <f>IF(P40&lt;&gt;"",P40*136+$B$2,IF(Q40&lt;&gt;"",Q40*136+$B$2,IF(S40&lt;&gt;"",S40*80+$B$4,"")))</f>
-        <v>522900</v>
+        <v>523580</v>
       </c>
       <c r="K40">
-        <f>IF(I40&lt;&gt;"",I40,J40)</f>
-        <v>522900</v>
+        <f t="shared" si="1"/>
+        <v>523580</v>
       </c>
       <c r="O40" t="s">
         <v>113</v>
       </c>
       <c r="Q40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>34</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1" t="str">
+      <c r="D41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="1">
         <f>IF(K41&lt;&gt;"",FLOOR((K41-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F41" s="1" t="e">
-        <f>IF(MOD(K41,2)=1,8+L41,L41)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G41" t="e">
+        <v>2878</v>
+      </c>
+      <c r="F41" s="1">
+        <f>IF(MOD(K41-$B$5,2)=1,8+L41,L41)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F41*HEX2DEC(10000) +E41)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H41" t="e">
-        <f>HEX2DEC(G41)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J41" t="str">
+        <v>1000B3E</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>16780094</v>
+      </c>
+      <c r="J41">
         <f>IF(P41&lt;&gt;"",P41*136+$B$2,IF(Q41&lt;&gt;"",Q41*136+$B$2,IF(S41&lt;&gt;"",S41*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K41" t="str">
-        <f>IF(I41&lt;&gt;"",I41,J41)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>523716</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>523716</v>
+      </c>
+      <c r="O41" t="s">
+        <v>113</v>
+      </c>
+      <c r="P41">
+        <v>11</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>35</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="E42" s="1" t="str">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="1">
         <f>IF(K42&lt;&gt;"",FLOOR((K42-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F42" s="1" t="e">
-        <f>IF(MOD(K42,2)=1,8+L42,L42)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G42" t="e">
+        <v>2878</v>
+      </c>
+      <c r="F42" s="1">
+        <f>IF(MOD(K42-$B$5,2)=1,8+L42,L42)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F42*HEX2DEC(10000) +E42)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H42" t="e">
-        <f>HEX2DEC(G42)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J42" t="str">
+        <v>1000B3E</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>16780094</v>
+      </c>
+      <c r="J42">
         <f>IF(P42&lt;&gt;"",P42*136+$B$2,IF(Q42&lt;&gt;"",Q42*136+$B$2,IF(S42&lt;&gt;"",S42*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K42" t="str">
-        <f>IF(I42&lt;&gt;"",I42,J42)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>523716</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>523716</v>
+      </c>
+      <c r="O42" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>36</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="E43" s="1" t="str">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="1">
         <f>IF(K43&lt;&gt;"",FLOOR((K43-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F43" s="1" t="e">
-        <f>IF(MOD(K43,2)=1,8+L43,L43)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G43" t="e">
+        <v>3082</v>
+      </c>
+      <c r="F43" s="1">
+        <f>IF(MOD(K43-$B$5,2)=1,8+L43,L43)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F43*HEX2DEC(10000) +E43)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H43" t="e">
-        <f>HEX2DEC(G43)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J43" t="str">
+        <v>1000C0A</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>16780298</v>
+      </c>
+      <c r="J43">
         <f>IF(P43&lt;&gt;"",P43*136+$B$2,IF(Q43&lt;&gt;"",Q43*136+$B$2,IF(S43&lt;&gt;"",S43*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K43" t="str">
-        <f>IF(I43&lt;&gt;"",I43,J43)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>524124</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>524124</v>
+      </c>
+      <c r="O43" t="s">
+        <v>113</v>
+      </c>
+      <c r="P43">
+        <v>14</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>37</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="E44" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="1">
         <f>IF(K44&lt;&gt;"",FLOOR((K44-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F44" s="1" t="e">
-        <f>IF(MOD(K44,2)=1,8+L44,L44)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G44" t="e">
+        <v>3082</v>
+      </c>
+      <c r="F44" s="1">
+        <f>IF(MOD(K44-$B$5,2)=1,8+L44,L44)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F44*HEX2DEC(10000) +E44)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H44" t="e">
-        <f>HEX2DEC(G44)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J44" t="str">
+        <v>1000C0A</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>16780298</v>
+      </c>
+      <c r="J44">
         <f>IF(P44&lt;&gt;"",P44*136+$B$2,IF(Q44&lt;&gt;"",Q44*136+$B$2,IF(S44&lt;&gt;"",S44*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K44" t="str">
-        <f>IF(I44&lt;&gt;"",I44,J44)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>524124</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>524124</v>
+      </c>
+      <c r="O44" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C45">
-        <v>7</v>
-      </c>
-      <c r="E45" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="1">
         <f>IF(K45&lt;&gt;"",FLOOR((K45-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F45" s="1" t="e">
-        <f>IF(MOD(K45,2)=1,8+L45,L45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G45" t="e">
+        <v>3150</v>
+      </c>
+      <c r="F45" s="1">
+        <f>IF(MOD(K45-$B$5,2)=1,8+L45,L45)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F45*HEX2DEC(10000) +E45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H45" t="e">
-        <f>HEX2DEC(G45)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J45" t="str">
+        <v>1000C4E</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>16780366</v>
+      </c>
+      <c r="J45">
         <f>IF(P45&lt;&gt;"",P45*136+$B$2,IF(Q45&lt;&gt;"",Q45*136+$B$2,IF(S45&lt;&gt;"",S45*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K45" t="str">
-        <f>IF(I45&lt;&gt;"",I45,J45)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>524260</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>524260</v>
+      </c>
+      <c r="O45" t="s">
+        <v>113</v>
+      </c>
+      <c r="P45">
+        <v>15</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="1">
+        <f>IF(K46&lt;&gt;"",FLOOR((K46-MIN(K:K))/2,1),"")</f>
+        <v>3150</v>
+      </c>
+      <c r="F46" s="1">
+        <f>IF(MOD(K46-$B$5,2)=1,8+L46,L46)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F46*HEX2DEC(10000) +E46)</f>
+        <v>1000C4E</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>16780366</v>
+      </c>
+      <c r="J46">
+        <f>IF(P46&lt;&gt;"",P46*136+$B$2,IF(Q46&lt;&gt;"",Q46*136+$B$2,IF(S46&lt;&gt;"",S46*80+$B$4,"")))</f>
+        <v>524260</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>524260</v>
+      </c>
+      <c r="O46" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>48</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="1">
+        <f>IF(K47&lt;&gt;"",FLOOR((K47-MIN(K:K))/2,1),"")</f>
+        <v>3215</v>
+      </c>
+      <c r="F47" s="1">
+        <f>IF(MOD(K47-$B$5,2)=1,8+L47,L47)</f>
         <v>8</v>
       </c>
-      <c r="E46" s="1" t="str">
-        <f>IF(K46&lt;&gt;"",FLOOR((K46-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F46" s="1" t="e">
-        <f>IF(MOD(K46,2)=1,8+L46,L46)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G46" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F46*HEX2DEC(10000) +E46)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H46" t="e">
-        <f>HEX2DEC(G46)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J46" t="str">
-        <f>IF(P46&lt;&gt;"",P46*136+$B$2,IF(Q46&lt;&gt;"",Q46*136+$B$2,IF(S46&lt;&gt;"",S46*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K46" t="str">
-        <f>IF(I46&lt;&gt;"",I46,J46)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="G47" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F47*HEX2DEC(10000) +E47)</f>
+        <v>1080C8F</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>17304719</v>
+      </c>
+      <c r="J47">
+        <f>IF(P47&lt;&gt;"",P47*136+$B$2,IF(Q47&lt;&gt;"",Q47*136+$B$2,IF(S47&lt;&gt;"",S47*80+$B$4,"")))</f>
+        <v>524391</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>524391</v>
+      </c>
+      <c r="R47" t="s">
+        <v>113</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>56</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="1">
+        <f>IF(K48&lt;&gt;"",FLOOR((K48-MIN(K:K))/2,1),"")</f>
+        <v>3255</v>
+      </c>
+      <c r="F48" s="1">
+        <f>IF(MOD(K48-$B$5,2)=1,8+L48,L48)</f>
+        <v>8</v>
+      </c>
+      <c r="G48" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F48*HEX2DEC(10000) +E48)</f>
+        <v>1080CB7</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>17304759</v>
+      </c>
+      <c r="J48">
+        <f>IF(P48&lt;&gt;"",P48*136+$B$2,IF(Q48&lt;&gt;"",Q48*136+$B$2,IF(S48&lt;&gt;"",S48*80+$B$4,"")))</f>
+        <v>524471</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>524471</v>
+      </c>
+      <c r="R48" t="s">
+        <v>113</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>14</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="1">
+        <f>IF(K49&lt;&gt;"",FLOOR((K49-MIN(K:K))/2,1),"")</f>
+        <v>3295</v>
+      </c>
+      <c r="F49" s="1">
+        <f>IF(MOD(K49-$B$5,2)=1,8+L49,L49)</f>
+        <v>8</v>
+      </c>
+      <c r="G49" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F49*HEX2DEC(10000) +E49)</f>
+        <v>1080CDF</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>17304799</v>
+      </c>
+      <c r="J49">
+        <f>IF(P49&lt;&gt;"",P49*136+$B$2,IF(Q49&lt;&gt;"",Q49*136+$B$2,IF(S49&lt;&gt;"",S49*80+$B$4,"")))</f>
+        <v>524551</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>524551</v>
+      </c>
+      <c r="R49" t="s">
+        <v>113</v>
+      </c>
+      <c r="S49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>31</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>16</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47">
-        <v>9</v>
-      </c>
-      <c r="E47" s="1" t="str">
-        <f>IF(K47&lt;&gt;"",FLOOR((K47-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F47" s="1" t="e">
-        <f>IF(MOD(K47,2)=1,8+L47,L47)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G47" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F47*HEX2DEC(10000) +E47)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H47" t="e">
-        <f>HEX2DEC(G47)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J47" t="str">
-        <f>IF(P47&lt;&gt;"",P47*136+$B$2,IF(Q47&lt;&gt;"",Q47*136+$B$2,IF(S47&lt;&gt;"",S47*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K47" t="str">
-        <f>IF(I47&lt;&gt;"",I47,J47)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="E50" s="1">
+        <f>IF(K50&lt;&gt;"",FLOOR((K50-MIN(K:K))/2,1),"")</f>
+        <v>3335</v>
+      </c>
+      <c r="F50" s="1">
+        <f>IF(MOD(K50-$B$5,2)=1,8+L50,L50)</f>
+        <v>8</v>
+      </c>
+      <c r="G50" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F50*HEX2DEC(10000) +E50)</f>
+        <v>1080D07</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>17304839</v>
+      </c>
+      <c r="J50">
+        <f>IF(P50&lt;&gt;"",P50*136+$B$2,IF(Q50&lt;&gt;"",Q50*136+$B$2,IF(S50&lt;&gt;"",S50*80+$B$4,"")))</f>
+        <v>524631</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>524631</v>
+      </c>
+      <c r="N50" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <v>10</v>
-      </c>
-      <c r="E48" s="1" t="str">
-        <f>IF(K48&lt;&gt;"",FLOOR((K48-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F48" s="1" t="e">
-        <f>IF(MOD(K48,2)=1,8+L48,L48)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G48" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F48*HEX2DEC(10000) +E48)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H48" t="e">
-        <f>HEX2DEC(G48)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J48" t="str">
-        <f>IF(P48&lt;&gt;"",P48*136+$B$2,IF(Q48&lt;&gt;"",Q48*136+$B$2,IF(S48&lt;&gt;"",S48*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K48" t="str">
-        <f>IF(I48&lt;&gt;"",I48,J48)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>42</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49">
-        <v>11</v>
-      </c>
-      <c r="E49" s="1" t="str">
-        <f>IF(K49&lt;&gt;"",FLOOR((K49-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F49" s="1" t="e">
-        <f>IF(MOD(K49,2)=1,8+L49,L49)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G49" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F49*HEX2DEC(10000) +E49)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H49" t="e">
-        <f>HEX2DEC(G49)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J49" t="str">
-        <f>IF(P49&lt;&gt;"",P49*136+$B$2,IF(Q49&lt;&gt;"",Q49*136+$B$2,IF(S49&lt;&gt;"",S49*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K49" t="str">
-        <f>IF(I49&lt;&gt;"",I49,J49)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>43</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50">
-        <v>12</v>
-      </c>
-      <c r="E50" s="1" t="str">
-        <f>IF(K50&lt;&gt;"",FLOOR((K50-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F50" s="1" t="e">
-        <f>IF(MOD(K50,2)=1,8+L50,L50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F50*HEX2DEC(10000) +E50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" t="e">
-        <f>HEX2DEC(G50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J50" t="str">
-        <f>IF(P50&lt;&gt;"",P50*136+$B$2,IF(Q50&lt;&gt;"",Q50*136+$B$2,IF(S50&lt;&gt;"",S50*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K50" t="str">
-        <f>IF(I50&lt;&gt;"",I50,J50)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R50" t="s">
+        <v>113</v>
+      </c>
+      <c r="S50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>44</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="1">
+        <f>IF(K51&lt;&gt;"",FLOOR((K51-MIN(K:K))/2,1),"")</f>
+        <v>3375</v>
+      </c>
+      <c r="F51" s="1">
+        <f>IF(MOD(K51-$B$5,2)=1,8+L51,L51)</f>
+        <v>8</v>
+      </c>
+      <c r="G51" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F51*HEX2DEC(10000) +E51)</f>
+        <v>1080D2F</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>17304879</v>
+      </c>
+      <c r="J51">
+        <f>IF(P51&lt;&gt;"",P51*136+$B$2,IF(Q51&lt;&gt;"",Q51*136+$B$2,IF(S51&lt;&gt;"",S51*80+$B$4,"")))</f>
+        <v>524711</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>524711</v>
+      </c>
+      <c r="R51" t="s">
+        <v>113</v>
+      </c>
+      <c r="S51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="1" t="str">
-        <f>IF(K51&lt;&gt;"",FLOOR((K51-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F51" s="1" t="e">
-        <f>IF(MOD(K51,2)=1,8+L51,L51)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G51" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F51*HEX2DEC(10000) +E51)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H51" t="e">
-        <f>HEX2DEC(G51)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J51" t="str">
-        <f>IF(P51&lt;&gt;"",P51*136+$B$2,IF(Q51&lt;&gt;"",Q51*136+$B$2,IF(S51&lt;&gt;"",S51*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K51" t="str">
-        <f>IF(I51&lt;&gt;"",I51,J51)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>45</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52">
+      <c r="E52" s="1">
+        <f>IF(K52&lt;&gt;"",FLOOR((K52-MIN(K:K))/2,1),"")</f>
+        <v>3415</v>
+      </c>
+      <c r="F52" s="1">
+        <f>IF(MOD(K52-$B$5,2)=1,8+L52,L52)</f>
+        <v>8</v>
+      </c>
+      <c r="G52" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F52*HEX2DEC(10000) +E52)</f>
+        <v>1080D57</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>17304919</v>
+      </c>
+      <c r="J52">
+        <f>IF(P52&lt;&gt;"",P52*136+$B$2,IF(Q52&lt;&gt;"",Q52*136+$B$2,IF(S52&lt;&gt;"",S52*80+$B$4,"")))</f>
+        <v>524791</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>524791</v>
+      </c>
+      <c r="R52" t="s">
+        <v>113</v>
+      </c>
+      <c r="S52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="1" t="str">
-        <f>IF(K52&lt;&gt;"",FLOOR((K52-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F52" s="1" t="e">
-        <f>IF(MOD(K52,2)=1,8+L52,L52)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G52" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F52*HEX2DEC(10000) +E52)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H52" t="e">
-        <f>HEX2DEC(G52)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J52" t="str">
-        <f>IF(P52&lt;&gt;"",P52*136+$B$2,IF(Q52&lt;&gt;"",Q52*136+$B$2,IF(S52&lt;&gt;"",S52*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K52" t="str">
-        <f>IF(I52&lt;&gt;"",I52,J52)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>46</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53">
+      <c r="E53" s="1">
+        <f>IF(K53&lt;&gt;"",FLOOR((K53-MIN(K:K))/2,1),"")</f>
+        <v>3455</v>
+      </c>
+      <c r="F53" s="1">
+        <f>IF(MOD(K53-$B$5,2)=1,8+L53,L53)</f>
+        <v>8</v>
+      </c>
+      <c r="G53" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F53*HEX2DEC(10000) +E53)</f>
+        <v>1080D7F</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>17304959</v>
+      </c>
+      <c r="J53">
+        <f>IF(P53&lt;&gt;"",P53*136+$B$2,IF(Q53&lt;&gt;"",Q53*136+$B$2,IF(S53&lt;&gt;"",S53*80+$B$4,"")))</f>
+        <v>524871</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>524871</v>
+      </c>
+      <c r="R53" t="s">
+        <v>113</v>
+      </c>
+      <c r="S53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="1" t="str">
-        <f>IF(K53&lt;&gt;"",FLOOR((K53-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F53" s="1" t="e">
-        <f>IF(MOD(K53,2)=1,8+L53,L53)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F53*HEX2DEC(10000) +E53)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H53" t="e">
-        <f>HEX2DEC(G53)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J53" t="str">
-        <f>IF(P53&lt;&gt;"",P53*136+$B$2,IF(Q53&lt;&gt;"",Q53*136+$B$2,IF(S53&lt;&gt;"",S53*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K53" t="str">
-        <f>IF(I53&lt;&gt;"",I53,J53)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>47</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54">
+      <c r="E54" s="1">
+        <f>IF(K54&lt;&gt;"",FLOOR((K54-MIN(K:K))/2,1),"")</f>
+        <v>3495</v>
+      </c>
+      <c r="F54" s="1">
+        <f>IF(MOD(K54-$B$5,2)=1,8+L54,L54)</f>
+        <v>8</v>
+      </c>
+      <c r="G54" t="str">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F54*HEX2DEC(10000) +E54)</f>
+        <v>1080DA7</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>17304999</v>
+      </c>
+      <c r="J54">
+        <f>IF(P54&lt;&gt;"",P54*136+$B$2,IF(Q54&lt;&gt;"",Q54*136+$B$2,IF(S54&lt;&gt;"",S54*80+$B$4,"")))</f>
+        <v>524951</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>524951</v>
+      </c>
+      <c r="R54" t="s">
+        <v>113</v>
+      </c>
+      <c r="S54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E54" s="1" t="str">
-        <f>IF(K54&lt;&gt;"",FLOOR((K54-MIN(K:K))/2,1),"")</f>
-        <v/>
-      </c>
-      <c r="F54" s="1" t="e">
-        <f>IF(MOD(K54,2)=1,8+L54,L54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G54" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F54*HEX2DEC(10000) +E54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H54" t="e">
-        <f>HEX2DEC(G54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J54" t="str">
-        <f>IF(P54&lt;&gt;"",P54*136+$B$2,IF(Q54&lt;&gt;"",Q54*136+$B$2,IF(S54&lt;&gt;"",S54*80+$B$4,"")))</f>
-        <v/>
-      </c>
-      <c r="K54" t="str">
-        <f>IF(I54&lt;&gt;"",I54,J54)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>62</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55">
-        <v>15</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E55" s="1">
         <f>IF(K55&lt;&gt;"",FLOOR((K55-MIN(K:K))/2,1),"")</f>
-        <v>1015</v>
+        <v>3535</v>
       </c>
       <c r="F55" s="1">
-        <f>IF(MOD(K55,2)=1,8+L55,L55)</f>
-        <v>0</v>
+        <f>IF(MOD(K55-$B$5,2)=1,8+L55,L55)</f>
+        <v>8</v>
       </c>
       <c r="G55" t="str">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F55*HEX2DEC(10000) +E55)</f>
-        <v>10003F7</v>
+        <v>1080DCF</v>
       </c>
       <c r="H55">
-        <f>HEX2DEC(G55)</f>
-        <v>16778231</v>
+        <f t="shared" si="0"/>
+        <v>17305039</v>
       </c>
       <c r="J55">
         <f>IF(P55&lt;&gt;"",P55*136+$B$2,IF(Q55&lt;&gt;"",Q55*136+$B$2,IF(S55&lt;&gt;"",S55*80+$B$4,"")))</f>
-        <v>523036</v>
+        <v>525031</v>
       </c>
       <c r="K55">
-        <f>IF(I55&lt;&gt;"",I55,J55)</f>
-        <v>523036</v>
-      </c>
-      <c r="O55" t="s">
+        <f t="shared" si="1"/>
+        <v>525031</v>
+      </c>
+      <c r="R55" t="s">
         <v>113</v>
       </c>
-      <c r="P55">
+      <c r="S55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
         <v>6</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>49</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
       </c>
       <c r="E56" s="1" t="str">
         <f>IF(K56&lt;&gt;"",FLOOR((K56-MIN(K:K))/2,1),"")</f>
@@ -3023,19 +3215,19 @@
         <v/>
       </c>
       <c r="K56" t="str">
-        <f>IF(I56&lt;&gt;"",I56,J56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K8:K71" si="2">IF(I56&lt;&gt;"",I56,J56)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>50</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E57" s="1" t="str">
         <f>IF(K57&lt;&gt;"",FLOOR((K57-MIN(K:K))/2,1),"")</f>
@@ -3058,19 +3250,19 @@
         <v/>
       </c>
       <c r="K57" t="str">
-        <f>IF(I57&lt;&gt;"",I57,J57)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>51</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E58" s="1" t="str">
         <f>IF(K58&lt;&gt;"",FLOOR((K58-MIN(K:K))/2,1),"")</f>
@@ -3093,19 +3285,19 @@
         <v/>
       </c>
       <c r="K58" t="str">
-        <f>IF(I58&lt;&gt;"",I58,J58)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>52</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E59" s="1" t="str">
         <f>IF(K59&lt;&gt;"",FLOOR((K59-MIN(K:K))/2,1),"")</f>
@@ -3128,19 +3320,19 @@
         <v/>
       </c>
       <c r="K59" t="str">
-        <f>IF(I59&lt;&gt;"",I59,J59)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>53</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E60" s="1" t="str">
         <f>IF(K60&lt;&gt;"",FLOOR((K60-MIN(K:K))/2,1),"")</f>
@@ -3163,19 +3355,19 @@
         <v/>
       </c>
       <c r="K60" t="str">
-        <f>IF(I60&lt;&gt;"",I60,J60)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>54</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E61" s="1" t="str">
         <f>IF(K61&lt;&gt;"",FLOOR((K61-MIN(K:K))/2,1),"")</f>
@@ -3198,19 +3390,19 @@
         <v/>
       </c>
       <c r="K61" t="str">
-        <f>IF(I61&lt;&gt;"",I61,J61)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>55</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E62" s="1" t="str">
         <f>IF(K62&lt;&gt;"",FLOOR((K62-MIN(K:K))/2,1),"")</f>
@@ -3233,900 +3425,708 @@
         <v/>
       </c>
       <c r="K62" t="str">
-        <f>IF(I62&lt;&gt;"",I62,J62)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>63</v>
-      </c>
-      <c r="B63" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f>IF(K63&lt;&gt;"",FLOOR((K63-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F63" s="1" t="e">
+        <f>IF(MOD(K63,2)=1,8+L63,L63)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G63" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F63*HEX2DEC(10000) +E63)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H63" t="e">
+        <f>HEX2DEC(G63)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J63" t="str">
+        <f>IF(P63&lt;&gt;"",P63*136+$B$2,IF(Q63&lt;&gt;"",Q63*136+$B$2,IF(S63&lt;&gt;"",S63*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>36</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f>IF(K64&lt;&gt;"",FLOOR((K64-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F64" s="1" t="e">
+        <f>IF(MOD(K64,2)=1,8+L64,L64)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G64" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F64*HEX2DEC(10000) +E64)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H64" t="e">
+        <f>HEX2DEC(G64)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J64" t="str">
+        <f>IF(P64&lt;&gt;"",P64*136+$B$2,IF(Q64&lt;&gt;"",Q64*136+$B$2,IF(S64&lt;&gt;"",S64*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>37</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f>IF(K65&lt;&gt;"",FLOOR((K65-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F65" s="1" t="e">
+        <f>IF(MOD(K65,2)=1,8+L65,L65)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G65" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F65*HEX2DEC(10000) +E65)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H65" t="e">
+        <f>HEX2DEC(G65)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J65" t="str">
+        <f>IF(P65&lt;&gt;"",P65*136+$B$2,IF(Q65&lt;&gt;"",Q65*136+$B$2,IF(S65&lt;&gt;"",S65*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>38</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f>IF(K66&lt;&gt;"",FLOOR((K66-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F66" s="1" t="e">
+        <f>IF(MOD(K66,2)=1,8+L66,L66)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G66" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F66*HEX2DEC(10000) +E66)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H66" t="e">
+        <f>HEX2DEC(G66)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J66" t="str">
+        <f>IF(P66&lt;&gt;"",P66*136+$B$2,IF(Q66&lt;&gt;"",Q66*136+$B$2,IF(S66&lt;&gt;"",S66*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>39</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f>IF(K67&lt;&gt;"",FLOOR((K67-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F67" s="1" t="e">
+        <f>IF(MOD(K67,2)=1,8+L67,L67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G67" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F67*HEX2DEC(10000) +E67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H67" t="e">
+        <f>HEX2DEC(G67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J67" t="str">
+        <f>IF(P67&lt;&gt;"",P67*136+$B$2,IF(Q67&lt;&gt;"",Q67*136+$B$2,IF(S67&lt;&gt;"",S67*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>40</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f>IF(K68&lt;&gt;"",FLOOR((K68-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F68" s="1" t="e">
+        <f>IF(MOD(K68,2)=1,8+L68,L68)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G68" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F68*HEX2DEC(10000) +E68)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H68" t="e">
+        <f>HEX2DEC(G68)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J68" t="str">
+        <f>IF(P68&lt;&gt;"",P68*136+$B$2,IF(Q68&lt;&gt;"",Q68*136+$B$2,IF(S68&lt;&gt;"",S68*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>41</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f>IF(K69&lt;&gt;"",FLOOR((K69-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F69" s="1" t="e">
+        <f>IF(MOD(K69,2)=1,8+L69,L69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G69" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F69*HEX2DEC(10000) +E69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H69" t="e">
+        <f>HEX2DEC(G69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J69" t="str">
+        <f>IF(P69&lt;&gt;"",P69*136+$B$2,IF(Q69&lt;&gt;"",Q69*136+$B$2,IF(S69&lt;&gt;"",S69*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>42</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70">
         <v>11</v>
       </c>
-      <c r="C63">
-        <v>16</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E63" s="1">
-        <f>IF(K63&lt;&gt;"",FLOOR((K63-MIN(K:K))/2,1),"")</f>
-        <v>1015</v>
-      </c>
-      <c r="F63" s="1">
-        <f>IF(MOD(K63,2)=1,8+L63,L63)</f>
-        <v>0</v>
-      </c>
-      <c r="G63" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F63*HEX2DEC(10000) +E63)</f>
-        <v>10003F7</v>
-      </c>
-      <c r="H63">
-        <f>HEX2DEC(G63)</f>
-        <v>16778231</v>
-      </c>
-      <c r="J63">
-        <f>IF(P63&lt;&gt;"",P63*136+$B$2,IF(Q63&lt;&gt;"",Q63*136+$B$2,IF(S63&lt;&gt;"",S63*80+$B$4,"")))</f>
-        <v>523036</v>
-      </c>
-      <c r="K63">
-        <f>IF(I63&lt;&gt;"",I63,J63)</f>
-        <v>523036</v>
-      </c>
-      <c r="O63" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q63">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>16</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="1">
-        <f>IF(K64&lt;&gt;"",FLOOR((K64-MIN(K:K))/2,1),"")</f>
-        <v>1083</v>
-      </c>
-      <c r="F64" s="1">
-        <f>IF(MOD(K64,2)=1,8+L64,L64)</f>
-        <v>0</v>
-      </c>
-      <c r="G64" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F64*HEX2DEC(10000) +E64)</f>
-        <v>100043B</v>
-      </c>
-      <c r="H64">
-        <f>HEX2DEC(G64)</f>
-        <v>16778299</v>
-      </c>
-      <c r="J64">
-        <f>IF(P64&lt;&gt;"",P64*136+$B$2,IF(Q64&lt;&gt;"",Q64*136+$B$2,IF(S64&lt;&gt;"",S64*80+$B$4,"")))</f>
-        <v>523172</v>
-      </c>
-      <c r="K64">
-        <f>IF(I64&lt;&gt;"",I64,J64)</f>
-        <v>523172</v>
-      </c>
-      <c r="O64" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q64">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>17</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" s="1">
-        <f>IF(K65&lt;&gt;"",FLOOR((K65-MIN(K:K))/2,1),"")</f>
-        <v>1151</v>
-      </c>
-      <c r="F65" s="1">
-        <f>IF(MOD(K65,2)=1,8+L65,L65)</f>
-        <v>0</v>
-      </c>
-      <c r="G65" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F65*HEX2DEC(10000) +E65)</f>
-        <v>100047F</v>
-      </c>
-      <c r="H65">
-        <f>HEX2DEC(G65)</f>
-        <v>16778367</v>
-      </c>
-      <c r="J65">
-        <f>IF(P65&lt;&gt;"",P65*136+$B$2,IF(Q65&lt;&gt;"",Q65*136+$B$2,IF(S65&lt;&gt;"",S65*80+$B$4,"")))</f>
-        <v>523308</v>
-      </c>
-      <c r="K65">
-        <f>IF(I65&lt;&gt;"",I65,J65)</f>
-        <v>523308</v>
-      </c>
-      <c r="O65" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q65">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>18</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="1">
-        <f>IF(K66&lt;&gt;"",FLOOR((K66-MIN(K:K))/2,1),"")</f>
-        <v>1219</v>
-      </c>
-      <c r="F66" s="1">
-        <f>IF(MOD(K66,2)=1,8+L66,L66)</f>
-        <v>0</v>
-      </c>
-      <c r="G66" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F66*HEX2DEC(10000) +E66)</f>
-        <v>10004C3</v>
-      </c>
-      <c r="H66">
-        <f>HEX2DEC(G66)</f>
-        <v>16778435</v>
-      </c>
-      <c r="J66">
-        <f>IF(P66&lt;&gt;"",P66*136+$B$2,IF(Q66&lt;&gt;"",Q66*136+$B$2,IF(S66&lt;&gt;"",S66*80+$B$4,"")))</f>
-        <v>523444</v>
-      </c>
-      <c r="K66">
-        <f>IF(I66&lt;&gt;"",I66,J66)</f>
-        <v>523444</v>
-      </c>
-      <c r="O66" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q66">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>19</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67">
-        <v>4</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="1">
-        <f>IF(K67&lt;&gt;"",FLOOR((K67-MIN(K:K))/2,1),"")</f>
-        <v>1287</v>
-      </c>
-      <c r="F67" s="1">
-        <f>IF(MOD(K67,2)=1,8+L67,L67)</f>
-        <v>0</v>
-      </c>
-      <c r="G67" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F67*HEX2DEC(10000) +E67)</f>
-        <v>1000507</v>
-      </c>
-      <c r="H67">
-        <f>HEX2DEC(G67)</f>
-        <v>16778503</v>
-      </c>
-      <c r="J67">
-        <f>IF(P67&lt;&gt;"",P67*136+$B$2,IF(Q67&lt;&gt;"",Q67*136+$B$2,IF(S67&lt;&gt;"",S67*80+$B$4,"")))</f>
-        <v>523580</v>
-      </c>
-      <c r="K67">
-        <f>IF(I67&lt;&gt;"",I67,J67)</f>
-        <v>523580</v>
-      </c>
-      <c r="O67" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q67">
+      <c r="E70" s="1" t="str">
+        <f>IF(K70&lt;&gt;"",FLOOR((K70-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F70" s="1" t="e">
+        <f>IF(MOD(K70,2)=1,8+L70,L70)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G70" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F70*HEX2DEC(10000) +E70)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H70" t="e">
+        <f>HEX2DEC(G70)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J70" t="str">
+        <f>IF(P70&lt;&gt;"",P70*136+$B$2,IF(Q70&lt;&gt;"",Q70*136+$B$2,IF(S70&lt;&gt;"",S70*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>43</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>20</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68">
-        <v>5</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="1">
-        <f>IF(K68&lt;&gt;"",FLOOR((K68-MIN(K:K))/2,1),"")</f>
-        <v>1355</v>
-      </c>
-      <c r="F68" s="1">
-        <f>IF(MOD(K68,2)=1,8+L68,L68)</f>
-        <v>0</v>
-      </c>
-      <c r="G68" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F68*HEX2DEC(10000) +E68)</f>
-        <v>100054B</v>
-      </c>
-      <c r="H68">
-        <f>HEX2DEC(G68)</f>
-        <v>16778571</v>
-      </c>
-      <c r="J68">
-        <f>IF(P68&lt;&gt;"",P68*136+$B$2,IF(Q68&lt;&gt;"",Q68*136+$B$2,IF(S68&lt;&gt;"",S68*80+$B$4,"")))</f>
-        <v>523716</v>
-      </c>
-      <c r="K68">
-        <f>IF(I68&lt;&gt;"",I68,J68)</f>
-        <v>523716</v>
-      </c>
-      <c r="O68" t="s">
-        <v>113</v>
-      </c>
-      <c r="P68">
-        <v>11</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>21</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69">
-        <v>6</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E69" s="1">
-        <f>IF(K69&lt;&gt;"",FLOOR((K69-MIN(K:K))/2,1),"")</f>
-        <v>1355</v>
-      </c>
-      <c r="F69" s="1">
-        <f>IF(MOD(K69,2)=1,8+L69,L69)</f>
-        <v>0</v>
-      </c>
-      <c r="G69" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F69*HEX2DEC(10000) +E69)</f>
-        <v>100054B</v>
-      </c>
-      <c r="H69">
-        <f>HEX2DEC(G69)</f>
-        <v>16778571</v>
-      </c>
-      <c r="J69">
-        <f>IF(P69&lt;&gt;"",P69*136+$B$2,IF(Q69&lt;&gt;"",Q69*136+$B$2,IF(S69&lt;&gt;"",S69*80+$B$4,"")))</f>
-        <v>523716</v>
-      </c>
-      <c r="K69">
-        <f>IF(I69&lt;&gt;"",I69,J69)</f>
-        <v>523716</v>
-      </c>
-      <c r="O69" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q69">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>22</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70">
-        <v>7</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E70" s="1">
-        <f>IF(K70&lt;&gt;"",FLOOR((K70-MIN(K:K))/2,1),"")</f>
-        <v>1559</v>
-      </c>
-      <c r="F70" s="1">
-        <f>IF(MOD(K70,2)=1,8+L70,L70)</f>
-        <v>0</v>
-      </c>
-      <c r="G70" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F70*HEX2DEC(10000) +E70)</f>
-        <v>1000617</v>
-      </c>
-      <c r="H70">
-        <f>HEX2DEC(G70)</f>
-        <v>16778775</v>
-      </c>
-      <c r="J70">
-        <f>IF(P70&lt;&gt;"",P70*136+$B$2,IF(Q70&lt;&gt;"",Q70*136+$B$2,IF(S70&lt;&gt;"",S70*80+$B$4,"")))</f>
-        <v>524124</v>
-      </c>
-      <c r="K70">
-        <f>IF(I70&lt;&gt;"",I70,J70)</f>
-        <v>524124</v>
-      </c>
-      <c r="O70" t="s">
-        <v>113</v>
-      </c>
-      <c r="P70">
-        <v>14</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>23</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C71">
-        <v>8</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E71" s="1">
+        <v>12</v>
+      </c>
+      <c r="E71" s="1" t="str">
         <f>IF(K71&lt;&gt;"",FLOOR((K71-MIN(K:K))/2,1),"")</f>
-        <v>1559</v>
-      </c>
-      <c r="F71" s="1">
+        <v/>
+      </c>
+      <c r="F71" s="1" t="e">
         <f>IF(MOD(K71,2)=1,8+L71,L71)</f>
-        <v>0</v>
-      </c>
-      <c r="G71" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G71" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F71*HEX2DEC(10000) +E71)</f>
-        <v>1000617</v>
-      </c>
-      <c r="H71">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H71" t="e">
         <f>HEX2DEC(G71)</f>
-        <v>16778775</v>
-      </c>
-      <c r="J71">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J71" t="str">
         <f>IF(P71&lt;&gt;"",P71*136+$B$2,IF(Q71&lt;&gt;"",Q71*136+$B$2,IF(S71&lt;&gt;"",S71*80+$B$4,"")))</f>
-        <v>524124</v>
-      </c>
-      <c r="K71">
-        <f>IF(I71&lt;&gt;"",I71,J71)</f>
-        <v>524124</v>
-      </c>
-      <c r="O71" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q71">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" s="1">
+        <v>13</v>
+      </c>
+      <c r="E72" s="1" t="str">
         <f>IF(K72&lt;&gt;"",FLOOR((K72-MIN(K:K))/2,1),"")</f>
-        <v>1627</v>
-      </c>
-      <c r="F72" s="1">
+        <v/>
+      </c>
+      <c r="F72" s="1" t="e">
         <f>IF(MOD(K72,2)=1,8+L72,L72)</f>
-        <v>0</v>
-      </c>
-      <c r="G72" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G72" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F72*HEX2DEC(10000) +E72)</f>
-        <v>100065B</v>
-      </c>
-      <c r="H72">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H72" t="e">
         <f>HEX2DEC(G72)</f>
-        <v>16778843</v>
-      </c>
-      <c r="J72">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J72" t="str">
         <f>IF(P72&lt;&gt;"",P72*136+$B$2,IF(Q72&lt;&gt;"",Q72*136+$B$2,IF(S72&lt;&gt;"",S72*80+$B$4,"")))</f>
-        <v>524260</v>
-      </c>
-      <c r="K72">
-        <f>IF(I72&lt;&gt;"",I72,J72)</f>
-        <v>524260</v>
-      </c>
-      <c r="O72" t="s">
-        <v>113</v>
-      </c>
-      <c r="P72">
-        <v>15</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" ref="K72:K82" si="3">IF(I72&lt;&gt;"",I72,J72)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C73">
+        <v>14</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f>IF(K73&lt;&gt;"",FLOOR((K73-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F73" s="1" t="e">
+        <f>IF(MOD(K73,2)=1,8+L73,L73)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G73" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F73*HEX2DEC(10000) +E73)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H73" t="e">
+        <f>HEX2DEC(G73)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J73" t="str">
+        <f>IF(P73&lt;&gt;"",P73*136+$B$2,IF(Q73&lt;&gt;"",Q73*136+$B$2,IF(S73&lt;&gt;"",S73*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>46</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>15</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f>IF(K74&lt;&gt;"",FLOOR((K74-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F74" s="1" t="e">
+        <f>IF(MOD(K74,2)=1,8+L74,L74)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G74" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F74*HEX2DEC(10000) +E74)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H74" t="e">
+        <f>HEX2DEC(G74)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J74" t="str">
+        <f>IF(P74&lt;&gt;"",P74*136+$B$2,IF(Q74&lt;&gt;"",Q74*136+$B$2,IF(S74&lt;&gt;"",S74*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>47</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>16</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f>IF(K75&lt;&gt;"",FLOOR((K75-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F75" s="1" t="e">
+        <f>IF(MOD(K75,2)=1,8+L75,L75)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G75" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F75*HEX2DEC(10000) +E75)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H75" t="e">
+        <f>HEX2DEC(G75)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J75" t="str">
+        <f>IF(P75&lt;&gt;"",P75*136+$B$2,IF(Q75&lt;&gt;"",Q75*136+$B$2,IF(S75&lt;&gt;"",S75*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>49</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76">
         <v>2</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E73" s="1">
-        <f>IF(K73&lt;&gt;"",FLOOR((K73-MIN(K:K))/2,1),"")</f>
-        <v>1627</v>
-      </c>
-      <c r="F73" s="1">
-        <f>IF(MOD(K73,2)=1,8+L73,L73)</f>
-        <v>0</v>
-      </c>
-      <c r="G73" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F73*HEX2DEC(10000) +E73)</f>
-        <v>100065B</v>
-      </c>
-      <c r="H73">
-        <f>HEX2DEC(G73)</f>
-        <v>16778843</v>
-      </c>
-      <c r="J73">
-        <f>IF(P73&lt;&gt;"",P73*136+$B$2,IF(Q73&lt;&gt;"",Q73*136+$B$2,IF(S73&lt;&gt;"",S73*80+$B$4,"")))</f>
-        <v>524260</v>
-      </c>
-      <c r="K73">
-        <f>IF(I73&lt;&gt;"",I73,J73)</f>
-        <v>524260</v>
-      </c>
-      <c r="O73" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q73">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>48</v>
-      </c>
-      <c r="B74" s="6" t="s">
+      <c r="E76" s="1" t="str">
+        <f>IF(K76&lt;&gt;"",FLOOR((K76-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F76" s="1" t="e">
+        <f>IF(MOD(K76,2)=1,8+L76,L76)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G76" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F76*HEX2DEC(10000) +E76)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H76" t="e">
+        <f>HEX2DEC(G76)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J76" t="str">
+        <f>IF(P76&lt;&gt;"",P76*136+$B$2,IF(Q76&lt;&gt;"",Q76*136+$B$2,IF(S76&lt;&gt;"",S76*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>50</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E74" s="1">
-        <f>IF(K74&lt;&gt;"",FLOOR((K74-MIN(K:K))/2,1),"")</f>
-        <v>1692</v>
-      </c>
-      <c r="F74" s="1">
-        <f>IF(MOD(K74,2)=1,8+L74,L74)</f>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1" t="str">
+        <f>IF(K77&lt;&gt;"",FLOOR((K77-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F77" s="1" t="e">
+        <f>IF(MOD(K77,2)=1,8+L77,L77)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G77" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F77*HEX2DEC(10000) +E77)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H77" t="e">
+        <f>HEX2DEC(G77)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J77" t="str">
+        <f>IF(P77&lt;&gt;"",P77*136+$B$2,IF(Q77&lt;&gt;"",Q77*136+$B$2,IF(S77&lt;&gt;"",S77*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>51</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <f>IF(K78&lt;&gt;"",FLOOR((K78-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F78" s="1" t="e">
+        <f>IF(MOD(K78,2)=1,8+L78,L78)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G78" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F78*HEX2DEC(10000) +E78)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H78" t="e">
+        <f>HEX2DEC(G78)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J78" t="str">
+        <f>IF(P78&lt;&gt;"",P78*136+$B$2,IF(Q78&lt;&gt;"",Q78*136+$B$2,IF(S78&lt;&gt;"",S78*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>52</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f>IF(K79&lt;&gt;"",FLOOR((K79-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F79" s="1" t="e">
+        <f>IF(MOD(K79,2)=1,8+L79,L79)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G79" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F79*HEX2DEC(10000) +E79)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H79" t="e">
+        <f>HEX2DEC(G79)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J79" t="str">
+        <f>IF(P79&lt;&gt;"",P79*136+$B$2,IF(Q79&lt;&gt;"",Q79*136+$B$2,IF(S79&lt;&gt;"",S79*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>53</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="str">
+        <f>IF(K80&lt;&gt;"",FLOOR((K80-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F80" s="1" t="e">
+        <f>IF(MOD(K80,2)=1,8+L80,L80)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G80" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F80*HEX2DEC(10000) +E80)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H80" t="e">
+        <f>HEX2DEC(G80)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J80" t="str">
+        <f>IF(P80&lt;&gt;"",P80*136+$B$2,IF(Q80&lt;&gt;"",Q80*136+$B$2,IF(S80&lt;&gt;"",S80*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>54</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="E81" s="1" t="str">
+        <f>IF(K81&lt;&gt;"",FLOOR((K81-MIN(K:K))/2,1),"")</f>
+        <v/>
+      </c>
+      <c r="F81" s="1" t="e">
+        <f>IF(MOD(K81,2)=1,8+L81,L81)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G81" t="e">
+        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F81*HEX2DEC(10000) +E81)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H81" t="e">
+        <f>HEX2DEC(G81)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J81" t="str">
+        <f>IF(P81&lt;&gt;"",P81*136+$B$2,IF(Q81&lt;&gt;"",Q81*136+$B$2,IF(S81&lt;&gt;"",S81*80+$B$4,"")))</f>
+        <v/>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>55</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82">
         <v>8</v>
       </c>
-      <c r="G74" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F74*HEX2DEC(10000) +E74)</f>
-        <v>108069C</v>
-      </c>
-      <c r="H74">
-        <f>HEX2DEC(G74)</f>
-        <v>17303196</v>
-      </c>
-      <c r="J74">
-        <f>IF(P74&lt;&gt;"",P74*136+$B$2,IF(Q74&lt;&gt;"",Q74*136+$B$2,IF(S74&lt;&gt;"",S74*80+$B$4,"")))</f>
-        <v>524391</v>
-      </c>
-      <c r="K74">
-        <f>IF(I74&lt;&gt;"",I74,J74)</f>
-        <v>524391</v>
-      </c>
-      <c r="R74" t="s">
-        <v>113</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>56</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75">
-        <v>9</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E75" s="1">
-        <f>IF(K75&lt;&gt;"",FLOOR((K75-MIN(K:K))/2,1),"")</f>
-        <v>1732</v>
-      </c>
-      <c r="F75" s="1">
-        <f>IF(MOD(K75,2)=1,8+L75,L75)</f>
-        <v>8</v>
-      </c>
-      <c r="G75" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F75*HEX2DEC(10000) +E75)</f>
-        <v>10806C4</v>
-      </c>
-      <c r="H75">
-        <f>HEX2DEC(G75)</f>
-        <v>17303236</v>
-      </c>
-      <c r="J75">
-        <f>IF(P75&lt;&gt;"",P75*136+$B$2,IF(Q75&lt;&gt;"",Q75*136+$B$2,IF(S75&lt;&gt;"",S75*80+$B$4,"")))</f>
-        <v>524471</v>
-      </c>
-      <c r="K75">
-        <f>IF(I75&lt;&gt;"",I75,J75)</f>
-        <v>524471</v>
-      </c>
-      <c r="R75" t="s">
-        <v>113</v>
-      </c>
-      <c r="S75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>13</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76">
-        <v>14</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" s="1">
-        <f>IF(K76&lt;&gt;"",FLOOR((K76-MIN(K:K))/2,1),"")</f>
-        <v>1772</v>
-      </c>
-      <c r="F76" s="1">
-        <f>IF(MOD(K76,2)=1,8+L76,L76)</f>
-        <v>8</v>
-      </c>
-      <c r="G76" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F76*HEX2DEC(10000) +E76)</f>
-        <v>10806EC</v>
-      </c>
-      <c r="H76">
-        <f>HEX2DEC(G76)</f>
-        <v>17303276</v>
-      </c>
-      <c r="J76">
-        <f>IF(P76&lt;&gt;"",P76*136+$B$2,IF(Q76&lt;&gt;"",Q76*136+$B$2,IF(S76&lt;&gt;"",S76*80+$B$4,"")))</f>
-        <v>524551</v>
-      </c>
-      <c r="K76">
-        <f>IF(I76&lt;&gt;"",I76,J76)</f>
-        <v>524551</v>
-      </c>
-      <c r="R76" t="s">
-        <v>113</v>
-      </c>
-      <c r="S76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>31</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77">
-        <v>16</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E77" s="1">
-        <f>IF(K77&lt;&gt;"",FLOOR((K77-MIN(K:K))/2,1),"")</f>
-        <v>1812</v>
-      </c>
-      <c r="F77" s="1">
-        <f>IF(MOD(K77,2)=1,8+L77,L77)</f>
-        <v>8</v>
-      </c>
-      <c r="G77" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F77*HEX2DEC(10000) +E77)</f>
-        <v>1080714</v>
-      </c>
-      <c r="H77">
-        <f>HEX2DEC(G77)</f>
-        <v>17303316</v>
-      </c>
-      <c r="J77">
-        <f>IF(P77&lt;&gt;"",P77*136+$B$2,IF(Q77&lt;&gt;"",Q77*136+$B$2,IF(S77&lt;&gt;"",S77*80+$B$4,"")))</f>
-        <v>524631</v>
-      </c>
-      <c r="K77">
-        <f>IF(I77&lt;&gt;"",I77,J77)</f>
-        <v>524631</v>
-      </c>
-      <c r="N77" t="s">
-        <v>41</v>
-      </c>
-      <c r="R77" t="s">
-        <v>113</v>
-      </c>
-      <c r="S77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>4</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78">
-        <v>5</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="1">
-        <f>IF(K78&lt;&gt;"",FLOOR((K78-MIN(K:K))/2,1),"")</f>
-        <v>1852</v>
-      </c>
-      <c r="F78" s="1">
-        <f>IF(MOD(K78,2)=1,8+L78,L78)</f>
-        <v>8</v>
-      </c>
-      <c r="G78" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F78*HEX2DEC(10000) +E78)</f>
-        <v>108073C</v>
-      </c>
-      <c r="H78">
-        <f>HEX2DEC(G78)</f>
-        <v>17303356</v>
-      </c>
-      <c r="J78">
-        <f>IF(P78&lt;&gt;"",P78*136+$B$2,IF(Q78&lt;&gt;"",Q78*136+$B$2,IF(S78&lt;&gt;"",S78*80+$B$4,"")))</f>
-        <v>524711</v>
-      </c>
-      <c r="K78">
-        <f>IF(I78&lt;&gt;"",I78,J78)</f>
-        <v>524711</v>
-      </c>
-      <c r="R78" t="s">
-        <v>113</v>
-      </c>
-      <c r="S78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>0</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="1">
-        <f>IF(K79&lt;&gt;"",FLOOR((K79-MIN(K:K))/2,1),"")</f>
-        <v>1892</v>
-      </c>
-      <c r="F79" s="1">
-        <f>IF(MOD(K79,2)=1,8+L79,L79)</f>
-        <v>8</v>
-      </c>
-      <c r="G79" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F79*HEX2DEC(10000) +E79)</f>
-        <v>1080764</v>
-      </c>
-      <c r="H79">
-        <f>HEX2DEC(G79)</f>
-        <v>17303396</v>
-      </c>
-      <c r="J79">
-        <f>IF(P79&lt;&gt;"",P79*136+$B$2,IF(Q79&lt;&gt;"",Q79*136+$B$2,IF(S79&lt;&gt;"",S79*80+$B$4,"")))</f>
-        <v>524791</v>
-      </c>
-      <c r="K79">
-        <f>IF(I79&lt;&gt;"",I79,J79)</f>
-        <v>524791</v>
-      </c>
-      <c r="R79" t="s">
-        <v>113</v>
-      </c>
-      <c r="S79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="1">
-        <f>IF(K80&lt;&gt;"",FLOOR((K80-MIN(K:K))/2,1),"")</f>
-        <v>1932</v>
-      </c>
-      <c r="F80" s="1">
-        <f>IF(MOD(K80,2)=1,8+L80,L80)</f>
-        <v>8</v>
-      </c>
-      <c r="G80" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F80*HEX2DEC(10000) +E80)</f>
-        <v>108078C</v>
-      </c>
-      <c r="H80">
-        <f>HEX2DEC(G80)</f>
-        <v>17303436</v>
-      </c>
-      <c r="J80">
-        <f>IF(P80&lt;&gt;"",P80*136+$B$2,IF(Q80&lt;&gt;"",Q80*136+$B$2,IF(S80&lt;&gt;"",S80*80+$B$4,"")))</f>
-        <v>524871</v>
-      </c>
-      <c r="K80">
-        <f>IF(I80&lt;&gt;"",I80,J80)</f>
-        <v>524871</v>
-      </c>
-      <c r="R80" t="s">
-        <v>113</v>
-      </c>
-      <c r="S80">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>2</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81">
-        <v>3</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="1">
-        <f>IF(K81&lt;&gt;"",FLOOR((K81-MIN(K:K))/2,1),"")</f>
-        <v>1972</v>
-      </c>
-      <c r="F81" s="1">
-        <f>IF(MOD(K81,2)=1,8+L81,L81)</f>
-        <v>8</v>
-      </c>
-      <c r="G81" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F81*HEX2DEC(10000) +E81)</f>
-        <v>10807B4</v>
-      </c>
-      <c r="H81">
-        <f>HEX2DEC(G81)</f>
-        <v>17303476</v>
-      </c>
-      <c r="J81">
-        <f>IF(P81&lt;&gt;"",P81*136+$B$2,IF(Q81&lt;&gt;"",Q81*136+$B$2,IF(S81&lt;&gt;"",S81*80+$B$4,"")))</f>
-        <v>524951</v>
-      </c>
-      <c r="K81">
-        <f>IF(I81&lt;&gt;"",I81,J81)</f>
-        <v>524951</v>
-      </c>
-      <c r="R81" t="s">
-        <v>113</v>
-      </c>
-      <c r="S81">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>3</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" s="1">
+      <c r="E82" s="1" t="str">
         <f>IF(K82&lt;&gt;"",FLOOR((K82-MIN(K:K))/2,1),"")</f>
-        <v>2012</v>
-      </c>
-      <c r="F82" s="1">
+        <v/>
+      </c>
+      <c r="F82" s="1" t="e">
         <f>IF(MOD(K82,2)=1,8+L82,L82)</f>
-        <v>8</v>
-      </c>
-      <c r="G82" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G82" t="e">
         <f>DEC2HEX(B$1*HEX2DEC(1000000) +F82*HEX2DEC(10000) +E82)</f>
-        <v>10807DC</v>
-      </c>
-      <c r="H82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H82" t="e">
         <f>HEX2DEC(G82)</f>
-        <v>17303516</v>
-      </c>
-      <c r="J82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J82" t="str">
         <f>IF(P82&lt;&gt;"",P82*136+$B$2,IF(Q82&lt;&gt;"",Q82*136+$B$2,IF(S82&lt;&gt;"",S82*80+$B$4,"")))</f>
-        <v>525031</v>
-      </c>
-      <c r="K82">
-        <f>IF(I82&lt;&gt;"",I82,J82)</f>
-        <v>525031</v>
-      </c>
-      <c r="R82" t="s">
-        <v>113</v>
-      </c>
-      <c r="S82">
-        <v>8</v>
+        <v/>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -4151,7 +4151,7 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F49"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4268,15 +4268,15 @@
         <v>13</v>
       </c>
       <c r="E5" s="1">
-        <f>IF(K5&lt;&gt;"",FLOOR((K5-MIN(K:K))/2,1),"")</f>
+        <f t="shared" ref="E5:E49" si="0">IF(K5&lt;&gt;"",FLOOR((K5-MIN(K:K))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F13" si="0">IF(MOD(K5-$B$3,2)=1,8+L5,L5)</f>
+        <f t="shared" ref="F5:F13" si="1">IF(MOD(K5-$B$3,2)=1,8+L5,L5)</f>
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F5*HEX2DEC(10000) +E5)</f>
+        <f t="shared" ref="G5:G49" si="2">DEC2HEX(B$1*HEX2DEC(1000000) +F5*HEX2DEC(10000) +E5)</f>
         <v>2000000</v>
       </c>
       <c r="H5">
@@ -4287,11 +4287,11 @@
         <v>513417</v>
       </c>
       <c r="J5" t="str">
-        <f>IF(P5&lt;&gt;"",$B$2+P5*136,"")</f>
+        <f t="shared" ref="J5:J49" si="3">IF(P5&lt;&gt;"",$B$2+P5*136,"")</f>
         <v/>
       </c>
       <c r="K5">
-        <f>IF(I5&lt;&gt;"",I5,J5)</f>
+        <f t="shared" ref="K5:K49" si="4">IF(I5&lt;&gt;"",I5,J5)</f>
         <v>513417</v>
       </c>
       <c r="L5">
@@ -4312,30 +4312,30 @@
         <v>14</v>
       </c>
       <c r="E6" s="1">
-        <f>IF(K6&lt;&gt;"",FLOOR((K6-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G6" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F6*HEX2DEC(10000) +E6)</f>
+        <f t="shared" si="2"/>
         <v>2010000</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H49" si="1">HEX2DEC(G6)</f>
+        <f t="shared" ref="H6:H13" si="5">HEX2DEC(G6)</f>
         <v>33619968</v>
       </c>
       <c r="I6">
         <v>513417</v>
       </c>
       <c r="J6" t="str">
-        <f>IF(P6&lt;&gt;"",$B$2+P6*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K6">
-        <f>IF(I6&lt;&gt;"",I6,J6)</f>
+        <f t="shared" si="4"/>
         <v>513417</v>
       </c>
       <c r="L6">
@@ -4356,30 +4356,30 @@
         <v>15</v>
       </c>
       <c r="E7" s="1">
-        <f>IF(K7&lt;&gt;"",FLOOR((K7-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G7" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F7*HEX2DEC(10000) +E7)</f>
+        <f t="shared" si="2"/>
         <v>2020000</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>33685504</v>
       </c>
       <c r="I7">
         <v>513417</v>
       </c>
       <c r="J7" t="str">
-        <f>IF(P7&lt;&gt;"",$B$2+P7*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K7">
-        <f>IF(I7&lt;&gt;"",I7,J7)</f>
+        <f t="shared" si="4"/>
         <v>513417</v>
       </c>
       <c r="L7">
@@ -4400,30 +4400,30 @@
         <v>16</v>
       </c>
       <c r="E8" s="1">
-        <f>IF(K8&lt;&gt;"",FLOOR((K8-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G8" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F8*HEX2DEC(10000) +E8)</f>
+        <f t="shared" si="2"/>
         <v>2030000</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>33751040</v>
       </c>
       <c r="I8">
         <v>513417</v>
       </c>
       <c r="J8" t="str">
-        <f>IF(P8&lt;&gt;"",$B$2+P8*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K8">
-        <f>IF(I8&lt;&gt;"",I8,J8)</f>
+        <f t="shared" si="4"/>
         <v>513417</v>
       </c>
       <c r="L8">
@@ -4444,30 +4444,30 @@
         <v>66</v>
       </c>
       <c r="E9" s="1">
-        <f>IF(K9&lt;&gt;"",FLOOR((K9-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G9" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F9*HEX2DEC(10000) +E9)</f>
+        <f t="shared" si="2"/>
         <v>2040000</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>33816576</v>
       </c>
       <c r="I9">
         <v>513417</v>
       </c>
       <c r="J9" t="str">
-        <f>IF(P9&lt;&gt;"",$B$2+P9*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K9">
-        <f>IF(I9&lt;&gt;"",I9,J9)</f>
+        <f t="shared" si="4"/>
         <v>513417</v>
       </c>
       <c r="L9">
@@ -4488,30 +4488,30 @@
         <v>67</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(K10&lt;&gt;"",FLOOR((K10-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G10" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F10*HEX2DEC(10000) +E10)</f>
+        <f t="shared" si="2"/>
         <v>2050000</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>33882112</v>
       </c>
       <c r="I10">
         <v>513417</v>
       </c>
       <c r="J10" t="str">
-        <f>IF(P10&lt;&gt;"",$B$2+P10*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K10">
-        <f>IF(I10&lt;&gt;"",I10,J10)</f>
+        <f t="shared" si="4"/>
         <v>513417</v>
       </c>
       <c r="L10">
@@ -4532,30 +4532,30 @@
         <v>68</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(K11&lt;&gt;"",FLOOR((K11-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G11" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F11*HEX2DEC(10000) +E11)</f>
+        <f t="shared" si="2"/>
         <v>2060000</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>33947648</v>
       </c>
       <c r="I11">
         <v>513417</v>
       </c>
       <c r="J11" t="str">
-        <f>IF(P11&lt;&gt;"",$B$2+P11*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K11">
-        <f>IF(I11&lt;&gt;"",I11,J11)</f>
+        <f t="shared" si="4"/>
         <v>513417</v>
       </c>
       <c r="L11">
@@ -4576,30 +4576,30 @@
         <v>69</v>
       </c>
       <c r="E12" s="1">
-        <f>IF(K12&lt;&gt;"",FLOOR((K12-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G12" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F12*HEX2DEC(10000) +E12)</f>
+        <f t="shared" si="2"/>
         <v>2070000</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>34013184</v>
       </c>
       <c r="I12">
         <v>513417</v>
       </c>
       <c r="J12" t="str">
-        <f>IF(P12&lt;&gt;"",$B$2+P12*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K12">
-        <f>IF(I12&lt;&gt;"",I12,J12)</f>
+        <f t="shared" si="4"/>
         <v>513417</v>
       </c>
       <c r="L12">
@@ -4617,31 +4617,34 @@
         <v>148</v>
       </c>
       <c r="E13" s="1">
-        <f>IF(K13&lt;&gt;"",FLOOR((K13-MIN(K:K))/2,1),"")</f>
-        <v>3794</v>
+        <f t="shared" si="0"/>
+        <v>2271</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="G13" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F13*HEX2DEC(10000) +E13)</f>
-        <v>2000ED2</v>
+        <f t="shared" si="2"/>
+        <v>20908DF</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
-        <v>33558226</v>
+        <f t="shared" si="5"/>
+        <v>34146527</v>
       </c>
       <c r="I13">
-        <v>521005</v>
+        <v>517960</v>
       </c>
       <c r="J13" t="str">
-        <f>IF(P13&lt;&gt;"",$B$2+P13*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K13">
-        <f>IF(I13&lt;&gt;"",I13,J13)</f>
-        <v>521005</v>
+        <f t="shared" si="4"/>
+        <v>517960</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -4655,30 +4658,30 @@
         <v>9</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(K14&lt;&gt;"",FLOOR((K14-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4318</v>
       </c>
       <c r="F14" s="1">
-        <f>IF(MOD(K14,2)=1,8+L14,L14)</f>
+        <f t="shared" ref="F14:F19" si="6">IF(MOD(K14,2)=1,8+L14,L14)</f>
         <v>4</v>
       </c>
       <c r="G14" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F14*HEX2DEC(10000) +E14)</f>
+        <f t="shared" si="2"/>
         <v>20410DE</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H14:H49" si="7">HEX2DEC(G14)</f>
         <v>33820894</v>
       </c>
       <c r="I14">
         <v>522054</v>
       </c>
       <c r="J14" t="str">
-        <f>IF(P14&lt;&gt;"",$B$2+P14*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K14">
-        <f>IF(I14&lt;&gt;"",I14,J14)</f>
+        <f t="shared" si="4"/>
         <v>522054</v>
       </c>
       <c r="L14">
@@ -4696,30 +4699,30 @@
         <v>10</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(K15&lt;&gt;"",FLOOR((K15-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4318</v>
       </c>
       <c r="F15" s="1">
-        <f>IF(MOD(K15,2)=1,8+L15,L15)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G15" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F15*HEX2DEC(10000) +E15)</f>
+        <f t="shared" si="2"/>
         <v>20510DE</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>33886430</v>
       </c>
       <c r="I15">
         <v>522054</v>
       </c>
       <c r="J15" t="str">
-        <f>IF(P15&lt;&gt;"",$B$2+P15*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K15">
-        <f>IF(I15&lt;&gt;"",I15,J15)</f>
+        <f t="shared" si="4"/>
         <v>522054</v>
       </c>
       <c r="L15">
@@ -4737,30 +4740,30 @@
         <v>11</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(K16&lt;&gt;"",FLOOR((K16-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4318</v>
       </c>
       <c r="F16" s="1">
-        <f>IF(MOD(K16,2)=1,8+L16,L16)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="G16" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F16*HEX2DEC(10000) +E16)</f>
+        <f t="shared" si="2"/>
         <v>20610DE</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>33951966</v>
       </c>
       <c r="I16">
         <v>522054</v>
       </c>
       <c r="J16" t="str">
-        <f>IF(P16&lt;&gt;"",$B$2+P16*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K16">
-        <f>IF(I16&lt;&gt;"",I16,J16)</f>
+        <f t="shared" si="4"/>
         <v>522054</v>
       </c>
       <c r="L16">
@@ -4778,30 +4781,30 @@
         <v>12</v>
       </c>
       <c r="E17" s="1">
-        <f>IF(K17&lt;&gt;"",FLOOR((K17-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4318</v>
       </c>
       <c r="F17" s="1">
-        <f>IF(MOD(K17,2)=1,8+L17,L17)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G17" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F17*HEX2DEC(10000) +E17)</f>
+        <f t="shared" si="2"/>
         <v>20710DE</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34017502</v>
       </c>
       <c r="I17">
         <v>522054</v>
       </c>
       <c r="J17" t="str">
-        <f>IF(P17&lt;&gt;"",$B$2+P17*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K17">
-        <f>IF(I17&lt;&gt;"",I17,J17)</f>
+        <f t="shared" si="4"/>
         <v>522054</v>
       </c>
       <c r="L17">
@@ -4819,30 +4822,30 @@
         <v>13</v>
       </c>
       <c r="E18" s="1">
-        <f>IF(K18&lt;&gt;"",FLOOR((K18-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4318</v>
       </c>
       <c r="F18" s="1">
-        <f>IF(MOD(K18,2)=1,8+L18,L18)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G18" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F18*HEX2DEC(10000) +E18)</f>
+        <f t="shared" si="2"/>
         <v>20010DE</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>33558750</v>
       </c>
       <c r="I18">
         <v>522054</v>
       </c>
       <c r="J18" t="str">
-        <f>IF(P18&lt;&gt;"",$B$2+P18*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K18">
-        <f>IF(I18&lt;&gt;"",I18,J18)</f>
+        <f t="shared" si="4"/>
         <v>522054</v>
       </c>
       <c r="L18">
@@ -4860,30 +4863,30 @@
         <v>14</v>
       </c>
       <c r="E19" s="1">
-        <f>IF(K19&lt;&gt;"",FLOOR((K19-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4318</v>
       </c>
       <c r="F19" s="1">
-        <f>IF(MOD(K19,2)=1,8+L19,L19)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G19" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F19*HEX2DEC(10000) +E19)</f>
+        <f t="shared" si="2"/>
         <v>20110DE</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>33624286</v>
       </c>
       <c r="I19">
         <v>522054</v>
       </c>
       <c r="J19" t="str">
-        <f>IF(P19&lt;&gt;"",$B$2+P19*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K19">
-        <f>IF(I19&lt;&gt;"",I19,J19)</f>
+        <f t="shared" si="4"/>
         <v>522054</v>
       </c>
       <c r="L19">
@@ -4901,30 +4904,30 @@
         <v>141</v>
       </c>
       <c r="E20" s="1">
-        <f>IF(K20&lt;&gt;"",FLOOR((K20-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4321</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" ref="F20:F48" si="2">IF(MOD(K20-$B$3,2)=1,8+L20,L20)</f>
+        <f t="shared" ref="F20:F48" si="8">IF(MOD(K20-$B$3,2)=1,8+L20,L20)</f>
         <v>8</v>
       </c>
       <c r="G20" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F20*HEX2DEC(10000) +E20)</f>
+        <f t="shared" si="2"/>
         <v>20810E1</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34083041</v>
       </c>
       <c r="I20">
         <v>522060</v>
       </c>
       <c r="J20" t="str">
-        <f>IF(P20&lt;&gt;"",$B$2+P20*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K20">
-        <f>IF(I20&lt;&gt;"",I20,J20)</f>
+        <f t="shared" si="4"/>
         <v>522060</v>
       </c>
       <c r="L20">
@@ -4942,30 +4945,30 @@
         <v>142</v>
       </c>
       <c r="E21" s="1">
-        <f>IF(K21&lt;&gt;"",FLOOR((K21-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4321</v>
       </c>
       <c r="F21" s="1">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G21" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F21*HEX2DEC(10000) +E21)</f>
         <v>20910E1</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34148577</v>
       </c>
       <c r="I21">
         <v>522060</v>
       </c>
       <c r="J21" t="str">
-        <f>IF(P21&lt;&gt;"",$B$2+P21*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K21">
-        <f>IF(I21&lt;&gt;"",I21,J21)</f>
+        <f t="shared" si="4"/>
         <v>522060</v>
       </c>
       <c r="L21">
@@ -4983,30 +4986,30 @@
         <v>143</v>
       </c>
       <c r="E22" s="1">
-        <f>IF(K22&lt;&gt;"",FLOOR((K22-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4322</v>
       </c>
       <c r="F22" s="1">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="G22" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F22*HEX2DEC(10000) +E22)</f>
         <v>20610E2</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>33951970</v>
       </c>
       <c r="I22">
         <v>522061</v>
       </c>
       <c r="J22" t="str">
-        <f>IF(P22&lt;&gt;"",$B$2+P22*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K22">
-        <f>IF(I22&lt;&gt;"",I22,J22)</f>
+        <f t="shared" si="4"/>
         <v>522061</v>
       </c>
       <c r="L22">
@@ -5024,30 +5027,30 @@
         <v>144</v>
       </c>
       <c r="E23" s="1">
-        <f>IF(K23&lt;&gt;"",FLOOR((K23-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4322</v>
       </c>
       <c r="F23" s="1">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G23" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F23*HEX2DEC(10000) +E23)</f>
         <v>20710E2</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34017506</v>
       </c>
       <c r="I23">
         <v>522061</v>
       </c>
       <c r="J23" t="str">
-        <f>IF(P23&lt;&gt;"",$B$2+P23*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K23">
-        <f>IF(I23&lt;&gt;"",I23,J23)</f>
+        <f t="shared" si="4"/>
         <v>522061</v>
       </c>
       <c r="L23">
@@ -5065,30 +5068,30 @@
         <v>145</v>
       </c>
       <c r="E24" s="1">
-        <f>IF(K24&lt;&gt;"",FLOOR((K24-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4322</v>
       </c>
       <c r="F24" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G24" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F24*HEX2DEC(10000) +E24)</f>
         <v>20810E2</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34083042</v>
       </c>
       <c r="I24">
         <v>522062</v>
       </c>
       <c r="J24" t="str">
-        <f>IF(P24&lt;&gt;"",$B$2+P24*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K24">
-        <f>IF(I24&lt;&gt;"",I24,J24)</f>
+        <f t="shared" si="4"/>
         <v>522062</v>
       </c>
       <c r="L24">
@@ -5109,30 +5112,30 @@
         <v>149</v>
       </c>
       <c r="E25" s="1">
-        <f>IF(K25&lt;&gt;"",FLOOR((K25-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4323</v>
       </c>
       <c r="F25" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G25" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F25*HEX2DEC(10000) +E25)</f>
         <v>20210E3</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>33689827</v>
       </c>
       <c r="I25">
         <v>522063</v>
       </c>
       <c r="J25" t="str">
-        <f>IF(P25&lt;&gt;"",$B$2+P25*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K25">
-        <f>IF(I25&lt;&gt;"",I25,J25)</f>
+        <f t="shared" si="4"/>
         <v>522063</v>
       </c>
       <c r="L25">
@@ -5153,30 +5156,30 @@
         <v>150</v>
       </c>
       <c r="E26" s="1">
-        <f>IF(K26&lt;&gt;"",FLOOR((K26-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4323</v>
       </c>
       <c r="F26" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G26" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F26*HEX2DEC(10000) +E26)</f>
         <v>20310E3</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>33755363</v>
       </c>
       <c r="I26">
         <v>522063</v>
       </c>
       <c r="J26" t="str">
-        <f>IF(P26&lt;&gt;"",$B$2+P26*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K26">
-        <f>IF(I26&lt;&gt;"",I26,J26)</f>
+        <f t="shared" si="4"/>
         <v>522063</v>
       </c>
       <c r="L26">
@@ -5197,30 +5200,30 @@
         <v>85</v>
       </c>
       <c r="E27" s="1">
-        <f>IF(K27&lt;&gt;"",FLOOR((K27-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4323</v>
       </c>
       <c r="F27" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G27" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F27*HEX2DEC(10000) +E27)</f>
         <v>20010E3</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>33558755</v>
       </c>
       <c r="I27">
         <v>522063</v>
       </c>
       <c r="J27" t="str">
-        <f>IF(P27&lt;&gt;"",$B$2+P27*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K27">
-        <f>IF(I27&lt;&gt;"",I27,J27)</f>
+        <f t="shared" si="4"/>
         <v>522063</v>
       </c>
       <c r="L27">
@@ -5241,30 +5244,30 @@
         <v>86</v>
       </c>
       <c r="E28" s="1">
-        <f>IF(K28&lt;&gt;"",FLOOR((K28-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4323</v>
       </c>
       <c r="F28" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G28" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F28*HEX2DEC(10000) +E28)</f>
         <v>20110E3</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>33624291</v>
       </c>
       <c r="I28">
         <v>522063</v>
       </c>
       <c r="J28" t="str">
-        <f>IF(P28&lt;&gt;"",$B$2+P28*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K28">
-        <f>IF(I28&lt;&gt;"",I28,J28)</f>
+        <f t="shared" si="4"/>
         <v>522063</v>
       </c>
       <c r="L28">
@@ -5285,30 +5288,30 @@
         <v>87</v>
       </c>
       <c r="E29" s="1">
-        <f>IF(K29&lt;&gt;"",FLOOR((K29-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4387</v>
       </c>
       <c r="F29" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G29" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F29*HEX2DEC(10000) +E29)</f>
         <v>2081123</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34083107</v>
       </c>
       <c r="I29">
         <v>522192</v>
       </c>
       <c r="J29" t="str">
-        <f>IF(P29&lt;&gt;"",$B$2+P29*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K29">
-        <f>IF(I29&lt;&gt;"",I29,J29)</f>
+        <f t="shared" si="4"/>
         <v>522192</v>
       </c>
       <c r="L29">
@@ -5329,30 +5332,30 @@
         <v>88</v>
       </c>
       <c r="E30" s="1">
-        <f>IF(K30&lt;&gt;"",FLOOR((K30-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4387</v>
       </c>
       <c r="F30" s="1">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G30" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F30*HEX2DEC(10000) +E30)</f>
         <v>2091123</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34148643</v>
       </c>
       <c r="I30">
         <v>522192</v>
       </c>
       <c r="J30" t="str">
-        <f>IF(P30&lt;&gt;"",$B$2+P30*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K30">
-        <f>IF(I30&lt;&gt;"",I30,J30)</f>
+        <f t="shared" si="4"/>
         <v>522192</v>
       </c>
       <c r="L30">
@@ -5373,30 +5376,30 @@
         <v>89</v>
       </c>
       <c r="E31" s="1">
-        <f>IF(K31&lt;&gt;"",FLOOR((K31-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4387</v>
       </c>
       <c r="F31" s="1">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G31" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F31*HEX2DEC(10000) +E31)</f>
         <v>20A1123</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34214179</v>
       </c>
       <c r="I31">
         <v>522192</v>
       </c>
       <c r="J31" t="str">
-        <f>IF(P31&lt;&gt;"",$B$2+P31*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K31">
-        <f>IF(I31&lt;&gt;"",I31,J31)</f>
+        <f t="shared" si="4"/>
         <v>522192</v>
       </c>
       <c r="L31">
@@ -5417,30 +5420,30 @@
         <v>90</v>
       </c>
       <c r="E32" s="1">
-        <f>IF(K32&lt;&gt;"",FLOOR((K32-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4387</v>
       </c>
       <c r="F32" s="1">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="G32" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F32*HEX2DEC(10000) +E32)</f>
         <v>20B1123</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34279715</v>
       </c>
       <c r="I32">
         <v>522192</v>
       </c>
       <c r="J32" t="str">
-        <f>IF(P32&lt;&gt;"",$B$2+P32*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K32">
-        <f>IF(I32&lt;&gt;"",I32,J32)</f>
+        <f t="shared" si="4"/>
         <v>522192</v>
       </c>
       <c r="L32">
@@ -5461,27 +5464,27 @@
         <v>54</v>
       </c>
       <c r="E33" s="1">
-        <f>IF(K33&lt;&gt;"",FLOOR((K33-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4400</v>
       </c>
       <c r="F33" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G33" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G33" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F33*HEX2DEC(10000) +E33)</f>
         <v>2081130</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34083120</v>
       </c>
       <c r="J33">
-        <f>IF(P33&lt;&gt;"",$B$2+P33*136,"")</f>
+        <f t="shared" si="3"/>
         <v>522218</v>
       </c>
       <c r="K33">
-        <f>IF(I33&lt;&gt;"",I33,J33)</f>
+        <f t="shared" si="4"/>
         <v>522218</v>
       </c>
       <c r="M33" t="s">
@@ -5508,27 +5511,27 @@
         <v>55</v>
       </c>
       <c r="E34" s="1">
-        <f>IF(K34&lt;&gt;"",FLOOR((K34-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4468</v>
       </c>
       <c r="F34" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G34" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G34" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F34*HEX2DEC(10000) +E34)</f>
         <v>2081174</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34083188</v>
       </c>
       <c r="J34">
-        <f>IF(P34&lt;&gt;"",$B$2+P34*136,"")</f>
+        <f t="shared" si="3"/>
         <v>522354</v>
       </c>
       <c r="K34">
-        <f>IF(I34&lt;&gt;"",I34,J34)</f>
+        <f t="shared" si="4"/>
         <v>522354</v>
       </c>
       <c r="M34" t="s">
@@ -5555,27 +5558,27 @@
         <v>56</v>
       </c>
       <c r="E35" s="1">
-        <f>IF(K35&lt;&gt;"",FLOOR((K35-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4536</v>
       </c>
       <c r="F35" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G35" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F35*HEX2DEC(10000) +E35)</f>
         <v>20811B8</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34083256</v>
       </c>
       <c r="J35">
-        <f>IF(P35&lt;&gt;"",$B$2+P35*136,"")</f>
+        <f t="shared" si="3"/>
         <v>522490</v>
       </c>
       <c r="K35">
-        <f>IF(I35&lt;&gt;"",I35,J35)</f>
+        <f t="shared" si="4"/>
         <v>522490</v>
       </c>
       <c r="M35" t="s">
@@ -5602,27 +5605,27 @@
         <v>57</v>
       </c>
       <c r="E36" s="1">
-        <f>IF(K36&lt;&gt;"",FLOOR((K36-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4604</v>
       </c>
       <c r="F36" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G36" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G36" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F36*HEX2DEC(10000) +E36)</f>
         <v>20811FC</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34083324</v>
       </c>
       <c r="J36">
-        <f>IF(P36&lt;&gt;"",$B$2+P36*136,"")</f>
+        <f t="shared" si="3"/>
         <v>522626</v>
       </c>
       <c r="K36">
-        <f>IF(I36&lt;&gt;"",I36,J36)</f>
+        <f t="shared" si="4"/>
         <v>522626</v>
       </c>
       <c r="M36" t="s">
@@ -5649,27 +5652,27 @@
         <v>58</v>
       </c>
       <c r="E37" s="1">
-        <f>IF(K37&lt;&gt;"",FLOOR((K37-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4672</v>
       </c>
       <c r="F37" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G37" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G37" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F37*HEX2DEC(10000) +E37)</f>
         <v>2081240</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34083392</v>
       </c>
       <c r="J37">
-        <f>IF(P37&lt;&gt;"",$B$2+P37*136,"")</f>
+        <f t="shared" si="3"/>
         <v>522762</v>
       </c>
       <c r="K37">
-        <f>IF(I37&lt;&gt;"",I37,J37)</f>
+        <f t="shared" si="4"/>
         <v>522762</v>
       </c>
       <c r="M37" t="s">
@@ -5696,27 +5699,27 @@
         <v>59</v>
       </c>
       <c r="E38" s="1">
-        <f>IF(K38&lt;&gt;"",FLOOR((K38-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4740</v>
       </c>
       <c r="F38" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G38" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G38" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F38*HEX2DEC(10000) +E38)</f>
         <v>2081284</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34083460</v>
       </c>
       <c r="J38">
-        <f>IF(P38&lt;&gt;"",$B$2+P38*136,"")</f>
+        <f t="shared" si="3"/>
         <v>522898</v>
       </c>
       <c r="K38">
-        <f>IF(I38&lt;&gt;"",I38,J38)</f>
+        <f t="shared" si="4"/>
         <v>522898</v>
       </c>
       <c r="M38" t="s">
@@ -5743,27 +5746,27 @@
         <v>74</v>
       </c>
       <c r="E39" s="1">
-        <f>IF(K39&lt;&gt;"",FLOOR((K39-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4808</v>
       </c>
       <c r="F39" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G39" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F39*HEX2DEC(10000) +E39)</f>
         <v>20812C8</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34083528</v>
       </c>
       <c r="J39">
-        <f>IF(P39&lt;&gt;"",$B$2+P39*136,"")</f>
+        <f t="shared" si="3"/>
         <v>523034</v>
       </c>
       <c r="K39">
-        <f>IF(I39&lt;&gt;"",I39,J39)</f>
+        <f t="shared" si="4"/>
         <v>523034</v>
       </c>
       <c r="M39" t="s">
@@ -5790,27 +5793,27 @@
         <v>80</v>
       </c>
       <c r="E40" s="1">
-        <f>IF(K40&lt;&gt;"",FLOOR((K40-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4876</v>
       </c>
       <c r="F40" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G40" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F40*HEX2DEC(10000) +E40)</f>
         <v>208130C</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34083596</v>
       </c>
       <c r="J40">
-        <f>IF(P40&lt;&gt;"",$B$2+P40*136,"")</f>
+        <f t="shared" si="3"/>
         <v>523170</v>
       </c>
       <c r="K40">
-        <f>IF(I40&lt;&gt;"",I40,J40)</f>
+        <f t="shared" si="4"/>
         <v>523170</v>
       </c>
       <c r="M40" t="s">
@@ -5837,27 +5840,27 @@
         <v>81</v>
       </c>
       <c r="E41" s="1">
-        <f>IF(K41&lt;&gt;"",FLOOR((K41-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>4944</v>
       </c>
       <c r="F41" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G41" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F41*HEX2DEC(10000) +E41)</f>
         <v>2081350</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34083664</v>
       </c>
       <c r="J41">
-        <f>IF(P41&lt;&gt;"",$B$2+P41*136,"")</f>
+        <f t="shared" si="3"/>
         <v>523306</v>
       </c>
       <c r="K41">
-        <f>IF(I41&lt;&gt;"",I41,J41)</f>
+        <f t="shared" si="4"/>
         <v>523306</v>
       </c>
       <c r="M41" t="s">
@@ -5884,27 +5887,27 @@
         <v>82</v>
       </c>
       <c r="E42" s="1">
-        <f>IF(K42&lt;&gt;"",FLOOR((K42-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>5012</v>
       </c>
       <c r="F42" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G42" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F42*HEX2DEC(10000) +E42)</f>
         <v>2081394</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34083732</v>
       </c>
       <c r="J42">
-        <f>IF(P42&lt;&gt;"",$B$2+P42*136,"")</f>
+        <f t="shared" si="3"/>
         <v>523442</v>
       </c>
       <c r="K42">
-        <f>IF(I42&lt;&gt;"",I42,J42)</f>
+        <f t="shared" si="4"/>
         <v>523442</v>
       </c>
       <c r="M42" t="s">
@@ -5931,27 +5934,27 @@
         <v>83</v>
       </c>
       <c r="E43" s="1">
-        <f>IF(K43&lt;&gt;"",FLOOR((K43-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>5080</v>
       </c>
       <c r="F43" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G43" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F43*HEX2DEC(10000) +E43)</f>
         <v>20813D8</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34083800</v>
       </c>
       <c r="J43">
-        <f>IF(P43&lt;&gt;"",$B$2+P43*136,"")</f>
+        <f t="shared" si="3"/>
         <v>523578</v>
       </c>
       <c r="K43">
-        <f>IF(I43&lt;&gt;"",I43,J43)</f>
+        <f t="shared" si="4"/>
         <v>523578</v>
       </c>
       <c r="M43" t="s">
@@ -5978,27 +5981,27 @@
         <v>84</v>
       </c>
       <c r="E44" s="1">
-        <f>IF(K44&lt;&gt;"",FLOOR((K44-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>5148</v>
       </c>
       <c r="F44" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G44" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F44*HEX2DEC(10000) +E44)</f>
         <v>208141C</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34083868</v>
       </c>
       <c r="J44">
-        <f>IF(P44&lt;&gt;"",$B$2+P44*136,"")</f>
+        <f t="shared" si="3"/>
         <v>523714</v>
       </c>
       <c r="K44">
-        <f>IF(I44&lt;&gt;"",I44,J44)</f>
+        <f t="shared" si="4"/>
         <v>523714</v>
       </c>
       <c r="M44" t="s">
@@ -6025,27 +6028,27 @@
         <v>70</v>
       </c>
       <c r="E45" s="1">
-        <f>IF(K45&lt;&gt;"",FLOOR((K45-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>5216</v>
       </c>
       <c r="F45" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G45" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F45*HEX2DEC(10000) +E45)</f>
         <v>2081460</v>
       </c>
       <c r="H45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34083936</v>
       </c>
       <c r="J45">
-        <f>IF(P45&lt;&gt;"",$B$2+P45*136,"")</f>
+        <f t="shared" si="3"/>
         <v>523850</v>
       </c>
       <c r="K45">
-        <f>IF(I45&lt;&gt;"",I45,J45)</f>
+        <f t="shared" si="4"/>
         <v>523850</v>
       </c>
       <c r="M45" t="s">
@@ -6072,27 +6075,27 @@
         <v>71</v>
       </c>
       <c r="E46" s="1">
-        <f>IF(K46&lt;&gt;"",FLOOR((K46-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>5284</v>
       </c>
       <c r="F46" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G46" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F46*HEX2DEC(10000) +E46)</f>
         <v>20814A4</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34084004</v>
       </c>
       <c r="J46">
-        <f>IF(P46&lt;&gt;"",$B$2+P46*136,"")</f>
+        <f t="shared" si="3"/>
         <v>523986</v>
       </c>
       <c r="K46">
-        <f>IF(I46&lt;&gt;"",I46,J46)</f>
+        <f t="shared" si="4"/>
         <v>523986</v>
       </c>
       <c r="M46" t="s">
@@ -6119,27 +6122,27 @@
         <v>72</v>
       </c>
       <c r="E47" s="1">
-        <f>IF(K47&lt;&gt;"",FLOOR((K47-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>5352</v>
       </c>
       <c r="F47" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G47" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F47*HEX2DEC(10000) +E47)</f>
         <v>20814E8</v>
       </c>
       <c r="H47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34084072</v>
       </c>
       <c r="J47">
-        <f>IF(P47&lt;&gt;"",$B$2+P47*136,"")</f>
+        <f t="shared" si="3"/>
         <v>524122</v>
       </c>
       <c r="K47">
-        <f>IF(I47&lt;&gt;"",I47,J47)</f>
+        <f t="shared" si="4"/>
         <v>524122</v>
       </c>
       <c r="M47" t="s">
@@ -6166,27 +6169,27 @@
         <v>73</v>
       </c>
       <c r="E48" s="1">
-        <f>IF(K48&lt;&gt;"",FLOOR((K48-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>5420</v>
       </c>
       <c r="F48" s="1">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G48" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F48*HEX2DEC(10000) +E48)</f>
         <v>208152C</v>
       </c>
       <c r="H48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34084140</v>
       </c>
       <c r="J48">
-        <f>IF(P48&lt;&gt;"",$B$2+P48*136,"")</f>
+        <f t="shared" si="3"/>
         <v>524258</v>
       </c>
       <c r="K48">
-        <f>IF(I48&lt;&gt;"",I48,J48)</f>
+        <f t="shared" si="4"/>
         <v>524258</v>
       </c>
       <c r="M48" t="s">
@@ -6207,7 +6210,7 @@
         <v>8</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>IF(K49&lt;&gt;"",FLOOR((K49-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F49" s="1" t="e">
@@ -6215,19 +6218,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="G49" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F49*HEX2DEC(10000) +E49)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H49" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="J49" t="str">
-        <f>IF(P49&lt;&gt;"",$B$2+P49*136,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K49" t="str">
-        <f>IF(I49&lt;&gt;"",I49,J49)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>

--- a/D/iotable.xlsx
+++ b/D/iotable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7386CD92-94CB-4F24-AC64-92D5CEF93FC6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E31B926-81D1-47F0-89DC-6488C1FFBEEA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4151,7 +4151,7 @@
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="H5" sqref="H5:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/D/iotable.xlsx
+++ b/D/iotable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E31B926-81D1-47F0-89DC-6488C1FFBEEA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389761FB-A880-4077-B666-50CF1F68B92F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -913,28 +913,28 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -950,7 +950,7 @@
         <v>522220</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -958,7 +958,7 @@
         <v>522224</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -966,7 +966,7 @@
         <v>524391</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -981,7 +981,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>14</v>
       </c>
@@ -1054,15 +1054,15 @@
         <v>23</v>
       </c>
       <c r="E7" s="1">
-        <f>IF(K7&lt;&gt;"",FLOOR((K7-MIN(K:K))/2,1),"")</f>
+        <f t="shared" ref="E7:E38" si="0">IF(K7&lt;&gt;"",FLOOR((K7-MIN(K:K))/2,1),"")</f>
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <f>IF(MOD(K7-$B$5,2)=1,8+L7,L7)</f>
+        <f t="shared" ref="F7:F38" si="1">IF(MOD(K7-$B$5,2)=1,8+L7,L7)</f>
         <v>0</v>
       </c>
       <c r="G7" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F7*HEX2DEC(10000) +E7)</f>
+        <f t="shared" ref="G7:G38" si="2">DEC2HEX(B$1*HEX2DEC(1000000) +F7*HEX2DEC(10000) +E7)</f>
         <v>1000000</v>
       </c>
       <c r="H7">
@@ -1073,7 +1073,7 @@
         <v>517960</v>
       </c>
       <c r="J7" t="str">
-        <f>IF(P7&lt;&gt;"",P7*136+$B$2,IF(Q7&lt;&gt;"",Q7*136+$B$2,IF(S7&lt;&gt;"",S7*80+$B$4,"")))</f>
+        <f t="shared" ref="J7:J38" si="3">IF(P7&lt;&gt;"",P7*136+$B$2,IF(Q7&lt;&gt;"",Q7*136+$B$2,IF(S7&lt;&gt;"",S7*80+$B$4,"")))</f>
         <v/>
       </c>
       <c r="K7">
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>128</v>
       </c>
@@ -1095,37 +1095,37 @@
         <v>133</v>
       </c>
       <c r="E8" s="1">
-        <f>IF(K8&lt;&gt;"",FLOOR((K8-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
       <c r="F8" s="1">
-        <f>IF(MOD(K8-$B$5,2)=1,8+L8,L8)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G8" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F8*HEX2DEC(10000) +E8)</f>
+        <f t="shared" si="2"/>
         <v>1020802</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H55" si="0">HEX2DEC(G8)</f>
+        <f t="shared" ref="H8:H55" si="4">HEX2DEC(G8)</f>
         <v>16910338</v>
       </c>
       <c r="I8">
         <v>522060</v>
       </c>
       <c r="J8" t="str">
-        <f>IF(P8&lt;&gt;"",P8*136+$B$2,IF(Q8&lt;&gt;"",Q8*136+$B$2,IF(S8&lt;&gt;"",S8*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K55" si="1">IF(I8&lt;&gt;"",I8,J8)</f>
+        <f t="shared" ref="K8:K55" si="5">IF(I8&lt;&gt;"",I8,J8)</f>
         <v>522060</v>
       </c>
       <c r="L8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>129</v>
       </c>
@@ -1136,37 +1136,37 @@
         <v>124</v>
       </c>
       <c r="E9" s="1">
-        <f>IF(K9&lt;&gt;"",FLOOR((K9-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
       <c r="F9" s="1">
-        <f>IF(MOD(K9-$B$5,2)=1,8+L9,L9)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G9" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F9*HEX2DEC(10000) +E9)</f>
+        <f t="shared" si="2"/>
         <v>1030802</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16975874</v>
       </c>
       <c r="I9">
         <v>522060</v>
       </c>
       <c r="J9" t="str">
-        <f>IF(P9&lt;&gt;"",P9*136+$B$2,IF(Q9&lt;&gt;"",Q9*136+$B$2,IF(S9&lt;&gt;"",S9*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522060</v>
       </c>
       <c r="L9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>130</v>
       </c>
@@ -1177,37 +1177,37 @@
         <v>125</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(K10&lt;&gt;"",FLOOR((K10-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
       <c r="F10" s="1">
-        <f>IF(MOD(K10-$B$5,2)=1,8+L10,L10)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G10" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F10*HEX2DEC(10000) +E10)</f>
+        <f t="shared" si="2"/>
         <v>1040802</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17041410</v>
       </c>
       <c r="I10">
         <v>522060</v>
       </c>
       <c r="J10" t="str">
-        <f>IF(P10&lt;&gt;"",P10*136+$B$2,IF(Q10&lt;&gt;"",Q10*136+$B$2,IF(S10&lt;&gt;"",S10*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522060</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>131</v>
       </c>
@@ -1218,37 +1218,37 @@
         <v>126</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(K11&lt;&gt;"",FLOOR((K11-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
       <c r="F11" s="1">
-        <f>IF(MOD(K11-$B$5,2)=1,8+L11,L11)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G11" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F11*HEX2DEC(10000) +E11)</f>
+        <f t="shared" si="2"/>
         <v>1050802</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17106946</v>
       </c>
       <c r="I11">
         <v>522060</v>
       </c>
       <c r="J11" t="str">
-        <f>IF(P11&lt;&gt;"",P11*136+$B$2,IF(Q11&lt;&gt;"",Q11*136+$B$2,IF(S11&lt;&gt;"",S11*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522060</v>
       </c>
       <c r="L11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>132</v>
       </c>
@@ -1259,37 +1259,37 @@
         <v>127</v>
       </c>
       <c r="E12" s="1">
-        <f>IF(K12&lt;&gt;"",FLOOR((K12-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
       <c r="F12" s="1">
-        <f>IF(MOD(K12-$B$5,2)=1,8+L12,L12)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G12" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F12*HEX2DEC(10000) +E12)</f>
+        <f t="shared" si="2"/>
         <v>1060802</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17172482</v>
       </c>
       <c r="I12">
         <v>522060</v>
       </c>
       <c r="J12" t="str">
-        <f>IF(P12&lt;&gt;"",P12*136+$B$2,IF(Q12&lt;&gt;"",Q12*136+$B$2,IF(S12&lt;&gt;"",S12*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522060</v>
       </c>
       <c r="L12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>133</v>
       </c>
@@ -1300,37 +1300,37 @@
         <v>129</v>
       </c>
       <c r="E13" s="1">
-        <f>IF(K13&lt;&gt;"",FLOOR((K13-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
       <c r="F13" s="1">
-        <f>IF(MOD(K13-$B$5,2)=1,8+L13,L13)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G13" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F13*HEX2DEC(10000) +E13)</f>
+        <f t="shared" si="2"/>
         <v>1070802</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17238018</v>
       </c>
       <c r="I13">
         <v>522060</v>
       </c>
       <c r="J13" t="str">
-        <f>IF(P13&lt;&gt;"",P13*136+$B$2,IF(Q13&lt;&gt;"",Q13*136+$B$2,IF(S13&lt;&gt;"",S13*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522060</v>
       </c>
       <c r="L13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>134</v>
       </c>
@@ -1341,37 +1341,37 @@
         <v>130</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(K14&lt;&gt;"",FLOOR((K14-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
       <c r="F14" s="1">
-        <f>IF(MOD(K14-$B$5,2)=1,8+L14,L14)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G14" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F14*HEX2DEC(10000) +E14)</f>
+        <f t="shared" si="2"/>
         <v>1080802</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17303554</v>
       </c>
       <c r="I14">
         <v>522061</v>
       </c>
       <c r="J14" t="str">
-        <f>IF(P14&lt;&gt;"",P14*136+$B$2,IF(Q14&lt;&gt;"",Q14*136+$B$2,IF(S14&lt;&gt;"",S14*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522061</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>135</v>
       </c>
@@ -1382,37 +1382,37 @@
         <v>135</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(K15&lt;&gt;"",FLOOR((K15-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
       <c r="F15" s="1">
-        <f>IF(MOD(K15-$B$5,2)=1,8+L15,L15)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G15" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F15*HEX2DEC(10000) +E15)</f>
+        <f t="shared" si="2"/>
         <v>1090802</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17369090</v>
       </c>
       <c r="I15">
         <v>522061</v>
       </c>
       <c r="J15" t="str">
-        <f>IF(P15&lt;&gt;"",P15*136+$B$2,IF(Q15&lt;&gt;"",Q15*136+$B$2,IF(S15&lt;&gt;"",S15*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522061</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>136</v>
       </c>
@@ -1423,37 +1423,37 @@
         <v>151</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(K16&lt;&gt;"",FLOOR((K16-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
       <c r="F16" s="1">
-        <f>IF(MOD(K16-$B$5,2)=1,8+L16,L16)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G16" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F16*HEX2DEC(10000) +E16)</f>
+        <f t="shared" si="2"/>
         <v>10A0802</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17434626</v>
       </c>
       <c r="I16">
         <v>522061</v>
       </c>
       <c r="J16" t="str">
-        <f>IF(P16&lt;&gt;"",P16*136+$B$2,IF(Q16&lt;&gt;"",Q16*136+$B$2,IF(S16&lt;&gt;"",S16*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522061</v>
       </c>
       <c r="L16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>137</v>
       </c>
@@ -1464,37 +1464,37 @@
         <v>131</v>
       </c>
       <c r="E17" s="1">
-        <f>IF(K17&lt;&gt;"",FLOOR((K17-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
       <c r="F17" s="1">
-        <f>IF(MOD(K17-$B$5,2)=1,8+L17,L17)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G17" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F17*HEX2DEC(10000) +E17)</f>
+        <f t="shared" si="2"/>
         <v>10B0802</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17500162</v>
       </c>
       <c r="I17">
         <v>522061</v>
       </c>
       <c r="J17" t="str">
-        <f>IF(P17&lt;&gt;"",P17*136+$B$2,IF(Q17&lt;&gt;"",Q17*136+$B$2,IF(S17&lt;&gt;"",S17*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522061</v>
       </c>
       <c r="L17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>138</v>
       </c>
@@ -1505,37 +1505,37 @@
         <v>128</v>
       </c>
       <c r="E18" s="1">
-        <f>IF(K18&lt;&gt;"",FLOOR((K18-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
       <c r="F18" s="1">
-        <f>IF(MOD(K18-$B$5,2)=1,8+L18,L18)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G18" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F18*HEX2DEC(10000) +E18)</f>
+        <f t="shared" si="2"/>
         <v>10C0802</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17565698</v>
       </c>
       <c r="I18">
         <v>522061</v>
       </c>
       <c r="J18" t="str">
-        <f>IF(P18&lt;&gt;"",P18*136+$B$2,IF(Q18&lt;&gt;"",Q18*136+$B$2,IF(S18&lt;&gt;"",S18*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522061</v>
       </c>
       <c r="L18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>139</v>
       </c>
@@ -1546,37 +1546,37 @@
         <v>132</v>
       </c>
       <c r="E19" s="1">
-        <f>IF(K19&lt;&gt;"",FLOOR((K19-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
       <c r="F19" s="1">
-        <f>IF(MOD(K19-$B$5,2)=1,8+L19,L19)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="G19" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F19*HEX2DEC(10000) +E19)</f>
+        <f t="shared" si="2"/>
         <v>10D0802</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17631234</v>
       </c>
       <c r="I19">
         <v>522061</v>
       </c>
       <c r="J19" t="str">
-        <f>IF(P19&lt;&gt;"",P19*136+$B$2,IF(Q19&lt;&gt;"",Q19*136+$B$2,IF(S19&lt;&gt;"",S19*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522061</v>
       </c>
       <c r="L19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>24</v>
       </c>
@@ -1590,37 +1590,37 @@
         <v>33</v>
       </c>
       <c r="E20" s="1">
-        <f>IF(K20&lt;&gt;"",FLOOR((K20-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2116</v>
       </c>
       <c r="F20" s="1">
-        <f>IF(MOD(K20-$B$5,2)=1,8+L20,L20)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G20" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F20*HEX2DEC(10000) +E20)</f>
+        <f t="shared" si="2"/>
         <v>1040844</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17041476</v>
       </c>
       <c r="I20">
         <v>522192</v>
       </c>
       <c r="J20" t="str">
-        <f>IF(P20&lt;&gt;"",P20*136+$B$2,IF(Q20&lt;&gt;"",Q20*136+$B$2,IF(S20&lt;&gt;"",S20*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522192</v>
       </c>
       <c r="L20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>25</v>
       </c>
@@ -1634,37 +1634,37 @@
         <v>34</v>
       </c>
       <c r="E21" s="1">
-        <f>IF(K21&lt;&gt;"",FLOOR((K21-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2116</v>
       </c>
       <c r="F21" s="1">
-        <f>IF(MOD(K21-$B$5,2)=1,8+L21,L21)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G21" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F21*HEX2DEC(10000) +E21)</f>
+        <f t="shared" si="2"/>
         <v>1050844</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17107012</v>
       </c>
       <c r="I21">
         <v>522192</v>
       </c>
       <c r="J21" t="str">
-        <f>IF(P21&lt;&gt;"",P21*136+$B$2,IF(Q21&lt;&gt;"",Q21*136+$B$2,IF(S21&lt;&gt;"",S21*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522192</v>
       </c>
       <c r="L21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>26</v>
       </c>
@@ -1678,37 +1678,37 @@
         <v>35</v>
       </c>
       <c r="E22" s="1">
-        <f>IF(K22&lt;&gt;"",FLOOR((K22-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2116</v>
       </c>
       <c r="F22" s="1">
-        <f>IF(MOD(K22-$B$5,2)=1,8+L22,L22)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G22" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F22*HEX2DEC(10000) +E22)</f>
+        <f t="shared" si="2"/>
         <v>1060844</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17172548</v>
       </c>
       <c r="I22">
         <v>522192</v>
       </c>
       <c r="J22" t="str">
-        <f>IF(P22&lt;&gt;"",P22*136+$B$2,IF(Q22&lt;&gt;"",Q22*136+$B$2,IF(S22&lt;&gt;"",S22*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522192</v>
       </c>
       <c r="L22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>27</v>
       </c>
@@ -1722,37 +1722,37 @@
         <v>36</v>
       </c>
       <c r="E23" s="1">
-        <f>IF(K23&lt;&gt;"",FLOOR((K23-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2116</v>
       </c>
       <c r="F23" s="1">
-        <f>IF(MOD(K23-$B$5,2)=1,8+L23,L23)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G23" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F23*HEX2DEC(10000) +E23)</f>
+        <f t="shared" si="2"/>
         <v>1070844</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17238084</v>
       </c>
       <c r="I23">
         <v>522192</v>
       </c>
       <c r="J23" t="str">
-        <f>IF(P23&lt;&gt;"",P23*136+$B$2,IF(Q23&lt;&gt;"",Q23*136+$B$2,IF(S23&lt;&gt;"",S23*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522192</v>
       </c>
       <c r="L23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28</v>
       </c>
@@ -1766,37 +1766,37 @@
         <v>37</v>
       </c>
       <c r="E24" s="1">
-        <f>IF(K24&lt;&gt;"",FLOOR((K24-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2116</v>
       </c>
       <c r="F24" s="1">
-        <f>IF(MOD(K24-$B$5,2)=1,8+L24,L24)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G24" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F24*HEX2DEC(10000) +E24)</f>
+        <f t="shared" si="2"/>
         <v>1080844</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17303620</v>
       </c>
       <c r="I24">
         <v>522193</v>
       </c>
       <c r="J24" t="str">
-        <f>IF(P24&lt;&gt;"",P24*136+$B$2,IF(Q24&lt;&gt;"",Q24*136+$B$2,IF(S24&lt;&gt;"",S24*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522193</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>29</v>
       </c>
@@ -1810,37 +1810,37 @@
         <v>38</v>
       </c>
       <c r="E25" s="1">
-        <f>IF(K25&lt;&gt;"",FLOOR((K25-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2116</v>
       </c>
       <c r="F25" s="1">
-        <f>IF(MOD(K25-$B$5,2)=1,8+L25,L25)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G25" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F25*HEX2DEC(10000) +E25)</f>
+        <f t="shared" si="2"/>
         <v>1090844</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17369156</v>
       </c>
       <c r="I25">
         <v>522193</v>
       </c>
       <c r="J25" t="str">
-        <f>IF(P25&lt;&gt;"",P25*136+$B$2,IF(Q25&lt;&gt;"",Q25*136+$B$2,IF(S25&lt;&gt;"",S25*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522193</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>8</v>
       </c>
@@ -1854,27 +1854,27 @@
         <v>18</v>
       </c>
       <c r="E26" s="1">
-        <f>IF(K26&lt;&gt;"",FLOOR((K26-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2130</v>
       </c>
       <c r="F26" s="1">
-        <f>IF(MOD(K26-$B$5,2)=1,8+L26,L26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G26" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F26*HEX2DEC(10000) +E26)</f>
+        <f t="shared" si="2"/>
         <v>1000852</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16779346</v>
       </c>
       <c r="J26">
-        <f>IF(P26&lt;&gt;"",P26*136+$B$2,IF(Q26&lt;&gt;"",Q26*136+$B$2,IF(S26&lt;&gt;"",S26*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v>522220</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522220</v>
       </c>
       <c r="O26" t="s">
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>9</v>
       </c>
@@ -1898,27 +1898,27 @@
         <v>19</v>
       </c>
       <c r="E27" s="1">
-        <f>IF(K27&lt;&gt;"",FLOOR((K27-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2198</v>
       </c>
       <c r="F27" s="1">
-        <f>IF(MOD(K27-$B$5,2)=1,8+L27,L27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F27*HEX2DEC(10000) +E27)</f>
+        <f t="shared" si="2"/>
         <v>1000896</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16779414</v>
       </c>
       <c r="J27">
-        <f>IF(P27&lt;&gt;"",P27*136+$B$2,IF(Q27&lt;&gt;"",Q27*136+$B$2,IF(S27&lt;&gt;"",S27*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v>522356</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522356</v>
       </c>
       <c r="O27" t="s">
@@ -1931,7 +1931,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10</v>
       </c>
@@ -1945,27 +1945,27 @@
         <v>20</v>
       </c>
       <c r="E28" s="1">
-        <f>IF(K28&lt;&gt;"",FLOOR((K28-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2198</v>
       </c>
       <c r="F28" s="1">
-        <f>IF(MOD(K28-$B$5,2)=1,8+L28,L28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F28*HEX2DEC(10000) +E28)</f>
+        <f t="shared" si="2"/>
         <v>1000896</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16779414</v>
       </c>
       <c r="J28">
-        <f>IF(P28&lt;&gt;"",P28*136+$B$2,IF(Q28&lt;&gt;"",Q28*136+$B$2,IF(S28&lt;&gt;"",S28*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v>522356</v>
       </c>
       <c r="K28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522356</v>
       </c>
       <c r="O28" t="s">
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>11</v>
       </c>
@@ -1989,27 +1989,27 @@
         <v>21</v>
       </c>
       <c r="E29" s="1">
-        <f>IF(K29&lt;&gt;"",FLOOR((K29-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2266</v>
       </c>
       <c r="F29" s="1">
-        <f>IF(MOD(K29-$B$5,2)=1,8+L29,L29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G29" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F29*HEX2DEC(10000) +E29)</f>
+        <f t="shared" si="2"/>
         <v>10008DA</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16779482</v>
       </c>
       <c r="J29">
-        <f>IF(P29&lt;&gt;"",P29*136+$B$2,IF(Q29&lt;&gt;"",Q29*136+$B$2,IF(S29&lt;&gt;"",S29*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v>522492</v>
       </c>
       <c r="K29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522492</v>
       </c>
       <c r="O29" t="s">
@@ -2019,7 +2019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>57</v>
       </c>
@@ -2033,27 +2033,27 @@
         <v>44</v>
       </c>
       <c r="E30" s="1">
-        <f>IF(K30&lt;&gt;"",FLOOR((K30-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2334</v>
       </c>
       <c r="F30" s="1">
-        <f>IF(MOD(K30-$B$5,2)=1,8+L30,L30)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G30" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F30*HEX2DEC(10000) +E30)</f>
+        <f t="shared" si="2"/>
         <v>100091E</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16779550</v>
       </c>
       <c r="J30">
-        <f>IF(P30&lt;&gt;"",P30*136+$B$2,IF(Q30&lt;&gt;"",Q30*136+$B$2,IF(S30&lt;&gt;"",S30*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v>522628</v>
       </c>
       <c r="K30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522628</v>
       </c>
       <c r="O30" t="s">
@@ -2063,7 +2063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>58</v>
       </c>
@@ -2077,27 +2077,27 @@
         <v>45</v>
       </c>
       <c r="E31" s="1">
-        <f>IF(K31&lt;&gt;"",FLOOR((K31-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2402</v>
       </c>
       <c r="F31" s="1">
-        <f>IF(MOD(K31-$B$5,2)=1,8+L31,L31)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G31" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F31*HEX2DEC(10000) +E31)</f>
+        <f t="shared" si="2"/>
         <v>1000962</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16779618</v>
       </c>
       <c r="J31">
-        <f>IF(P31&lt;&gt;"",P31*136+$B$2,IF(Q31&lt;&gt;"",Q31*136+$B$2,IF(S31&lt;&gt;"",S31*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v>522764</v>
       </c>
       <c r="K31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522764</v>
       </c>
       <c r="O31" t="s">
@@ -2110,7 +2110,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>59</v>
       </c>
@@ -2124,27 +2124,27 @@
         <v>46</v>
       </c>
       <c r="E32" s="1">
-        <f>IF(K32&lt;&gt;"",FLOOR((K32-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2402</v>
       </c>
       <c r="F32" s="1">
-        <f>IF(MOD(K32-$B$5,2)=1,8+L32,L32)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G32" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F32*HEX2DEC(10000) +E32)</f>
+        <f t="shared" si="2"/>
         <v>1000962</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16779618</v>
       </c>
       <c r="J32">
-        <f>IF(P32&lt;&gt;"",P32*136+$B$2,IF(Q32&lt;&gt;"",Q32*136+$B$2,IF(S32&lt;&gt;"",S32*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v>522764</v>
       </c>
       <c r="K32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522764</v>
       </c>
       <c r="O32" t="s">
@@ -2154,7 +2154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>60</v>
       </c>
@@ -2168,27 +2168,27 @@
         <v>47</v>
       </c>
       <c r="E33" s="1">
-        <f>IF(K33&lt;&gt;"",FLOOR((K33-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2470</v>
       </c>
       <c r="F33" s="1">
-        <f>IF(MOD(K33-$B$5,2)=1,8+L33,L33)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G33" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F33*HEX2DEC(10000) +E33)</f>
+        <f t="shared" si="2"/>
         <v>10009A6</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16779686</v>
       </c>
       <c r="J33">
-        <f>IF(P33&lt;&gt;"",P33*136+$B$2,IF(Q33&lt;&gt;"",Q33*136+$B$2,IF(S33&lt;&gt;"",S33*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v>522900</v>
       </c>
       <c r="K33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522900</v>
       </c>
       <c r="O33" t="s">
@@ -2201,7 +2201,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>61</v>
       </c>
@@ -2215,27 +2215,27 @@
         <v>48</v>
       </c>
       <c r="E34" s="1">
-        <f>IF(K34&lt;&gt;"",FLOOR((K34-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2470</v>
       </c>
       <c r="F34" s="1">
-        <f>IF(MOD(K34-$B$5,2)=1,8+L34,L34)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G34" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F34*HEX2DEC(10000) +E34)</f>
+        <f t="shared" si="2"/>
         <v>10009A6</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16779686</v>
       </c>
       <c r="J34">
-        <f>IF(P34&lt;&gt;"",P34*136+$B$2,IF(Q34&lt;&gt;"",Q34*136+$B$2,IF(S34&lt;&gt;"",S34*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v>522900</v>
       </c>
       <c r="K34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>522900</v>
       </c>
       <c r="O34" t="s">
@@ -2245,7 +2245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>62</v>
       </c>
@@ -2259,27 +2259,27 @@
         <v>49</v>
       </c>
       <c r="E35" s="1">
-        <f>IF(K35&lt;&gt;"",FLOOR((K35-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2538</v>
       </c>
       <c r="F35" s="1">
-        <f>IF(MOD(K35-$B$5,2)=1,8+L35,L35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G35" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F35*HEX2DEC(10000) +E35)</f>
+        <f t="shared" si="2"/>
         <v>10009EA</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16779754</v>
       </c>
       <c r="J35">
-        <f>IF(P35&lt;&gt;"",P35*136+$B$2,IF(Q35&lt;&gt;"",Q35*136+$B$2,IF(S35&lt;&gt;"",S35*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v>523036</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>523036</v>
       </c>
       <c r="O35" t="s">
@@ -2292,7 +2292,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>63</v>
       </c>
@@ -2306,27 +2306,27 @@
         <v>50</v>
       </c>
       <c r="E36" s="1">
-        <f>IF(K36&lt;&gt;"",FLOOR((K36-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2538</v>
       </c>
       <c r="F36" s="1">
-        <f>IF(MOD(K36-$B$5,2)=1,8+L36,L36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G36" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F36*HEX2DEC(10000) +E36)</f>
+        <f t="shared" si="2"/>
         <v>10009EA</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16779754</v>
       </c>
       <c r="J36">
-        <f>IF(P36&lt;&gt;"",P36*136+$B$2,IF(Q36&lt;&gt;"",Q36*136+$B$2,IF(S36&lt;&gt;"",S36*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v>523036</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>523036</v>
       </c>
       <c r="O36" t="s">
@@ -2336,7 +2336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>16</v>
       </c>
@@ -2350,27 +2350,27 @@
         <v>24</v>
       </c>
       <c r="E37" s="1">
-        <f>IF(K37&lt;&gt;"",FLOOR((K37-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2606</v>
       </c>
       <c r="F37" s="1">
-        <f>IF(MOD(K37-$B$5,2)=1,8+L37,L37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G37" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F37*HEX2DEC(10000) +E37)</f>
+        <f t="shared" si="2"/>
         <v>1000A2E</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16779822</v>
       </c>
       <c r="J37">
-        <f>IF(P37&lt;&gt;"",P37*136+$B$2,IF(Q37&lt;&gt;"",Q37*136+$B$2,IF(S37&lt;&gt;"",S37*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v>523172</v>
       </c>
       <c r="K37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>523172</v>
       </c>
       <c r="O37" t="s">
@@ -2380,7 +2380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>17</v>
       </c>
@@ -2394,27 +2394,27 @@
         <v>25</v>
       </c>
       <c r="E38" s="1">
-        <f>IF(K38&lt;&gt;"",FLOOR((K38-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>2674</v>
       </c>
       <c r="F38" s="1">
-        <f>IF(MOD(K38-$B$5,2)=1,8+L38,L38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G38" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F38*HEX2DEC(10000) +E38)</f>
+        <f t="shared" si="2"/>
         <v>1000A72</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16779890</v>
       </c>
       <c r="J38">
-        <f>IF(P38&lt;&gt;"",P38*136+$B$2,IF(Q38&lt;&gt;"",Q38*136+$B$2,IF(S38&lt;&gt;"",S38*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v>523308</v>
       </c>
       <c r="K38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>523308</v>
       </c>
       <c r="O38" t="s">
@@ -2424,7 +2424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>18</v>
       </c>
@@ -2438,27 +2438,27 @@
         <v>26</v>
       </c>
       <c r="E39" s="1">
-        <f>IF(K39&lt;&gt;"",FLOOR((K39-MIN(K:K))/2,1),"")</f>
+        <f t="shared" ref="E39:E70" si="6">IF(K39&lt;&gt;"",FLOOR((K39-MIN(K:K))/2,1),"")</f>
         <v>2742</v>
       </c>
       <c r="F39" s="1">
-        <f>IF(MOD(K39-$B$5,2)=1,8+L39,L39)</f>
+        <f t="shared" ref="F39:F55" si="7">IF(MOD(K39-$B$5,2)=1,8+L39,L39)</f>
         <v>0</v>
       </c>
       <c r="G39" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F39*HEX2DEC(10000) +E39)</f>
+        <f t="shared" ref="G39:G70" si="8">DEC2HEX(B$1*HEX2DEC(1000000) +F39*HEX2DEC(10000) +E39)</f>
         <v>1000AB6</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16779958</v>
       </c>
       <c r="J39">
-        <f>IF(P39&lt;&gt;"",P39*136+$B$2,IF(Q39&lt;&gt;"",Q39*136+$B$2,IF(S39&lt;&gt;"",S39*80+$B$4,"")))</f>
+        <f t="shared" ref="J39:J70" si="9">IF(P39&lt;&gt;"",P39*136+$B$2,IF(Q39&lt;&gt;"",Q39*136+$B$2,IF(S39&lt;&gt;"",S39*80+$B$4,"")))</f>
         <v>523444</v>
       </c>
       <c r="K39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>523444</v>
       </c>
       <c r="O39" t="s">
@@ -2468,7 +2468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>19</v>
       </c>
@@ -2482,27 +2482,27 @@
         <v>27</v>
       </c>
       <c r="E40" s="1">
-        <f>IF(K40&lt;&gt;"",FLOOR((K40-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v>2810</v>
       </c>
       <c r="F40" s="1">
-        <f>IF(MOD(K40-$B$5,2)=1,8+L40,L40)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G40" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F40*HEX2DEC(10000) +E40)</f>
+        <f t="shared" si="8"/>
         <v>1000AFA</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16780026</v>
       </c>
       <c r="J40">
-        <f>IF(P40&lt;&gt;"",P40*136+$B$2,IF(Q40&lt;&gt;"",Q40*136+$B$2,IF(S40&lt;&gt;"",S40*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v>523580</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>523580</v>
       </c>
       <c r="O40" t="s">
@@ -2512,7 +2512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20</v>
       </c>
@@ -2526,27 +2526,27 @@
         <v>31</v>
       </c>
       <c r="E41" s="1">
-        <f>IF(K41&lt;&gt;"",FLOOR((K41-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v>2878</v>
       </c>
       <c r="F41" s="1">
-        <f>IF(MOD(K41-$B$5,2)=1,8+L41,L41)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G41" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F41*HEX2DEC(10000) +E41)</f>
+        <f t="shared" si="8"/>
         <v>1000B3E</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16780094</v>
       </c>
       <c r="J41">
-        <f>IF(P41&lt;&gt;"",P41*136+$B$2,IF(Q41&lt;&gt;"",Q41*136+$B$2,IF(S41&lt;&gt;"",S41*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v>523716</v>
       </c>
       <c r="K41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>523716</v>
       </c>
       <c r="O41" t="s">
@@ -2559,7 +2559,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>21</v>
       </c>
@@ -2573,27 +2573,27 @@
         <v>28</v>
       </c>
       <c r="E42" s="1">
-        <f>IF(K42&lt;&gt;"",FLOOR((K42-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v>2878</v>
       </c>
       <c r="F42" s="1">
-        <f>IF(MOD(K42-$B$5,2)=1,8+L42,L42)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G42" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F42*HEX2DEC(10000) +E42)</f>
+        <f t="shared" si="8"/>
         <v>1000B3E</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16780094</v>
       </c>
       <c r="J42">
-        <f>IF(P42&lt;&gt;"",P42*136+$B$2,IF(Q42&lt;&gt;"",Q42*136+$B$2,IF(S42&lt;&gt;"",S42*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v>523716</v>
       </c>
       <c r="K42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>523716</v>
       </c>
       <c r="O42" t="s">
@@ -2603,7 +2603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>22</v>
       </c>
@@ -2617,27 +2617,27 @@
         <v>32</v>
       </c>
       <c r="E43" s="1">
-        <f>IF(K43&lt;&gt;"",FLOOR((K43-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v>3082</v>
       </c>
       <c r="F43" s="1">
-        <f>IF(MOD(K43-$B$5,2)=1,8+L43,L43)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G43" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F43*HEX2DEC(10000) +E43)</f>
+        <f t="shared" si="8"/>
         <v>1000C0A</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16780298</v>
       </c>
       <c r="J43">
-        <f>IF(P43&lt;&gt;"",P43*136+$B$2,IF(Q43&lt;&gt;"",Q43*136+$B$2,IF(S43&lt;&gt;"",S43*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v>524124</v>
       </c>
       <c r="K43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>524124</v>
       </c>
       <c r="O43" t="s">
@@ -2650,7 +2650,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>23</v>
       </c>
@@ -2664,27 +2664,27 @@
         <v>29</v>
       </c>
       <c r="E44" s="1">
-        <f>IF(K44&lt;&gt;"",FLOOR((K44-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v>3082</v>
       </c>
       <c r="F44" s="1">
-        <f>IF(MOD(K44-$B$5,2)=1,8+L44,L44)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G44" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F44*HEX2DEC(10000) +E44)</f>
+        <f t="shared" si="8"/>
         <v>1000C0A</v>
       </c>
       <c r="H44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16780298</v>
       </c>
       <c r="J44">
-        <f>IF(P44&lt;&gt;"",P44*136+$B$2,IF(Q44&lt;&gt;"",Q44*136+$B$2,IF(S44&lt;&gt;"",S44*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v>524124</v>
       </c>
       <c r="K44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>524124</v>
       </c>
       <c r="O44" t="s">
@@ -2694,7 +2694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>32</v>
       </c>
@@ -2708,27 +2708,27 @@
         <v>39</v>
       </c>
       <c r="E45" s="1">
-        <f>IF(K45&lt;&gt;"",FLOOR((K45-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v>3150</v>
       </c>
       <c r="F45" s="1">
-        <f>IF(MOD(K45-$B$5,2)=1,8+L45,L45)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G45" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F45*HEX2DEC(10000) +E45)</f>
+        <f t="shared" si="8"/>
         <v>1000C4E</v>
       </c>
       <c r="H45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16780366</v>
       </c>
       <c r="J45">
-        <f>IF(P45&lt;&gt;"",P45*136+$B$2,IF(Q45&lt;&gt;"",Q45*136+$B$2,IF(S45&lt;&gt;"",S45*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v>524260</v>
       </c>
       <c r="K45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>524260</v>
       </c>
       <c r="O45" t="s">
@@ -2741,7 +2741,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>33</v>
       </c>
@@ -2755,27 +2755,27 @@
         <v>30</v>
       </c>
       <c r="E46" s="1">
-        <f>IF(K46&lt;&gt;"",FLOOR((K46-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v>3150</v>
       </c>
       <c r="F46" s="1">
-        <f>IF(MOD(K46-$B$5,2)=1,8+L46,L46)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G46" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F46*HEX2DEC(10000) +E46)</f>
+        <f t="shared" si="8"/>
         <v>1000C4E</v>
       </c>
       <c r="H46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16780366</v>
       </c>
       <c r="J46">
-        <f>IF(P46&lt;&gt;"",P46*136+$B$2,IF(Q46&lt;&gt;"",Q46*136+$B$2,IF(S46&lt;&gt;"",S46*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v>524260</v>
       </c>
       <c r="K46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>524260</v>
       </c>
       <c r="O46" t="s">
@@ -2785,7 +2785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>48</v>
       </c>
@@ -2799,27 +2799,27 @@
         <v>42</v>
       </c>
       <c r="E47" s="1">
-        <f>IF(K47&lt;&gt;"",FLOOR((K47-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v>3215</v>
       </c>
       <c r="F47" s="1">
-        <f>IF(MOD(K47-$B$5,2)=1,8+L47,L47)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G47" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F47*HEX2DEC(10000) +E47)</f>
+        <f t="shared" si="8"/>
         <v>1080C8F</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17304719</v>
       </c>
       <c r="J47">
-        <f>IF(P47&lt;&gt;"",P47*136+$B$2,IF(Q47&lt;&gt;"",Q47*136+$B$2,IF(S47&lt;&gt;"",S47*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v>524391</v>
       </c>
       <c r="K47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>524391</v>
       </c>
       <c r="R47" t="s">
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>56</v>
       </c>
@@ -2843,27 +2843,27 @@
         <v>43</v>
       </c>
       <c r="E48" s="1">
-        <f>IF(K48&lt;&gt;"",FLOOR((K48-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v>3255</v>
       </c>
       <c r="F48" s="1">
-        <f>IF(MOD(K48-$B$5,2)=1,8+L48,L48)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G48" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F48*HEX2DEC(10000) +E48)</f>
+        <f t="shared" si="8"/>
         <v>1080CB7</v>
       </c>
       <c r="H48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17304759</v>
       </c>
       <c r="J48">
-        <f>IF(P48&lt;&gt;"",P48*136+$B$2,IF(Q48&lt;&gt;"",Q48*136+$B$2,IF(S48&lt;&gt;"",S48*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v>524471</v>
       </c>
       <c r="K48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>524471</v>
       </c>
       <c r="R48" t="s">
@@ -2873,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>13</v>
       </c>
@@ -2887,27 +2887,27 @@
         <v>22</v>
       </c>
       <c r="E49" s="1">
-        <f>IF(K49&lt;&gt;"",FLOOR((K49-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v>3295</v>
       </c>
       <c r="F49" s="1">
-        <f>IF(MOD(K49-$B$5,2)=1,8+L49,L49)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G49" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F49*HEX2DEC(10000) +E49)</f>
+        <f t="shared" si="8"/>
         <v>1080CDF</v>
       </c>
       <c r="H49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17304799</v>
       </c>
       <c r="J49">
-        <f>IF(P49&lt;&gt;"",P49*136+$B$2,IF(Q49&lt;&gt;"",Q49*136+$B$2,IF(S49&lt;&gt;"",S49*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v>524551</v>
       </c>
       <c r="K49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>524551</v>
       </c>
       <c r="R49" t="s">
@@ -2917,7 +2917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>31</v>
       </c>
@@ -2931,27 +2931,27 @@
         <v>40</v>
       </c>
       <c r="E50" s="1">
-        <f>IF(K50&lt;&gt;"",FLOOR((K50-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v>3335</v>
       </c>
       <c r="F50" s="1">
-        <f>IF(MOD(K50-$B$5,2)=1,8+L50,L50)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G50" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F50*HEX2DEC(10000) +E50)</f>
+        <f t="shared" si="8"/>
         <v>1080D07</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17304839</v>
       </c>
       <c r="J50">
-        <f>IF(P50&lt;&gt;"",P50*136+$B$2,IF(Q50&lt;&gt;"",Q50*136+$B$2,IF(S50&lt;&gt;"",S50*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v>524631</v>
       </c>
       <c r="K50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>524631</v>
       </c>
       <c r="N50" t="s">
@@ -2964,7 +2964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -2978,27 +2978,27 @@
         <v>17</v>
       </c>
       <c r="E51" s="1">
-        <f>IF(K51&lt;&gt;"",FLOOR((K51-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v>3375</v>
       </c>
       <c r="F51" s="1">
-        <f>IF(MOD(K51-$B$5,2)=1,8+L51,L51)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G51" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F51*HEX2DEC(10000) +E51)</f>
+        <f t="shared" si="8"/>
         <v>1080D2F</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17304879</v>
       </c>
       <c r="J51">
-        <f>IF(P51&lt;&gt;"",P51*136+$B$2,IF(Q51&lt;&gt;"",Q51*136+$B$2,IF(S51&lt;&gt;"",S51*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v>524711</v>
       </c>
       <c r="K51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>524711</v>
       </c>
       <c r="R51" t="s">
@@ -3008,7 +3008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -3022,27 +3022,27 @@
         <v>13</v>
       </c>
       <c r="E52" s="1">
-        <f>IF(K52&lt;&gt;"",FLOOR((K52-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v>3415</v>
       </c>
       <c r="F52" s="1">
-        <f>IF(MOD(K52-$B$5,2)=1,8+L52,L52)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G52" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F52*HEX2DEC(10000) +E52)</f>
+        <f t="shared" si="8"/>
         <v>1080D57</v>
       </c>
       <c r="H52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17304919</v>
       </c>
       <c r="J52">
-        <f>IF(P52&lt;&gt;"",P52*136+$B$2,IF(Q52&lt;&gt;"",Q52*136+$B$2,IF(S52&lt;&gt;"",S52*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v>524791</v>
       </c>
       <c r="K52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>524791</v>
       </c>
       <c r="R52" t="s">
@@ -3052,7 +3052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3066,27 +3066,27 @@
         <v>14</v>
       </c>
       <c r="E53" s="1">
-        <f>IF(K53&lt;&gt;"",FLOOR((K53-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v>3455</v>
       </c>
       <c r="F53" s="1">
-        <f>IF(MOD(K53-$B$5,2)=1,8+L53,L53)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G53" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F53*HEX2DEC(10000) +E53)</f>
+        <f t="shared" si="8"/>
         <v>1080D7F</v>
       </c>
       <c r="H53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17304959</v>
       </c>
       <c r="J53">
-        <f>IF(P53&lt;&gt;"",P53*136+$B$2,IF(Q53&lt;&gt;"",Q53*136+$B$2,IF(S53&lt;&gt;"",S53*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v>524871</v>
       </c>
       <c r="K53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>524871</v>
       </c>
       <c r="R53" t="s">
@@ -3096,7 +3096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3110,27 +3110,27 @@
         <v>15</v>
       </c>
       <c r="E54" s="1">
-        <f>IF(K54&lt;&gt;"",FLOOR((K54-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v>3495</v>
       </c>
       <c r="F54" s="1">
-        <f>IF(MOD(K54-$B$5,2)=1,8+L54,L54)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G54" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F54*HEX2DEC(10000) +E54)</f>
+        <f t="shared" si="8"/>
         <v>1080DA7</v>
       </c>
       <c r="H54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17304999</v>
       </c>
       <c r="J54">
-        <f>IF(P54&lt;&gt;"",P54*136+$B$2,IF(Q54&lt;&gt;"",Q54*136+$B$2,IF(S54&lt;&gt;"",S54*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v>524951</v>
       </c>
       <c r="K54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>524951</v>
       </c>
       <c r="R54" t="s">
@@ -3140,7 +3140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3154,27 +3154,27 @@
         <v>16</v>
       </c>
       <c r="E55" s="1">
-        <f>IF(K55&lt;&gt;"",FLOOR((K55-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v>3535</v>
       </c>
       <c r="F55" s="1">
-        <f>IF(MOD(K55-$B$5,2)=1,8+L55,L55)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G55" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F55*HEX2DEC(10000) +E55)</f>
+        <f t="shared" si="8"/>
         <v>1080DCF</v>
       </c>
       <c r="H55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17305039</v>
       </c>
       <c r="J55">
-        <f>IF(P55&lt;&gt;"",P55*136+$B$2,IF(Q55&lt;&gt;"",Q55*136+$B$2,IF(S55&lt;&gt;"",S55*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v>525031</v>
       </c>
       <c r="K55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>525031</v>
       </c>
       <c r="R55" t="s">
@@ -3184,7 +3184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5</v>
       </c>
@@ -3195,31 +3195,31 @@
         <v>6</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>IF(K56&lt;&gt;"",FLOOR((K56-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F56" s="1" t="e">
-        <f>IF(MOD(K56,2)=1,8+L56,L56)</f>
+        <f t="shared" ref="F56:F82" si="10">IF(MOD(K56,2)=1,8+L56,L56)</f>
         <v>#VALUE!</v>
       </c>
       <c r="G56" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F56*HEX2DEC(10000) +E56)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H56" t="e">
-        <f>HEX2DEC(G56)</f>
+        <f t="shared" ref="H56:H82" si="11">HEX2DEC(G56)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J56" t="str">
-        <f>IF(P56&lt;&gt;"",P56*136+$B$2,IF(Q56&lt;&gt;"",Q56*136+$B$2,IF(S56&lt;&gt;"",S56*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K56" t="str">
-        <f t="shared" ref="K8:K71" si="2">IF(I56&lt;&gt;"",I56,J56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K56:K71" si="12">IF(I56&lt;&gt;"",I56,J56)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>6</v>
       </c>
@@ -3230,31 +3230,31 @@
         <v>7</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>IF(K57&lt;&gt;"",FLOOR((K57-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F57" s="1" t="e">
-        <f>IF(MOD(K57,2)=1,8+L57,L57)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G57" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F57*HEX2DEC(10000) +E57)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H57" t="e">
-        <f>HEX2DEC(G57)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J57" t="str">
-        <f>IF(P57&lt;&gt;"",P57*136+$B$2,IF(Q57&lt;&gt;"",Q57*136+$B$2,IF(S57&lt;&gt;"",S57*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>7</v>
       </c>
@@ -3265,31 +3265,31 @@
         <v>8</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f>IF(K58&lt;&gt;"",FLOOR((K58-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F58" s="1" t="e">
-        <f>IF(MOD(K58,2)=1,8+L58,L58)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G58" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F58*HEX2DEC(10000) +E58)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H58" t="e">
-        <f>HEX2DEC(G58)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J58" t="str">
-        <f>IF(P58&lt;&gt;"",P58*136+$B$2,IF(Q58&lt;&gt;"",Q58*136+$B$2,IF(S58&lt;&gt;"",S58*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>12</v>
       </c>
@@ -3300,31 +3300,31 @@
         <v>13</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>IF(K59&lt;&gt;"",FLOOR((K59-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F59" s="1" t="e">
-        <f>IF(MOD(K59,2)=1,8+L59,L59)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G59" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F59*HEX2DEC(10000) +E59)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H59" t="e">
-        <f>HEX2DEC(G59)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J59" t="str">
-        <f>IF(P59&lt;&gt;"",P59*136+$B$2,IF(Q59&lt;&gt;"",Q59*136+$B$2,IF(S59&lt;&gt;"",S59*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>15</v>
       </c>
@@ -3335,31 +3335,31 @@
         <v>16</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>IF(K60&lt;&gt;"",FLOOR((K60-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F60" s="1" t="e">
-        <f>IF(MOD(K60,2)=1,8+L60,L60)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G60" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F60*HEX2DEC(10000) +E60)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H60" t="e">
-        <f>HEX2DEC(G60)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J60" t="str">
-        <f>IF(P60&lt;&gt;"",P60*136+$B$2,IF(Q60&lt;&gt;"",Q60*136+$B$2,IF(S60&lt;&gt;"",S60*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>30</v>
       </c>
@@ -3370,31 +3370,31 @@
         <v>15</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>IF(K61&lt;&gt;"",FLOOR((K61-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F61" s="1" t="e">
-        <f>IF(MOD(K61,2)=1,8+L61,L61)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G61" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F61*HEX2DEC(10000) +E61)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H61" t="e">
-        <f>HEX2DEC(G61)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J61" t="str">
-        <f>IF(P61&lt;&gt;"",P61*136+$B$2,IF(Q61&lt;&gt;"",Q61*136+$B$2,IF(S61&lt;&gt;"",S61*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>34</v>
       </c>
@@ -3405,31 +3405,31 @@
         <v>3</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>IF(K62&lt;&gt;"",FLOOR((K62-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F62" s="1" t="e">
-        <f>IF(MOD(K62,2)=1,8+L62,L62)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G62" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F62*HEX2DEC(10000) +E62)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H62" t="e">
-        <f>HEX2DEC(G62)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J62" t="str">
-        <f>IF(P62&lt;&gt;"",P62*136+$B$2,IF(Q62&lt;&gt;"",Q62*136+$B$2,IF(S62&lt;&gt;"",S62*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>35</v>
       </c>
@@ -3440,31 +3440,31 @@
         <v>4</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f>IF(K63&lt;&gt;"",FLOOR((K63-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F63" s="1" t="e">
-        <f>IF(MOD(K63,2)=1,8+L63,L63)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G63" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F63*HEX2DEC(10000) +E63)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H63" t="e">
-        <f>HEX2DEC(G63)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J63" t="str">
-        <f>IF(P63&lt;&gt;"",P63*136+$B$2,IF(Q63&lt;&gt;"",Q63*136+$B$2,IF(S63&lt;&gt;"",S63*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>36</v>
       </c>
@@ -3475,31 +3475,31 @@
         <v>5</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>IF(K64&lt;&gt;"",FLOOR((K64-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F64" s="1" t="e">
-        <f>IF(MOD(K64,2)=1,8+L64,L64)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G64" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F64*HEX2DEC(10000) +E64)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H64" t="e">
-        <f>HEX2DEC(G64)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J64" t="str">
-        <f>IF(P64&lt;&gt;"",P64*136+$B$2,IF(Q64&lt;&gt;"",Q64*136+$B$2,IF(S64&lt;&gt;"",S64*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>37</v>
       </c>
@@ -3510,31 +3510,31 @@
         <v>6</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f>IF(K65&lt;&gt;"",FLOOR((K65-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F65" s="1" t="e">
-        <f>IF(MOD(K65,2)=1,8+L65,L65)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G65" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F65*HEX2DEC(10000) +E65)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H65" t="e">
-        <f>HEX2DEC(G65)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J65" t="str">
-        <f>IF(P65&lt;&gt;"",P65*136+$B$2,IF(Q65&lt;&gt;"",Q65*136+$B$2,IF(S65&lt;&gt;"",S65*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>38</v>
       </c>
@@ -3545,31 +3545,31 @@
         <v>7</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>IF(K66&lt;&gt;"",FLOOR((K66-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F66" s="1" t="e">
-        <f>IF(MOD(K66,2)=1,8+L66,L66)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G66" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F66*HEX2DEC(10000) +E66)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H66" t="e">
-        <f>HEX2DEC(G66)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J66" t="str">
-        <f>IF(P66&lt;&gt;"",P66*136+$B$2,IF(Q66&lt;&gt;"",Q66*136+$B$2,IF(S66&lt;&gt;"",S66*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>39</v>
       </c>
@@ -3580,31 +3580,31 @@
         <v>8</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>IF(K67&lt;&gt;"",FLOOR((K67-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F67" s="1" t="e">
-        <f>IF(MOD(K67,2)=1,8+L67,L67)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G67" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F67*HEX2DEC(10000) +E67)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H67" t="e">
-        <f>HEX2DEC(G67)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J67" t="str">
-        <f>IF(P67&lt;&gt;"",P67*136+$B$2,IF(Q67&lt;&gt;"",Q67*136+$B$2,IF(S67&lt;&gt;"",S67*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>40</v>
       </c>
@@ -3615,31 +3615,31 @@
         <v>9</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f>IF(K68&lt;&gt;"",FLOOR((K68-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F68" s="1" t="e">
-        <f>IF(MOD(K68,2)=1,8+L68,L68)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G68" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F68*HEX2DEC(10000) +E68)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H68" t="e">
-        <f>HEX2DEC(G68)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J68" t="str">
-        <f>IF(P68&lt;&gt;"",P68*136+$B$2,IF(Q68&lt;&gt;"",Q68*136+$B$2,IF(S68&lt;&gt;"",S68*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>41</v>
       </c>
@@ -3650,31 +3650,31 @@
         <v>10</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f>IF(K69&lt;&gt;"",FLOOR((K69-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F69" s="1" t="e">
-        <f>IF(MOD(K69,2)=1,8+L69,L69)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G69" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F69*HEX2DEC(10000) +E69)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H69" t="e">
-        <f>HEX2DEC(G69)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J69" t="str">
-        <f>IF(P69&lt;&gt;"",P69*136+$B$2,IF(Q69&lt;&gt;"",Q69*136+$B$2,IF(S69&lt;&gt;"",S69*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>42</v>
       </c>
@@ -3685,31 +3685,31 @@
         <v>11</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f>IF(K70&lt;&gt;"",FLOOR((K70-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F70" s="1" t="e">
-        <f>IF(MOD(K70,2)=1,8+L70,L70)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G70" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F70*HEX2DEC(10000) +E70)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H70" t="e">
-        <f>HEX2DEC(G70)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J70" t="str">
-        <f>IF(P70&lt;&gt;"",P70*136+$B$2,IF(Q70&lt;&gt;"",Q70*136+$B$2,IF(S70&lt;&gt;"",S70*80+$B$4,"")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>43</v>
       </c>
@@ -3720,31 +3720,31 @@
         <v>12</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f>IF(K71&lt;&gt;"",FLOOR((K71-MIN(K:K))/2,1),"")</f>
+        <f t="shared" ref="E71:E82" si="13">IF(K71&lt;&gt;"",FLOOR((K71-MIN(K:K))/2,1),"")</f>
         <v/>
       </c>
       <c r="F71" s="1" t="e">
-        <f>IF(MOD(K71,2)=1,8+L71,L71)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G71" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F71*HEX2DEC(10000) +E71)</f>
+        <f t="shared" ref="G71:G102" si="14">DEC2HEX(B$1*HEX2DEC(1000000) +F71*HEX2DEC(10000) +E71)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H71" t="e">
-        <f>HEX2DEC(G71)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J71" t="str">
-        <f>IF(P71&lt;&gt;"",P71*136+$B$2,IF(Q71&lt;&gt;"",Q71*136+$B$2,IF(S71&lt;&gt;"",S71*80+$B$4,"")))</f>
+        <f t="shared" ref="J71:J82" si="15">IF(P71&lt;&gt;"",P71*136+$B$2,IF(Q71&lt;&gt;"",Q71*136+$B$2,IF(S71&lt;&gt;"",S71*80+$B$4,"")))</f>
         <v/>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>44</v>
       </c>
@@ -3755,31 +3755,31 @@
         <v>13</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f>IF(K72&lt;&gt;"",FLOOR((K72-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F72" s="1" t="e">
-        <f>IF(MOD(K72,2)=1,8+L72,L72)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G72" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F72*HEX2DEC(10000) +E72)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H72" t="e">
-        <f>HEX2DEC(G72)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J72" t="str">
-        <f>IF(P72&lt;&gt;"",P72*136+$B$2,IF(Q72&lt;&gt;"",Q72*136+$B$2,IF(S72&lt;&gt;"",S72*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K72" t="str">
-        <f t="shared" ref="K72:K82" si="3">IF(I72&lt;&gt;"",I72,J72)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K72:K82" si="16">IF(I72&lt;&gt;"",I72,J72)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>45</v>
       </c>
@@ -3790,31 +3790,31 @@
         <v>14</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f>IF(K73&lt;&gt;"",FLOOR((K73-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F73" s="1" t="e">
-        <f>IF(MOD(K73,2)=1,8+L73,L73)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G73" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F73*HEX2DEC(10000) +E73)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H73" t="e">
-        <f>HEX2DEC(G73)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J73" t="str">
-        <f>IF(P73&lt;&gt;"",P73*136+$B$2,IF(Q73&lt;&gt;"",Q73*136+$B$2,IF(S73&lt;&gt;"",S73*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>46</v>
       </c>
@@ -3825,31 +3825,31 @@
         <v>15</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f>IF(K74&lt;&gt;"",FLOOR((K74-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F74" s="1" t="e">
-        <f>IF(MOD(K74,2)=1,8+L74,L74)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G74" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F74*HEX2DEC(10000) +E74)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H74" t="e">
-        <f>HEX2DEC(G74)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J74" t="str">
-        <f>IF(P74&lt;&gt;"",P74*136+$B$2,IF(Q74&lt;&gt;"",Q74*136+$B$2,IF(S74&lt;&gt;"",S74*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>47</v>
       </c>
@@ -3860,31 +3860,31 @@
         <v>16</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f>IF(K75&lt;&gt;"",FLOOR((K75-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F75" s="1" t="e">
-        <f>IF(MOD(K75,2)=1,8+L75,L75)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G75" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F75*HEX2DEC(10000) +E75)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H75" t="e">
-        <f>HEX2DEC(G75)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J75" t="str">
-        <f>IF(P75&lt;&gt;"",P75*136+$B$2,IF(Q75&lt;&gt;"",Q75*136+$B$2,IF(S75&lt;&gt;"",S75*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>49</v>
       </c>
@@ -3895,31 +3895,31 @@
         <v>2</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f>IF(K76&lt;&gt;"",FLOOR((K76-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F76" s="1" t="e">
-        <f>IF(MOD(K76,2)=1,8+L76,L76)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G76" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F76*HEX2DEC(10000) +E76)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H76" t="e">
-        <f>HEX2DEC(G76)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J76" t="str">
-        <f>IF(P76&lt;&gt;"",P76*136+$B$2,IF(Q76&lt;&gt;"",Q76*136+$B$2,IF(S76&lt;&gt;"",S76*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>50</v>
       </c>
@@ -3930,31 +3930,31 @@
         <v>3</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>IF(K77&lt;&gt;"",FLOOR((K77-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F77" s="1" t="e">
-        <f>IF(MOD(K77,2)=1,8+L77,L77)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G77" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F77*HEX2DEC(10000) +E77)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H77" t="e">
-        <f>HEX2DEC(G77)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J77" t="str">
-        <f>IF(P77&lt;&gt;"",P77*136+$B$2,IF(Q77&lt;&gt;"",Q77*136+$B$2,IF(S77&lt;&gt;"",S77*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>51</v>
       </c>
@@ -3965,31 +3965,31 @@
         <v>4</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f>IF(K78&lt;&gt;"",FLOOR((K78-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F78" s="1" t="e">
-        <f>IF(MOD(K78,2)=1,8+L78,L78)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G78" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F78*HEX2DEC(10000) +E78)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H78" t="e">
-        <f>HEX2DEC(G78)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J78" t="str">
-        <f>IF(P78&lt;&gt;"",P78*136+$B$2,IF(Q78&lt;&gt;"",Q78*136+$B$2,IF(S78&lt;&gt;"",S78*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>52</v>
       </c>
@@ -4000,31 +4000,31 @@
         <v>5</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>IF(K79&lt;&gt;"",FLOOR((K79-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F79" s="1" t="e">
-        <f>IF(MOD(K79,2)=1,8+L79,L79)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G79" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F79*HEX2DEC(10000) +E79)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H79" t="e">
-        <f>HEX2DEC(G79)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J79" t="str">
-        <f>IF(P79&lt;&gt;"",P79*136+$B$2,IF(Q79&lt;&gt;"",Q79*136+$B$2,IF(S79&lt;&gt;"",S79*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>53</v>
       </c>
@@ -4035,31 +4035,31 @@
         <v>6</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f>IF(K80&lt;&gt;"",FLOOR((K80-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F80" s="1" t="e">
-        <f>IF(MOD(K80,2)=1,8+L80,L80)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F80*HEX2DEC(10000) +E80)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" t="e">
-        <f>HEX2DEC(G80)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" t="str">
-        <f>IF(P80&lt;&gt;"",P80*136+$B$2,IF(Q80&lt;&gt;"",Q80*136+$B$2,IF(S80&lt;&gt;"",S80*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>54</v>
       </c>
@@ -4070,31 +4070,31 @@
         <v>7</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f>IF(K81&lt;&gt;"",FLOOR((K81-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F81" s="1" t="e">
-        <f>IF(MOD(K81,2)=1,8+L81,L81)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G81" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F81*HEX2DEC(10000) +E81)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H81" t="e">
-        <f>HEX2DEC(G81)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J81" t="str">
-        <f>IF(P81&lt;&gt;"",P81*136+$B$2,IF(Q81&lt;&gt;"",Q81*136+$B$2,IF(S81&lt;&gt;"",S81*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>55</v>
       </c>
@@ -4105,27 +4105,27 @@
         <v>8</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f>IF(K82&lt;&gt;"",FLOOR((K82-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F82" s="1" t="e">
-        <f>IF(MOD(K82,2)=1,8+L82,L82)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="G82" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F82*HEX2DEC(10000) +E82)</f>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H82" t="e">
-        <f>HEX2DEC(G82)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="J82" t="str">
-        <f>IF(P82&lt;&gt;"",P82*136+$B$2,IF(Q82&lt;&gt;"",Q82*136+$B$2,IF(S82&lt;&gt;"",S82*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -4154,26 +4154,26 @@
       <selection activeCell="H5" sqref="H5:H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4181,21 +4181,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>146</v>
       </c>
       <c r="B2">
-        <v>522218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>530218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>139</v>
       </c>
       <c r="B3">
         <f>MIN(K:K)</f>
-        <v>513417</v>
+        <v>513389</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>136</v>
@@ -4204,7 +4204,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -4269,22 +4269,22 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E49" si="0">IF(K5&lt;&gt;"",FLOOR((K5-MIN(K:K))/2,1),"")</f>
-        <v>0</v>
+        <v>8336</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ref="F5:F13" si="1">IF(MOD(K5-$B$3,2)=1,8+L5,L5)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5:G49" si="2">DEC2HEX(B$1*HEX2DEC(1000000) +F5*HEX2DEC(10000) +E5)</f>
-        <v>2000000</v>
+        <v>2082090</v>
       </c>
       <c r="H5">
         <f>HEX2DEC(G5)</f>
-        <v>33554432</v>
+        <v>34087056</v>
       </c>
       <c r="I5">
-        <v>513417</v>
+        <v>530062</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" ref="J5:J49" si="3">IF(P5&lt;&gt;"",$B$2+P5*136,"")</f>
@@ -4292,13 +4292,13 @@
       </c>
       <c r="K5">
         <f t="shared" ref="K5:K49" si="4">IF(I5&lt;&gt;"",I5,J5)</f>
-        <v>513417</v>
+        <v>530062</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -4313,22 +4313,22 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8336</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
-        <v>2010000</v>
+        <v>2092090</v>
       </c>
       <c r="H6">
         <f t="shared" ref="H6:H13" si="5">HEX2DEC(G6)</f>
-        <v>33619968</v>
+        <v>34152592</v>
       </c>
       <c r="I6">
-        <v>513417</v>
+        <v>530062</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="3"/>
@@ -4336,13 +4336,13 @@
       </c>
       <c r="K6">
         <f t="shared" si="4"/>
-        <v>513417</v>
+        <v>530062</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -4357,22 +4357,22 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8336</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="2"/>
-        <v>2020000</v>
+        <v>20A2090</v>
       </c>
       <c r="H7">
         <f t="shared" si="5"/>
-        <v>33685504</v>
+        <v>34218128</v>
       </c>
       <c r="I7">
-        <v>513417</v>
+        <v>530062</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="3"/>
@@ -4380,13 +4380,13 @@
       </c>
       <c r="K7">
         <f t="shared" si="4"/>
-        <v>513417</v>
+        <v>530062</v>
       </c>
       <c r="L7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -4401,22 +4401,22 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8336</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="2"/>
-        <v>2030000</v>
+        <v>20B2090</v>
       </c>
       <c r="H8">
         <f t="shared" si="5"/>
-        <v>33751040</v>
+        <v>34283664</v>
       </c>
       <c r="I8">
-        <v>513417</v>
+        <v>530062</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="3"/>
@@ -4424,13 +4424,13 @@
       </c>
       <c r="K8">
         <f t="shared" si="4"/>
-        <v>513417</v>
+        <v>530062</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -4445,22 +4445,22 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8336</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="2"/>
-        <v>2040000</v>
+        <v>20C2090</v>
       </c>
       <c r="H9">
         <f t="shared" si="5"/>
-        <v>33816576</v>
+        <v>34349200</v>
       </c>
       <c r="I9">
-        <v>513417</v>
+        <v>530062</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="3"/>
@@ -4468,13 +4468,13 @@
       </c>
       <c r="K9">
         <f t="shared" si="4"/>
-        <v>513417</v>
+        <v>530062</v>
       </c>
       <c r="L9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -4489,22 +4489,22 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8336</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="2"/>
-        <v>2050000</v>
+        <v>20D2090</v>
       </c>
       <c r="H10">
         <f t="shared" si="5"/>
-        <v>33882112</v>
+        <v>34414736</v>
       </c>
       <c r="I10">
-        <v>513417</v>
+        <v>530062</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="3"/>
@@ -4512,13 +4512,13 @@
       </c>
       <c r="K10">
         <f t="shared" si="4"/>
-        <v>513417</v>
+        <v>530062</v>
       </c>
       <c r="L10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -4533,22 +4533,22 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8336</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="2"/>
-        <v>2060000</v>
+        <v>20E2090</v>
       </c>
       <c r="H11">
         <f t="shared" si="5"/>
-        <v>33947648</v>
+        <v>34480272</v>
       </c>
       <c r="I11">
-        <v>513417</v>
+        <v>530062</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="3"/>
@@ -4556,13 +4556,13 @@
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
-        <v>513417</v>
+        <v>530062</v>
       </c>
       <c r="L11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
@@ -4577,22 +4577,22 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8336</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="2"/>
-        <v>2070000</v>
+        <v>20F2090</v>
       </c>
       <c r="H12">
         <f t="shared" si="5"/>
-        <v>34013184</v>
+        <v>34545808</v>
       </c>
       <c r="I12">
-        <v>513417</v>
+        <v>530062</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="3"/>
@@ -4600,13 +4600,13 @@
       </c>
       <c r="K12">
         <f t="shared" si="4"/>
-        <v>513417</v>
+        <v>530062</v>
       </c>
       <c r="L12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
@@ -4618,22 +4618,22 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>2271</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="2"/>
-        <v>20908DF</v>
+        <v>2010000</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
-        <v>34146527</v>
+        <v>33619968</v>
       </c>
       <c r="I13">
-        <v>517960</v>
+        <v>513389</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="3"/>
@@ -4641,13 +4641,13 @@
       </c>
       <c r="K13">
         <f t="shared" si="4"/>
-        <v>517960</v>
+        <v>513389</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>4318</v>
+        <v>4332</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ref="F14:F19" si="6">IF(MOD(K14,2)=1,8+L14,L14)</f>
@@ -4667,11 +4667,11 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="2"/>
-        <v>20410DE</v>
+        <v>20410EC</v>
       </c>
       <c r="H14">
         <f t="shared" ref="H14:H49" si="7">HEX2DEC(G14)</f>
-        <v>33820894</v>
+        <v>33820908</v>
       </c>
       <c r="I14">
         <v>522054</v>
@@ -4688,7 +4688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>4318</v>
+        <v>4332</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="6"/>
@@ -4708,11 +4708,11 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="2"/>
-        <v>20510DE</v>
+        <v>20510EC</v>
       </c>
       <c r="H15">
         <f t="shared" si="7"/>
-        <v>33886430</v>
+        <v>33886444</v>
       </c>
       <c r="I15">
         <v>522054</v>
@@ -4729,7 +4729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>4318</v>
+        <v>4332</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="6"/>
@@ -4749,11 +4749,11 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="2"/>
-        <v>20610DE</v>
+        <v>20610EC</v>
       </c>
       <c r="H16">
         <f t="shared" si="7"/>
-        <v>33951966</v>
+        <v>33951980</v>
       </c>
       <c r="I16">
         <v>522054</v>
@@ -4770,7 +4770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>27</v>
       </c>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>4318</v>
+        <v>4332</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="6"/>
@@ -4790,11 +4790,11 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="2"/>
-        <v>20710DE</v>
+        <v>20710EC</v>
       </c>
       <c r="H17">
         <f t="shared" si="7"/>
-        <v>34017502</v>
+        <v>34017516</v>
       </c>
       <c r="I17">
         <v>522054</v>
@@ -4811,7 +4811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28</v>
       </c>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>4318</v>
+        <v>4332</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="6"/>
@@ -4831,11 +4831,11 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="2"/>
-        <v>20010DE</v>
+        <v>20010EC</v>
       </c>
       <c r="H18">
         <f t="shared" si="7"/>
-        <v>33558750</v>
+        <v>33558764</v>
       </c>
       <c r="I18">
         <v>522054</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>29</v>
       </c>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>4318</v>
+        <v>4332</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="6"/>
@@ -4872,11 +4872,11 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>20110DE</v>
+        <v>20110EC</v>
       </c>
       <c r="H19">
         <f t="shared" si="7"/>
-        <v>33624286</v>
+        <v>33624300</v>
       </c>
       <c r="I19">
         <v>522054</v>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>128</v>
       </c>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>4321</v>
+        <v>8401</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ref="F20:F48" si="8">IF(MOD(K20-$B$3,2)=1,8+L20,L20)</f>
@@ -4913,14 +4913,14 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v>20810E1</v>
+        <v>20820D1</v>
       </c>
       <c r="H20">
         <f t="shared" si="7"/>
-        <v>34083041</v>
+        <v>34087121</v>
       </c>
       <c r="I20">
-        <v>522060</v>
+        <v>530192</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="3"/>
@@ -4928,13 +4928,13 @@
       </c>
       <c r="K20">
         <f t="shared" si="4"/>
-        <v>522060</v>
+        <v>530192</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>129</v>
       </c>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>4321</v>
+        <v>8401</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="8"/>
@@ -4954,14 +4954,14 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>20910E1</v>
+        <v>20920D1</v>
       </c>
       <c r="H21">
         <f t="shared" si="7"/>
-        <v>34148577</v>
+        <v>34152657</v>
       </c>
       <c r="I21">
-        <v>522060</v>
+        <v>530192</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="3"/>
@@ -4969,13 +4969,13 @@
       </c>
       <c r="K21">
         <f t="shared" si="4"/>
-        <v>522060</v>
+        <v>530192</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>130</v>
       </c>
@@ -4987,22 +4987,22 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>4322</v>
+        <v>8401</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>20610E2</v>
+        <v>20E20D1</v>
       </c>
       <c r="H22">
         <f t="shared" si="7"/>
-        <v>33951970</v>
+        <v>34480337</v>
       </c>
       <c r="I22">
-        <v>522061</v>
+        <v>530192</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="3"/>
@@ -5010,13 +5010,13 @@
       </c>
       <c r="K22">
         <f t="shared" si="4"/>
-        <v>522061</v>
+        <v>530192</v>
       </c>
       <c r="L22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>131</v>
       </c>
@@ -5028,22 +5028,22 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>4322</v>
+        <v>8401</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>20710E2</v>
+        <v>20F20D1</v>
       </c>
       <c r="H23">
         <f t="shared" si="7"/>
-        <v>34017506</v>
+        <v>34545873</v>
       </c>
       <c r="I23">
-        <v>522061</v>
+        <v>530192</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="3"/>
@@ -5051,13 +5051,13 @@
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
-        <v>522061</v>
+        <v>530192</v>
       </c>
       <c r="L23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>132</v>
       </c>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>4322</v>
+        <v>8401</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="8"/>
@@ -5077,14 +5077,14 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>20810E2</v>
+        <v>20820D1</v>
       </c>
       <c r="H24">
         <f t="shared" si="7"/>
-        <v>34083042</v>
+        <v>34087121</v>
       </c>
       <c r="I24">
-        <v>522062</v>
+        <v>530192</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="3"/>
@@ -5092,13 +5092,13 @@
       </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>522062</v>
+        <v>530192</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>44</v>
       </c>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>4323</v>
+        <v>8337</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="8"/>
@@ -5121,14 +5121,14 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>20210E3</v>
+        <v>2022091</v>
       </c>
       <c r="H25">
         <f t="shared" si="7"/>
-        <v>33689827</v>
+        <v>33693841</v>
       </c>
       <c r="I25">
-        <v>522063</v>
+        <v>530063</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="3"/>
@@ -5136,13 +5136,13 @@
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>522063</v>
+        <v>530063</v>
       </c>
       <c r="L25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>45</v>
       </c>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>4323</v>
+        <v>8337</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="8"/>
@@ -5165,14 +5165,14 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>20310E3</v>
+        <v>2032091</v>
       </c>
       <c r="H26">
         <f t="shared" si="7"/>
-        <v>33755363</v>
+        <v>33759377</v>
       </c>
       <c r="I26">
-        <v>522063</v>
+        <v>530063</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="3"/>
@@ -5180,13 +5180,13 @@
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
-        <v>522063</v>
+        <v>530063</v>
       </c>
       <c r="L26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>46</v>
       </c>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>4323</v>
+        <v>8337</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="8"/>
@@ -5209,14 +5209,14 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>20010E3</v>
+        <v>2002091</v>
       </c>
       <c r="H27">
         <f t="shared" si="7"/>
-        <v>33558755</v>
+        <v>33562769</v>
       </c>
       <c r="I27">
-        <v>522063</v>
+        <v>530063</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="3"/>
@@ -5224,13 +5224,13 @@
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>522063</v>
+        <v>530063</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>47</v>
       </c>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>4323</v>
+        <v>8337</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="8"/>
@@ -5253,14 +5253,14 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>20110E3</v>
+        <v>2012091</v>
       </c>
       <c r="H28">
         <f t="shared" si="7"/>
-        <v>33624291</v>
+        <v>33628305</v>
       </c>
       <c r="I28">
-        <v>522063</v>
+        <v>530063</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="3"/>
@@ -5268,13 +5268,13 @@
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>522063</v>
+        <v>530063</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>40</v>
       </c>
@@ -5289,22 +5289,22 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>4387</v>
+        <v>8403</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>2081123</v>
+        <v>20020D3</v>
       </c>
       <c r="H29">
         <f t="shared" si="7"/>
-        <v>34083107</v>
+        <v>33562835</v>
       </c>
       <c r="I29">
-        <v>522192</v>
+        <v>530195</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="3"/>
@@ -5312,13 +5312,13 @@
       </c>
       <c r="K29">
         <f t="shared" si="4"/>
-        <v>522192</v>
+        <v>530195</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>41</v>
       </c>
@@ -5333,22 +5333,22 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>4387</v>
+        <v>8403</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>2091123</v>
+        <v>20120D3</v>
       </c>
       <c r="H30">
         <f t="shared" si="7"/>
-        <v>34148643</v>
+        <v>33628371</v>
       </c>
       <c r="I30">
-        <v>522192</v>
+        <v>530195</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="3"/>
@@ -5356,13 +5356,13 @@
       </c>
       <c r="K30">
         <f t="shared" si="4"/>
-        <v>522192</v>
+        <v>530195</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>42</v>
       </c>
@@ -5377,22 +5377,22 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>4387</v>
+        <v>8403</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>20A1123</v>
+        <v>20220D3</v>
       </c>
       <c r="H31">
         <f t="shared" si="7"/>
-        <v>34214179</v>
+        <v>33693907</v>
       </c>
       <c r="I31">
-        <v>522192</v>
+        <v>530195</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="3"/>
@@ -5400,13 +5400,13 @@
       </c>
       <c r="K31">
         <f t="shared" si="4"/>
-        <v>522192</v>
+        <v>530195</v>
       </c>
       <c r="L31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>43</v>
       </c>
@@ -5421,22 +5421,22 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>4387</v>
+        <v>8403</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>20B1123</v>
+        <v>20320D3</v>
       </c>
       <c r="H32">
         <f t="shared" si="7"/>
-        <v>34279715</v>
+        <v>33759443</v>
       </c>
       <c r="I32">
-        <v>522192</v>
+        <v>530195</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="3"/>
@@ -5444,13 +5444,13 @@
       </c>
       <c r="K32">
         <f t="shared" si="4"/>
-        <v>522192</v>
+        <v>530195</v>
       </c>
       <c r="L32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>4400</v>
+        <v>8414</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="8"/>
@@ -5473,19 +5473,19 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
-        <v>2081130</v>
+        <v>20820DE</v>
       </c>
       <c r="H33">
         <f t="shared" si="7"/>
-        <v>34083120</v>
+        <v>34087134</v>
       </c>
       <c r="J33">
         <f t="shared" si="3"/>
-        <v>522218</v>
+        <v>530218</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>522218</v>
+        <v>530218</v>
       </c>
       <c r="M33" t="s">
         <v>60</v>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>4468</v>
+        <v>8482</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="8"/>
@@ -5520,19 +5520,19 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
-        <v>2081174</v>
+        <v>2082122</v>
       </c>
       <c r="H34">
         <f t="shared" si="7"/>
-        <v>34083188</v>
+        <v>34087202</v>
       </c>
       <c r="J34">
         <f t="shared" si="3"/>
-        <v>522354</v>
+        <v>530354</v>
       </c>
       <c r="K34">
         <f t="shared" si="4"/>
-        <v>522354</v>
+        <v>530354</v>
       </c>
       <c r="M34" t="s">
         <v>61</v>
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>4536</v>
+        <v>8550</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="8"/>
@@ -5567,19 +5567,19 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>20811B8</v>
+        <v>2082166</v>
       </c>
       <c r="H35">
         <f t="shared" si="7"/>
-        <v>34083256</v>
+        <v>34087270</v>
       </c>
       <c r="J35">
         <f t="shared" si="3"/>
-        <v>522490</v>
+        <v>530490</v>
       </c>
       <c r="K35">
         <f t="shared" si="4"/>
-        <v>522490</v>
+        <v>530490</v>
       </c>
       <c r="M35" t="s">
         <v>62</v>
@@ -5591,7 +5591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>4604</v>
+        <v>8618</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="8"/>
@@ -5614,19 +5614,19 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
-        <v>20811FC</v>
+        <v>20821AA</v>
       </c>
       <c r="H36">
         <f t="shared" si="7"/>
-        <v>34083324</v>
+        <v>34087338</v>
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
-        <v>522626</v>
+        <v>530626</v>
       </c>
       <c r="K36">
         <f t="shared" si="4"/>
-        <v>522626</v>
+        <v>530626</v>
       </c>
       <c r="M36" t="s">
         <v>63</v>
@@ -5638,7 +5638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>4672</v>
+        <v>8686</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="8"/>
@@ -5661,19 +5661,19 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
-        <v>2081240</v>
+        <v>20821EE</v>
       </c>
       <c r="H37">
         <f t="shared" si="7"/>
-        <v>34083392</v>
+        <v>34087406</v>
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
-        <v>522762</v>
+        <v>530762</v>
       </c>
       <c r="K37">
         <f t="shared" si="4"/>
-        <v>522762</v>
+        <v>530762</v>
       </c>
       <c r="M37" t="s">
         <v>64</v>
@@ -5685,7 +5685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>4740</v>
+        <v>8754</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="8"/>
@@ -5708,19 +5708,19 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
-        <v>2081284</v>
+        <v>2082232</v>
       </c>
       <c r="H38">
         <f t="shared" si="7"/>
-        <v>34083460</v>
+        <v>34087474</v>
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
-        <v>522898</v>
+        <v>530898</v>
       </c>
       <c r="K38">
         <f t="shared" si="4"/>
-        <v>522898</v>
+        <v>530898</v>
       </c>
       <c r="M38" t="s">
         <v>65</v>
@@ -5732,7 +5732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>61</v>
       </c>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="E39" s="1">
         <f t="shared" si="0"/>
-        <v>4808</v>
+        <v>8822</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="8"/>
@@ -5755,19 +5755,19 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>20812C8</v>
+        <v>2082276</v>
       </c>
       <c r="H39">
         <f t="shared" si="7"/>
-        <v>34083528</v>
+        <v>34087542</v>
       </c>
       <c r="J39">
         <f t="shared" si="3"/>
-        <v>523034</v>
+        <v>531034</v>
       </c>
       <c r="K39">
         <f t="shared" si="4"/>
-        <v>523034</v>
+        <v>531034</v>
       </c>
       <c r="M39" t="s">
         <v>79</v>
@@ -5779,7 +5779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>17</v>
       </c>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="E40" s="1">
         <f t="shared" si="0"/>
-        <v>4876</v>
+        <v>8890</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="8"/>
@@ -5802,19 +5802,19 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>208130C</v>
+        <v>20822BA</v>
       </c>
       <c r="H40">
         <f t="shared" si="7"/>
-        <v>34083596</v>
+        <v>34087610</v>
       </c>
       <c r="J40">
         <f t="shared" si="3"/>
-        <v>523170</v>
+        <v>531170</v>
       </c>
       <c r="K40">
         <f t="shared" si="4"/>
-        <v>523170</v>
+        <v>531170</v>
       </c>
       <c r="M40" t="s">
         <v>91</v>
@@ -5826,7 +5826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>18</v>
       </c>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="E41" s="1">
         <f t="shared" si="0"/>
-        <v>4944</v>
+        <v>8958</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="8"/>
@@ -5849,19 +5849,19 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>2081350</v>
+        <v>20822FE</v>
       </c>
       <c r="H41">
         <f t="shared" si="7"/>
-        <v>34083664</v>
+        <v>34087678</v>
       </c>
       <c r="J41">
         <f t="shared" si="3"/>
-        <v>523306</v>
+        <v>531306</v>
       </c>
       <c r="K41">
         <f t="shared" si="4"/>
-        <v>523306</v>
+        <v>531306</v>
       </c>
       <c r="M41" t="s">
         <v>92</v>
@@ -5873,7 +5873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>34</v>
       </c>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="E42" s="1">
         <f t="shared" si="0"/>
-        <v>5012</v>
+        <v>9026</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="8"/>
@@ -5896,19 +5896,19 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>2081394</v>
+        <v>2082342</v>
       </c>
       <c r="H42">
         <f t="shared" si="7"/>
-        <v>34083732</v>
+        <v>34087746</v>
       </c>
       <c r="J42">
         <f t="shared" si="3"/>
-        <v>523442</v>
+        <v>531442</v>
       </c>
       <c r="K42">
         <f t="shared" si="4"/>
-        <v>523442</v>
+        <v>531442</v>
       </c>
       <c r="M42" t="s">
         <v>93</v>
@@ -5920,7 +5920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>35</v>
       </c>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="E43" s="1">
         <f t="shared" si="0"/>
-        <v>5080</v>
+        <v>9094</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="8"/>
@@ -5943,19 +5943,19 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>20813D8</v>
+        <v>2082386</v>
       </c>
       <c r="H43">
         <f t="shared" si="7"/>
-        <v>34083800</v>
+        <v>34087814</v>
       </c>
       <c r="J43">
         <f t="shared" si="3"/>
-        <v>523578</v>
+        <v>531578</v>
       </c>
       <c r="K43">
         <f t="shared" si="4"/>
-        <v>523578</v>
+        <v>531578</v>
       </c>
       <c r="M43" t="s">
         <v>94</v>
@@ -5967,7 +5967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>36</v>
       </c>
@@ -5982,7 +5982,7 @@
       </c>
       <c r="E44" s="1">
         <f t="shared" si="0"/>
-        <v>5148</v>
+        <v>9162</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="8"/>
@@ -5990,19 +5990,19 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>208141C</v>
+        <v>20823CA</v>
       </c>
       <c r="H44">
         <f t="shared" si="7"/>
-        <v>34083868</v>
+        <v>34087882</v>
       </c>
       <c r="J44">
         <f t="shared" si="3"/>
-        <v>523714</v>
+        <v>531714</v>
       </c>
       <c r="K44">
         <f t="shared" si="4"/>
-        <v>523714</v>
+        <v>531714</v>
       </c>
       <c r="M44" t="s">
         <v>95</v>
@@ -6014,7 +6014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>57</v>
       </c>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="E45" s="1">
         <f t="shared" si="0"/>
-        <v>5216</v>
+        <v>9230</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="8"/>
@@ -6037,19 +6037,19 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>2081460</v>
+        <v>208240E</v>
       </c>
       <c r="H45">
         <f t="shared" si="7"/>
-        <v>34083936</v>
+        <v>34087950</v>
       </c>
       <c r="J45">
         <f t="shared" si="3"/>
-        <v>523850</v>
+        <v>531850</v>
       </c>
       <c r="K45">
         <f t="shared" si="4"/>
-        <v>523850</v>
+        <v>531850</v>
       </c>
       <c r="M45" t="s">
         <v>75</v>
@@ -6061,7 +6061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>58</v>
       </c>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="E46" s="1">
         <f t="shared" si="0"/>
-        <v>5284</v>
+        <v>9298</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="8"/>
@@ -6084,19 +6084,19 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>20814A4</v>
+        <v>2082452</v>
       </c>
       <c r="H46">
         <f t="shared" si="7"/>
-        <v>34084004</v>
+        <v>34088018</v>
       </c>
       <c r="J46">
         <f t="shared" si="3"/>
-        <v>523986</v>
+        <v>531986</v>
       </c>
       <c r="K46">
         <f t="shared" si="4"/>
-        <v>523986</v>
+        <v>531986</v>
       </c>
       <c r="M46" t="s">
         <v>76</v>
@@ -6108,7 +6108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>59</v>
       </c>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="E47" s="1">
         <f t="shared" si="0"/>
-        <v>5352</v>
+        <v>9366</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="8"/>
@@ -6131,19 +6131,19 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>20814E8</v>
+        <v>2082496</v>
       </c>
       <c r="H47">
         <f t="shared" si="7"/>
-        <v>34084072</v>
+        <v>34088086</v>
       </c>
       <c r="J47">
         <f t="shared" si="3"/>
-        <v>524122</v>
+        <v>532122</v>
       </c>
       <c r="K47">
         <f t="shared" si="4"/>
-        <v>524122</v>
+        <v>532122</v>
       </c>
       <c r="M47" t="s">
         <v>77</v>
@@ -6155,7 +6155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>60</v>
       </c>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="E48" s="1">
         <f t="shared" si="0"/>
-        <v>5420</v>
+        <v>9434</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="8"/>
@@ -6178,19 +6178,19 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>208152C</v>
+        <v>20824DA</v>
       </c>
       <c r="H48">
         <f t="shared" si="7"/>
-        <v>34084140</v>
+        <v>34088154</v>
       </c>
       <c r="J48">
         <f t="shared" si="3"/>
-        <v>524258</v>
+        <v>532258</v>
       </c>
       <c r="K48">
         <f t="shared" si="4"/>
-        <v>524258</v>
+        <v>532258</v>
       </c>
       <c r="M48" t="s">
         <v>78</v>
@@ -6202,7 +6202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
@@ -6258,14 +6258,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -6319,9 +6319,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>525231</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -6504,9 +6504,9 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>530284</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -6522,12 +6522,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>530284</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>530420</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>530556</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>530692</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>530828</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>530964</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>531100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>531236</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>531372</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>531508</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>531644</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>531780</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>531916</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>532052</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>532188</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -6684,9 +6684,9 @@
       <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>530288</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -6702,12 +6702,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>530288</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>530424</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>530560</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>530696</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>530832</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>530968</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>531104</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>531240</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>531376</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>531512</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>531648</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>531784</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>531920</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>532056</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>532192</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
@@ -6864,9 +6864,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>530282</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -6882,12 +6882,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>530282</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>530418</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>530554</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>530690</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>530826</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>530962</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>531098</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>531234</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>531370</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>531506</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>531642</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>531778</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>531914</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>532050</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>532186</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>

--- a/D/iotable.xlsx
+++ b/D/iotable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05613A1D-4E6B-4B36-9405-E983E6A587C1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5282FBEE-BEA0-412C-AF32-09A2234C3CC3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1163,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31:N36"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4576,11 +4576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBFD5AD-95E3-457F-903E-F0D470C50CCA}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45:N49"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5030,7 +5029,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -5691,7 +5690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -5732,7 +5731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -5773,7 +5772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -5814,7 +5813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -5855,7 +5854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -5896,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -6800,11 +6799,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:P49" xr:uid="{39ED0021-5E2A-4DF1-81B3-2053C7857DD9}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <sortState ref="A5:P49">
       <sortCondition ref="B5:B49"/>
       <sortCondition ref="C5:C49"/>

--- a/D/iotable.xlsx
+++ b/D/iotable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5282FBEE-BEA0-412C-AF32-09A2234C3CC3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B340197-E07A-49CA-9D49-E160BC233D22}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1161,10 +1161,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:N82"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,7 +1202,7 @@
         <v>120</v>
       </c>
       <c r="B2">
-        <v>522220</v>
+        <v>534172</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1209,7 +1210,7 @@
         <v>121</v>
       </c>
       <c r="B3">
-        <v>522224</v>
+        <v>534176</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1217,7 +1218,7 @@
         <v>115</v>
       </c>
       <c r="B4">
-        <v>524391</v>
+        <v>536343</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1226,7 +1227,7 @@
       </c>
       <c r="B5">
         <f>MIN(K:K)</f>
-        <v>517960</v>
+        <v>512573</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>136</v>
@@ -1308,28 +1309,28 @@
         <v>13</v>
       </c>
       <c r="E7" s="1">
-        <f>IF(K7&lt;&gt;"",FLOOR((K7-MIN(K:K))/2,1),"")</f>
-        <v>3415</v>
+        <f t="shared" ref="E7:E38" si="0">IF(K7&lt;&gt;"",FLOOR((K7-MIN(K:K))/2,1),"")</f>
+        <v>12085</v>
       </c>
       <c r="F7" s="1">
         <f>IF(MOD(K7-$B$5,2)=1,8+L7,L7)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F7*HEX2DEC(10000) +E7)</f>
-        <v>1080D57</v>
+        <f t="shared" ref="G7:G38" si="1">DEC2HEX(B$1*HEX2DEC(1000000) +F7*HEX2DEC(10000) +E7)</f>
+        <v>1002F35</v>
       </c>
       <c r="H7">
-        <f>HEX2DEC(G7)</f>
-        <v>17304919</v>
+        <f t="shared" ref="H7:H40" si="2">HEX2DEC(G7)</f>
+        <v>16789301</v>
       </c>
       <c r="J7">
-        <f>IF(P7&lt;&gt;"",P7*136+$B$2,IF(Q7&lt;&gt;"",Q7*136+$B$2,IF(S7&lt;&gt;"",S7*80+$B$4,"")))</f>
-        <v>524791</v>
+        <f t="shared" ref="J7:J38" si="3">IF(P7&lt;&gt;"",P7*136+$B$2,IF(Q7&lt;&gt;"",Q7*136+$B$2,IF(S7&lt;&gt;"",S7*80+$B$4,"")))</f>
+        <v>536743</v>
       </c>
       <c r="K7">
-        <f>IF(I7&lt;&gt;"",I7,J7)</f>
-        <v>524791</v>
+        <f>IF(AND(I7&lt;&gt;"",D7&lt;&gt;""),I7,J7)</f>
+        <v>536743</v>
       </c>
       <c r="N7" t="s">
         <v>152</v>
@@ -1355,28 +1356,28 @@
         <v>14</v>
       </c>
       <c r="E8" s="1">
-        <f>IF(K8&lt;&gt;"",FLOOR((K8-MIN(K:K))/2,1),"")</f>
-        <v>3455</v>
+        <f t="shared" si="0"/>
+        <v>12125</v>
       </c>
       <c r="F8" s="1">
         <f>IF(MOD(K8-$B$5,2)=1,8+L8,L8)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G8" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F8*HEX2DEC(10000) +E8)</f>
-        <v>1080D7F</v>
+        <f t="shared" si="1"/>
+        <v>1002F5D</v>
       </c>
       <c r="H8">
-        <f>HEX2DEC(G8)</f>
-        <v>17304959</v>
+        <f t="shared" si="2"/>
+        <v>16789341</v>
       </c>
       <c r="J8">
-        <f>IF(P8&lt;&gt;"",P8*136+$B$2,IF(Q8&lt;&gt;"",Q8*136+$B$2,IF(S8&lt;&gt;"",S8*80+$B$4,"")))</f>
-        <v>524871</v>
+        <f t="shared" si="3"/>
+        <v>536823</v>
       </c>
       <c r="K8">
-        <f>IF(I8&lt;&gt;"",I8,J8)</f>
-        <v>524871</v>
+        <f t="shared" ref="K8:K71" si="4">IF(AND(I8&lt;&gt;"",D8&lt;&gt;""),I8,J8)</f>
+        <v>536823</v>
       </c>
       <c r="N8" t="s">
         <v>153</v>
@@ -1402,28 +1403,28 @@
         <v>15</v>
       </c>
       <c r="E9" s="1">
-        <f>IF(K9&lt;&gt;"",FLOOR((K9-MIN(K:K))/2,1),"")</f>
-        <v>3495</v>
+        <f t="shared" si="0"/>
+        <v>12165</v>
       </c>
       <c r="F9" s="1">
         <f>IF(MOD(K9-$B$5,2)=1,8+L9,L9)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G9" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F9*HEX2DEC(10000) +E9)</f>
-        <v>1080DA7</v>
+        <f t="shared" si="1"/>
+        <v>1002F85</v>
       </c>
       <c r="H9">
-        <f>HEX2DEC(G9)</f>
-        <v>17304999</v>
+        <f t="shared" si="2"/>
+        <v>16789381</v>
       </c>
       <c r="J9">
-        <f>IF(P9&lt;&gt;"",P9*136+$B$2,IF(Q9&lt;&gt;"",Q9*136+$B$2,IF(S9&lt;&gt;"",S9*80+$B$4,"")))</f>
-        <v>524951</v>
+        <f t="shared" si="3"/>
+        <v>536903</v>
       </c>
       <c r="K9">
-        <f>IF(I9&lt;&gt;"",I9,J9)</f>
-        <v>524951</v>
+        <f t="shared" si="4"/>
+        <v>536903</v>
       </c>
       <c r="N9" t="s">
         <v>154</v>
@@ -1449,28 +1450,28 @@
         <v>16</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(K10&lt;&gt;"",FLOOR((K10-MIN(K:K))/2,1),"")</f>
-        <v>3535</v>
+        <f t="shared" si="0"/>
+        <v>12205</v>
       </c>
       <c r="F10" s="1">
         <f>IF(MOD(K10-$B$5,2)=1,8+L10,L10)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G10" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F10*HEX2DEC(10000) +E10)</f>
-        <v>1080DCF</v>
+        <f t="shared" si="1"/>
+        <v>1002FAD</v>
       </c>
       <c r="H10">
-        <f>HEX2DEC(G10)</f>
-        <v>17305039</v>
+        <f t="shared" si="2"/>
+        <v>16789421</v>
       </c>
       <c r="J10">
-        <f>IF(P10&lt;&gt;"",P10*136+$B$2,IF(Q10&lt;&gt;"",Q10*136+$B$2,IF(S10&lt;&gt;"",S10*80+$B$4,"")))</f>
-        <v>525031</v>
+        <f t="shared" si="3"/>
+        <v>536983</v>
       </c>
       <c r="K10">
-        <f>IF(I10&lt;&gt;"",I10,J10)</f>
-        <v>525031</v>
+        <f t="shared" si="4"/>
+        <v>536983</v>
       </c>
       <c r="N10" t="s">
         <v>155</v>
@@ -1496,28 +1497,28 @@
         <v>17</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(K11&lt;&gt;"",FLOOR((K11-MIN(K:K))/2,1),"")</f>
-        <v>3375</v>
+        <f t="shared" si="0"/>
+        <v>12045</v>
       </c>
       <c r="F11" s="1">
         <f>IF(MOD(K11-$B$5,2)=1,8+L11,L11)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G11" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F11*HEX2DEC(10000) +E11)</f>
-        <v>1080D2F</v>
+        <f t="shared" si="1"/>
+        <v>1002F0D</v>
       </c>
       <c r="H11">
-        <f>HEX2DEC(G11)</f>
-        <v>17304879</v>
+        <f t="shared" si="2"/>
+        <v>16789261</v>
       </c>
       <c r="J11">
-        <f>IF(P11&lt;&gt;"",P11*136+$B$2,IF(Q11&lt;&gt;"",Q11*136+$B$2,IF(S11&lt;&gt;"",S11*80+$B$4,"")))</f>
-        <v>524711</v>
+        <f t="shared" si="3"/>
+        <v>536663</v>
       </c>
       <c r="K11">
-        <f>IF(I11&lt;&gt;"",I11,J11)</f>
-        <v>524711</v>
+        <f t="shared" si="4"/>
+        <v>536663</v>
       </c>
       <c r="N11" t="s">
         <v>156</v>
@@ -1529,7 +1530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>IF(K12&lt;&gt;"",FLOOR((K12-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F12" s="1" t="e">
@@ -1548,23 +1549,23 @@
         <v>#VALUE!</v>
       </c>
       <c r="G12" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F12*HEX2DEC(10000) +E12)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H12" t="e">
-        <f>HEX2DEC(G12)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="J12" t="str">
-        <f>IF(P12&lt;&gt;"",P12*136+$B$2,IF(Q12&lt;&gt;"",Q12*136+$B$2,IF(S12&lt;&gt;"",S12*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K12" t="str">
-        <f>IF(I12&lt;&gt;"",I12,J12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1575,7 +1576,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IF(K13&lt;&gt;"",FLOOR((K13-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F13" s="1" t="e">
@@ -1583,23 +1584,23 @@
         <v>#VALUE!</v>
       </c>
       <c r="G13" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F13*HEX2DEC(10000) +E13)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H13" t="e">
-        <f>HEX2DEC(G13)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="J13" t="str">
-        <f>IF(P13&lt;&gt;"",P13*136+$B$2,IF(Q13&lt;&gt;"",Q13*136+$B$2,IF(S13&lt;&gt;"",S13*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K13" t="str">
-        <f>IF(I13&lt;&gt;"",I13,J13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>IF(K14&lt;&gt;"",FLOOR((K14-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F14" s="1" t="e">
@@ -1618,19 +1619,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="G14" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F14*HEX2DEC(10000) +E14)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H14" t="e">
-        <f>HEX2DEC(G14)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="J14" t="str">
-        <f>IF(P14&lt;&gt;"",P14*136+$B$2,IF(Q14&lt;&gt;"",Q14*136+$B$2,IF(S14&lt;&gt;"",S14*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K14" t="str">
-        <f>IF(I14&lt;&gt;"",I14,J14)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1648,28 +1649,28 @@
         <v>18</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(K15&lt;&gt;"",FLOOR((K15-MIN(K:K))/2,1),"")</f>
-        <v>2130</v>
+        <f t="shared" si="0"/>
+        <v>10799</v>
       </c>
       <c r="F15" s="1">
         <f>IF(MOD(K15-$B$5,2)=1,8+L15,L15)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G15" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F15*HEX2DEC(10000) +E15)</f>
-        <v>1000852</v>
+        <f t="shared" si="1"/>
+        <v>1082A2F</v>
       </c>
       <c r="H15">
-        <f>HEX2DEC(G15)</f>
-        <v>16779346</v>
+        <f t="shared" si="2"/>
+        <v>17312303</v>
       </c>
       <c r="J15">
-        <f>IF(P15&lt;&gt;"",P15*136+$B$2,IF(Q15&lt;&gt;"",Q15*136+$B$2,IF(S15&lt;&gt;"",S15*80+$B$4,"")))</f>
-        <v>522220</v>
+        <f t="shared" si="3"/>
+        <v>534172</v>
       </c>
       <c r="K15">
-        <f>IF(I15&lt;&gt;"",I15,J15)</f>
-        <v>522220</v>
+        <f t="shared" si="4"/>
+        <v>534172</v>
       </c>
       <c r="N15" t="s">
         <v>157</v>
@@ -1695,28 +1696,28 @@
         <v>19</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(K16&lt;&gt;"",FLOOR((K16-MIN(K:K))/2,1),"")</f>
-        <v>2198</v>
+        <f t="shared" si="0"/>
+        <v>10867</v>
       </c>
       <c r="F16" s="1">
         <f>IF(MOD(K16-$B$5,2)=1,8+L16,L16)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G16" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F16*HEX2DEC(10000) +E16)</f>
-        <v>1000896</v>
+        <f t="shared" si="1"/>
+        <v>1082A73</v>
       </c>
       <c r="H16">
-        <f>HEX2DEC(G16)</f>
-        <v>16779414</v>
+        <f t="shared" si="2"/>
+        <v>17312371</v>
       </c>
       <c r="J16">
-        <f>IF(P16&lt;&gt;"",P16*136+$B$2,IF(Q16&lt;&gt;"",Q16*136+$B$2,IF(S16&lt;&gt;"",S16*80+$B$4,"")))</f>
-        <v>522356</v>
+        <f t="shared" si="3"/>
+        <v>534308</v>
       </c>
       <c r="K16">
-        <f>IF(I16&lt;&gt;"",I16,J16)</f>
-        <v>522356</v>
+        <f t="shared" si="4"/>
+        <v>534308</v>
       </c>
       <c r="N16" t="s">
         <v>159</v>
@@ -1745,28 +1746,28 @@
         <v>20</v>
       </c>
       <c r="E17" s="1">
-        <f>IF(K17&lt;&gt;"",FLOOR((K17-MIN(K:K))/2,1),"")</f>
-        <v>2198</v>
+        <f t="shared" si="0"/>
+        <v>10867</v>
       </c>
       <c r="F17" s="1">
         <f>IF(MOD(K17-$B$5,2)=1,8+L17,L17)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F17*HEX2DEC(10000) +E17)</f>
-        <v>1000896</v>
+        <f t="shared" si="1"/>
+        <v>1082A73</v>
       </c>
       <c r="H17">
-        <f>HEX2DEC(G17)</f>
-        <v>16779414</v>
+        <f t="shared" si="2"/>
+        <v>17312371</v>
       </c>
       <c r="J17">
-        <f>IF(P17&lt;&gt;"",P17*136+$B$2,IF(Q17&lt;&gt;"",Q17*136+$B$2,IF(S17&lt;&gt;"",S17*80+$B$4,"")))</f>
-        <v>522356</v>
+        <f t="shared" si="3"/>
+        <v>534308</v>
       </c>
       <c r="K17">
-        <f>IF(I17&lt;&gt;"",I17,J17)</f>
-        <v>522356</v>
+        <f t="shared" si="4"/>
+        <v>534308</v>
       </c>
       <c r="N17" t="s">
         <v>158</v>
@@ -1792,28 +1793,28 @@
         <v>21</v>
       </c>
       <c r="E18" s="1">
-        <f>IF(K18&lt;&gt;"",FLOOR((K18-MIN(K:K))/2,1),"")</f>
-        <v>2266</v>
+        <f t="shared" si="0"/>
+        <v>10935</v>
       </c>
       <c r="F18" s="1">
         <f>IF(MOD(K18-$B$5,2)=1,8+L18,L18)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G18" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F18*HEX2DEC(10000) +E18)</f>
-        <v>10008DA</v>
+        <f t="shared" si="1"/>
+        <v>1082AB7</v>
       </c>
       <c r="H18">
-        <f>HEX2DEC(G18)</f>
-        <v>16779482</v>
+        <f t="shared" si="2"/>
+        <v>17312439</v>
       </c>
       <c r="J18">
-        <f>IF(P18&lt;&gt;"",P18*136+$B$2,IF(Q18&lt;&gt;"",Q18*136+$B$2,IF(S18&lt;&gt;"",S18*80+$B$4,"")))</f>
-        <v>522492</v>
+        <f t="shared" si="3"/>
+        <v>534444</v>
       </c>
       <c r="K18">
-        <f>IF(I18&lt;&gt;"",I18,J18)</f>
-        <v>522492</v>
+        <f t="shared" si="4"/>
+        <v>534444</v>
       </c>
       <c r="N18" t="s">
         <v>160</v>
@@ -1825,7 +1826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -1836,7 +1837,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>IF(K19&lt;&gt;"",FLOOR((K19-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F19" s="1" t="e">
@@ -1844,19 +1845,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="G19" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F19*HEX2DEC(10000) +E19)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H19" t="e">
-        <f>HEX2DEC(G19)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="J19" t="str">
-        <f>IF(P19&lt;&gt;"",P19*136+$B$2,IF(Q19&lt;&gt;"",Q19*136+$B$2,IF(S19&lt;&gt;"",S19*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K19" t="str">
-        <f>IF(I19&lt;&gt;"",I19,J19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1874,28 +1875,28 @@
         <v>22</v>
       </c>
       <c r="E20" s="1">
-        <f>IF(K20&lt;&gt;"",FLOOR((K20-MIN(K:K))/2,1),"")</f>
-        <v>3295</v>
+        <f t="shared" si="0"/>
+        <v>11965</v>
       </c>
       <c r="F20" s="1">
         <f>IF(MOD(K20-$B$5,2)=1,8+L20,L20)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G20" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F20*HEX2DEC(10000) +E20)</f>
-        <v>1080CDF</v>
+        <f t="shared" si="1"/>
+        <v>1002EBD</v>
       </c>
       <c r="H20">
-        <f>HEX2DEC(G20)</f>
-        <v>17304799</v>
+        <f t="shared" si="2"/>
+        <v>16789181</v>
       </c>
       <c r="J20">
-        <f>IF(P20&lt;&gt;"",P20*136+$B$2,IF(Q20&lt;&gt;"",Q20*136+$B$2,IF(S20&lt;&gt;"",S20*80+$B$4,"")))</f>
-        <v>524551</v>
+        <f t="shared" si="3"/>
+        <v>536503</v>
       </c>
       <c r="K20">
-        <f>IF(I20&lt;&gt;"",I20,J20)</f>
-        <v>524551</v>
+        <f t="shared" si="4"/>
+        <v>536503</v>
       </c>
       <c r="N20" t="s">
         <v>162</v>
@@ -1921,7 +1922,7 @@
         <v>23</v>
       </c>
       <c r="E21" s="1">
-        <f>IF(K21&lt;&gt;"",FLOOR((K21-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="1">
@@ -1929,23 +1930,23 @@
         <v>0</v>
       </c>
       <c r="G21" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F21*HEX2DEC(10000) +E21)</f>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="H21">
-        <f>HEX2DEC(G21)</f>
+        <f t="shared" si="2"/>
         <v>16777216</v>
       </c>
       <c r="I21">
-        <v>517960</v>
+        <v>512573</v>
       </c>
       <c r="J21" t="str">
-        <f>IF(P21&lt;&gt;"",P21*136+$B$2,IF(Q21&lt;&gt;"",Q21*136+$B$2,IF(S21&lt;&gt;"",S21*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K21">
-        <f>IF(I21&lt;&gt;"",I21,J21)</f>
-        <v>517960</v>
+        <f t="shared" si="4"/>
+        <v>512573</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1954,7 +1955,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>IF(K22&lt;&gt;"",FLOOR((K22-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F22" s="1" t="e">
@@ -1973,19 +1974,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="G22" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F22*HEX2DEC(10000) +E22)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H22" t="e">
-        <f>HEX2DEC(G22)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="J22" t="str">
-        <f>IF(P22&lt;&gt;"",P22*136+$B$2,IF(Q22&lt;&gt;"",Q22*136+$B$2,IF(S22&lt;&gt;"",S22*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K22" t="str">
-        <f>IF(I22&lt;&gt;"",I22,J22)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2003,28 +2004,28 @@
         <v>24</v>
       </c>
       <c r="E23" s="1">
-        <f>IF(K23&lt;&gt;"",FLOOR((K23-MIN(K:K))/2,1),"")</f>
-        <v>2606</v>
+        <f t="shared" si="0"/>
+        <v>11275</v>
       </c>
       <c r="F23" s="1">
-        <f>IF(MOD(K23-$B$5,2)=1,8+L23,L23)</f>
-        <v>0</v>
+        <f t="shared" ref="F23:F36" si="5">IF(MOD(K23-$B$5,2)=1,8+L23,L23)</f>
+        <v>8</v>
       </c>
       <c r="G23" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F23*HEX2DEC(10000) +E23)</f>
-        <v>1000A2E</v>
+        <f t="shared" si="1"/>
+        <v>1082C0B</v>
       </c>
       <c r="H23">
-        <f>HEX2DEC(G23)</f>
-        <v>16779822</v>
+        <f t="shared" si="2"/>
+        <v>17312779</v>
       </c>
       <c r="J23">
-        <f>IF(P23&lt;&gt;"",P23*136+$B$2,IF(Q23&lt;&gt;"",Q23*136+$B$2,IF(S23&lt;&gt;"",S23*80+$B$4,"")))</f>
-        <v>523172</v>
+        <f t="shared" si="3"/>
+        <v>535124</v>
       </c>
       <c r="K23">
-        <f>IF(I23&lt;&gt;"",I23,J23)</f>
-        <v>523172</v>
+        <f t="shared" si="4"/>
+        <v>535124</v>
       </c>
       <c r="N23" t="s">
         <v>163</v>
@@ -2050,28 +2051,28 @@
         <v>25</v>
       </c>
       <c r="E24" s="1">
-        <f>IF(K24&lt;&gt;"",FLOOR((K24-MIN(K:K))/2,1),"")</f>
-        <v>2674</v>
+        <f t="shared" si="0"/>
+        <v>11343</v>
       </c>
       <c r="F24" s="1">
-        <f>IF(MOD(K24-$B$5,2)=1,8+L24,L24)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="G24" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F24*HEX2DEC(10000) +E24)</f>
-        <v>1000A72</v>
+        <f t="shared" si="1"/>
+        <v>1082C4F</v>
       </c>
       <c r="H24">
-        <f>HEX2DEC(G24)</f>
-        <v>16779890</v>
+        <f t="shared" si="2"/>
+        <v>17312847</v>
       </c>
       <c r="J24">
-        <f>IF(P24&lt;&gt;"",P24*136+$B$2,IF(Q24&lt;&gt;"",Q24*136+$B$2,IF(S24&lt;&gt;"",S24*80+$B$4,"")))</f>
-        <v>523308</v>
+        <f t="shared" si="3"/>
+        <v>535260</v>
       </c>
       <c r="K24">
-        <f>IF(I24&lt;&gt;"",I24,J24)</f>
-        <v>523308</v>
+        <f t="shared" si="4"/>
+        <v>535260</v>
       </c>
       <c r="N24" t="s">
         <v>164</v>
@@ -2097,28 +2098,28 @@
         <v>26</v>
       </c>
       <c r="E25" s="1">
-        <f>IF(K25&lt;&gt;"",FLOOR((K25-MIN(K:K))/2,1),"")</f>
-        <v>2742</v>
+        <f t="shared" si="0"/>
+        <v>11411</v>
       </c>
       <c r="F25" s="1">
-        <f>IF(MOD(K25-$B$5,2)=1,8+L25,L25)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="G25" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F25*HEX2DEC(10000) +E25)</f>
-        <v>1000AB6</v>
+        <f t="shared" si="1"/>
+        <v>1082C93</v>
       </c>
       <c r="H25">
-        <f>HEX2DEC(G25)</f>
-        <v>16779958</v>
+        <f t="shared" si="2"/>
+        <v>17312915</v>
       </c>
       <c r="J25">
-        <f>IF(P25&lt;&gt;"",P25*136+$B$2,IF(Q25&lt;&gt;"",Q25*136+$B$2,IF(S25&lt;&gt;"",S25*80+$B$4,"")))</f>
-        <v>523444</v>
+        <f t="shared" si="3"/>
+        <v>535396</v>
       </c>
       <c r="K25">
-        <f>IF(I25&lt;&gt;"",I25,J25)</f>
-        <v>523444</v>
+        <f t="shared" si="4"/>
+        <v>535396</v>
       </c>
       <c r="N25" t="s">
         <v>165</v>
@@ -2144,28 +2145,28 @@
         <v>27</v>
       </c>
       <c r="E26" s="1">
-        <f>IF(K26&lt;&gt;"",FLOOR((K26-MIN(K:K))/2,1),"")</f>
-        <v>2810</v>
+        <f t="shared" si="0"/>
+        <v>11479</v>
       </c>
       <c r="F26" s="1">
-        <f>IF(MOD(K26-$B$5,2)=1,8+L26,L26)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="G26" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F26*HEX2DEC(10000) +E26)</f>
-        <v>1000AFA</v>
+        <f t="shared" si="1"/>
+        <v>1082CD7</v>
       </c>
       <c r="H26">
-        <f>HEX2DEC(G26)</f>
-        <v>16780026</v>
+        <f t="shared" si="2"/>
+        <v>17312983</v>
       </c>
       <c r="J26">
-        <f>IF(P26&lt;&gt;"",P26*136+$B$2,IF(Q26&lt;&gt;"",Q26*136+$B$2,IF(S26&lt;&gt;"",S26*80+$B$4,"")))</f>
-        <v>523580</v>
+        <f t="shared" si="3"/>
+        <v>535532</v>
       </c>
       <c r="K26">
-        <f>IF(I26&lt;&gt;"",I26,J26)</f>
-        <v>523580</v>
+        <f t="shared" si="4"/>
+        <v>535532</v>
       </c>
       <c r="N26" t="s">
         <v>166</v>
@@ -2191,28 +2192,28 @@
         <v>31</v>
       </c>
       <c r="E27" s="1">
-        <f>IF(K27&lt;&gt;"",FLOOR((K27-MIN(K:K))/2,1),"")</f>
-        <v>2878</v>
+        <f t="shared" si="0"/>
+        <v>11547</v>
       </c>
       <c r="F27" s="1">
-        <f>IF(MOD(K27-$B$5,2)=1,8+L27,L27)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="G27" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F27*HEX2DEC(10000) +E27)</f>
-        <v>1000B3E</v>
+        <f t="shared" si="1"/>
+        <v>1082D1B</v>
       </c>
       <c r="H27">
-        <f>HEX2DEC(G27)</f>
-        <v>16780094</v>
+        <f t="shared" si="2"/>
+        <v>17313051</v>
       </c>
       <c r="J27">
-        <f>IF(P27&lt;&gt;"",P27*136+$B$2,IF(Q27&lt;&gt;"",Q27*136+$B$2,IF(S27&lt;&gt;"",S27*80+$B$4,"")))</f>
-        <v>523716</v>
+        <f t="shared" si="3"/>
+        <v>535668</v>
       </c>
       <c r="K27">
-        <f>IF(I27&lt;&gt;"",I27,J27)</f>
-        <v>523716</v>
+        <f t="shared" si="4"/>
+        <v>535668</v>
       </c>
       <c r="N27" t="s">
         <v>169</v>
@@ -2241,28 +2242,28 @@
         <v>28</v>
       </c>
       <c r="E28" s="1">
-        <f>IF(K28&lt;&gt;"",FLOOR((K28-MIN(K:K))/2,1),"")</f>
-        <v>2878</v>
+        <f t="shared" si="0"/>
+        <v>11547</v>
       </c>
       <c r="F28" s="1">
-        <f>IF(MOD(K28-$B$5,2)=1,8+L28,L28)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="G28" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F28*HEX2DEC(10000) +E28)</f>
-        <v>1000B3E</v>
+        <f t="shared" si="1"/>
+        <v>1082D1B</v>
       </c>
       <c r="H28">
-        <f>HEX2DEC(G28)</f>
-        <v>16780094</v>
+        <f t="shared" si="2"/>
+        <v>17313051</v>
       </c>
       <c r="J28">
-        <f>IF(P28&lt;&gt;"",P28*136+$B$2,IF(Q28&lt;&gt;"",Q28*136+$B$2,IF(S28&lt;&gt;"",S28*80+$B$4,"")))</f>
-        <v>523716</v>
+        <f t="shared" si="3"/>
+        <v>535668</v>
       </c>
       <c r="K28">
-        <f>IF(I28&lt;&gt;"",I28,J28)</f>
-        <v>523716</v>
+        <f t="shared" si="4"/>
+        <v>535668</v>
       </c>
       <c r="N28" t="s">
         <v>167</v>
@@ -2288,28 +2289,28 @@
         <v>32</v>
       </c>
       <c r="E29" s="1">
-        <f>IF(K29&lt;&gt;"",FLOOR((K29-MIN(K:K))/2,1),"")</f>
-        <v>3082</v>
+        <f t="shared" si="0"/>
+        <v>11751</v>
       </c>
       <c r="F29" s="1">
-        <f>IF(MOD(K29-$B$5,2)=1,8+L29,L29)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="G29" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F29*HEX2DEC(10000) +E29)</f>
-        <v>1000C0A</v>
+        <f t="shared" si="1"/>
+        <v>1082DE7</v>
       </c>
       <c r="H29">
-        <f>HEX2DEC(G29)</f>
-        <v>16780298</v>
+        <f t="shared" si="2"/>
+        <v>17313255</v>
       </c>
       <c r="J29">
-        <f>IF(P29&lt;&gt;"",P29*136+$B$2,IF(Q29&lt;&gt;"",Q29*136+$B$2,IF(S29&lt;&gt;"",S29*80+$B$4,"")))</f>
-        <v>524124</v>
+        <f t="shared" si="3"/>
+        <v>536076</v>
       </c>
       <c r="K29">
-        <f>IF(I29&lt;&gt;"",I29,J29)</f>
-        <v>524124</v>
+        <f t="shared" si="4"/>
+        <v>536076</v>
       </c>
       <c r="N29" t="s">
         <v>170</v>
@@ -2338,28 +2339,28 @@
         <v>29</v>
       </c>
       <c r="E30" s="1">
-        <f>IF(K30&lt;&gt;"",FLOOR((K30-MIN(K:K))/2,1),"")</f>
-        <v>3082</v>
+        <f t="shared" si="0"/>
+        <v>11751</v>
       </c>
       <c r="F30" s="1">
-        <f>IF(MOD(K30-$B$5,2)=1,8+L30,L30)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="G30" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F30*HEX2DEC(10000) +E30)</f>
-        <v>1000C0A</v>
+        <f t="shared" si="1"/>
+        <v>1082DE7</v>
       </c>
       <c r="H30">
-        <f>HEX2DEC(G30)</f>
-        <v>16780298</v>
+        <f t="shared" si="2"/>
+        <v>17313255</v>
       </c>
       <c r="J30">
-        <f>IF(P30&lt;&gt;"",P30*136+$B$2,IF(Q30&lt;&gt;"",Q30*136+$B$2,IF(S30&lt;&gt;"",S30*80+$B$4,"")))</f>
-        <v>524124</v>
+        <f t="shared" si="3"/>
+        <v>536076</v>
       </c>
       <c r="K30">
-        <f>IF(I30&lt;&gt;"",I30,J30)</f>
-        <v>524124</v>
+        <f t="shared" si="4"/>
+        <v>536076</v>
       </c>
       <c r="N30" t="s">
         <v>168</v>
@@ -2385,31 +2386,31 @@
         <v>33</v>
       </c>
       <c r="E31" s="1">
-        <f>IF(K31&lt;&gt;"",FLOOR((K31-MIN(K:K))/2,1),"")</f>
-        <v>2116</v>
+        <f t="shared" si="0"/>
+        <v>10785</v>
       </c>
       <c r="F31" s="1">
-        <f>IF(MOD(K31-$B$5,2)=1,8+L31,L31)</f>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="G31" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F31*HEX2DEC(10000) +E31)</f>
-        <v>1040844</v>
+        <f t="shared" si="1"/>
+        <v>10C2A21</v>
       </c>
       <c r="H31">
-        <f>HEX2DEC(G31)</f>
-        <v>17041476</v>
+        <f t="shared" si="2"/>
+        <v>17574433</v>
       </c>
       <c r="I31">
-        <v>522192</v>
+        <v>534144</v>
       </c>
       <c r="J31" t="str">
-        <f>IF(P31&lt;&gt;"",P31*136+$B$2,IF(Q31&lt;&gt;"",Q31*136+$B$2,IF(S31&lt;&gt;"",S31*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K31">
-        <f>IF(I31&lt;&gt;"",I31,J31)</f>
-        <v>522192</v>
+        <f t="shared" si="4"/>
+        <v>534144</v>
       </c>
       <c r="L31">
         <v>4</v>
@@ -2432,31 +2433,31 @@
         <v>34</v>
       </c>
       <c r="E32" s="1">
-        <f>IF(K32&lt;&gt;"",FLOOR((K32-MIN(K:K))/2,1),"")</f>
-        <v>2116</v>
+        <f t="shared" si="0"/>
+        <v>10785</v>
       </c>
       <c r="F32" s="1">
-        <f>IF(MOD(K32-$B$5,2)=1,8+L32,L32)</f>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="G32" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F32*HEX2DEC(10000) +E32)</f>
-        <v>1050844</v>
+        <f t="shared" si="1"/>
+        <v>10D2A21</v>
       </c>
       <c r="H32">
-        <f>HEX2DEC(G32)</f>
-        <v>17107012</v>
+        <f t="shared" si="2"/>
+        <v>17639969</v>
       </c>
       <c r="I32">
-        <v>522192</v>
+        <v>534144</v>
       </c>
       <c r="J32" t="str">
-        <f>IF(P32&lt;&gt;"",P32*136+$B$2,IF(Q32&lt;&gt;"",Q32*136+$B$2,IF(S32&lt;&gt;"",S32*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K32">
-        <f>IF(I32&lt;&gt;"",I32,J32)</f>
-        <v>522192</v>
+        <f t="shared" si="4"/>
+        <v>534144</v>
       </c>
       <c r="L32">
         <v>5</v>
@@ -2479,31 +2480,31 @@
         <v>35</v>
       </c>
       <c r="E33" s="1">
-        <f>IF(K33&lt;&gt;"",FLOOR((K33-MIN(K:K))/2,1),"")</f>
-        <v>2116</v>
+        <f t="shared" si="0"/>
+        <v>10785</v>
       </c>
       <c r="F33" s="1">
-        <f>IF(MOD(K33-$B$5,2)=1,8+L33,L33)</f>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="G33" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F33*HEX2DEC(10000) +E33)</f>
-        <v>1060844</v>
+        <f t="shared" si="1"/>
+        <v>10E2A21</v>
       </c>
       <c r="H33">
-        <f>HEX2DEC(G33)</f>
-        <v>17172548</v>
+        <f t="shared" si="2"/>
+        <v>17705505</v>
       </c>
       <c r="I33">
-        <v>522192</v>
+        <v>534144</v>
       </c>
       <c r="J33" t="str">
-        <f>IF(P33&lt;&gt;"",P33*136+$B$2,IF(Q33&lt;&gt;"",Q33*136+$B$2,IF(S33&lt;&gt;"",S33*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K33">
-        <f>IF(I33&lt;&gt;"",I33,J33)</f>
-        <v>522192</v>
+        <f t="shared" si="4"/>
+        <v>534144</v>
       </c>
       <c r="L33">
         <v>6</v>
@@ -2526,31 +2527,31 @@
         <v>36</v>
       </c>
       <c r="E34" s="1">
-        <f>IF(K34&lt;&gt;"",FLOOR((K34-MIN(K:K))/2,1),"")</f>
-        <v>2116</v>
+        <f t="shared" si="0"/>
+        <v>10785</v>
       </c>
       <c r="F34" s="1">
-        <f>IF(MOD(K34-$B$5,2)=1,8+L34,L34)</f>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="G34" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F34*HEX2DEC(10000) +E34)</f>
-        <v>1070844</v>
+        <f t="shared" si="1"/>
+        <v>10F2A21</v>
       </c>
       <c r="H34">
-        <f>HEX2DEC(G34)</f>
-        <v>17238084</v>
+        <f t="shared" si="2"/>
+        <v>17771041</v>
       </c>
       <c r="I34">
-        <v>522192</v>
+        <v>534144</v>
       </c>
       <c r="J34" t="str">
-        <f>IF(P34&lt;&gt;"",P34*136+$B$2,IF(Q34&lt;&gt;"",Q34*136+$B$2,IF(S34&lt;&gt;"",S34*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K34">
-        <f>IF(I34&lt;&gt;"",I34,J34)</f>
-        <v>522192</v>
+        <f t="shared" si="4"/>
+        <v>534144</v>
       </c>
       <c r="L34">
         <v>7</v>
@@ -2573,31 +2574,31 @@
         <v>37</v>
       </c>
       <c r="E35" s="1">
-        <f>IF(K35&lt;&gt;"",FLOOR((K35-MIN(K:K))/2,1),"")</f>
-        <v>2116</v>
+        <f t="shared" si="0"/>
+        <v>10786</v>
       </c>
       <c r="F35" s="1">
-        <f>IF(MOD(K35-$B$5,2)=1,8+L35,L35)</f>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="G35" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F35*HEX2DEC(10000) +E35)</f>
-        <v>1080844</v>
+        <f t="shared" si="1"/>
+        <v>1002A22</v>
       </c>
       <c r="H35">
-        <f>HEX2DEC(G35)</f>
-        <v>17303620</v>
+        <f t="shared" si="2"/>
+        <v>16788002</v>
       </c>
       <c r="I35">
-        <v>522193</v>
+        <v>534145</v>
       </c>
       <c r="J35" t="str">
-        <f>IF(P35&lt;&gt;"",P35*136+$B$2,IF(Q35&lt;&gt;"",Q35*136+$B$2,IF(S35&lt;&gt;"",S35*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K35">
-        <f>IF(I35&lt;&gt;"",I35,J35)</f>
-        <v>522193</v>
+        <f t="shared" si="4"/>
+        <v>534145</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2620,31 +2621,31 @@
         <v>38</v>
       </c>
       <c r="E36" s="1">
-        <f>IF(K36&lt;&gt;"",FLOOR((K36-MIN(K:K))/2,1),"")</f>
-        <v>2116</v>
+        <f t="shared" si="0"/>
+        <v>10786</v>
       </c>
       <c r="F36" s="1">
-        <f>IF(MOD(K36-$B$5,2)=1,8+L36,L36)</f>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="G36" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F36*HEX2DEC(10000) +E36)</f>
-        <v>1090844</v>
+        <f t="shared" si="1"/>
+        <v>1012A22</v>
       </c>
       <c r="H36">
-        <f>HEX2DEC(G36)</f>
-        <v>17369156</v>
+        <f t="shared" si="2"/>
+        <v>16853538</v>
       </c>
       <c r="I36">
-        <v>522193</v>
+        <v>534145</v>
       </c>
       <c r="J36" t="str">
-        <f>IF(P36&lt;&gt;"",P36*136+$B$2,IF(Q36&lt;&gt;"",Q36*136+$B$2,IF(S36&lt;&gt;"",S36*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K36">
-        <f>IF(I36&lt;&gt;"",I36,J36)</f>
-        <v>522193</v>
+        <f t="shared" si="4"/>
+        <v>534145</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -2653,7 +2654,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>30</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>15</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>IF(K37&lt;&gt;"",FLOOR((K37-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F37" s="1" t="e">
@@ -2672,19 +2673,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="G37" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F37*HEX2DEC(10000) +E37)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H37" t="e">
-        <f>HEX2DEC(G37)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="J37" t="str">
-        <f>IF(P37&lt;&gt;"",P37*136+$B$2,IF(Q37&lt;&gt;"",Q37*136+$B$2,IF(S37&lt;&gt;"",S37*80+$B$4,"")))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K37" t="str">
-        <f>IF(I37&lt;&gt;"",I37,J37)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2702,28 +2703,28 @@
         <v>40</v>
       </c>
       <c r="E38" s="1">
-        <f>IF(K38&lt;&gt;"",FLOOR((K38-MIN(K:K))/2,1),"")</f>
-        <v>3335</v>
+        <f t="shared" si="0"/>
+        <v>12005</v>
       </c>
       <c r="F38" s="1">
         <f>IF(MOD(K38-$B$5,2)=1,8+L38,L38)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G38" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F38*HEX2DEC(10000) +E38)</f>
-        <v>1080D07</v>
+        <f t="shared" si="1"/>
+        <v>1002EE5</v>
       </c>
       <c r="H38">
-        <f>HEX2DEC(G38)</f>
-        <v>17304839</v>
+        <f t="shared" si="2"/>
+        <v>16789221</v>
       </c>
       <c r="J38">
-        <f>IF(P38&lt;&gt;"",P38*136+$B$2,IF(Q38&lt;&gt;"",Q38*136+$B$2,IF(S38&lt;&gt;"",S38*80+$B$4,"")))</f>
-        <v>524631</v>
+        <f t="shared" si="3"/>
+        <v>536583</v>
       </c>
       <c r="K38">
-        <f>IF(I38&lt;&gt;"",I38,J38)</f>
-        <v>524631</v>
+        <f t="shared" si="4"/>
+        <v>536583</v>
       </c>
       <c r="N38" t="s">
         <v>41</v>
@@ -2749,28 +2750,28 @@
         <v>39</v>
       </c>
       <c r="E39" s="1">
-        <f>IF(K39&lt;&gt;"",FLOOR((K39-MIN(K:K))/2,1),"")</f>
-        <v>3150</v>
+        <f t="shared" ref="E39:E70" si="6">IF(K39&lt;&gt;"",FLOOR((K39-MIN(K:K))/2,1),"")</f>
+        <v>11819</v>
       </c>
       <c r="F39" s="1">
         <f>IF(MOD(K39-$B$5,2)=1,8+L39,L39)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G39" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F39*HEX2DEC(10000) +E39)</f>
-        <v>1000C4E</v>
+        <f t="shared" ref="G39:G70" si="7">DEC2HEX(B$1*HEX2DEC(1000000) +F39*HEX2DEC(10000) +E39)</f>
+        <v>1082E2B</v>
       </c>
       <c r="H39">
-        <f>HEX2DEC(G39)</f>
-        <v>16780366</v>
+        <f t="shared" si="2"/>
+        <v>17313323</v>
       </c>
       <c r="J39">
-        <f>IF(P39&lt;&gt;"",P39*136+$B$2,IF(Q39&lt;&gt;"",Q39*136+$B$2,IF(S39&lt;&gt;"",S39*80+$B$4,"")))</f>
-        <v>524260</v>
+        <f t="shared" ref="J39:J70" si="8">IF(P39&lt;&gt;"",P39*136+$B$2,IF(Q39&lt;&gt;"",Q39*136+$B$2,IF(S39&lt;&gt;"",S39*80+$B$4,"")))</f>
+        <v>536212</v>
       </c>
       <c r="K39">
-        <f>IF(I39&lt;&gt;"",I39,J39)</f>
-        <v>524260</v>
+        <f t="shared" si="4"/>
+        <v>536212</v>
       </c>
       <c r="N39" t="s">
         <v>171</v>
@@ -2799,28 +2800,28 @@
         <v>30</v>
       </c>
       <c r="E40" s="1">
-        <f>IF(K40&lt;&gt;"",FLOOR((K40-MIN(K:K))/2,1),"")</f>
-        <v>3150</v>
+        <f t="shared" si="6"/>
+        <v>11819</v>
       </c>
       <c r="F40" s="1">
         <f>IF(MOD(K40-$B$5,2)=1,8+L40,L40)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G40" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F40*HEX2DEC(10000) +E40)</f>
-        <v>1000C4E</v>
+        <f t="shared" si="7"/>
+        <v>1082E2B</v>
       </c>
       <c r="H40">
-        <f>HEX2DEC(G40)</f>
-        <v>16780366</v>
+        <f t="shared" si="2"/>
+        <v>17313323</v>
       </c>
       <c r="J40">
-        <f>IF(P40&lt;&gt;"",P40*136+$B$2,IF(Q40&lt;&gt;"",Q40*136+$B$2,IF(S40&lt;&gt;"",S40*80+$B$4,"")))</f>
-        <v>524260</v>
+        <f t="shared" si="8"/>
+        <v>536212</v>
       </c>
       <c r="K40">
-        <f>IF(I40&lt;&gt;"",I40,J40)</f>
-        <v>524260</v>
+        <f t="shared" si="4"/>
+        <v>536212</v>
       </c>
       <c r="N40" t="s">
         <v>172</v>
@@ -2832,7 +2833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>34</v>
       </c>
@@ -2843,31 +2844,31 @@
         <v>3</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>IF(K41&lt;&gt;"",FLOOR((K41-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F41" s="1" t="e">
-        <f>IF(MOD(K41,2)=1,8+L41,L41)</f>
+        <f t="shared" ref="F41:F54" si="9">IF(MOD(K41,2)=1,8+L41,L41)</f>
         <v>#VALUE!</v>
       </c>
       <c r="G41" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F41*HEX2DEC(10000) +E41)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H41" t="e">
-        <f>HEX2DEC(G41)</f>
+        <f t="shared" ref="H39:H82" si="10">HEX2DEC(G41)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J41" t="str">
-        <f>IF(P41&lt;&gt;"",P41*136+$B$2,IF(Q41&lt;&gt;"",Q41*136+$B$2,IF(S41&lt;&gt;"",S41*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K41" t="str">
-        <f>IF(I41&lt;&gt;"",I41,J41)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>35</v>
       </c>
@@ -2878,31 +2879,31 @@
         <v>4</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>IF(K42&lt;&gt;"",FLOOR((K42-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F42" s="1" t="e">
-        <f>IF(MOD(K42,2)=1,8+L42,L42)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="G42" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F42*HEX2DEC(10000) +E42)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H42" t="e">
-        <f>HEX2DEC(G42)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J42" t="str">
-        <f>IF(P42&lt;&gt;"",P42*136+$B$2,IF(Q42&lt;&gt;"",Q42*136+$B$2,IF(S42&lt;&gt;"",S42*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K42" t="str">
-        <f>IF(I42&lt;&gt;"",I42,J42)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>36</v>
       </c>
@@ -2913,31 +2914,31 @@
         <v>5</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>IF(K43&lt;&gt;"",FLOOR((K43-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F43" s="1" t="e">
-        <f>IF(MOD(K43,2)=1,8+L43,L43)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="G43" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F43*HEX2DEC(10000) +E43)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H43" t="e">
-        <f>HEX2DEC(G43)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J43" t="str">
-        <f>IF(P43&lt;&gt;"",P43*136+$B$2,IF(Q43&lt;&gt;"",Q43*136+$B$2,IF(S43&lt;&gt;"",S43*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K43" t="str">
-        <f>IF(I43&lt;&gt;"",I43,J43)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>37</v>
       </c>
@@ -2948,31 +2949,31 @@
         <v>6</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>IF(K44&lt;&gt;"",FLOOR((K44-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F44" s="1" t="e">
-        <f>IF(MOD(K44,2)=1,8+L44,L44)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="G44" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F44*HEX2DEC(10000) +E44)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H44" t="e">
-        <f>HEX2DEC(G44)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J44" t="str">
-        <f>IF(P44&lt;&gt;"",P44*136+$B$2,IF(Q44&lt;&gt;"",Q44*136+$B$2,IF(S44&lt;&gt;"",S44*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K44" t="str">
-        <f>IF(I44&lt;&gt;"",I44,J44)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>38</v>
       </c>
@@ -2983,31 +2984,31 @@
         <v>7</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>IF(K45&lt;&gt;"",FLOOR((K45-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F45" s="1" t="e">
-        <f>IF(MOD(K45,2)=1,8+L45,L45)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="G45" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F45*HEX2DEC(10000) +E45)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H45" t="e">
-        <f>HEX2DEC(G45)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J45" t="str">
-        <f>IF(P45&lt;&gt;"",P45*136+$B$2,IF(Q45&lt;&gt;"",Q45*136+$B$2,IF(S45&lt;&gt;"",S45*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K45" t="str">
-        <f>IF(I45&lt;&gt;"",I45,J45)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>39</v>
       </c>
@@ -3018,31 +3019,31 @@
         <v>8</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>IF(K46&lt;&gt;"",FLOOR((K46-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F46" s="1" t="e">
-        <f>IF(MOD(K46,2)=1,8+L46,L46)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="G46" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F46*HEX2DEC(10000) +E46)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H46" t="e">
-        <f>HEX2DEC(G46)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J46" t="str">
-        <f>IF(P46&lt;&gt;"",P46*136+$B$2,IF(Q46&lt;&gt;"",Q46*136+$B$2,IF(S46&lt;&gt;"",S46*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K46" t="str">
-        <f>IF(I46&lt;&gt;"",I46,J46)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>40</v>
       </c>
@@ -3053,31 +3054,31 @@
         <v>9</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>IF(K47&lt;&gt;"",FLOOR((K47-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F47" s="1" t="e">
-        <f>IF(MOD(K47,2)=1,8+L47,L47)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="G47" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F47*HEX2DEC(10000) +E47)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H47" t="e">
-        <f>HEX2DEC(G47)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J47" t="str">
-        <f>IF(P47&lt;&gt;"",P47*136+$B$2,IF(Q47&lt;&gt;"",Q47*136+$B$2,IF(S47&lt;&gt;"",S47*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K47" t="str">
-        <f>IF(I47&lt;&gt;"",I47,J47)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>41</v>
       </c>
@@ -3088,31 +3089,31 @@
         <v>10</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f>IF(K48&lt;&gt;"",FLOOR((K48-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F48" s="1" t="e">
-        <f>IF(MOD(K48,2)=1,8+L48,L48)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="G48" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F48*HEX2DEC(10000) +E48)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H48" t="e">
-        <f>HEX2DEC(G48)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J48" t="str">
-        <f>IF(P48&lt;&gt;"",P48*136+$B$2,IF(Q48&lt;&gt;"",Q48*136+$B$2,IF(S48&lt;&gt;"",S48*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K48" t="str">
-        <f>IF(I48&lt;&gt;"",I48,J48)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>42</v>
       </c>
@@ -3123,31 +3124,31 @@
         <v>11</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>IF(K49&lt;&gt;"",FLOOR((K49-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F49" s="1" t="e">
-        <f>IF(MOD(K49,2)=1,8+L49,L49)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="G49" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F49*HEX2DEC(10000) +E49)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H49" t="e">
-        <f>HEX2DEC(G49)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J49" t="str">
-        <f>IF(P49&lt;&gt;"",P49*136+$B$2,IF(Q49&lt;&gt;"",Q49*136+$B$2,IF(S49&lt;&gt;"",S49*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K49" t="str">
-        <f>IF(I49&lt;&gt;"",I49,J49)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>43</v>
       </c>
@@ -3158,31 +3159,31 @@
         <v>12</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f>IF(K50&lt;&gt;"",FLOOR((K50-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F50" s="1" t="e">
-        <f>IF(MOD(K50,2)=1,8+L50,L50)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="G50" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F50*HEX2DEC(10000) +E50)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H50" t="e">
-        <f>HEX2DEC(G50)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J50" t="str">
-        <f>IF(P50&lt;&gt;"",P50*136+$B$2,IF(Q50&lt;&gt;"",Q50*136+$B$2,IF(S50&lt;&gt;"",S50*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K50" t="str">
-        <f>IF(I50&lt;&gt;"",I50,J50)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>44</v>
       </c>
@@ -3193,31 +3194,31 @@
         <v>13</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f>IF(K51&lt;&gt;"",FLOOR((K51-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F51" s="1" t="e">
-        <f>IF(MOD(K51,2)=1,8+L51,L51)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="G51" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F51*HEX2DEC(10000) +E51)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H51" t="e">
-        <f>HEX2DEC(G51)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J51" t="str">
-        <f>IF(P51&lt;&gt;"",P51*136+$B$2,IF(Q51&lt;&gt;"",Q51*136+$B$2,IF(S51&lt;&gt;"",S51*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K51" t="str">
-        <f>IF(I51&lt;&gt;"",I51,J51)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>45</v>
       </c>
@@ -3228,31 +3229,31 @@
         <v>14</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f>IF(K52&lt;&gt;"",FLOOR((K52-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F52" s="1" t="e">
-        <f>IF(MOD(K52,2)=1,8+L52,L52)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="G52" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F52*HEX2DEC(10000) +E52)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H52" t="e">
-        <f>HEX2DEC(G52)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J52" t="str">
-        <f>IF(P52&lt;&gt;"",P52*136+$B$2,IF(Q52&lt;&gt;"",Q52*136+$B$2,IF(S52&lt;&gt;"",S52*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K52" t="str">
-        <f>IF(I52&lt;&gt;"",I52,J52)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>46</v>
       </c>
@@ -3263,31 +3264,31 @@
         <v>15</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f>IF(K53&lt;&gt;"",FLOOR((K53-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F53" s="1" t="e">
-        <f>IF(MOD(K53,2)=1,8+L53,L53)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="G53" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F53*HEX2DEC(10000) +E53)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H53" t="e">
-        <f>HEX2DEC(G53)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J53" t="str">
-        <f>IF(P53&lt;&gt;"",P53*136+$B$2,IF(Q53&lt;&gt;"",Q53*136+$B$2,IF(S53&lt;&gt;"",S53*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K53" t="str">
-        <f>IF(I53&lt;&gt;"",I53,J53)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>47</v>
       </c>
@@ -3298,27 +3299,27 @@
         <v>16</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f>IF(K54&lt;&gt;"",FLOOR((K54-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F54" s="1" t="e">
-        <f>IF(MOD(K54,2)=1,8+L54,L54)</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="G54" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F54*HEX2DEC(10000) +E54)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H54" t="e">
-        <f>HEX2DEC(G54)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J54" t="str">
-        <f>IF(P54&lt;&gt;"",P54*136+$B$2,IF(Q54&lt;&gt;"",Q54*136+$B$2,IF(S54&lt;&gt;"",S54*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K54" t="str">
-        <f>IF(I54&lt;&gt;"",I54,J54)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3336,28 +3337,28 @@
         <v>42</v>
       </c>
       <c r="E55" s="1">
-        <f>IF(K55&lt;&gt;"",FLOOR((K55-MIN(K:K))/2,1),"")</f>
-        <v>3215</v>
+        <f t="shared" si="6"/>
+        <v>11885</v>
       </c>
       <c r="F55" s="1">
         <f>IF(MOD(K55-$B$5,2)=1,8+L55,L55)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G55" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F55*HEX2DEC(10000) +E55)</f>
-        <v>1080C8F</v>
+        <f t="shared" si="7"/>
+        <v>1002E6D</v>
       </c>
       <c r="H55">
-        <f>HEX2DEC(G55)</f>
-        <v>17304719</v>
+        <f t="shared" si="10"/>
+        <v>16789101</v>
       </c>
       <c r="J55">
-        <f>IF(P55&lt;&gt;"",P55*136+$B$2,IF(Q55&lt;&gt;"",Q55*136+$B$2,IF(S55&lt;&gt;"",S55*80+$B$4,"")))</f>
-        <v>524391</v>
+        <f t="shared" si="8"/>
+        <v>536343</v>
       </c>
       <c r="K55">
-        <f>IF(I55&lt;&gt;"",I55,J55)</f>
-        <v>524391</v>
+        <f t="shared" si="4"/>
+        <v>536343</v>
       </c>
       <c r="N55" t="s">
         <v>173</v>
@@ -3369,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>49</v>
       </c>
@@ -3380,31 +3381,31 @@
         <v>2</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>IF(K56&lt;&gt;"",FLOOR((K56-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F56" s="1" t="e">
-        <f>IF(MOD(K56,2)=1,8+L56,L56)</f>
+        <f t="shared" ref="F56:F62" si="11">IF(MOD(K56,2)=1,8+L56,L56)</f>
         <v>#VALUE!</v>
       </c>
       <c r="G56" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F56*HEX2DEC(10000) +E56)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H56" t="e">
-        <f>HEX2DEC(G56)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J56" t="str">
-        <f>IF(P56&lt;&gt;"",P56*136+$B$2,IF(Q56&lt;&gt;"",Q56*136+$B$2,IF(S56&lt;&gt;"",S56*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K56" t="str">
-        <f>IF(I56&lt;&gt;"",I56,J56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50</v>
       </c>
@@ -3415,31 +3416,31 @@
         <v>3</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>IF(K57&lt;&gt;"",FLOOR((K57-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F57" s="1" t="e">
-        <f>IF(MOD(K57,2)=1,8+L57,L57)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="G57" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F57*HEX2DEC(10000) +E57)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H57" t="e">
-        <f>HEX2DEC(G57)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J57" t="str">
-        <f>IF(P57&lt;&gt;"",P57*136+$B$2,IF(Q57&lt;&gt;"",Q57*136+$B$2,IF(S57&lt;&gt;"",S57*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K57" t="str">
-        <f>IF(I57&lt;&gt;"",I57,J57)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>51</v>
       </c>
@@ -3450,31 +3451,31 @@
         <v>4</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f>IF(K58&lt;&gt;"",FLOOR((K58-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F58" s="1" t="e">
-        <f>IF(MOD(K58,2)=1,8+L58,L58)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="G58" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F58*HEX2DEC(10000) +E58)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H58" t="e">
-        <f>HEX2DEC(G58)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J58" t="str">
-        <f>IF(P58&lt;&gt;"",P58*136+$B$2,IF(Q58&lt;&gt;"",Q58*136+$B$2,IF(S58&lt;&gt;"",S58*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K58" t="str">
-        <f>IF(I58&lt;&gt;"",I58,J58)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>52</v>
       </c>
@@ -3485,31 +3486,31 @@
         <v>5</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>IF(K59&lt;&gt;"",FLOOR((K59-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F59" s="1" t="e">
-        <f>IF(MOD(K59,2)=1,8+L59,L59)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="G59" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F59*HEX2DEC(10000) +E59)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H59" t="e">
-        <f>HEX2DEC(G59)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J59" t="str">
-        <f>IF(P59&lt;&gt;"",P59*136+$B$2,IF(Q59&lt;&gt;"",Q59*136+$B$2,IF(S59&lt;&gt;"",S59*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K59" t="str">
-        <f>IF(I59&lt;&gt;"",I59,J59)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>53</v>
       </c>
@@ -3520,31 +3521,31 @@
         <v>6</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>IF(K60&lt;&gt;"",FLOOR((K60-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F60" s="1" t="e">
-        <f>IF(MOD(K60,2)=1,8+L60,L60)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="G60" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F60*HEX2DEC(10000) +E60)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H60" t="e">
-        <f>HEX2DEC(G60)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J60" t="str">
-        <f>IF(P60&lt;&gt;"",P60*136+$B$2,IF(Q60&lt;&gt;"",Q60*136+$B$2,IF(S60&lt;&gt;"",S60*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K60" t="str">
-        <f>IF(I60&lt;&gt;"",I60,J60)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>54</v>
       </c>
@@ -3555,31 +3556,31 @@
         <v>7</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>IF(K61&lt;&gt;"",FLOOR((K61-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F61" s="1" t="e">
-        <f>IF(MOD(K61,2)=1,8+L61,L61)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="G61" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F61*HEX2DEC(10000) +E61)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H61" t="e">
-        <f>HEX2DEC(G61)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J61" t="str">
-        <f>IF(P61&lt;&gt;"",P61*136+$B$2,IF(Q61&lt;&gt;"",Q61*136+$B$2,IF(S61&lt;&gt;"",S61*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K61" t="str">
-        <f>IF(I61&lt;&gt;"",I61,J61)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>55</v>
       </c>
@@ -3590,27 +3591,27 @@
         <v>8</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>IF(K62&lt;&gt;"",FLOOR((K62-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F62" s="1" t="e">
-        <f>IF(MOD(K62,2)=1,8+L62,L62)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="G62" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F62*HEX2DEC(10000) +E62)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="H62" t="e">
-        <f>HEX2DEC(G62)</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="J62" t="str">
-        <f>IF(P62&lt;&gt;"",P62*136+$B$2,IF(Q62&lt;&gt;"",Q62*136+$B$2,IF(S62&lt;&gt;"",S62*80+$B$4,"")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K62" t="str">
-        <f>IF(I62&lt;&gt;"",I62,J62)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3628,28 +3629,28 @@
         <v>43</v>
       </c>
       <c r="E63" s="1">
-        <f>IF(K63&lt;&gt;"",FLOOR((K63-MIN(K:K))/2,1),"")</f>
-        <v>3255</v>
+        <f t="shared" si="6"/>
+        <v>11925</v>
       </c>
       <c r="F63" s="1">
-        <f>IF(MOD(K63-$B$5,2)=1,8+L63,L63)</f>
-        <v>8</v>
+        <f t="shared" ref="F63:F82" si="12">IF(MOD(K63-$B$5,2)=1,8+L63,L63)</f>
+        <v>0</v>
       </c>
       <c r="G63" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F63*HEX2DEC(10000) +E63)</f>
-        <v>1080CB7</v>
+        <f t="shared" si="7"/>
+        <v>1002E95</v>
       </c>
       <c r="H63">
-        <f>HEX2DEC(G63)</f>
-        <v>17304759</v>
+        <f t="shared" si="10"/>
+        <v>16789141</v>
       </c>
       <c r="J63">
-        <f>IF(P63&lt;&gt;"",P63*136+$B$2,IF(Q63&lt;&gt;"",Q63*136+$B$2,IF(S63&lt;&gt;"",S63*80+$B$4,"")))</f>
-        <v>524471</v>
+        <f t="shared" si="8"/>
+        <v>536423</v>
       </c>
       <c r="K63">
-        <f>IF(I63&lt;&gt;"",I63,J63)</f>
-        <v>524471</v>
+        <f t="shared" si="4"/>
+        <v>536423</v>
       </c>
       <c r="N63" t="s">
         <v>174</v>
@@ -3675,28 +3676,28 @@
         <v>44</v>
       </c>
       <c r="E64" s="1">
-        <f>IF(K64&lt;&gt;"",FLOOR((K64-MIN(K:K))/2,1),"")</f>
-        <v>2334</v>
+        <f t="shared" si="6"/>
+        <v>11003</v>
       </c>
       <c r="F64" s="1">
-        <f>IF(MOD(K64-$B$5,2)=1,8+L64,L64)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="G64" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F64*HEX2DEC(10000) +E64)</f>
-        <v>100091E</v>
+        <f t="shared" si="7"/>
+        <v>1082AFB</v>
       </c>
       <c r="H64">
-        <f>HEX2DEC(G64)</f>
-        <v>16779550</v>
+        <f t="shared" si="10"/>
+        <v>17312507</v>
       </c>
       <c r="J64">
-        <f>IF(P64&lt;&gt;"",P64*136+$B$2,IF(Q64&lt;&gt;"",Q64*136+$B$2,IF(S64&lt;&gt;"",S64*80+$B$4,"")))</f>
-        <v>522628</v>
+        <f t="shared" si="8"/>
+        <v>534580</v>
       </c>
       <c r="K64">
-        <f>IF(I64&lt;&gt;"",I64,J64)</f>
-        <v>522628</v>
+        <f t="shared" si="4"/>
+        <v>534580</v>
       </c>
       <c r="N64" t="s">
         <v>175</v>
@@ -3722,28 +3723,28 @@
         <v>45</v>
       </c>
       <c r="E65" s="1">
-        <f>IF(K65&lt;&gt;"",FLOOR((K65-MIN(K:K))/2,1),"")</f>
-        <v>2402</v>
+        <f t="shared" si="6"/>
+        <v>11071</v>
       </c>
       <c r="F65" s="1">
-        <f>IF(MOD(K65-$B$5,2)=1,8+L65,L65)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="G65" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F65*HEX2DEC(10000) +E65)</f>
-        <v>1000962</v>
+        <f t="shared" si="7"/>
+        <v>1082B3F</v>
       </c>
       <c r="H65">
-        <f>HEX2DEC(G65)</f>
-        <v>16779618</v>
+        <f t="shared" si="10"/>
+        <v>17312575</v>
       </c>
       <c r="J65">
-        <f>IF(P65&lt;&gt;"",P65*136+$B$2,IF(Q65&lt;&gt;"",Q65*136+$B$2,IF(S65&lt;&gt;"",S65*80+$B$4,"")))</f>
-        <v>522764</v>
+        <f t="shared" si="8"/>
+        <v>534716</v>
       </c>
       <c r="K65">
-        <f>IF(I65&lt;&gt;"",I65,J65)</f>
-        <v>522764</v>
+        <f t="shared" si="4"/>
+        <v>534716</v>
       </c>
       <c r="N65" t="s">
         <v>176</v>
@@ -3772,28 +3773,28 @@
         <v>46</v>
       </c>
       <c r="E66" s="1">
-        <f>IF(K66&lt;&gt;"",FLOOR((K66-MIN(K:K))/2,1),"")</f>
-        <v>2402</v>
+        <f t="shared" si="6"/>
+        <v>11071</v>
       </c>
       <c r="F66" s="1">
-        <f>IF(MOD(K66-$B$5,2)=1,8+L66,L66)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="G66" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F66*HEX2DEC(10000) +E66)</f>
-        <v>1000962</v>
+        <f t="shared" si="7"/>
+        <v>1082B3F</v>
       </c>
       <c r="H66">
-        <f>HEX2DEC(G66)</f>
-        <v>16779618</v>
+        <f t="shared" si="10"/>
+        <v>17312575</v>
       </c>
       <c r="J66">
-        <f>IF(P66&lt;&gt;"",P66*136+$B$2,IF(Q66&lt;&gt;"",Q66*136+$B$2,IF(S66&lt;&gt;"",S66*80+$B$4,"")))</f>
-        <v>522764</v>
+        <f t="shared" si="8"/>
+        <v>534716</v>
       </c>
       <c r="K66">
-        <f>IF(I66&lt;&gt;"",I66,J66)</f>
-        <v>522764</v>
+        <f t="shared" si="4"/>
+        <v>534716</v>
       </c>
       <c r="N66" t="s">
         <v>177</v>
@@ -3819,28 +3820,28 @@
         <v>47</v>
       </c>
       <c r="E67" s="1">
-        <f>IF(K67&lt;&gt;"",FLOOR((K67-MIN(K:K))/2,1),"")</f>
-        <v>2470</v>
+        <f t="shared" si="6"/>
+        <v>11139</v>
       </c>
       <c r="F67" s="1">
-        <f>IF(MOD(K67-$B$5,2)=1,8+L67,L67)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="G67" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F67*HEX2DEC(10000) +E67)</f>
-        <v>10009A6</v>
+        <f t="shared" si="7"/>
+        <v>1082B83</v>
       </c>
       <c r="H67">
-        <f>HEX2DEC(G67)</f>
-        <v>16779686</v>
+        <f t="shared" si="10"/>
+        <v>17312643</v>
       </c>
       <c r="J67">
-        <f>IF(P67&lt;&gt;"",P67*136+$B$2,IF(Q67&lt;&gt;"",Q67*136+$B$2,IF(S67&lt;&gt;"",S67*80+$B$4,"")))</f>
-        <v>522900</v>
+        <f t="shared" si="8"/>
+        <v>534852</v>
       </c>
       <c r="K67">
-        <f>IF(I67&lt;&gt;"",I67,J67)</f>
-        <v>522900</v>
+        <f t="shared" si="4"/>
+        <v>534852</v>
       </c>
       <c r="N67" t="s">
         <v>178</v>
@@ -3869,28 +3870,28 @@
         <v>48</v>
       </c>
       <c r="E68" s="1">
-        <f>IF(K68&lt;&gt;"",FLOOR((K68-MIN(K:K))/2,1),"")</f>
-        <v>2470</v>
+        <f t="shared" si="6"/>
+        <v>11139</v>
       </c>
       <c r="F68" s="1">
-        <f>IF(MOD(K68-$B$5,2)=1,8+L68,L68)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="G68" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F68*HEX2DEC(10000) +E68)</f>
-        <v>10009A6</v>
+        <f t="shared" si="7"/>
+        <v>1082B83</v>
       </c>
       <c r="H68">
-        <f>HEX2DEC(G68)</f>
-        <v>16779686</v>
+        <f t="shared" si="10"/>
+        <v>17312643</v>
       </c>
       <c r="J68">
-        <f>IF(P68&lt;&gt;"",P68*136+$B$2,IF(Q68&lt;&gt;"",Q68*136+$B$2,IF(S68&lt;&gt;"",S68*80+$B$4,"")))</f>
-        <v>522900</v>
+        <f t="shared" si="8"/>
+        <v>534852</v>
       </c>
       <c r="K68">
-        <f>IF(I68&lt;&gt;"",I68,J68)</f>
-        <v>522900</v>
+        <f t="shared" si="4"/>
+        <v>534852</v>
       </c>
       <c r="N68" t="s">
         <v>179</v>
@@ -3916,28 +3917,28 @@
         <v>49</v>
       </c>
       <c r="E69" s="1">
-        <f>IF(K69&lt;&gt;"",FLOOR((K69-MIN(K:K))/2,1),"")</f>
-        <v>2538</v>
+        <f t="shared" si="6"/>
+        <v>11207</v>
       </c>
       <c r="F69" s="1">
-        <f>IF(MOD(K69-$B$5,2)=1,8+L69,L69)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="G69" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F69*HEX2DEC(10000) +E69)</f>
-        <v>10009EA</v>
+        <f t="shared" si="7"/>
+        <v>1082BC7</v>
       </c>
       <c r="H69">
-        <f>HEX2DEC(G69)</f>
-        <v>16779754</v>
+        <f t="shared" si="10"/>
+        <v>17312711</v>
       </c>
       <c r="J69">
-        <f>IF(P69&lt;&gt;"",P69*136+$B$2,IF(Q69&lt;&gt;"",Q69*136+$B$2,IF(S69&lt;&gt;"",S69*80+$B$4,"")))</f>
-        <v>523036</v>
+        <f t="shared" si="8"/>
+        <v>534988</v>
       </c>
       <c r="K69">
-        <f>IF(I69&lt;&gt;"",I69,J69)</f>
-        <v>523036</v>
+        <f t="shared" si="4"/>
+        <v>534988</v>
       </c>
       <c r="N69" t="s">
         <v>180</v>
@@ -3966,28 +3967,28 @@
         <v>50</v>
       </c>
       <c r="E70" s="1">
-        <f>IF(K70&lt;&gt;"",FLOOR((K70-MIN(K:K))/2,1),"")</f>
-        <v>2538</v>
+        <f t="shared" si="6"/>
+        <v>11207</v>
       </c>
       <c r="F70" s="1">
-        <f>IF(MOD(K70-$B$5,2)=1,8+L70,L70)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="G70" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F70*HEX2DEC(10000) +E70)</f>
-        <v>10009EA</v>
+        <f t="shared" si="7"/>
+        <v>1082BC7</v>
       </c>
       <c r="H70">
-        <f>HEX2DEC(G70)</f>
-        <v>16779754</v>
+        <f t="shared" si="10"/>
+        <v>17312711</v>
       </c>
       <c r="J70">
-        <f>IF(P70&lt;&gt;"",P70*136+$B$2,IF(Q70&lt;&gt;"",Q70*136+$B$2,IF(S70&lt;&gt;"",S70*80+$B$4,"")))</f>
-        <v>523036</v>
+        <f t="shared" si="8"/>
+        <v>534988</v>
       </c>
       <c r="K70">
-        <f>IF(I70&lt;&gt;"",I70,J70)</f>
-        <v>523036</v>
+        <f t="shared" si="4"/>
+        <v>534988</v>
       </c>
       <c r="N70" t="s">
         <v>181</v>
@@ -4013,31 +4014,31 @@
         <v>133</v>
       </c>
       <c r="E71" s="1">
-        <f>IF(K71&lt;&gt;"",FLOOR((K71-MIN(K:K))/2,1),"")</f>
-        <v>2050</v>
+        <f t="shared" ref="E71:E82" si="13">IF(K71&lt;&gt;"",FLOOR((K71-MIN(K:K))/2,1),"")</f>
+        <v>10719</v>
       </c>
       <c r="F71" s="1">
-        <f>IF(MOD(K71-$B$5,2)=1,8+L71,L71)</f>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="G71" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F71*HEX2DEC(10000) +E71)</f>
-        <v>1020802</v>
+        <f t="shared" ref="G71:G102" si="14">DEC2HEX(B$1*HEX2DEC(1000000) +F71*HEX2DEC(10000) +E71)</f>
+        <v>10A29DF</v>
       </c>
       <c r="H71">
-        <f>HEX2DEC(G71)</f>
-        <v>16910338</v>
+        <f t="shared" si="10"/>
+        <v>17443295</v>
       </c>
       <c r="I71">
-        <v>522060</v>
+        <v>534012</v>
       </c>
       <c r="J71" t="str">
-        <f>IF(P71&lt;&gt;"",P71*136+$B$2,IF(Q71&lt;&gt;"",Q71*136+$B$2,IF(S71&lt;&gt;"",S71*80+$B$4,"")))</f>
+        <f t="shared" ref="J71:J82" si="15">IF(P71&lt;&gt;"",P71*136+$B$2,IF(Q71&lt;&gt;"",Q71*136+$B$2,IF(S71&lt;&gt;"",S71*80+$B$4,"")))</f>
         <v/>
       </c>
       <c r="K71">
-        <f>IF(I71&lt;&gt;"",I71,J71)</f>
-        <v>522060</v>
+        <f t="shared" si="4"/>
+        <v>534012</v>
       </c>
       <c r="L71">
         <v>2</v>
@@ -4060,31 +4061,31 @@
         <v>124</v>
       </c>
       <c r="E72" s="1">
-        <f>IF(K72&lt;&gt;"",FLOOR((K72-MIN(K:K))/2,1),"")</f>
-        <v>2050</v>
+        <f t="shared" si="13"/>
+        <v>10719</v>
       </c>
       <c r="F72" s="1">
-        <f>IF(MOD(K72-$B$5,2)=1,8+L72,L72)</f>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>11</v>
       </c>
       <c r="G72" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F72*HEX2DEC(10000) +E72)</f>
-        <v>1030802</v>
+        <f t="shared" si="14"/>
+        <v>10B29DF</v>
       </c>
       <c r="H72">
-        <f>HEX2DEC(G72)</f>
-        <v>16975874</v>
+        <f t="shared" si="10"/>
+        <v>17508831</v>
       </c>
       <c r="I72">
-        <v>522060</v>
+        <v>534012</v>
       </c>
       <c r="J72" t="str">
-        <f>IF(P72&lt;&gt;"",P72*136+$B$2,IF(Q72&lt;&gt;"",Q72*136+$B$2,IF(S72&lt;&gt;"",S72*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K72">
-        <f>IF(I72&lt;&gt;"",I72,J72)</f>
-        <v>522060</v>
+        <f t="shared" ref="K72:K82" si="16">IF(AND(I72&lt;&gt;"",D72&lt;&gt;""),I72,J72)</f>
+        <v>534012</v>
       </c>
       <c r="L72">
         <v>3</v>
@@ -4107,31 +4108,31 @@
         <v>125</v>
       </c>
       <c r="E73" s="1">
-        <f>IF(K73&lt;&gt;"",FLOOR((K73-MIN(K:K))/2,1),"")</f>
-        <v>2050</v>
+        <f t="shared" si="13"/>
+        <v>10719</v>
       </c>
       <c r="F73" s="1">
-        <f>IF(MOD(K73-$B$5,2)=1,8+L73,L73)</f>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>12</v>
       </c>
       <c r="G73" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F73*HEX2DEC(10000) +E73)</f>
-        <v>1040802</v>
+        <f t="shared" si="14"/>
+        <v>10C29DF</v>
       </c>
       <c r="H73">
-        <f>HEX2DEC(G73)</f>
-        <v>17041410</v>
+        <f t="shared" si="10"/>
+        <v>17574367</v>
       </c>
       <c r="I73">
-        <v>522060</v>
+        <v>534012</v>
       </c>
       <c r="J73" t="str">
-        <f>IF(P73&lt;&gt;"",P73*136+$B$2,IF(Q73&lt;&gt;"",Q73*136+$B$2,IF(S73&lt;&gt;"",S73*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K73">
-        <f>IF(I73&lt;&gt;"",I73,J73)</f>
-        <v>522060</v>
+        <f t="shared" si="16"/>
+        <v>534012</v>
       </c>
       <c r="L73">
         <v>4</v>
@@ -4154,31 +4155,31 @@
         <v>126</v>
       </c>
       <c r="E74" s="1">
-        <f>IF(K74&lt;&gt;"",FLOOR((K74-MIN(K:K))/2,1),"")</f>
-        <v>2050</v>
+        <f t="shared" si="13"/>
+        <v>10719</v>
       </c>
       <c r="F74" s="1">
-        <f>IF(MOD(K74-$B$5,2)=1,8+L74,L74)</f>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>13</v>
       </c>
       <c r="G74" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F74*HEX2DEC(10000) +E74)</f>
-        <v>1050802</v>
+        <f t="shared" si="14"/>
+        <v>10D29DF</v>
       </c>
       <c r="H74">
-        <f>HEX2DEC(G74)</f>
-        <v>17106946</v>
+        <f t="shared" si="10"/>
+        <v>17639903</v>
       </c>
       <c r="I74">
-        <v>522060</v>
+        <v>534012</v>
       </c>
       <c r="J74" t="str">
-        <f>IF(P74&lt;&gt;"",P74*136+$B$2,IF(Q74&lt;&gt;"",Q74*136+$B$2,IF(S74&lt;&gt;"",S74*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K74">
-        <f>IF(I74&lt;&gt;"",I74,J74)</f>
-        <v>522060</v>
+        <f t="shared" si="16"/>
+        <v>534012</v>
       </c>
       <c r="L74">
         <v>5</v>
@@ -4201,31 +4202,31 @@
         <v>127</v>
       </c>
       <c r="E75" s="1">
-        <f>IF(K75&lt;&gt;"",FLOOR((K75-MIN(K:K))/2,1),"")</f>
-        <v>2050</v>
+        <f t="shared" si="13"/>
+        <v>10719</v>
       </c>
       <c r="F75" s="1">
-        <f>IF(MOD(K75-$B$5,2)=1,8+L75,L75)</f>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>14</v>
       </c>
       <c r="G75" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F75*HEX2DEC(10000) +E75)</f>
-        <v>1060802</v>
+        <f t="shared" si="14"/>
+        <v>10E29DF</v>
       </c>
       <c r="H75">
-        <f>HEX2DEC(G75)</f>
-        <v>17172482</v>
+        <f t="shared" si="10"/>
+        <v>17705439</v>
       </c>
       <c r="I75">
-        <v>522060</v>
+        <v>534012</v>
       </c>
       <c r="J75" t="str">
-        <f>IF(P75&lt;&gt;"",P75*136+$B$2,IF(Q75&lt;&gt;"",Q75*136+$B$2,IF(S75&lt;&gt;"",S75*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K75">
-        <f>IF(I75&lt;&gt;"",I75,J75)</f>
-        <v>522060</v>
+        <f t="shared" si="16"/>
+        <v>534012</v>
       </c>
       <c r="L75">
         <v>6</v>
@@ -4248,31 +4249,31 @@
         <v>129</v>
       </c>
       <c r="E76" s="1">
-        <f>IF(K76&lt;&gt;"",FLOOR((K76-MIN(K:K))/2,1),"")</f>
-        <v>2050</v>
+        <f t="shared" si="13"/>
+        <v>10719</v>
       </c>
       <c r="F76" s="1">
-        <f>IF(MOD(K76-$B$5,2)=1,8+L76,L76)</f>
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="G76" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F76*HEX2DEC(10000) +E76)</f>
-        <v>1070802</v>
+        <f t="shared" si="14"/>
+        <v>10F29DF</v>
       </c>
       <c r="H76">
-        <f>HEX2DEC(G76)</f>
-        <v>17238018</v>
+        <f t="shared" si="10"/>
+        <v>17770975</v>
       </c>
       <c r="I76">
-        <v>522060</v>
+        <v>534012</v>
       </c>
       <c r="J76" t="str">
-        <f>IF(P76&lt;&gt;"",P76*136+$B$2,IF(Q76&lt;&gt;"",Q76*136+$B$2,IF(S76&lt;&gt;"",S76*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K76">
-        <f>IF(I76&lt;&gt;"",I76,J76)</f>
-        <v>522060</v>
+        <f t="shared" si="16"/>
+        <v>534012</v>
       </c>
       <c r="L76">
         <v>7</v>
@@ -4295,31 +4296,31 @@
         <v>130</v>
       </c>
       <c r="E77" s="1">
-        <f>IF(K77&lt;&gt;"",FLOOR((K77-MIN(K:K))/2,1),"")</f>
-        <v>2050</v>
+        <f t="shared" si="13"/>
+        <v>10719</v>
       </c>
       <c r="F77" s="1">
-        <f>IF(MOD(K77-$B$5,2)=1,8+L77,L77)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="G77" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F77*HEX2DEC(10000) +E77)</f>
-        <v>1080802</v>
+        <f t="shared" si="14"/>
+        <v>10829DF</v>
       </c>
       <c r="H77">
-        <f>HEX2DEC(G77)</f>
-        <v>17303554</v>
+        <f t="shared" si="10"/>
+        <v>17312223</v>
       </c>
       <c r="I77">
-        <v>522061</v>
+        <v>534012</v>
       </c>
       <c r="J77" t="str">
-        <f>IF(P77&lt;&gt;"",P77*136+$B$2,IF(Q77&lt;&gt;"",Q77*136+$B$2,IF(S77&lt;&gt;"",S77*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K77">
-        <f>IF(I77&lt;&gt;"",I77,J77)</f>
-        <v>522061</v>
+        <f t="shared" si="16"/>
+        <v>534012</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -4342,31 +4343,31 @@
         <v>135</v>
       </c>
       <c r="E78" s="1">
-        <f>IF(K78&lt;&gt;"",FLOOR((K78-MIN(K:K))/2,1),"")</f>
-        <v>2050</v>
+        <f t="shared" si="13"/>
+        <v>10720</v>
       </c>
       <c r="F78" s="1">
-        <f>IF(MOD(K78-$B$5,2)=1,8+L78,L78)</f>
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="G78" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F78*HEX2DEC(10000) +E78)</f>
-        <v>1090802</v>
+        <f t="shared" si="14"/>
+        <v>10129E0</v>
       </c>
       <c r="H78">
-        <f>HEX2DEC(G78)</f>
-        <v>17369090</v>
+        <f t="shared" si="10"/>
+        <v>16853472</v>
       </c>
       <c r="I78">
-        <v>522061</v>
+        <v>534013</v>
       </c>
       <c r="J78" t="str">
-        <f>IF(P78&lt;&gt;"",P78*136+$B$2,IF(Q78&lt;&gt;"",Q78*136+$B$2,IF(S78&lt;&gt;"",S78*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K78">
-        <f>IF(I78&lt;&gt;"",I78,J78)</f>
-        <v>522061</v>
+        <f t="shared" si="16"/>
+        <v>534013</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -4389,31 +4390,31 @@
         <v>151</v>
       </c>
       <c r="E79" s="1">
-        <f>IF(K79&lt;&gt;"",FLOOR((K79-MIN(K:K))/2,1),"")</f>
-        <v>2050</v>
+        <f t="shared" si="13"/>
+        <v>10720</v>
       </c>
       <c r="F79" s="1">
-        <f>IF(MOD(K79-$B$5,2)=1,8+L79,L79)</f>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="G79" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F79*HEX2DEC(10000) +E79)</f>
-        <v>10A0802</v>
+        <f t="shared" si="14"/>
+        <v>10229E0</v>
       </c>
       <c r="H79">
-        <f>HEX2DEC(G79)</f>
-        <v>17434626</v>
+        <f t="shared" si="10"/>
+        <v>16919008</v>
       </c>
       <c r="I79">
-        <v>522061</v>
+        <v>534013</v>
       </c>
       <c r="J79" t="str">
-        <f>IF(P79&lt;&gt;"",P79*136+$B$2,IF(Q79&lt;&gt;"",Q79*136+$B$2,IF(S79&lt;&gt;"",S79*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K79">
-        <f>IF(I79&lt;&gt;"",I79,J79)</f>
-        <v>522061</v>
+        <f t="shared" si="16"/>
+        <v>534013</v>
       </c>
       <c r="L79">
         <v>2</v>
@@ -4436,31 +4437,31 @@
         <v>131</v>
       </c>
       <c r="E80" s="1">
-        <f>IF(K80&lt;&gt;"",FLOOR((K80-MIN(K:K))/2,1),"")</f>
-        <v>2050</v>
+        <f t="shared" si="13"/>
+        <v>10720</v>
       </c>
       <c r="F80" s="1">
-        <f>IF(MOD(K80-$B$5,2)=1,8+L80,L80)</f>
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="G80" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F80*HEX2DEC(10000) +E80)</f>
-        <v>10B0802</v>
+        <f t="shared" si="14"/>
+        <v>10329E0</v>
       </c>
       <c r="H80">
-        <f>HEX2DEC(G80)</f>
-        <v>17500162</v>
+        <f t="shared" si="10"/>
+        <v>16984544</v>
       </c>
       <c r="I80">
-        <v>522061</v>
+        <v>534013</v>
       </c>
       <c r="J80" t="str">
-        <f>IF(P80&lt;&gt;"",P80*136+$B$2,IF(Q80&lt;&gt;"",Q80*136+$B$2,IF(S80&lt;&gt;"",S80*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K80">
-        <f>IF(I80&lt;&gt;"",I80,J80)</f>
-        <v>522061</v>
+        <f t="shared" si="16"/>
+        <v>534013</v>
       </c>
       <c r="L80">
         <v>3</v>
@@ -4483,31 +4484,31 @@
         <v>128</v>
       </c>
       <c r="E81" s="1">
-        <f>IF(K81&lt;&gt;"",FLOOR((K81-MIN(K:K))/2,1),"")</f>
-        <v>2050</v>
+        <f t="shared" si="13"/>
+        <v>10720</v>
       </c>
       <c r="F81" s="1">
-        <f>IF(MOD(K81-$B$5,2)=1,8+L81,L81)</f>
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="G81" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F81*HEX2DEC(10000) +E81)</f>
-        <v>10C0802</v>
+        <f t="shared" si="14"/>
+        <v>10429E0</v>
       </c>
       <c r="H81">
-        <f>HEX2DEC(G81)</f>
-        <v>17565698</v>
+        <f t="shared" si="10"/>
+        <v>17050080</v>
       </c>
       <c r="I81">
-        <v>522061</v>
+        <v>534013</v>
       </c>
       <c r="J81" t="str">
-        <f>IF(P81&lt;&gt;"",P81*136+$B$2,IF(Q81&lt;&gt;"",Q81*136+$B$2,IF(S81&lt;&gt;"",S81*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K81">
-        <f>IF(I81&lt;&gt;"",I81,J81)</f>
-        <v>522061</v>
+        <f t="shared" si="16"/>
+        <v>534013</v>
       </c>
       <c r="L81">
         <v>4</v>
@@ -4530,31 +4531,31 @@
         <v>132</v>
       </c>
       <c r="E82" s="1">
-        <f>IF(K82&lt;&gt;"",FLOOR((K82-MIN(K:K))/2,1),"")</f>
-        <v>2050</v>
+        <f t="shared" si="13"/>
+        <v>10720</v>
       </c>
       <c r="F82" s="1">
-        <f>IF(MOD(K82-$B$5,2)=1,8+L82,L82)</f>
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>5</v>
       </c>
       <c r="G82" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F82*HEX2DEC(10000) +E82)</f>
-        <v>10D0802</v>
+        <f t="shared" si="14"/>
+        <v>10529E0</v>
       </c>
       <c r="H82">
-        <f>HEX2DEC(G82)</f>
-        <v>17631234</v>
+        <f t="shared" si="10"/>
+        <v>17115616</v>
       </c>
       <c r="I82">
-        <v>522061</v>
+        <v>534013</v>
       </c>
       <c r="J82" t="str">
-        <f>IF(P82&lt;&gt;"",P82*136+$B$2,IF(Q82&lt;&gt;"",Q82*136+$B$2,IF(S82&lt;&gt;"",S82*80+$B$4,"")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K82">
-        <f>IF(I82&lt;&gt;"",I82,J82)</f>
-        <v>522061</v>
+        <f t="shared" si="16"/>
+        <v>534013</v>
       </c>
       <c r="L82">
         <v>5</v>
@@ -4565,6 +4566,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:S82" xr:uid="{39ED0021-5E2A-4DF1-81B3-2053C7857DD9}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState ref="A7:S82">
       <sortCondition ref="A6:A82"/>
     </sortState>
@@ -4576,10 +4582,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBFD5AD-95E3-457F-903E-F0D470C50CCA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:N49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4614,7 +4621,7 @@
         <v>146</v>
       </c>
       <c r="B2">
-        <v>530218</v>
+        <v>534170</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -4623,7 +4630,7 @@
       </c>
       <c r="B3">
         <f>MIN(K:K)</f>
-        <v>513389</v>
+        <v>512573</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>136</v>
@@ -4696,28 +4703,28 @@
         <v>54</v>
       </c>
       <c r="E5" s="1">
-        <f>IF(K5&lt;&gt;"",FLOOR((K5-MIN(K:K))/2,1),"")</f>
-        <v>8414</v>
+        <f t="shared" ref="E5:E49" si="0">IF(K5&lt;&gt;"",FLOOR((K5-MIN(K:K))/2,1),"")</f>
+        <v>10798</v>
       </c>
       <c r="F5" s="1">
-        <f>IF(MOD(K5-$B$3,2)=1,8+L5,L5)</f>
+        <f t="shared" ref="F5:F11" si="1">IF(MOD(K5-$B$3,2)=1,8+L5,L5)</f>
         <v>8</v>
       </c>
       <c r="G5" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F5*HEX2DEC(10000) +E5)</f>
-        <v>20820DE</v>
+        <f t="shared" ref="G5:G49" si="2">DEC2HEX(B$1*HEX2DEC(1000000) +F5*HEX2DEC(10000) +E5)</f>
+        <v>2082A2E</v>
       </c>
       <c r="H5">
-        <f>HEX2DEC(G5)</f>
-        <v>34087134</v>
+        <f t="shared" ref="H5:H49" si="3">HEX2DEC(G5)</f>
+        <v>34089518</v>
       </c>
       <c r="J5">
-        <f>IF(P5&lt;&gt;"",$B$2+P5*136,"")</f>
-        <v>530218</v>
+        <f t="shared" ref="J5:J49" si="4">IF(P5&lt;&gt;"",$B$2+P5*136,"")</f>
+        <v>534170</v>
       </c>
       <c r="K5">
-        <f>IF(I5&lt;&gt;"",I5,J5)</f>
-        <v>530218</v>
+        <f t="shared" ref="K5:K49" si="5">IF(I5&lt;&gt;"",I5,J5)</f>
+        <v>534170</v>
       </c>
       <c r="M5" t="s">
         <v>60</v>
@@ -4746,28 +4753,28 @@
         <v>55</v>
       </c>
       <c r="E6" s="1">
-        <f>IF(K6&lt;&gt;"",FLOOR((K6-MIN(K:K))/2,1),"")</f>
-        <v>8482</v>
+        <f t="shared" si="0"/>
+        <v>10866</v>
       </c>
       <c r="F6" s="1">
-        <f>IF(MOD(K6-$B$3,2)=1,8+L6,L6)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G6" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F6*HEX2DEC(10000) +E6)</f>
-        <v>2082122</v>
+        <f t="shared" si="2"/>
+        <v>2082A72</v>
       </c>
       <c r="H6">
-        <f>HEX2DEC(G6)</f>
-        <v>34087202</v>
+        <f t="shared" si="3"/>
+        <v>34089586</v>
       </c>
       <c r="J6">
-        <f>IF(P6&lt;&gt;"",$B$2+P6*136,"")</f>
-        <v>530354</v>
+        <f t="shared" si="4"/>
+        <v>534306</v>
       </c>
       <c r="K6">
-        <f>IF(I6&lt;&gt;"",I6,J6)</f>
-        <v>530354</v>
+        <f t="shared" si="5"/>
+        <v>534306</v>
       </c>
       <c r="M6" t="s">
         <v>61</v>
@@ -4796,28 +4803,28 @@
         <v>56</v>
       </c>
       <c r="E7" s="1">
-        <f>IF(K7&lt;&gt;"",FLOOR((K7-MIN(K:K))/2,1),"")</f>
-        <v>8550</v>
+        <f t="shared" si="0"/>
+        <v>10934</v>
       </c>
       <c r="F7" s="1">
-        <f>IF(MOD(K7-$B$3,2)=1,8+L7,L7)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G7" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F7*HEX2DEC(10000) +E7)</f>
-        <v>2082166</v>
+        <f t="shared" si="2"/>
+        <v>2082AB6</v>
       </c>
       <c r="H7">
-        <f>HEX2DEC(G7)</f>
-        <v>34087270</v>
+        <f t="shared" si="3"/>
+        <v>34089654</v>
       </c>
       <c r="J7">
-        <f>IF(P7&lt;&gt;"",$B$2+P7*136,"")</f>
-        <v>530490</v>
+        <f t="shared" si="4"/>
+        <v>534442</v>
       </c>
       <c r="K7">
-        <f>IF(I7&lt;&gt;"",I7,J7)</f>
-        <v>530490</v>
+        <f t="shared" si="5"/>
+        <v>534442</v>
       </c>
       <c r="M7" t="s">
         <v>62</v>
@@ -4846,28 +4853,28 @@
         <v>57</v>
       </c>
       <c r="E8" s="1">
-        <f>IF(K8&lt;&gt;"",FLOOR((K8-MIN(K:K))/2,1),"")</f>
-        <v>8618</v>
+        <f t="shared" si="0"/>
+        <v>11002</v>
       </c>
       <c r="F8" s="1">
-        <f>IF(MOD(K8-$B$3,2)=1,8+L8,L8)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G8" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F8*HEX2DEC(10000) +E8)</f>
-        <v>20821AA</v>
+        <f t="shared" si="2"/>
+        <v>2082AFA</v>
       </c>
       <c r="H8">
-        <f>HEX2DEC(G8)</f>
-        <v>34087338</v>
+        <f t="shared" si="3"/>
+        <v>34089722</v>
       </c>
       <c r="J8">
-        <f>IF(P8&lt;&gt;"",$B$2+P8*136,"")</f>
-        <v>530626</v>
+        <f t="shared" si="4"/>
+        <v>534578</v>
       </c>
       <c r="K8">
-        <f>IF(I8&lt;&gt;"",I8,J8)</f>
-        <v>530626</v>
+        <f t="shared" si="5"/>
+        <v>534578</v>
       </c>
       <c r="M8" t="s">
         <v>63</v>
@@ -4896,28 +4903,28 @@
         <v>58</v>
       </c>
       <c r="E9" s="1">
-        <f>IF(K9&lt;&gt;"",FLOOR((K9-MIN(K:K))/2,1),"")</f>
-        <v>8686</v>
+        <f t="shared" si="0"/>
+        <v>11070</v>
       </c>
       <c r="F9" s="1">
-        <f>IF(MOD(K9-$B$3,2)=1,8+L9,L9)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G9" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F9*HEX2DEC(10000) +E9)</f>
-        <v>20821EE</v>
+        <f t="shared" si="2"/>
+        <v>2082B3E</v>
       </c>
       <c r="H9">
-        <f>HEX2DEC(G9)</f>
-        <v>34087406</v>
+        <f t="shared" si="3"/>
+        <v>34089790</v>
       </c>
       <c r="J9">
-        <f>IF(P9&lt;&gt;"",$B$2+P9*136,"")</f>
-        <v>530762</v>
+        <f t="shared" si="4"/>
+        <v>534714</v>
       </c>
       <c r="K9">
-        <f>IF(I9&lt;&gt;"",I9,J9)</f>
-        <v>530762</v>
+        <f t="shared" si="5"/>
+        <v>534714</v>
       </c>
       <c r="M9" t="s">
         <v>64</v>
@@ -4946,28 +4953,28 @@
         <v>59</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(K10&lt;&gt;"",FLOOR((K10-MIN(K:K))/2,1),"")</f>
-        <v>8754</v>
+        <f t="shared" si="0"/>
+        <v>11138</v>
       </c>
       <c r="F10" s="1">
-        <f>IF(MOD(K10-$B$3,2)=1,8+L10,L10)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G10" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F10*HEX2DEC(10000) +E10)</f>
-        <v>2082232</v>
+        <f t="shared" si="2"/>
+        <v>2082B82</v>
       </c>
       <c r="H10">
-        <f>HEX2DEC(G10)</f>
-        <v>34087474</v>
+        <f t="shared" si="3"/>
+        <v>34089858</v>
       </c>
       <c r="J10">
-        <f>IF(P10&lt;&gt;"",$B$2+P10*136,"")</f>
-        <v>530898</v>
+        <f t="shared" si="4"/>
+        <v>534850</v>
       </c>
       <c r="K10">
-        <f>IF(I10&lt;&gt;"",I10,J10)</f>
-        <v>530898</v>
+        <f t="shared" si="5"/>
+        <v>534850</v>
       </c>
       <c r="M10" t="s">
         <v>65</v>
@@ -4996,31 +5003,31 @@
         <v>148</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(K11&lt;&gt;"",FLOOR((K11-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f>IF(MOD(K11-$B$3,2)=1,8+L11,L11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G11" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F11*HEX2DEC(10000) +E11)</f>
+        <f t="shared" si="2"/>
         <v>2010000</v>
       </c>
       <c r="H11">
-        <f>HEX2DEC(G11)</f>
+        <f t="shared" si="3"/>
         <v>33619968</v>
       </c>
       <c r="I11">
-        <v>513389</v>
+        <v>512573</v>
       </c>
       <c r="J11" t="str">
-        <f>IF(P11&lt;&gt;"",$B$2+P11*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K11">
-        <f>IF(I11&lt;&gt;"",I11,J11)</f>
-        <v>513389</v>
+        <f t="shared" si="5"/>
+        <v>512573</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -5029,7 +5036,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -5040,7 +5047,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>IF(K12&lt;&gt;"",FLOOR((K12-MIN(K:K))/2,1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F12" s="1" t="e">
@@ -5048,19 +5055,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="G12" t="e">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F12*HEX2DEC(10000) +E12)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="H12" t="e">
-        <f>HEX2DEC(G12)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J12" t="str">
-        <f>IF(P12&lt;&gt;"",$B$2+P12*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K12" t="str">
-        <f>IF(I12&lt;&gt;"",I12,J12)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5078,31 +5085,31 @@
         <v>13</v>
       </c>
       <c r="E13" s="1">
-        <f>IF(K13&lt;&gt;"",FLOOR((K13-MIN(K:K))/2,1),"")</f>
-        <v>8336</v>
+        <f t="shared" si="0"/>
+        <v>10719</v>
       </c>
       <c r="F13" s="1">
-        <f>IF(MOD(K13-$B$3,2)=1,8+L13,L13)</f>
-        <v>8</v>
+        <f t="shared" ref="F13:F25" si="6">IF(MOD(K13-$B$3,2)=1,8+L13,L13)</f>
+        <v>0</v>
       </c>
       <c r="G13" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F13*HEX2DEC(10000) +E13)</f>
-        <v>2082090</v>
+        <f t="shared" si="2"/>
+        <v>20029DF</v>
       </c>
       <c r="H13">
-        <f>HEX2DEC(G13)</f>
-        <v>34087056</v>
+        <f t="shared" si="3"/>
+        <v>33565151</v>
       </c>
       <c r="I13">
-        <v>530062</v>
+        <v>534011</v>
       </c>
       <c r="J13" t="str">
-        <f>IF(P13&lt;&gt;"",$B$2+P13*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K13">
-        <f>IF(I13&lt;&gt;"",I13,J13)</f>
-        <v>530062</v>
+        <f t="shared" si="5"/>
+        <v>534011</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -5125,31 +5132,31 @@
         <v>14</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(K14&lt;&gt;"",FLOOR((K14-MIN(K:K))/2,1),"")</f>
-        <v>8336</v>
+        <f t="shared" si="0"/>
+        <v>10719</v>
       </c>
       <c r="F14" s="1">
-        <f>IF(MOD(K14-$B$3,2)=1,8+L14,L14)</f>
-        <v>9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G14" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F14*HEX2DEC(10000) +E14)</f>
-        <v>2092090</v>
+        <f t="shared" si="2"/>
+        <v>20129DF</v>
       </c>
       <c r="H14">
-        <f>HEX2DEC(G14)</f>
-        <v>34152592</v>
+        <f t="shared" si="3"/>
+        <v>33630687</v>
       </c>
       <c r="I14">
-        <v>530062</v>
+        <v>534011</v>
       </c>
       <c r="J14" t="str">
-        <f>IF(P14&lt;&gt;"",$B$2+P14*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K14">
-        <f>IF(I14&lt;&gt;"",I14,J14)</f>
-        <v>530062</v>
+        <f t="shared" si="5"/>
+        <v>534011</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -5172,31 +5179,31 @@
         <v>15</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(K15&lt;&gt;"",FLOOR((K15-MIN(K:K))/2,1),"")</f>
-        <v>8336</v>
+        <f t="shared" si="0"/>
+        <v>10719</v>
       </c>
       <c r="F15" s="1">
-        <f>IF(MOD(K15-$B$3,2)=1,8+L15,L15)</f>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="G15" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F15*HEX2DEC(10000) +E15)</f>
-        <v>20A2090</v>
+        <f t="shared" si="2"/>
+        <v>20229DF</v>
       </c>
       <c r="H15">
-        <f>HEX2DEC(G15)</f>
-        <v>34218128</v>
+        <f t="shared" si="3"/>
+        <v>33696223</v>
       </c>
       <c r="I15">
-        <v>530062</v>
+        <v>534011</v>
       </c>
       <c r="J15" t="str">
-        <f>IF(P15&lt;&gt;"",$B$2+P15*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K15">
-        <f>IF(I15&lt;&gt;"",I15,J15)</f>
-        <v>530062</v>
+        <f t="shared" si="5"/>
+        <v>534011</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -5219,31 +5226,31 @@
         <v>16</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(K16&lt;&gt;"",FLOOR((K16-MIN(K:K))/2,1),"")</f>
-        <v>8336</v>
+        <f t="shared" si="0"/>
+        <v>10719</v>
       </c>
       <c r="F16" s="1">
-        <f>IF(MOD(K16-$B$3,2)=1,8+L16,L16)</f>
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="G16" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F16*HEX2DEC(10000) +E16)</f>
-        <v>20B2090</v>
+        <f t="shared" si="2"/>
+        <v>20329DF</v>
       </c>
       <c r="H16">
-        <f>HEX2DEC(G16)</f>
-        <v>34283664</v>
+        <f t="shared" si="3"/>
+        <v>33761759</v>
       </c>
       <c r="I16">
-        <v>530062</v>
+        <v>534011</v>
       </c>
       <c r="J16" t="str">
-        <f>IF(P16&lt;&gt;"",$B$2+P16*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K16">
-        <f>IF(I16&lt;&gt;"",I16,J16)</f>
-        <v>530062</v>
+        <f t="shared" si="5"/>
+        <v>534011</v>
       </c>
       <c r="L16">
         <v>3</v>
@@ -5266,31 +5273,31 @@
         <v>66</v>
       </c>
       <c r="E17" s="1">
-        <f>IF(K17&lt;&gt;"",FLOOR((K17-MIN(K:K))/2,1),"")</f>
-        <v>8336</v>
+        <f t="shared" si="0"/>
+        <v>10719</v>
       </c>
       <c r="F17" s="1">
-        <f>IF(MOD(K17-$B$3,2)=1,8+L17,L17)</f>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="G17" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F17*HEX2DEC(10000) +E17)</f>
-        <v>20C2090</v>
+        <f t="shared" si="2"/>
+        <v>20429DF</v>
       </c>
       <c r="H17">
-        <f>HEX2DEC(G17)</f>
-        <v>34349200</v>
+        <f t="shared" si="3"/>
+        <v>33827295</v>
       </c>
       <c r="I17">
-        <v>530062</v>
+        <v>534011</v>
       </c>
       <c r="J17" t="str">
-        <f>IF(P17&lt;&gt;"",$B$2+P17*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K17">
-        <f>IF(I17&lt;&gt;"",I17,J17)</f>
-        <v>530062</v>
+        <f t="shared" si="5"/>
+        <v>534011</v>
       </c>
       <c r="L17">
         <v>4</v>
@@ -5313,31 +5320,31 @@
         <v>67</v>
       </c>
       <c r="E18" s="1">
-        <f>IF(K18&lt;&gt;"",FLOOR((K18-MIN(K:K))/2,1),"")</f>
-        <v>8336</v>
+        <f t="shared" si="0"/>
+        <v>10719</v>
       </c>
       <c r="F18" s="1">
-        <f>IF(MOD(K18-$B$3,2)=1,8+L18,L18)</f>
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="G18" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F18*HEX2DEC(10000) +E18)</f>
-        <v>20D2090</v>
+        <f t="shared" si="2"/>
+        <v>20529DF</v>
       </c>
       <c r="H18">
-        <f>HEX2DEC(G18)</f>
-        <v>34414736</v>
+        <f t="shared" si="3"/>
+        <v>33892831</v>
       </c>
       <c r="I18">
-        <v>530062</v>
+        <v>534011</v>
       </c>
       <c r="J18" t="str">
-        <f>IF(P18&lt;&gt;"",$B$2+P18*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K18">
-        <f>IF(I18&lt;&gt;"",I18,J18)</f>
-        <v>530062</v>
+        <f t="shared" si="5"/>
+        <v>534011</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -5360,31 +5367,31 @@
         <v>68</v>
       </c>
       <c r="E19" s="1">
-        <f>IF(K19&lt;&gt;"",FLOOR((K19-MIN(K:K))/2,1),"")</f>
-        <v>8336</v>
+        <f t="shared" si="0"/>
+        <v>10719</v>
       </c>
       <c r="F19" s="1">
-        <f>IF(MOD(K19-$B$3,2)=1,8+L19,L19)</f>
-        <v>14</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="G19" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F19*HEX2DEC(10000) +E19)</f>
-        <v>20E2090</v>
+        <f t="shared" si="2"/>
+        <v>20629DF</v>
       </c>
       <c r="H19">
-        <f>HEX2DEC(G19)</f>
-        <v>34480272</v>
+        <f t="shared" si="3"/>
+        <v>33958367</v>
       </c>
       <c r="I19">
-        <v>530062</v>
+        <v>534011</v>
       </c>
       <c r="J19" t="str">
-        <f>IF(P19&lt;&gt;"",$B$2+P19*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K19">
-        <f>IF(I19&lt;&gt;"",I19,J19)</f>
-        <v>530062</v>
+        <f t="shared" si="5"/>
+        <v>534011</v>
       </c>
       <c r="L19">
         <v>6</v>
@@ -5407,31 +5414,31 @@
         <v>69</v>
       </c>
       <c r="E20" s="1">
-        <f>IF(K20&lt;&gt;"",FLOOR((K20-MIN(K:K))/2,1),"")</f>
-        <v>8336</v>
+        <f t="shared" si="0"/>
+        <v>10719</v>
       </c>
       <c r="F20" s="1">
-        <f>IF(MOD(K20-$B$3,2)=1,8+L20,L20)</f>
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="G20" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F20*HEX2DEC(10000) +E20)</f>
-        <v>20F2090</v>
+        <f t="shared" si="2"/>
+        <v>20729DF</v>
       </c>
       <c r="H20">
-        <f>HEX2DEC(G20)</f>
-        <v>34545808</v>
+        <f t="shared" si="3"/>
+        <v>34023903</v>
       </c>
       <c r="I20">
-        <v>530062</v>
+        <v>534011</v>
       </c>
       <c r="J20" t="str">
-        <f>IF(P20&lt;&gt;"",$B$2+P20*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K20">
-        <f>IF(I20&lt;&gt;"",I20,J20)</f>
-        <v>530062</v>
+        <f t="shared" si="5"/>
+        <v>534011</v>
       </c>
       <c r="L20">
         <v>7</v>
@@ -5454,28 +5461,28 @@
         <v>70</v>
       </c>
       <c r="E21" s="1">
-        <f>IF(K21&lt;&gt;"",FLOOR((K21-MIN(K:K))/2,1),"")</f>
-        <v>9230</v>
+        <f t="shared" si="0"/>
+        <v>11614</v>
       </c>
       <c r="F21" s="1">
-        <f>IF(MOD(K21-$B$3,2)=1,8+L21,L21)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G21" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F21*HEX2DEC(10000) +E21)</f>
-        <v>208240E</v>
+        <f t="shared" si="2"/>
+        <v>2082D5E</v>
       </c>
       <c r="H21">
-        <f>HEX2DEC(G21)</f>
-        <v>34087950</v>
+        <f t="shared" si="3"/>
+        <v>34090334</v>
       </c>
       <c r="J21">
-        <f>IF(P21&lt;&gt;"",$B$2+P21*136,"")</f>
-        <v>531850</v>
+        <f t="shared" si="4"/>
+        <v>535802</v>
       </c>
       <c r="K21">
-        <f>IF(I21&lt;&gt;"",I21,J21)</f>
-        <v>531850</v>
+        <f t="shared" si="5"/>
+        <v>535802</v>
       </c>
       <c r="M21" t="s">
         <v>75</v>
@@ -5504,28 +5511,28 @@
         <v>71</v>
       </c>
       <c r="E22" s="1">
-        <f>IF(K22&lt;&gt;"",FLOOR((K22-MIN(K:K))/2,1),"")</f>
-        <v>9298</v>
+        <f t="shared" si="0"/>
+        <v>11682</v>
       </c>
       <c r="F22" s="1">
-        <f>IF(MOD(K22-$B$3,2)=1,8+L22,L22)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G22" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F22*HEX2DEC(10000) +E22)</f>
-        <v>2082452</v>
+        <f t="shared" si="2"/>
+        <v>2082DA2</v>
       </c>
       <c r="H22">
-        <f>HEX2DEC(G22)</f>
-        <v>34088018</v>
+        <f t="shared" si="3"/>
+        <v>34090402</v>
       </c>
       <c r="J22">
-        <f>IF(P22&lt;&gt;"",$B$2+P22*136,"")</f>
-        <v>531986</v>
+        <f t="shared" si="4"/>
+        <v>535938</v>
       </c>
       <c r="K22">
-        <f>IF(I22&lt;&gt;"",I22,J22)</f>
-        <v>531986</v>
+        <f t="shared" si="5"/>
+        <v>535938</v>
       </c>
       <c r="M22" t="s">
         <v>76</v>
@@ -5554,28 +5561,28 @@
         <v>72</v>
       </c>
       <c r="E23" s="1">
-        <f>IF(K23&lt;&gt;"",FLOOR((K23-MIN(K:K))/2,1),"")</f>
-        <v>9366</v>
+        <f t="shared" si="0"/>
+        <v>11750</v>
       </c>
       <c r="F23" s="1">
-        <f>IF(MOD(K23-$B$3,2)=1,8+L23,L23)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G23" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F23*HEX2DEC(10000) +E23)</f>
-        <v>2082496</v>
+        <f t="shared" si="2"/>
+        <v>2082DE6</v>
       </c>
       <c r="H23">
-        <f>HEX2DEC(G23)</f>
-        <v>34088086</v>
+        <f t="shared" si="3"/>
+        <v>34090470</v>
       </c>
       <c r="J23">
-        <f>IF(P23&lt;&gt;"",$B$2+P23*136,"")</f>
-        <v>532122</v>
+        <f t="shared" si="4"/>
+        <v>536074</v>
       </c>
       <c r="K23">
-        <f>IF(I23&lt;&gt;"",I23,J23)</f>
-        <v>532122</v>
+        <f t="shared" si="5"/>
+        <v>536074</v>
       </c>
       <c r="M23" t="s">
         <v>77</v>
@@ -5604,28 +5611,28 @@
         <v>73</v>
       </c>
       <c r="E24" s="1">
-        <f>IF(K24&lt;&gt;"",FLOOR((K24-MIN(K:K))/2,1),"")</f>
-        <v>9434</v>
+        <f t="shared" si="0"/>
+        <v>11818</v>
       </c>
       <c r="F24" s="1">
-        <f>IF(MOD(K24-$B$3,2)=1,8+L24,L24)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G24" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F24*HEX2DEC(10000) +E24)</f>
-        <v>20824DA</v>
+        <f t="shared" si="2"/>
+        <v>2082E2A</v>
       </c>
       <c r="H24">
-        <f>HEX2DEC(G24)</f>
-        <v>34088154</v>
+        <f t="shared" si="3"/>
+        <v>34090538</v>
       </c>
       <c r="J24">
-        <f>IF(P24&lt;&gt;"",$B$2+P24*136,"")</f>
-        <v>532258</v>
+        <f t="shared" si="4"/>
+        <v>536210</v>
       </c>
       <c r="K24">
-        <f>IF(I24&lt;&gt;"",I24,J24)</f>
-        <v>532258</v>
+        <f t="shared" si="5"/>
+        <v>536210</v>
       </c>
       <c r="M24" t="s">
         <v>78</v>
@@ -5654,28 +5661,28 @@
         <v>74</v>
       </c>
       <c r="E25" s="1">
-        <f>IF(K25&lt;&gt;"",FLOOR((K25-MIN(K:K))/2,1),"")</f>
-        <v>8822</v>
+        <f t="shared" si="0"/>
+        <v>11206</v>
       </c>
       <c r="F25" s="1">
-        <f>IF(MOD(K25-$B$3,2)=1,8+L25,L25)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G25" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F25*HEX2DEC(10000) +E25)</f>
-        <v>2082276</v>
+        <f t="shared" si="2"/>
+        <v>2082BC6</v>
       </c>
       <c r="H25">
-        <f>HEX2DEC(G25)</f>
-        <v>34087542</v>
+        <f t="shared" si="3"/>
+        <v>34089926</v>
       </c>
       <c r="J25">
-        <f>IF(P25&lt;&gt;"",$B$2+P25*136,"")</f>
-        <v>531034</v>
+        <f t="shared" si="4"/>
+        <v>534986</v>
       </c>
       <c r="K25">
-        <f>IF(I25&lt;&gt;"",I25,J25)</f>
-        <v>531034</v>
+        <f t="shared" si="5"/>
+        <v>534986</v>
       </c>
       <c r="M25" t="s">
         <v>79</v>
@@ -5690,7 +5697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -5701,37 +5708,37 @@
         <v>9</v>
       </c>
       <c r="E26" s="1">
-        <f>IF(K26&lt;&gt;"",FLOOR((K26-MIN(K:K))/2,1),"")</f>
-        <v>4332</v>
+        <f t="shared" si="0"/>
+        <v>4740</v>
       </c>
       <c r="F26" s="1">
-        <f>IF(MOD(K26,2)=1,8+L26,L26)</f>
+        <f t="shared" ref="F26:F31" si="7">IF(MOD(K26,2)=1,8+L26,L26)</f>
         <v>4</v>
       </c>
       <c r="G26" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F26*HEX2DEC(10000) +E26)</f>
-        <v>20410EC</v>
+        <f t="shared" si="2"/>
+        <v>2041284</v>
       </c>
       <c r="H26">
-        <f>HEX2DEC(G26)</f>
-        <v>33820908</v>
+        <f t="shared" si="3"/>
+        <v>33821316</v>
       </c>
       <c r="I26">
         <v>522054</v>
       </c>
       <c r="J26" t="str">
-        <f>IF(P26&lt;&gt;"",$B$2+P26*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K26">
-        <f>IF(I26&lt;&gt;"",I26,J26)</f>
+        <f t="shared" si="5"/>
         <v>522054</v>
       </c>
       <c r="L26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -5742,37 +5749,37 @@
         <v>10</v>
       </c>
       <c r="E27" s="1">
-        <f>IF(K27&lt;&gt;"",FLOOR((K27-MIN(K:K))/2,1),"")</f>
-        <v>4332</v>
+        <f t="shared" si="0"/>
+        <v>4740</v>
       </c>
       <c r="F27" s="1">
-        <f>IF(MOD(K27,2)=1,8+L27,L27)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="G27" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F27*HEX2DEC(10000) +E27)</f>
-        <v>20510EC</v>
+        <f t="shared" si="2"/>
+        <v>2051284</v>
       </c>
       <c r="H27">
-        <f>HEX2DEC(G27)</f>
-        <v>33886444</v>
+        <f t="shared" si="3"/>
+        <v>33886852</v>
       </c>
       <c r="I27">
         <v>522054</v>
       </c>
       <c r="J27" t="str">
-        <f>IF(P27&lt;&gt;"",$B$2+P27*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K27">
-        <f>IF(I27&lt;&gt;"",I27,J27)</f>
+        <f t="shared" si="5"/>
         <v>522054</v>
       </c>
       <c r="L27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -5783,37 +5790,37 @@
         <v>11</v>
       </c>
       <c r="E28" s="1">
-        <f>IF(K28&lt;&gt;"",FLOOR((K28-MIN(K:K))/2,1),"")</f>
-        <v>4332</v>
+        <f t="shared" si="0"/>
+        <v>4740</v>
       </c>
       <c r="F28" s="1">
-        <f>IF(MOD(K28,2)=1,8+L28,L28)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="G28" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F28*HEX2DEC(10000) +E28)</f>
-        <v>20610EC</v>
+        <f t="shared" si="2"/>
+        <v>2061284</v>
       </c>
       <c r="H28">
-        <f>HEX2DEC(G28)</f>
-        <v>33951980</v>
+        <f t="shared" si="3"/>
+        <v>33952388</v>
       </c>
       <c r="I28">
         <v>522054</v>
       </c>
       <c r="J28" t="str">
-        <f>IF(P28&lt;&gt;"",$B$2+P28*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K28">
-        <f>IF(I28&lt;&gt;"",I28,J28)</f>
+        <f t="shared" si="5"/>
         <v>522054</v>
       </c>
       <c r="L28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -5824,37 +5831,37 @@
         <v>12</v>
       </c>
       <c r="E29" s="1">
-        <f>IF(K29&lt;&gt;"",FLOOR((K29-MIN(K:K))/2,1),"")</f>
-        <v>4332</v>
+        <f t="shared" si="0"/>
+        <v>4740</v>
       </c>
       <c r="F29" s="1">
-        <f>IF(MOD(K29,2)=1,8+L29,L29)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="G29" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F29*HEX2DEC(10000) +E29)</f>
-        <v>20710EC</v>
+        <f t="shared" si="2"/>
+        <v>2071284</v>
       </c>
       <c r="H29">
-        <f>HEX2DEC(G29)</f>
-        <v>34017516</v>
+        <f t="shared" si="3"/>
+        <v>34017924</v>
       </c>
       <c r="I29">
         <v>522054</v>
       </c>
       <c r="J29" t="str">
-        <f>IF(P29&lt;&gt;"",$B$2+P29*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K29">
-        <f>IF(I29&lt;&gt;"",I29,J29)</f>
+        <f t="shared" si="5"/>
         <v>522054</v>
       </c>
       <c r="L29">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -5865,37 +5872,37 @@
         <v>13</v>
       </c>
       <c r="E30" s="1">
-        <f>IF(K30&lt;&gt;"",FLOOR((K30-MIN(K:K))/2,1),"")</f>
-        <v>4332</v>
+        <f t="shared" si="0"/>
+        <v>4740</v>
       </c>
       <c r="F30" s="1">
-        <f>IF(MOD(K30,2)=1,8+L30,L30)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G30" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F30*HEX2DEC(10000) +E30)</f>
-        <v>20010EC</v>
+        <f t="shared" si="2"/>
+        <v>2001284</v>
       </c>
       <c r="H30">
-        <f>HEX2DEC(G30)</f>
-        <v>33558764</v>
+        <f t="shared" si="3"/>
+        <v>33559172</v>
       </c>
       <c r="I30">
         <v>522054</v>
       </c>
       <c r="J30" t="str">
-        <f>IF(P30&lt;&gt;"",$B$2+P30*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K30">
-        <f>IF(I30&lt;&gt;"",I30,J30)</f>
+        <f t="shared" si="5"/>
         <v>522054</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -5906,30 +5913,30 @@
         <v>14</v>
       </c>
       <c r="E31" s="1">
-        <f>IF(K31&lt;&gt;"",FLOOR((K31-MIN(K:K))/2,1),"")</f>
-        <v>4332</v>
+        <f t="shared" si="0"/>
+        <v>4740</v>
       </c>
       <c r="F31" s="1">
-        <f>IF(MOD(K31,2)=1,8+L31,L31)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G31" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F31*HEX2DEC(10000) +E31)</f>
-        <v>20110EC</v>
+        <f t="shared" si="2"/>
+        <v>2011284</v>
       </c>
       <c r="H31">
-        <f>HEX2DEC(G31)</f>
-        <v>33624300</v>
+        <f t="shared" si="3"/>
+        <v>33624708</v>
       </c>
       <c r="I31">
         <v>522054</v>
       </c>
       <c r="J31" t="str">
-        <f>IF(P31&lt;&gt;"",$B$2+P31*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K31">
-        <f>IF(I31&lt;&gt;"",I31,J31)</f>
+        <f t="shared" si="5"/>
         <v>522054</v>
       </c>
       <c r="L31">
@@ -5950,28 +5957,28 @@
         <v>80</v>
       </c>
       <c r="E32" s="1">
-        <f>IF(K32&lt;&gt;"",FLOOR((K32-MIN(K:K))/2,1),"")</f>
-        <v>8890</v>
+        <f t="shared" si="0"/>
+        <v>11274</v>
       </c>
       <c r="F32" s="1">
-        <f>IF(MOD(K32-$B$3,2)=1,8+L32,L32)</f>
+        <f t="shared" ref="F32:F49" si="8">IF(MOD(K32-$B$3,2)=1,8+L32,L32)</f>
         <v>8</v>
       </c>
       <c r="G32" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F32*HEX2DEC(10000) +E32)</f>
-        <v>20822BA</v>
+        <f t="shared" si="2"/>
+        <v>2082C0A</v>
       </c>
       <c r="H32">
-        <f>HEX2DEC(G32)</f>
-        <v>34087610</v>
+        <f t="shared" si="3"/>
+        <v>34089994</v>
       </c>
       <c r="J32">
-        <f>IF(P32&lt;&gt;"",$B$2+P32*136,"")</f>
-        <v>531170</v>
+        <f t="shared" si="4"/>
+        <v>535122</v>
       </c>
       <c r="K32">
-        <f>IF(I32&lt;&gt;"",I32,J32)</f>
-        <v>531170</v>
+        <f t="shared" si="5"/>
+        <v>535122</v>
       </c>
       <c r="M32" t="s">
         <v>91</v>
@@ -6000,28 +6007,28 @@
         <v>81</v>
       </c>
       <c r="E33" s="1">
-        <f>IF(K33&lt;&gt;"",FLOOR((K33-MIN(K:K))/2,1),"")</f>
-        <v>8958</v>
+        <f t="shared" si="0"/>
+        <v>11342</v>
       </c>
       <c r="F33" s="1">
-        <f>IF(MOD(K33-$B$3,2)=1,8+L33,L33)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G33" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F33*HEX2DEC(10000) +E33)</f>
-        <v>20822FE</v>
+        <f t="shared" si="2"/>
+        <v>2082C4E</v>
       </c>
       <c r="H33">
-        <f>HEX2DEC(G33)</f>
-        <v>34087678</v>
+        <f t="shared" si="3"/>
+        <v>34090062</v>
       </c>
       <c r="J33">
-        <f>IF(P33&lt;&gt;"",$B$2+P33*136,"")</f>
-        <v>531306</v>
+        <f t="shared" si="4"/>
+        <v>535258</v>
       </c>
       <c r="K33">
-        <f>IF(I33&lt;&gt;"",I33,J33)</f>
-        <v>531306</v>
+        <f t="shared" si="5"/>
+        <v>535258</v>
       </c>
       <c r="M33" t="s">
         <v>92</v>
@@ -6050,28 +6057,28 @@
         <v>82</v>
       </c>
       <c r="E34" s="1">
-        <f>IF(K34&lt;&gt;"",FLOOR((K34-MIN(K:K))/2,1),"")</f>
-        <v>9026</v>
+        <f t="shared" si="0"/>
+        <v>11410</v>
       </c>
       <c r="F34" s="1">
-        <f>IF(MOD(K34-$B$3,2)=1,8+L34,L34)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G34" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F34*HEX2DEC(10000) +E34)</f>
-        <v>2082342</v>
+        <f t="shared" si="2"/>
+        <v>2082C92</v>
       </c>
       <c r="H34">
-        <f>HEX2DEC(G34)</f>
-        <v>34087746</v>
+        <f t="shared" si="3"/>
+        <v>34090130</v>
       </c>
       <c r="J34">
-        <f>IF(P34&lt;&gt;"",$B$2+P34*136,"")</f>
-        <v>531442</v>
+        <f t="shared" si="4"/>
+        <v>535394</v>
       </c>
       <c r="K34">
-        <f>IF(I34&lt;&gt;"",I34,J34)</f>
-        <v>531442</v>
+        <f t="shared" si="5"/>
+        <v>535394</v>
       </c>
       <c r="M34" t="s">
         <v>93</v>
@@ -6100,28 +6107,28 @@
         <v>83</v>
       </c>
       <c r="E35" s="1">
-        <f>IF(K35&lt;&gt;"",FLOOR((K35-MIN(K:K))/2,1),"")</f>
-        <v>9094</v>
+        <f t="shared" si="0"/>
+        <v>11478</v>
       </c>
       <c r="F35" s="1">
-        <f>IF(MOD(K35-$B$3,2)=1,8+L35,L35)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G35" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F35*HEX2DEC(10000) +E35)</f>
-        <v>2082386</v>
+        <f t="shared" si="2"/>
+        <v>2082CD6</v>
       </c>
       <c r="H35">
-        <f>HEX2DEC(G35)</f>
-        <v>34087814</v>
+        <f t="shared" si="3"/>
+        <v>34090198</v>
       </c>
       <c r="J35">
-        <f>IF(P35&lt;&gt;"",$B$2+P35*136,"")</f>
-        <v>531578</v>
+        <f t="shared" si="4"/>
+        <v>535530</v>
       </c>
       <c r="K35">
-        <f>IF(I35&lt;&gt;"",I35,J35)</f>
-        <v>531578</v>
+        <f t="shared" si="5"/>
+        <v>535530</v>
       </c>
       <c r="M35" t="s">
         <v>94</v>
@@ -6150,28 +6157,28 @@
         <v>84</v>
       </c>
       <c r="E36" s="1">
-        <f>IF(K36&lt;&gt;"",FLOOR((K36-MIN(K:K))/2,1),"")</f>
-        <v>9162</v>
+        <f t="shared" si="0"/>
+        <v>11546</v>
       </c>
       <c r="F36" s="1">
-        <f>IF(MOD(K36-$B$3,2)=1,8+L36,L36)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G36" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F36*HEX2DEC(10000) +E36)</f>
-        <v>20823CA</v>
+        <f t="shared" si="2"/>
+        <v>2082D1A</v>
       </c>
       <c r="H36">
-        <f>HEX2DEC(G36)</f>
-        <v>34087882</v>
+        <f t="shared" si="3"/>
+        <v>34090266</v>
       </c>
       <c r="J36">
-        <f>IF(P36&lt;&gt;"",$B$2+P36*136,"")</f>
-        <v>531714</v>
+        <f t="shared" si="4"/>
+        <v>535666</v>
       </c>
       <c r="K36">
-        <f>IF(I36&lt;&gt;"",I36,J36)</f>
-        <v>531714</v>
+        <f t="shared" si="5"/>
+        <v>535666</v>
       </c>
       <c r="M36" t="s">
         <v>95</v>
@@ -6200,31 +6207,31 @@
         <v>87</v>
       </c>
       <c r="E37" s="1">
-        <f>IF(K37&lt;&gt;"",FLOOR((K37-MIN(K:K))/2,1),"")</f>
-        <v>8403</v>
+        <f t="shared" si="0"/>
+        <v>10785</v>
       </c>
       <c r="F37" s="1">
-        <f>IF(MOD(K37-$B$3,2)=1,8+L37,L37)</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="G37" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F37*HEX2DEC(10000) +E37)</f>
-        <v>20020D3</v>
+        <f t="shared" si="2"/>
+        <v>2082A21</v>
       </c>
       <c r="H37">
-        <f>HEX2DEC(G37)</f>
-        <v>33562835</v>
+        <f t="shared" si="3"/>
+        <v>34089505</v>
       </c>
       <c r="I37">
-        <v>530195</v>
+        <v>534144</v>
       </c>
       <c r="J37" t="str">
-        <f>IF(P37&lt;&gt;"",$B$2+P37*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K37">
-        <f>IF(I37&lt;&gt;"",I37,J37)</f>
-        <v>530195</v>
+        <f t="shared" si="5"/>
+        <v>534144</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -6247,31 +6254,31 @@
         <v>88</v>
       </c>
       <c r="E38" s="1">
-        <f>IF(K38&lt;&gt;"",FLOOR((K38-MIN(K:K))/2,1),"")</f>
-        <v>8403</v>
+        <f t="shared" si="0"/>
+        <v>10785</v>
       </c>
       <c r="F38" s="1">
-        <f>IF(MOD(K38-$B$3,2)=1,8+L38,L38)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>9</v>
       </c>
       <c r="G38" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F38*HEX2DEC(10000) +E38)</f>
-        <v>20120D3</v>
+        <f t="shared" si="2"/>
+        <v>2092A21</v>
       </c>
       <c r="H38">
-        <f>HEX2DEC(G38)</f>
-        <v>33628371</v>
+        <f t="shared" si="3"/>
+        <v>34155041</v>
       </c>
       <c r="I38">
-        <v>530195</v>
+        <v>534144</v>
       </c>
       <c r="J38" t="str">
-        <f>IF(P38&lt;&gt;"",$B$2+P38*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K38">
-        <f>IF(I38&lt;&gt;"",I38,J38)</f>
-        <v>530195</v>
+        <f t="shared" si="5"/>
+        <v>534144</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -6294,31 +6301,31 @@
         <v>89</v>
       </c>
       <c r="E39" s="1">
-        <f>IF(K39&lt;&gt;"",FLOOR((K39-MIN(K:K))/2,1),"")</f>
-        <v>8403</v>
+        <f t="shared" si="0"/>
+        <v>10785</v>
       </c>
       <c r="F39" s="1">
-        <f>IF(MOD(K39-$B$3,2)=1,8+L39,L39)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="G39" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F39*HEX2DEC(10000) +E39)</f>
-        <v>20220D3</v>
+        <f t="shared" si="2"/>
+        <v>20A2A21</v>
       </c>
       <c r="H39">
-        <f>HEX2DEC(G39)</f>
-        <v>33693907</v>
+        <f t="shared" si="3"/>
+        <v>34220577</v>
       </c>
       <c r="I39">
-        <v>530195</v>
+        <v>534144</v>
       </c>
       <c r="J39" t="str">
-        <f>IF(P39&lt;&gt;"",$B$2+P39*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K39">
-        <f>IF(I39&lt;&gt;"",I39,J39)</f>
-        <v>530195</v>
+        <f t="shared" si="5"/>
+        <v>534144</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -6341,31 +6348,31 @@
         <v>90</v>
       </c>
       <c r="E40" s="1">
-        <f>IF(K40&lt;&gt;"",FLOOR((K40-MIN(K:K))/2,1),"")</f>
-        <v>8403</v>
+        <f t="shared" si="0"/>
+        <v>10785</v>
       </c>
       <c r="F40" s="1">
-        <f>IF(MOD(K40-$B$3,2)=1,8+L40,L40)</f>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>11</v>
       </c>
       <c r="G40" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F40*HEX2DEC(10000) +E40)</f>
-        <v>20320D3</v>
+        <f t="shared" si="2"/>
+        <v>20B2A21</v>
       </c>
       <c r="H40">
-        <f>HEX2DEC(G40)</f>
-        <v>33759443</v>
+        <f t="shared" si="3"/>
+        <v>34286113</v>
       </c>
       <c r="I40">
-        <v>530195</v>
+        <v>534144</v>
       </c>
       <c r="J40" t="str">
-        <f>IF(P40&lt;&gt;"",$B$2+P40*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K40">
-        <f>IF(I40&lt;&gt;"",I40,J40)</f>
-        <v>530195</v>
+        <f t="shared" si="5"/>
+        <v>534144</v>
       </c>
       <c r="L40">
         <v>3</v>
@@ -6388,31 +6395,31 @@
         <v>149</v>
       </c>
       <c r="E41" s="1">
-        <f>IF(K41&lt;&gt;"",FLOOR((K41-MIN(K:K))/2,1),"")</f>
-        <v>8337</v>
+        <f t="shared" si="0"/>
+        <v>10721</v>
       </c>
       <c r="F41" s="1">
-        <f>IF(MOD(K41-$B$3,2)=1,8+L41,L41)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G41" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F41*HEX2DEC(10000) +E41)</f>
-        <v>2022091</v>
+        <f t="shared" si="2"/>
+        <v>20229E1</v>
       </c>
       <c r="H41">
-        <f>HEX2DEC(G41)</f>
-        <v>33693841</v>
+        <f t="shared" si="3"/>
+        <v>33696225</v>
       </c>
       <c r="I41">
-        <v>530063</v>
+        <v>534015</v>
       </c>
       <c r="J41" t="str">
-        <f>IF(P41&lt;&gt;"",$B$2+P41*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K41">
-        <f>IF(I41&lt;&gt;"",I41,J41)</f>
-        <v>530063</v>
+        <f t="shared" si="5"/>
+        <v>534015</v>
       </c>
       <c r="L41">
         <v>2</v>
@@ -6435,31 +6442,31 @@
         <v>150</v>
       </c>
       <c r="E42" s="1">
-        <f>IF(K42&lt;&gt;"",FLOOR((K42-MIN(K:K))/2,1),"")</f>
-        <v>8337</v>
+        <f t="shared" si="0"/>
+        <v>10721</v>
       </c>
       <c r="F42" s="1">
-        <f>IF(MOD(K42-$B$3,2)=1,8+L42,L42)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="G42" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F42*HEX2DEC(10000) +E42)</f>
-        <v>2032091</v>
+        <f t="shared" si="2"/>
+        <v>20329E1</v>
       </c>
       <c r="H42">
-        <f>HEX2DEC(G42)</f>
-        <v>33759377</v>
+        <f t="shared" si="3"/>
+        <v>33761761</v>
       </c>
       <c r="I42">
-        <v>530063</v>
+        <v>534015</v>
       </c>
       <c r="J42" t="str">
-        <f>IF(P42&lt;&gt;"",$B$2+P42*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K42">
-        <f>IF(I42&lt;&gt;"",I42,J42)</f>
-        <v>530063</v>
+        <f t="shared" si="5"/>
+        <v>534015</v>
       </c>
       <c r="L42">
         <v>3</v>
@@ -6482,31 +6489,31 @@
         <v>85</v>
       </c>
       <c r="E43" s="1">
-        <f>IF(K43&lt;&gt;"",FLOOR((K43-MIN(K:K))/2,1),"")</f>
-        <v>8337</v>
+        <f t="shared" si="0"/>
+        <v>10721</v>
       </c>
       <c r="F43" s="1">
-        <f>IF(MOD(K43-$B$3,2)=1,8+L43,L43)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G43" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F43*HEX2DEC(10000) +E43)</f>
-        <v>2002091</v>
+        <f t="shared" si="2"/>
+        <v>20029E1</v>
       </c>
       <c r="H43">
-        <f>HEX2DEC(G43)</f>
-        <v>33562769</v>
+        <f t="shared" si="3"/>
+        <v>33565153</v>
       </c>
       <c r="I43">
-        <v>530063</v>
+        <v>534015</v>
       </c>
       <c r="J43" t="str">
-        <f>IF(P43&lt;&gt;"",$B$2+P43*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K43">
-        <f>IF(I43&lt;&gt;"",I43,J43)</f>
-        <v>530063</v>
+        <f t="shared" si="5"/>
+        <v>534015</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -6529,31 +6536,31 @@
         <v>86</v>
       </c>
       <c r="E44" s="1">
-        <f>IF(K44&lt;&gt;"",FLOOR((K44-MIN(K:K))/2,1),"")</f>
-        <v>8337</v>
+        <f t="shared" si="0"/>
+        <v>10721</v>
       </c>
       <c r="F44" s="1">
-        <f>IF(MOD(K44-$B$3,2)=1,8+L44,L44)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G44" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F44*HEX2DEC(10000) +E44)</f>
-        <v>2012091</v>
+        <f t="shared" si="2"/>
+        <v>20129E1</v>
       </c>
       <c r="H44">
-        <f>HEX2DEC(G44)</f>
-        <v>33628305</v>
+        <f t="shared" si="3"/>
+        <v>33630689</v>
       </c>
       <c r="I44">
-        <v>530063</v>
+        <v>534015</v>
       </c>
       <c r="J44" t="str">
-        <f>IF(P44&lt;&gt;"",$B$2+P44*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K44">
-        <f>IF(I44&lt;&gt;"",I44,J44)</f>
-        <v>530063</v>
+        <f t="shared" si="5"/>
+        <v>534015</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -6576,31 +6583,31 @@
         <v>141</v>
       </c>
       <c r="E45" s="1">
-        <f>IF(K45&lt;&gt;"",FLOOR((K45-MIN(K:K))/2,1),"")</f>
-        <v>8401</v>
+        <f t="shared" si="0"/>
+        <v>10719</v>
       </c>
       <c r="F45" s="1">
-        <f>IF(MOD(K45-$B$3,2)=1,8+L45,L45)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G45" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F45*HEX2DEC(10000) +E45)</f>
-        <v>20820D1</v>
+        <f t="shared" si="2"/>
+        <v>20829DF</v>
       </c>
       <c r="H45">
-        <f>HEX2DEC(G45)</f>
-        <v>34087121</v>
+        <f t="shared" si="3"/>
+        <v>34089439</v>
       </c>
       <c r="I45">
-        <v>530192</v>
+        <v>534012</v>
       </c>
       <c r="J45" t="str">
-        <f>IF(P45&lt;&gt;"",$B$2+P45*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K45">
-        <f>IF(I45&lt;&gt;"",I45,J45)</f>
-        <v>530192</v>
+        <f t="shared" si="5"/>
+        <v>534012</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -6623,31 +6630,31 @@
         <v>142</v>
       </c>
       <c r="E46" s="1">
-        <f>IF(K46&lt;&gt;"",FLOOR((K46-MIN(K:K))/2,1),"")</f>
-        <v>8401</v>
+        <f t="shared" si="0"/>
+        <v>10719</v>
       </c>
       <c r="F46" s="1">
-        <f>IF(MOD(K46-$B$3,2)=1,8+L46,L46)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G46" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F46*HEX2DEC(10000) +E46)</f>
-        <v>20920D1</v>
+        <f t="shared" si="2"/>
+        <v>20929DF</v>
       </c>
       <c r="H46">
-        <f>HEX2DEC(G46)</f>
-        <v>34152657</v>
+        <f t="shared" si="3"/>
+        <v>34154975</v>
       </c>
       <c r="I46">
-        <v>530192</v>
+        <v>534012</v>
       </c>
       <c r="J46" t="str">
-        <f>IF(P46&lt;&gt;"",$B$2+P46*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K46">
-        <f>IF(I46&lt;&gt;"",I46,J46)</f>
-        <v>530192</v>
+        <f t="shared" si="5"/>
+        <v>534012</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -6670,31 +6677,31 @@
         <v>143</v>
       </c>
       <c r="E47" s="1">
-        <f>IF(K47&lt;&gt;"",FLOOR((K47-MIN(K:K))/2,1),"")</f>
-        <v>8401</v>
+        <f t="shared" si="0"/>
+        <v>10720</v>
       </c>
       <c r="F47" s="1">
-        <f>IF(MOD(K47-$B$3,2)=1,8+L47,L47)</f>
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="G47" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F47*HEX2DEC(10000) +E47)</f>
-        <v>20E20D1</v>
+        <f t="shared" si="2"/>
+        <v>20629E0</v>
       </c>
       <c r="H47">
-        <f>HEX2DEC(G47)</f>
-        <v>34480337</v>
+        <f t="shared" si="3"/>
+        <v>33958368</v>
       </c>
       <c r="I47">
-        <v>530192</v>
+        <v>534013</v>
       </c>
       <c r="J47" t="str">
-        <f>IF(P47&lt;&gt;"",$B$2+P47*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K47">
-        <f>IF(I47&lt;&gt;"",I47,J47)</f>
-        <v>530192</v>
+        <f t="shared" si="5"/>
+        <v>534013</v>
       </c>
       <c r="L47">
         <v>6</v>
@@ -6717,31 +6724,31 @@
         <v>144</v>
       </c>
       <c r="E48" s="1">
-        <f>IF(K48&lt;&gt;"",FLOOR((K48-MIN(K:K))/2,1),"")</f>
-        <v>8401</v>
+        <f t="shared" si="0"/>
+        <v>10720</v>
       </c>
       <c r="F48" s="1">
-        <f>IF(MOD(K48-$B$3,2)=1,8+L48,L48)</f>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="G48" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F48*HEX2DEC(10000) +E48)</f>
-        <v>20F20D1</v>
+        <f t="shared" si="2"/>
+        <v>20729E0</v>
       </c>
       <c r="H48">
-        <f>HEX2DEC(G48)</f>
-        <v>34545873</v>
+        <f t="shared" si="3"/>
+        <v>34023904</v>
       </c>
       <c r="I48">
-        <v>530192</v>
+        <v>534013</v>
       </c>
       <c r="J48" t="str">
-        <f>IF(P48&lt;&gt;"",$B$2+P48*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K48">
-        <f>IF(I48&lt;&gt;"",I48,J48)</f>
-        <v>530192</v>
+        <f t="shared" si="5"/>
+        <v>534013</v>
       </c>
       <c r="L48">
         <v>7</v>
@@ -6764,31 +6771,31 @@
         <v>145</v>
       </c>
       <c r="E49" s="1">
-        <f>IF(K49&lt;&gt;"",FLOOR((K49-MIN(K:K))/2,1),"")</f>
-        <v>8401</v>
+        <f t="shared" si="0"/>
+        <v>10720</v>
       </c>
       <c r="F49" s="1">
-        <f>IF(MOD(K49-$B$3,2)=1,8+L49,L49)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="G49" t="str">
-        <f>DEC2HEX(B$1*HEX2DEC(1000000) +F49*HEX2DEC(10000) +E49)</f>
-        <v>20820D1</v>
+        <f t="shared" si="2"/>
+        <v>20829E0</v>
       </c>
       <c r="H49">
-        <f>HEX2DEC(G49)</f>
-        <v>34087121</v>
+        <f t="shared" si="3"/>
+        <v>34089440</v>
       </c>
       <c r="I49">
-        <v>530192</v>
+        <v>534014</v>
       </c>
       <c r="J49" t="str">
-        <f>IF(P49&lt;&gt;"",$B$2+P49*136,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K49">
-        <f>IF(I49&lt;&gt;"",I49,J49)</f>
-        <v>530192</v>
+        <f t="shared" si="5"/>
+        <v>534014</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -6799,6 +6806,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A4:P49" xr:uid="{39ED0021-5E2A-4DF1-81B3-2053C7857DD9}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState ref="A5:P49">
       <sortCondition ref="B5:B49"/>
       <sortCondition ref="C5:C49"/>

--- a/D/iotable.xlsx
+++ b/D/iotable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B340197-E07A-49CA-9D49-E160BC233D22}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA106AC5-3348-489A-89A7-5C43673621E1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="239">
   <si>
     <t>Channel</t>
   </si>
@@ -743,6 +743,12 @@
   </si>
   <si>
     <t>門禁解鎖</t>
+  </si>
+  <si>
+    <t>接收時間</t>
+  </si>
+  <si>
+    <t>觸發止檔延時</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1170,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7:H82"/>
     </sheetView>
   </sheetViews>
@@ -1202,7 +1208,7 @@
         <v>120</v>
       </c>
       <c r="B2">
-        <v>534172</v>
+        <v>533876</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1210,7 +1216,7 @@
         <v>121</v>
       </c>
       <c r="B3">
-        <v>534176</v>
+        <v>533880</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1218,7 +1224,7 @@
         <v>115</v>
       </c>
       <c r="B4">
-        <v>536343</v>
+        <v>536047</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1310,7 +1316,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" ref="E7:E38" si="0">IF(K7&lt;&gt;"",FLOOR((K7-MIN(K:K))/2,1),"")</f>
-        <v>12085</v>
+        <v>11937</v>
       </c>
       <c r="F7" s="1">
         <f>IF(MOD(K7-$B$5,2)=1,8+L7,L7)</f>
@@ -1318,19 +1324,19 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" ref="G7:G38" si="1">DEC2HEX(B$1*HEX2DEC(1000000) +F7*HEX2DEC(10000) +E7)</f>
-        <v>1002F35</v>
+        <v>1002EA1</v>
       </c>
       <c r="H7">
         <f t="shared" ref="H7:H40" si="2">HEX2DEC(G7)</f>
-        <v>16789301</v>
+        <v>16789153</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7:J38" si="3">IF(P7&lt;&gt;"",P7*136+$B$2,IF(Q7&lt;&gt;"",Q7*136+$B$2,IF(S7&lt;&gt;"",S7*80+$B$4,"")))</f>
-        <v>536743</v>
+        <v>536447</v>
       </c>
       <c r="K7">
         <f>IF(AND(I7&lt;&gt;"",D7&lt;&gt;""),I7,J7)</f>
-        <v>536743</v>
+        <v>536447</v>
       </c>
       <c r="N7" t="s">
         <v>152</v>
@@ -1357,7 +1363,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>12125</v>
+        <v>11977</v>
       </c>
       <c r="F8" s="1">
         <f>IF(MOD(K8-$B$5,2)=1,8+L8,L8)</f>
@@ -1365,19 +1371,19 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>1002F5D</v>
+        <v>1002EC9</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>16789341</v>
+        <v>16789193</v>
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>536823</v>
+        <v>536527</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8:K71" si="4">IF(AND(I8&lt;&gt;"",D8&lt;&gt;""),I8,J8)</f>
-        <v>536823</v>
+        <v>536527</v>
       </c>
       <c r="N8" t="s">
         <v>153</v>
@@ -1404,7 +1410,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>12165</v>
+        <v>12017</v>
       </c>
       <c r="F9" s="1">
         <f>IF(MOD(K9-$B$5,2)=1,8+L9,L9)</f>
@@ -1412,19 +1418,19 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>1002F85</v>
+        <v>1002EF1</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>16789381</v>
+        <v>16789233</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>536903</v>
+        <v>536607</v>
       </c>
       <c r="K9">
         <f t="shared" si="4"/>
-        <v>536903</v>
+        <v>536607</v>
       </c>
       <c r="N9" t="s">
         <v>154</v>
@@ -1451,7 +1457,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>12205</v>
+        <v>12057</v>
       </c>
       <c r="F10" s="1">
         <f>IF(MOD(K10-$B$5,2)=1,8+L10,L10)</f>
@@ -1459,19 +1465,19 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>1002FAD</v>
+        <v>1002F19</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>16789421</v>
+        <v>16789273</v>
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>536983</v>
+        <v>536687</v>
       </c>
       <c r="K10">
         <f t="shared" si="4"/>
-        <v>536983</v>
+        <v>536687</v>
       </c>
       <c r="N10" t="s">
         <v>155</v>
@@ -1498,7 +1504,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>12045</v>
+        <v>11897</v>
       </c>
       <c r="F11" s="1">
         <f>IF(MOD(K11-$B$5,2)=1,8+L11,L11)</f>
@@ -1506,19 +1512,19 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>1002F0D</v>
+        <v>1002E79</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>16789261</v>
+        <v>16789113</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>536663</v>
+        <v>536367</v>
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
-        <v>536663</v>
+        <v>536367</v>
       </c>
       <c r="N11" t="s">
         <v>156</v>
@@ -1650,7 +1656,7 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>10799</v>
+        <v>10651</v>
       </c>
       <c r="F15" s="1">
         <f>IF(MOD(K15-$B$5,2)=1,8+L15,L15)</f>
@@ -1658,19 +1664,19 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>1082A2F</v>
+        <v>108299B</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>17312303</v>
+        <v>17312155</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>534172</v>
+        <v>533876</v>
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
-        <v>534172</v>
+        <v>533876</v>
       </c>
       <c r="N15" t="s">
         <v>157</v>
@@ -1697,7 +1703,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>10867</v>
+        <v>10719</v>
       </c>
       <c r="F16" s="1">
         <f>IF(MOD(K16-$B$5,2)=1,8+L16,L16)</f>
@@ -1705,19 +1711,19 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>1082A73</v>
+        <v>10829DF</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>17312371</v>
+        <v>17312223</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
-        <v>534308</v>
+        <v>534012</v>
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
-        <v>534308</v>
+        <v>534012</v>
       </c>
       <c r="N16" t="s">
         <v>159</v>
@@ -1747,7 +1753,7 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>10867</v>
+        <v>10719</v>
       </c>
       <c r="F17" s="1">
         <f>IF(MOD(K17-$B$5,2)=1,8+L17,L17)</f>
@@ -1755,19 +1761,19 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>1082A73</v>
+        <v>10829DF</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>17312371</v>
+        <v>17312223</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
-        <v>534308</v>
+        <v>534012</v>
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
-        <v>534308</v>
+        <v>534012</v>
       </c>
       <c r="N17" t="s">
         <v>158</v>
@@ -1794,7 +1800,7 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>10935</v>
+        <v>10787</v>
       </c>
       <c r="F18" s="1">
         <f>IF(MOD(K18-$B$5,2)=1,8+L18,L18)</f>
@@ -1802,19 +1808,19 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>1082AB7</v>
+        <v>1082A23</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>17312439</v>
+        <v>17312291</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
-        <v>534444</v>
+        <v>534148</v>
       </c>
       <c r="K18">
         <f t="shared" si="4"/>
-        <v>534444</v>
+        <v>534148</v>
       </c>
       <c r="N18" t="s">
         <v>160</v>
@@ -1876,7 +1882,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>11965</v>
+        <v>11817</v>
       </c>
       <c r="F20" s="1">
         <f>IF(MOD(K20-$B$5,2)=1,8+L20,L20)</f>
@@ -1884,19 +1890,19 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>1002EBD</v>
+        <v>1002E29</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>16789181</v>
+        <v>16789033</v>
       </c>
       <c r="J20">
         <f t="shared" si="3"/>
-        <v>536503</v>
+        <v>536207</v>
       </c>
       <c r="K20">
         <f t="shared" si="4"/>
-        <v>536503</v>
+        <v>536207</v>
       </c>
       <c r="N20" t="s">
         <v>162</v>
@@ -2005,7 +2011,7 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>11275</v>
+        <v>11127</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ref="F23:F36" si="5">IF(MOD(K23-$B$5,2)=1,8+L23,L23)</f>
@@ -2013,19 +2019,19 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>1082C0B</v>
+        <v>1082B77</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>17312779</v>
+        <v>17312631</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>535124</v>
+        <v>534828</v>
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
-        <v>535124</v>
+        <v>534828</v>
       </c>
       <c r="N23" t="s">
         <v>163</v>
@@ -2052,7 +2058,7 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>11343</v>
+        <v>11195</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="5"/>
@@ -2060,19 +2066,19 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>1082C4F</v>
+        <v>1082BBB</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>17312847</v>
+        <v>17312699</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>535260</v>
+        <v>534964</v>
       </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>535260</v>
+        <v>534964</v>
       </c>
       <c r="N24" t="s">
         <v>164</v>
@@ -2099,7 +2105,7 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>11411</v>
+        <v>11263</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="5"/>
@@ -2107,19 +2113,19 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>1082C93</v>
+        <v>1082BFF</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>17312915</v>
+        <v>17312767</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>535396</v>
+        <v>535100</v>
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>535396</v>
+        <v>535100</v>
       </c>
       <c r="N25" t="s">
         <v>165</v>
@@ -2146,7 +2152,7 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>11479</v>
+        <v>11331</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="5"/>
@@ -2154,19 +2160,19 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>1082CD7</v>
+        <v>1082C43</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>17312983</v>
+        <v>17312835</v>
       </c>
       <c r="J26">
         <f t="shared" si="3"/>
-        <v>535532</v>
+        <v>535236</v>
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
-        <v>535532</v>
+        <v>535236</v>
       </c>
       <c r="N26" t="s">
         <v>166</v>
@@ -2193,7 +2199,7 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>11547</v>
+        <v>11399</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="5"/>
@@ -2201,19 +2207,19 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>1082D1B</v>
+        <v>1082C87</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>17313051</v>
+        <v>17312903</v>
       </c>
       <c r="J27">
         <f t="shared" si="3"/>
-        <v>535668</v>
+        <v>535372</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>535668</v>
+        <v>535372</v>
       </c>
       <c r="N27" t="s">
         <v>169</v>
@@ -2243,7 +2249,7 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>11547</v>
+        <v>11399</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="5"/>
@@ -2251,19 +2257,19 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>1082D1B</v>
+        <v>1082C87</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>17313051</v>
+        <v>17312903</v>
       </c>
       <c r="J28">
         <f t="shared" si="3"/>
-        <v>535668</v>
+        <v>535372</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>535668</v>
+        <v>535372</v>
       </c>
       <c r="N28" t="s">
         <v>167</v>
@@ -2290,7 +2296,7 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>11751</v>
+        <v>11603</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="5"/>
@@ -2298,19 +2304,19 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>1082DE7</v>
+        <v>1082D53</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>17313255</v>
+        <v>17313107</v>
       </c>
       <c r="J29">
         <f t="shared" si="3"/>
-        <v>536076</v>
+        <v>535780</v>
       </c>
       <c r="K29">
         <f t="shared" si="4"/>
-        <v>536076</v>
+        <v>535780</v>
       </c>
       <c r="N29" t="s">
         <v>170</v>
@@ -2340,7 +2346,7 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>11751</v>
+        <v>11603</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="5"/>
@@ -2348,19 +2354,19 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>1082DE7</v>
+        <v>1082D53</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>17313255</v>
+        <v>17313107</v>
       </c>
       <c r="J30">
         <f t="shared" si="3"/>
-        <v>536076</v>
+        <v>535780</v>
       </c>
       <c r="K30">
         <f t="shared" si="4"/>
-        <v>536076</v>
+        <v>535780</v>
       </c>
       <c r="N30" t="s">
         <v>168</v>
@@ -2387,7 +2393,7 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>10785</v>
+        <v>10637</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="5"/>
@@ -2395,14 +2401,14 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>10C2A21</v>
+        <v>10C298D</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>17574433</v>
+        <v>17574285</v>
       </c>
       <c r="I31">
-        <v>534144</v>
+        <v>533848</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="3"/>
@@ -2410,7 +2416,7 @@
       </c>
       <c r="K31">
         <f t="shared" si="4"/>
-        <v>534144</v>
+        <v>533848</v>
       </c>
       <c r="L31">
         <v>4</v>
@@ -2434,7 +2440,7 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>10785</v>
+        <v>10637</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="5"/>
@@ -2442,14 +2448,14 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>10D2A21</v>
+        <v>10D298D</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>17639969</v>
+        <v>17639821</v>
       </c>
       <c r="I32">
-        <v>534144</v>
+        <v>533848</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="3"/>
@@ -2457,7 +2463,7 @@
       </c>
       <c r="K32">
         <f t="shared" si="4"/>
-        <v>534144</v>
+        <v>533848</v>
       </c>
       <c r="L32">
         <v>5</v>
@@ -2481,7 +2487,7 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>10785</v>
+        <v>10637</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="5"/>
@@ -2489,14 +2495,14 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>10E2A21</v>
+        <v>10E298D</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>17705505</v>
+        <v>17705357</v>
       </c>
       <c r="I33">
-        <v>534144</v>
+        <v>533848</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="3"/>
@@ -2504,7 +2510,7 @@
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
-        <v>534144</v>
+        <v>533848</v>
       </c>
       <c r="L33">
         <v>6</v>
@@ -2528,7 +2534,7 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>10785</v>
+        <v>10637</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="5"/>
@@ -2536,14 +2542,14 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>10F2A21</v>
+        <v>10F298D</v>
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>17771041</v>
+        <v>17770893</v>
       </c>
       <c r="I34">
-        <v>534144</v>
+        <v>533848</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="3"/>
@@ -2551,7 +2557,7 @@
       </c>
       <c r="K34">
         <f t="shared" si="4"/>
-        <v>534144</v>
+        <v>533848</v>
       </c>
       <c r="L34">
         <v>7</v>
@@ -2575,7 +2581,7 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>10786</v>
+        <v>10638</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="5"/>
@@ -2583,14 +2589,14 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>1002A22</v>
+        <v>100298E</v>
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>16788002</v>
+        <v>16787854</v>
       </c>
       <c r="I35">
-        <v>534145</v>
+        <v>533849</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="3"/>
@@ -2598,7 +2604,7 @@
       </c>
       <c r="K35">
         <f t="shared" si="4"/>
-        <v>534145</v>
+        <v>533849</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2622,7 +2628,7 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>10786</v>
+        <v>10638</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="5"/>
@@ -2630,14 +2636,14 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>1012A22</v>
+        <v>101298E</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>16853538</v>
+        <v>16853390</v>
       </c>
       <c r="I36">
-        <v>534145</v>
+        <v>533849</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="3"/>
@@ -2645,7 +2651,7 @@
       </c>
       <c r="K36">
         <f t="shared" si="4"/>
-        <v>534145</v>
+        <v>533849</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -2704,7 +2710,7 @@
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>12005</v>
+        <v>11857</v>
       </c>
       <c r="F38" s="1">
         <f>IF(MOD(K38-$B$5,2)=1,8+L38,L38)</f>
@@ -2712,19 +2718,19 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
-        <v>1002EE5</v>
+        <v>1002E51</v>
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
-        <v>16789221</v>
+        <v>16789073</v>
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
-        <v>536583</v>
+        <v>536287</v>
       </c>
       <c r="K38">
         <f t="shared" si="4"/>
-        <v>536583</v>
+        <v>536287</v>
       </c>
       <c r="N38" t="s">
         <v>41</v>
@@ -2751,7 +2757,7 @@
       </c>
       <c r="E39" s="1">
         <f t="shared" ref="E39:E70" si="6">IF(K39&lt;&gt;"",FLOOR((K39-MIN(K:K))/2,1),"")</f>
-        <v>11819</v>
+        <v>11671</v>
       </c>
       <c r="F39" s="1">
         <f>IF(MOD(K39-$B$5,2)=1,8+L39,L39)</f>
@@ -2759,19 +2765,19 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" ref="G39:G70" si="7">DEC2HEX(B$1*HEX2DEC(1000000) +F39*HEX2DEC(10000) +E39)</f>
-        <v>1082E2B</v>
+        <v>1082D97</v>
       </c>
       <c r="H39">
         <f t="shared" si="2"/>
-        <v>17313323</v>
+        <v>17313175</v>
       </c>
       <c r="J39">
         <f t="shared" ref="J39:J70" si="8">IF(P39&lt;&gt;"",P39*136+$B$2,IF(Q39&lt;&gt;"",Q39*136+$B$2,IF(S39&lt;&gt;"",S39*80+$B$4,"")))</f>
-        <v>536212</v>
+        <v>535916</v>
       </c>
       <c r="K39">
         <f t="shared" si="4"/>
-        <v>536212</v>
+        <v>535916</v>
       </c>
       <c r="N39" t="s">
         <v>171</v>
@@ -2801,7 +2807,7 @@
       </c>
       <c r="E40" s="1">
         <f t="shared" si="6"/>
-        <v>11819</v>
+        <v>11671</v>
       </c>
       <c r="F40" s="1">
         <f>IF(MOD(K40-$B$5,2)=1,8+L40,L40)</f>
@@ -2809,19 +2815,19 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="7"/>
-        <v>1082E2B</v>
+        <v>1082D97</v>
       </c>
       <c r="H40">
         <f t="shared" si="2"/>
-        <v>17313323</v>
+        <v>17313175</v>
       </c>
       <c r="J40">
         <f t="shared" si="8"/>
-        <v>536212</v>
+        <v>535916</v>
       </c>
       <c r="K40">
         <f t="shared" si="4"/>
-        <v>536212</v>
+        <v>535916</v>
       </c>
       <c r="N40" t="s">
         <v>172</v>
@@ -2856,7 +2862,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H41" t="e">
-        <f t="shared" ref="H39:H82" si="10">HEX2DEC(G41)</f>
+        <f t="shared" ref="H41:H82" si="10">HEX2DEC(G41)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J41" t="str">
@@ -3338,7 +3344,7 @@
       </c>
       <c r="E55" s="1">
         <f t="shared" si="6"/>
-        <v>11885</v>
+        <v>11737</v>
       </c>
       <c r="F55" s="1">
         <f>IF(MOD(K55-$B$5,2)=1,8+L55,L55)</f>
@@ -3346,19 +3352,19 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="7"/>
-        <v>1002E6D</v>
+        <v>1002DD9</v>
       </c>
       <c r="H55">
         <f t="shared" si="10"/>
-        <v>16789101</v>
+        <v>16788953</v>
       </c>
       <c r="J55">
         <f t="shared" si="8"/>
-        <v>536343</v>
+        <v>536047</v>
       </c>
       <c r="K55">
         <f t="shared" si="4"/>
-        <v>536343</v>
+        <v>536047</v>
       </c>
       <c r="N55" t="s">
         <v>173</v>
@@ -3630,7 +3636,7 @@
       </c>
       <c r="E63" s="1">
         <f t="shared" si="6"/>
-        <v>11925</v>
+        <v>11777</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" ref="F63:F82" si="12">IF(MOD(K63-$B$5,2)=1,8+L63,L63)</f>
@@ -3638,19 +3644,19 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="7"/>
-        <v>1002E95</v>
+        <v>1002E01</v>
       </c>
       <c r="H63">
         <f t="shared" si="10"/>
-        <v>16789141</v>
+        <v>16788993</v>
       </c>
       <c r="J63">
         <f t="shared" si="8"/>
-        <v>536423</v>
+        <v>536127</v>
       </c>
       <c r="K63">
         <f t="shared" si="4"/>
-        <v>536423</v>
+        <v>536127</v>
       </c>
       <c r="N63" t="s">
         <v>174</v>
@@ -3677,7 +3683,7 @@
       </c>
       <c r="E64" s="1">
         <f t="shared" si="6"/>
-        <v>11003</v>
+        <v>10855</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="12"/>
@@ -3685,19 +3691,19 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="7"/>
-        <v>1082AFB</v>
+        <v>1082A67</v>
       </c>
       <c r="H64">
         <f t="shared" si="10"/>
-        <v>17312507</v>
+        <v>17312359</v>
       </c>
       <c r="J64">
         <f t="shared" si="8"/>
-        <v>534580</v>
+        <v>534284</v>
       </c>
       <c r="K64">
         <f t="shared" si="4"/>
-        <v>534580</v>
+        <v>534284</v>
       </c>
       <c r="N64" t="s">
         <v>175</v>
@@ -3724,7 +3730,7 @@
       </c>
       <c r="E65" s="1">
         <f t="shared" si="6"/>
-        <v>11071</v>
+        <v>10923</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="12"/>
@@ -3732,19 +3738,19 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="7"/>
-        <v>1082B3F</v>
+        <v>1082AAB</v>
       </c>
       <c r="H65">
         <f t="shared" si="10"/>
-        <v>17312575</v>
+        <v>17312427</v>
       </c>
       <c r="J65">
         <f t="shared" si="8"/>
-        <v>534716</v>
+        <v>534420</v>
       </c>
       <c r="K65">
         <f t="shared" si="4"/>
-        <v>534716</v>
+        <v>534420</v>
       </c>
       <c r="N65" t="s">
         <v>176</v>
@@ -3774,7 +3780,7 @@
       </c>
       <c r="E66" s="1">
         <f t="shared" si="6"/>
-        <v>11071</v>
+        <v>10923</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="12"/>
@@ -3782,19 +3788,19 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="7"/>
-        <v>1082B3F</v>
+        <v>1082AAB</v>
       </c>
       <c r="H66">
         <f t="shared" si="10"/>
-        <v>17312575</v>
+        <v>17312427</v>
       </c>
       <c r="J66">
         <f t="shared" si="8"/>
-        <v>534716</v>
+        <v>534420</v>
       </c>
       <c r="K66">
         <f t="shared" si="4"/>
-        <v>534716</v>
+        <v>534420</v>
       </c>
       <c r="N66" t="s">
         <v>177</v>
@@ -3821,7 +3827,7 @@
       </c>
       <c r="E67" s="1">
         <f t="shared" si="6"/>
-        <v>11139</v>
+        <v>10991</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="12"/>
@@ -3829,19 +3835,19 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="7"/>
-        <v>1082B83</v>
+        <v>1082AEF</v>
       </c>
       <c r="H67">
         <f t="shared" si="10"/>
-        <v>17312643</v>
+        <v>17312495</v>
       </c>
       <c r="J67">
         <f t="shared" si="8"/>
-        <v>534852</v>
+        <v>534556</v>
       </c>
       <c r="K67">
         <f t="shared" si="4"/>
-        <v>534852</v>
+        <v>534556</v>
       </c>
       <c r="N67" t="s">
         <v>178</v>
@@ -3871,7 +3877,7 @@
       </c>
       <c r="E68" s="1">
         <f t="shared" si="6"/>
-        <v>11139</v>
+        <v>10991</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="12"/>
@@ -3879,19 +3885,19 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="7"/>
-        <v>1082B83</v>
+        <v>1082AEF</v>
       </c>
       <c r="H68">
         <f t="shared" si="10"/>
-        <v>17312643</v>
+        <v>17312495</v>
       </c>
       <c r="J68">
         <f t="shared" si="8"/>
-        <v>534852</v>
+        <v>534556</v>
       </c>
       <c r="K68">
         <f t="shared" si="4"/>
-        <v>534852</v>
+        <v>534556</v>
       </c>
       <c r="N68" t="s">
         <v>179</v>
@@ -3918,7 +3924,7 @@
       </c>
       <c r="E69" s="1">
         <f t="shared" si="6"/>
-        <v>11207</v>
+        <v>11059</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="12"/>
@@ -3926,19 +3932,19 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="7"/>
-        <v>1082BC7</v>
+        <v>1082B33</v>
       </c>
       <c r="H69">
         <f t="shared" si="10"/>
-        <v>17312711</v>
+        <v>17312563</v>
       </c>
       <c r="J69">
         <f t="shared" si="8"/>
-        <v>534988</v>
+        <v>534692</v>
       </c>
       <c r="K69">
         <f t="shared" si="4"/>
-        <v>534988</v>
+        <v>534692</v>
       </c>
       <c r="N69" t="s">
         <v>180</v>
@@ -3968,7 +3974,7 @@
       </c>
       <c r="E70" s="1">
         <f t="shared" si="6"/>
-        <v>11207</v>
+        <v>11059</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="12"/>
@@ -3976,19 +3982,19 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="7"/>
-        <v>1082BC7</v>
+        <v>1082B33</v>
       </c>
       <c r="H70">
         <f t="shared" si="10"/>
-        <v>17312711</v>
+        <v>17312563</v>
       </c>
       <c r="J70">
         <f t="shared" si="8"/>
-        <v>534988</v>
+        <v>534692</v>
       </c>
       <c r="K70">
         <f t="shared" si="4"/>
-        <v>534988</v>
+        <v>534692</v>
       </c>
       <c r="N70" t="s">
         <v>181</v>
@@ -4015,22 +4021,22 @@
       </c>
       <c r="E71" s="1">
         <f t="shared" ref="E71:E82" si="13">IF(K71&lt;&gt;"",FLOOR((K71-MIN(K:K))/2,1),"")</f>
-        <v>10719</v>
+        <v>10571</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" ref="G71:G102" si="14">DEC2HEX(B$1*HEX2DEC(1000000) +F71*HEX2DEC(10000) +E71)</f>
-        <v>10A29DF</v>
+        <f t="shared" ref="G71:G82" si="14">DEC2HEX(B$1*HEX2DEC(1000000) +F71*HEX2DEC(10000) +E71)</f>
+        <v>10A294B</v>
       </c>
       <c r="H71">
         <f t="shared" si="10"/>
-        <v>17443295</v>
+        <v>17443147</v>
       </c>
       <c r="I71">
-        <v>534012</v>
+        <v>533716</v>
       </c>
       <c r="J71" t="str">
         <f t="shared" ref="J71:J82" si="15">IF(P71&lt;&gt;"",P71*136+$B$2,IF(Q71&lt;&gt;"",Q71*136+$B$2,IF(S71&lt;&gt;"",S71*80+$B$4,"")))</f>
@@ -4038,7 +4044,7 @@
       </c>
       <c r="K71">
         <f t="shared" si="4"/>
-        <v>534012</v>
+        <v>533716</v>
       </c>
       <c r="L71">
         <v>2</v>
@@ -4062,7 +4068,7 @@
       </c>
       <c r="E72" s="1">
         <f t="shared" si="13"/>
-        <v>10719</v>
+        <v>10571</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="12"/>
@@ -4070,14 +4076,14 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="14"/>
-        <v>10B29DF</v>
+        <v>10B294B</v>
       </c>
       <c r="H72">
         <f t="shared" si="10"/>
-        <v>17508831</v>
+        <v>17508683</v>
       </c>
       <c r="I72">
-        <v>534012</v>
+        <v>533716</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="15"/>
@@ -4085,7 +4091,7 @@
       </c>
       <c r="K72">
         <f t="shared" ref="K72:K82" si="16">IF(AND(I72&lt;&gt;"",D72&lt;&gt;""),I72,J72)</f>
-        <v>534012</v>
+        <v>533716</v>
       </c>
       <c r="L72">
         <v>3</v>
@@ -4109,7 +4115,7 @@
       </c>
       <c r="E73" s="1">
         <f t="shared" si="13"/>
-        <v>10719</v>
+        <v>10571</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="12"/>
@@ -4117,14 +4123,14 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="14"/>
-        <v>10C29DF</v>
+        <v>10C294B</v>
       </c>
       <c r="H73">
         <f t="shared" si="10"/>
-        <v>17574367</v>
+        <v>17574219</v>
       </c>
       <c r="I73">
-        <v>534012</v>
+        <v>533716</v>
       </c>
       <c r="J73" t="str">
         <f t="shared" si="15"/>
@@ -4132,7 +4138,7 @@
       </c>
       <c r="K73">
         <f t="shared" si="16"/>
-        <v>534012</v>
+        <v>533716</v>
       </c>
       <c r="L73">
         <v>4</v>
@@ -4156,7 +4162,7 @@
       </c>
       <c r="E74" s="1">
         <f t="shared" si="13"/>
-        <v>10719</v>
+        <v>10571</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="12"/>
@@ -4164,14 +4170,14 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="14"/>
-        <v>10D29DF</v>
+        <v>10D294B</v>
       </c>
       <c r="H74">
         <f t="shared" si="10"/>
-        <v>17639903</v>
+        <v>17639755</v>
       </c>
       <c r="I74">
-        <v>534012</v>
+        <v>533716</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="15"/>
@@ -4179,7 +4185,7 @@
       </c>
       <c r="K74">
         <f t="shared" si="16"/>
-        <v>534012</v>
+        <v>533716</v>
       </c>
       <c r="L74">
         <v>5</v>
@@ -4203,7 +4209,7 @@
       </c>
       <c r="E75" s="1">
         <f t="shared" si="13"/>
-        <v>10719</v>
+        <v>10571</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="12"/>
@@ -4211,14 +4217,14 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="14"/>
-        <v>10E29DF</v>
+        <v>10E294B</v>
       </c>
       <c r="H75">
         <f t="shared" si="10"/>
-        <v>17705439</v>
+        <v>17705291</v>
       </c>
       <c r="I75">
-        <v>534012</v>
+        <v>533716</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="15"/>
@@ -4226,7 +4232,7 @@
       </c>
       <c r="K75">
         <f t="shared" si="16"/>
-        <v>534012</v>
+        <v>533716</v>
       </c>
       <c r="L75">
         <v>6</v>
@@ -4250,7 +4256,7 @@
       </c>
       <c r="E76" s="1">
         <f t="shared" si="13"/>
-        <v>10719</v>
+        <v>10571</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="12"/>
@@ -4258,14 +4264,14 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="14"/>
-        <v>10F29DF</v>
+        <v>10F294B</v>
       </c>
       <c r="H76">
         <f t="shared" si="10"/>
-        <v>17770975</v>
+        <v>17770827</v>
       </c>
       <c r="I76">
-        <v>534012</v>
+        <v>533716</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="15"/>
@@ -4273,7 +4279,7 @@
       </c>
       <c r="K76">
         <f t="shared" si="16"/>
-        <v>534012</v>
+        <v>533716</v>
       </c>
       <c r="L76">
         <v>7</v>
@@ -4297,22 +4303,22 @@
       </c>
       <c r="E77" s="1">
         <f t="shared" si="13"/>
-        <v>10719</v>
+        <v>10572</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="14"/>
-        <v>10829DF</v>
+        <v>100294C</v>
       </c>
       <c r="H77">
         <f t="shared" si="10"/>
-        <v>17312223</v>
+        <v>16787788</v>
       </c>
       <c r="I77">
-        <v>534012</v>
+        <v>533717</v>
       </c>
       <c r="J77" t="str">
         <f t="shared" si="15"/>
@@ -4320,7 +4326,7 @@
       </c>
       <c r="K77">
         <f t="shared" si="16"/>
-        <v>534012</v>
+        <v>533717</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -4344,7 +4350,7 @@
       </c>
       <c r="E78" s="1">
         <f t="shared" si="13"/>
-        <v>10720</v>
+        <v>10572</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="12"/>
@@ -4352,14 +4358,14 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="14"/>
-        <v>10129E0</v>
+        <v>101294C</v>
       </c>
       <c r="H78">
         <f t="shared" si="10"/>
-        <v>16853472</v>
+        <v>16853324</v>
       </c>
       <c r="I78">
-        <v>534013</v>
+        <v>533717</v>
       </c>
       <c r="J78" t="str">
         <f t="shared" si="15"/>
@@ -4367,7 +4373,7 @@
       </c>
       <c r="K78">
         <f t="shared" si="16"/>
-        <v>534013</v>
+        <v>533717</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -4391,7 +4397,7 @@
       </c>
       <c r="E79" s="1">
         <f t="shared" si="13"/>
-        <v>10720</v>
+        <v>10572</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="12"/>
@@ -4399,14 +4405,14 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="14"/>
-        <v>10229E0</v>
+        <v>102294C</v>
       </c>
       <c r="H79">
         <f t="shared" si="10"/>
-        <v>16919008</v>
+        <v>16918860</v>
       </c>
       <c r="I79">
-        <v>534013</v>
+        <v>533717</v>
       </c>
       <c r="J79" t="str">
         <f t="shared" si="15"/>
@@ -4414,7 +4420,7 @@
       </c>
       <c r="K79">
         <f t="shared" si="16"/>
-        <v>534013</v>
+        <v>533717</v>
       </c>
       <c r="L79">
         <v>2</v>
@@ -4438,7 +4444,7 @@
       </c>
       <c r="E80" s="1">
         <f t="shared" si="13"/>
-        <v>10720</v>
+        <v>10572</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="12"/>
@@ -4446,14 +4452,14 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="14"/>
-        <v>10329E0</v>
+        <v>103294C</v>
       </c>
       <c r="H80">
         <f t="shared" si="10"/>
-        <v>16984544</v>
+        <v>16984396</v>
       </c>
       <c r="I80">
-        <v>534013</v>
+        <v>533717</v>
       </c>
       <c r="J80" t="str">
         <f t="shared" si="15"/>
@@ -4461,7 +4467,7 @@
       </c>
       <c r="K80">
         <f t="shared" si="16"/>
-        <v>534013</v>
+        <v>533717</v>
       </c>
       <c r="L80">
         <v>3</v>
@@ -4485,7 +4491,7 @@
       </c>
       <c r="E81" s="1">
         <f t="shared" si="13"/>
-        <v>10720</v>
+        <v>10572</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="12"/>
@@ -4493,14 +4499,14 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="14"/>
-        <v>10429E0</v>
+        <v>104294C</v>
       </c>
       <c r="H81">
         <f t="shared" si="10"/>
-        <v>17050080</v>
+        <v>17049932</v>
       </c>
       <c r="I81">
-        <v>534013</v>
+        <v>533717</v>
       </c>
       <c r="J81" t="str">
         <f t="shared" si="15"/>
@@ -4508,7 +4514,7 @@
       </c>
       <c r="K81">
         <f t="shared" si="16"/>
-        <v>534013</v>
+        <v>533717</v>
       </c>
       <c r="L81">
         <v>4</v>
@@ -4532,7 +4538,7 @@
       </c>
       <c r="E82" s="1">
         <f t="shared" si="13"/>
-        <v>10720</v>
+        <v>10572</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="12"/>
@@ -4540,14 +4546,14 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="14"/>
-        <v>10529E0</v>
+        <v>105294C</v>
       </c>
       <c r="H82">
         <f t="shared" si="10"/>
-        <v>17115616</v>
+        <v>17115468</v>
       </c>
       <c r="I82">
-        <v>534013</v>
+        <v>533717</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" si="15"/>
@@ -4555,7 +4561,7 @@
       </c>
       <c r="K82">
         <f t="shared" si="16"/>
-        <v>534013</v>
+        <v>533717</v>
       </c>
       <c r="L82">
         <v>5</v>
@@ -4583,10 +4589,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBFD5AD-95E3-457F-903E-F0D470C50CCA}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4621,7 +4627,7 @@
         <v>146</v>
       </c>
       <c r="B2">
-        <v>534170</v>
+        <v>533874</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -4704,7 +4710,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E49" si="0">IF(K5&lt;&gt;"",FLOOR((K5-MIN(K:K))/2,1),"")</f>
-        <v>10798</v>
+        <v>10650</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ref="F5:F11" si="1">IF(MOD(K5-$B$3,2)=1,8+L5,L5)</f>
@@ -4712,19 +4718,19 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5:G49" si="2">DEC2HEX(B$1*HEX2DEC(1000000) +F5*HEX2DEC(10000) +E5)</f>
-        <v>2082A2E</v>
+        <v>208299A</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H49" si="3">HEX2DEC(G5)</f>
-        <v>34089518</v>
+        <v>34089370</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J49" si="4">IF(P5&lt;&gt;"",$B$2+P5*136,"")</f>
-        <v>534170</v>
+        <v>533874</v>
       </c>
       <c r="K5">
         <f t="shared" ref="K5:K49" si="5">IF(I5&lt;&gt;"",I5,J5)</f>
-        <v>534170</v>
+        <v>533874</v>
       </c>
       <c r="M5" t="s">
         <v>60</v>
@@ -4754,7 +4760,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>10866</v>
+        <v>10718</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
@@ -4762,19 +4768,19 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
-        <v>2082A72</v>
+        <v>20829DE</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>34089586</v>
+        <v>34089438</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>534306</v>
+        <v>534010</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
-        <v>534306</v>
+        <v>534010</v>
       </c>
       <c r="M6" t="s">
         <v>61</v>
@@ -4804,7 +4810,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>10934</v>
+        <v>10786</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
@@ -4812,19 +4818,19 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="2"/>
-        <v>2082AB6</v>
+        <v>2082A22</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>34089654</v>
+        <v>34089506</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>534442</v>
+        <v>534146</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>534442</v>
+        <v>534146</v>
       </c>
       <c r="M7" t="s">
         <v>62</v>
@@ -4854,7 +4860,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>11002</v>
+        <v>10854</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
@@ -4862,19 +4868,19 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="2"/>
-        <v>2082AFA</v>
+        <v>2082A66</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>34089722</v>
+        <v>34089574</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>534578</v>
+        <v>534282</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>534578</v>
+        <v>534282</v>
       </c>
       <c r="M8" t="s">
         <v>63</v>
@@ -4904,7 +4910,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>11070</v>
+        <v>10922</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
@@ -4912,19 +4918,19 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="2"/>
-        <v>2082B3E</v>
+        <v>2082AAA</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>34089790</v>
+        <v>34089642</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>534714</v>
+        <v>534418</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>534714</v>
+        <v>534418</v>
       </c>
       <c r="M9" t="s">
         <v>64</v>
@@ -4954,7 +4960,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>11138</v>
+        <v>10990</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
@@ -4962,19 +4968,19 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="2"/>
-        <v>2082B82</v>
+        <v>2082AEE</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>34089858</v>
+        <v>34089710</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>534850</v>
+        <v>534554</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>534850</v>
+        <v>534554</v>
       </c>
       <c r="M10" t="s">
         <v>65</v>
@@ -5086,7 +5092,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>10719</v>
+        <v>10571</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ref="F13:F25" si="6">IF(MOD(K13-$B$3,2)=1,8+L13,L13)</f>
@@ -5094,14 +5100,14 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="2"/>
-        <v>20029DF</v>
+        <v>200294B</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>33565151</v>
+        <v>33565003</v>
       </c>
       <c r="I13">
-        <v>534011</v>
+        <v>533715</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="4"/>
@@ -5109,7 +5115,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
-        <v>534011</v>
+        <v>533715</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -5133,7 +5139,7 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>10719</v>
+        <v>10571</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="6"/>
@@ -5141,14 +5147,14 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="2"/>
-        <v>20129DF</v>
+        <v>201294B</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>33630687</v>
+        <v>33630539</v>
       </c>
       <c r="I14">
-        <v>534011</v>
+        <v>533715</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="4"/>
@@ -5156,7 +5162,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
-        <v>534011</v>
+        <v>533715</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -5180,7 +5186,7 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>10719</v>
+        <v>10571</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="6"/>
@@ -5188,14 +5194,14 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="2"/>
-        <v>20229DF</v>
+        <v>202294B</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>33696223</v>
+        <v>33696075</v>
       </c>
       <c r="I15">
-        <v>534011</v>
+        <v>533715</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="4"/>
@@ -5203,7 +5209,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
-        <v>534011</v>
+        <v>533715</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -5227,7 +5233,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>10719</v>
+        <v>10571</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="6"/>
@@ -5235,14 +5241,14 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="2"/>
-        <v>20329DF</v>
+        <v>203294B</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>33761759</v>
+        <v>33761611</v>
       </c>
       <c r="I16">
-        <v>534011</v>
+        <v>533715</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="4"/>
@@ -5250,7 +5256,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
-        <v>534011</v>
+        <v>533715</v>
       </c>
       <c r="L16">
         <v>3</v>
@@ -5274,7 +5280,7 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>10719</v>
+        <v>10571</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="6"/>
@@ -5282,14 +5288,14 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="2"/>
-        <v>20429DF</v>
+        <v>204294B</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>33827295</v>
+        <v>33827147</v>
       </c>
       <c r="I17">
-        <v>534011</v>
+        <v>533715</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="4"/>
@@ -5297,7 +5303,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
-        <v>534011</v>
+        <v>533715</v>
       </c>
       <c r="L17">
         <v>4</v>
@@ -5321,7 +5327,7 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>10719</v>
+        <v>10571</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="6"/>
@@ -5329,14 +5335,14 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="2"/>
-        <v>20529DF</v>
+        <v>205294B</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>33892831</v>
+        <v>33892683</v>
       </c>
       <c r="I18">
-        <v>534011</v>
+        <v>533715</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="4"/>
@@ -5344,7 +5350,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>534011</v>
+        <v>533715</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -5368,7 +5374,7 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>10719</v>
+        <v>10571</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="6"/>
@@ -5376,14 +5382,14 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>20629DF</v>
+        <v>206294B</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>33958367</v>
+        <v>33958219</v>
       </c>
       <c r="I19">
-        <v>534011</v>
+        <v>533715</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="4"/>
@@ -5391,7 +5397,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>534011</v>
+        <v>533715</v>
       </c>
       <c r="L19">
         <v>6</v>
@@ -5415,7 +5421,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>10719</v>
+        <v>10571</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="6"/>
@@ -5423,14 +5429,14 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v>20729DF</v>
+        <v>207294B</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>34023903</v>
+        <v>34023755</v>
       </c>
       <c r="I20">
-        <v>534011</v>
+        <v>533715</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="4"/>
@@ -5438,7 +5444,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>534011</v>
+        <v>533715</v>
       </c>
       <c r="L20">
         <v>7</v>
@@ -5462,7 +5468,7 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>11614</v>
+        <v>11466</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="6"/>
@@ -5470,19 +5476,19 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>2082D5E</v>
+        <v>2082CCA</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>34090334</v>
+        <v>34090186</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>535802</v>
+        <v>535506</v>
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
-        <v>535802</v>
+        <v>535506</v>
       </c>
       <c r="M21" t="s">
         <v>75</v>
@@ -5512,7 +5518,7 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>11682</v>
+        <v>11534</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="6"/>
@@ -5520,19 +5526,19 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>2082DA2</v>
+        <v>2082D0E</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>34090402</v>
+        <v>34090254</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>535938</v>
+        <v>535642</v>
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
-        <v>535938</v>
+        <v>535642</v>
       </c>
       <c r="M22" t="s">
         <v>76</v>
@@ -5562,7 +5568,7 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>11750</v>
+        <v>11602</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="6"/>
@@ -5570,19 +5576,19 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>2082DE6</v>
+        <v>2082D52</v>
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
-        <v>34090470</v>
+        <v>34090322</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>536074</v>
+        <v>535778</v>
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
-        <v>536074</v>
+        <v>535778</v>
       </c>
       <c r="M23" t="s">
         <v>77</v>
@@ -5612,7 +5618,7 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>11818</v>
+        <v>11670</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="6"/>
@@ -5620,19 +5626,19 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>2082E2A</v>
+        <v>2082D96</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>34090538</v>
+        <v>34090390</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>536210</v>
+        <v>535914</v>
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
-        <v>536210</v>
+        <v>535914</v>
       </c>
       <c r="M24" t="s">
         <v>78</v>
@@ -5662,7 +5668,7 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>11206</v>
+        <v>11058</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="6"/>
@@ -5670,19 +5676,19 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>2082BC6</v>
+        <v>2082B32</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>34089926</v>
+        <v>34089778</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>534986</v>
+        <v>534690</v>
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
-        <v>534986</v>
+        <v>534690</v>
       </c>
       <c r="M25" t="s">
         <v>79</v>
@@ -5958,7 +5964,7 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>11274</v>
+        <v>11126</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" ref="F32:F49" si="8">IF(MOD(K32-$B$3,2)=1,8+L32,L32)</f>
@@ -5966,19 +5972,19 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>2082C0A</v>
+        <v>2082B76</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
-        <v>34089994</v>
+        <v>34089846</v>
       </c>
       <c r="J32">
         <f t="shared" si="4"/>
-        <v>535122</v>
+        <v>534826</v>
       </c>
       <c r="K32">
         <f t="shared" si="5"/>
-        <v>535122</v>
+        <v>534826</v>
       </c>
       <c r="M32" t="s">
         <v>91</v>
@@ -6008,7 +6014,7 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>11342</v>
+        <v>11194</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="8"/>
@@ -6016,19 +6022,19 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
-        <v>2082C4E</v>
+        <v>2082BBA</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
-        <v>34090062</v>
+        <v>34089914</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>535258</v>
+        <v>534962</v>
       </c>
       <c r="K33">
         <f t="shared" si="5"/>
-        <v>535258</v>
+        <v>534962</v>
       </c>
       <c r="M33" t="s">
         <v>92</v>
@@ -6058,7 +6064,7 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>11410</v>
+        <v>11262</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="8"/>
@@ -6066,19 +6072,19 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
-        <v>2082C92</v>
+        <v>2082BFE</v>
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
-        <v>34090130</v>
+        <v>34089982</v>
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
-        <v>535394</v>
+        <v>535098</v>
       </c>
       <c r="K34">
         <f t="shared" si="5"/>
-        <v>535394</v>
+        <v>535098</v>
       </c>
       <c r="M34" t="s">
         <v>93</v>
@@ -6108,7 +6114,7 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>11478</v>
+        <v>11330</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="8"/>
@@ -6116,19 +6122,19 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>2082CD6</v>
+        <v>2082C42</v>
       </c>
       <c r="H35">
         <f t="shared" si="3"/>
-        <v>34090198</v>
+        <v>34090050</v>
       </c>
       <c r="J35">
         <f t="shared" si="4"/>
-        <v>535530</v>
+        <v>535234</v>
       </c>
       <c r="K35">
         <f t="shared" si="5"/>
-        <v>535530</v>
+        <v>535234</v>
       </c>
       <c r="M35" t="s">
         <v>94</v>
@@ -6158,7 +6164,7 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>11546</v>
+        <v>11398</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="8"/>
@@ -6166,19 +6172,19 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
-        <v>2082D1A</v>
+        <v>2082C86</v>
       </c>
       <c r="H36">
         <f t="shared" si="3"/>
-        <v>34090266</v>
+        <v>34090118</v>
       </c>
       <c r="J36">
         <f t="shared" si="4"/>
-        <v>535666</v>
+        <v>535370</v>
       </c>
       <c r="K36">
         <f t="shared" si="5"/>
-        <v>535666</v>
+        <v>535370</v>
       </c>
       <c r="M36" t="s">
         <v>95</v>
@@ -6584,7 +6590,7 @@
       </c>
       <c r="E45" s="1">
         <f t="shared" si="0"/>
-        <v>10719</v>
+        <v>10571</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="8"/>
@@ -6592,14 +6598,14 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>20829DF</v>
+        <v>208294B</v>
       </c>
       <c r="H45">
         <f t="shared" si="3"/>
-        <v>34089439</v>
+        <v>34089291</v>
       </c>
       <c r="I45">
-        <v>534012</v>
+        <v>533716</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="4"/>
@@ -6607,7 +6613,7 @@
       </c>
       <c r="K45">
         <f t="shared" si="5"/>
-        <v>534012</v>
+        <v>533716</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -6631,7 +6637,7 @@
       </c>
       <c r="E46" s="1">
         <f t="shared" si="0"/>
-        <v>10719</v>
+        <v>10571</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="8"/>
@@ -6639,14 +6645,14 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>20929DF</v>
+        <v>209294B</v>
       </c>
       <c r="H46">
         <f t="shared" si="3"/>
-        <v>34154975</v>
+        <v>34154827</v>
       </c>
       <c r="I46">
-        <v>534012</v>
+        <v>533716</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="4"/>
@@ -6654,7 +6660,7 @@
       </c>
       <c r="K46">
         <f t="shared" si="5"/>
-        <v>534012</v>
+        <v>533716</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -6678,7 +6684,7 @@
       </c>
       <c r="E47" s="1">
         <f t="shared" si="0"/>
-        <v>10720</v>
+        <v>10572</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="8"/>
@@ -6686,14 +6692,14 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>20629E0</v>
+        <v>206294C</v>
       </c>
       <c r="H47">
         <f t="shared" si="3"/>
-        <v>33958368</v>
+        <v>33958220</v>
       </c>
       <c r="I47">
-        <v>534013</v>
+        <v>533717</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="4"/>
@@ -6701,7 +6707,7 @@
       </c>
       <c r="K47">
         <f t="shared" si="5"/>
-        <v>534013</v>
+        <v>533717</v>
       </c>
       <c r="L47">
         <v>6</v>
@@ -6725,7 +6731,7 @@
       </c>
       <c r="E48" s="1">
         <f t="shared" si="0"/>
-        <v>10720</v>
+        <v>10572</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="8"/>
@@ -6733,14 +6739,14 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>20729E0</v>
+        <v>207294C</v>
       </c>
       <c r="H48">
         <f t="shared" si="3"/>
-        <v>34023904</v>
+        <v>34023756</v>
       </c>
       <c r="I48">
-        <v>534013</v>
+        <v>533717</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="4"/>
@@ -6748,7 +6754,7 @@
       </c>
       <c r="K48">
         <f t="shared" si="5"/>
-        <v>534013</v>
+        <v>533717</v>
       </c>
       <c r="L48">
         <v>7</v>
@@ -6757,7 +6763,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44</v>
       </c>
@@ -6772,7 +6778,7 @@
       </c>
       <c r="E49" s="1">
         <f t="shared" si="0"/>
-        <v>10720</v>
+        <v>10572</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="8"/>
@@ -6780,14 +6786,14 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
-        <v>20829E0</v>
+        <v>208294C</v>
       </c>
       <c r="H49">
         <f t="shared" si="3"/>
-        <v>34089440</v>
+        <v>34089292</v>
       </c>
       <c r="I49">
-        <v>534014</v>
+        <v>533718</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="4"/>
@@ -6795,13 +6801,23 @@
       </c>
       <c r="K49">
         <f t="shared" si="5"/>
-        <v>534014</v>
+        <v>533718</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="N49" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
